--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -13,14 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
-    <sheet name="SYSTEM_CONF" sheetId="2" r:id="rId2"/>
+    <sheet name="TEN_MST" sheetId="3" r:id="rId2"/>
+    <sheet name="DRUG_DAY_LIMIT" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="263">
   <si>
     <t>HP_ID</t>
   </si>
@@ -254,22 +255,562 @@
     <t>DESKTOP-UIODNV1</t>
   </si>
   <si>
-    <t>GRP_CD</t>
-  </si>
-  <si>
-    <t>GRP_EDA_NO</t>
-  </si>
-  <si>
-    <t>VAL</t>
-  </si>
-  <si>
-    <t>PARAM</t>
-  </si>
-  <si>
-    <t>BIKO</t>
-  </si>
-  <si>
-    <t>DESKTOP-5C5RGJO</t>
+    <t>ITEM_CD</t>
+  </si>
+  <si>
+    <t>END_DATE</t>
+  </si>
+  <si>
+    <t>MASTER_SBT</t>
+  </si>
+  <si>
+    <t>SIN_KOUI_KBN</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>KANA_NAME1</t>
+  </si>
+  <si>
+    <t>KANA_NAME2</t>
+  </si>
+  <si>
+    <t>KANA_NAME3</t>
+  </si>
+  <si>
+    <t>KANA_NAME4</t>
+  </si>
+  <si>
+    <t>KANA_NAME5</t>
+  </si>
+  <si>
+    <t>KANA_NAME6</t>
+  </si>
+  <si>
+    <t>KANA_NAME7</t>
+  </si>
+  <si>
+    <t>RYOSYU_NAME</t>
+  </si>
+  <si>
+    <t>RECE_NAME</t>
+  </si>
+  <si>
+    <t>TEN_ID</t>
+  </si>
+  <si>
+    <t>TEN</t>
+  </si>
+  <si>
+    <t>RECE_UNIT_CD</t>
+  </si>
+  <si>
+    <t>RECE_UNIT_NAME</t>
+  </si>
+  <si>
+    <t>ODR_UNIT_NAME</t>
+  </si>
+  <si>
+    <t>CNV_UNIT_NAME</t>
+  </si>
+  <si>
+    <t>ODR_TERM_VAL</t>
+  </si>
+  <si>
+    <t>CNV_TERM_VAL</t>
+  </si>
+  <si>
+    <t>DEFAULT_VAL</t>
+  </si>
+  <si>
+    <t>IS_ADOPTED</t>
+  </si>
+  <si>
+    <t>KOUKI_KBN</t>
+  </si>
+  <si>
+    <t>HOKATU_KENSA</t>
+  </si>
+  <si>
+    <t>BYOMEI_KBN</t>
+  </si>
+  <si>
+    <t>IGAKUKANRI</t>
+  </si>
+  <si>
+    <t>JITUDAY_COUNT</t>
+  </si>
+  <si>
+    <t>JITUDAY</t>
+  </si>
+  <si>
+    <t>DAY_COUNT</t>
+  </si>
+  <si>
+    <t>DRUG_KANREN_KBN</t>
+  </si>
+  <si>
+    <t>KIZAMI_ID</t>
+  </si>
+  <si>
+    <t>KIZAMI_MIN</t>
+  </si>
+  <si>
+    <t>KIZAMI_MAX</t>
+  </si>
+  <si>
+    <t>KIZAMI_VAL</t>
+  </si>
+  <si>
+    <t>KIZAMI_TEN</t>
+  </si>
+  <si>
+    <t>KIZAMI_ERR</t>
+  </si>
+  <si>
+    <t>MAX_COUNT</t>
+  </si>
+  <si>
+    <t>MAX_COUNT_ERR</t>
+  </si>
+  <si>
+    <t>TYU_CD</t>
+  </si>
+  <si>
+    <t>TYU_SEQ</t>
+  </si>
+  <si>
+    <t>TUSOKU_AGE</t>
+  </si>
+  <si>
+    <t>MIN_AGE</t>
+  </si>
+  <si>
+    <t>MAX_AGE</t>
+  </si>
+  <si>
+    <t>TIME_KASAN_KBN</t>
+  </si>
+  <si>
+    <t>FUTEKI_KBN</t>
+  </si>
+  <si>
+    <t>FUTEKI_SISETU_KBN</t>
+  </si>
+  <si>
+    <t>SYOTI_NYUYOJI_KBN</t>
+  </si>
+  <si>
+    <t>LOW_WEIGHT_KBN</t>
+  </si>
+  <si>
+    <t>HANDAN_KBN</t>
+  </si>
+  <si>
+    <t>HANDAN_GRP_KBN</t>
+  </si>
+  <si>
+    <t>TEIGEN_KBN</t>
+  </si>
+  <si>
+    <t>SEKITUI_KBN</t>
+  </si>
+  <si>
+    <t>KEIBU_KBN</t>
+  </si>
+  <si>
+    <t>AUTO_HOUGOU_KBN</t>
+  </si>
+  <si>
+    <t>GAIRAI_KANRI_KBN</t>
+  </si>
+  <si>
+    <t>TUSOKU_TARGET_KBN</t>
+  </si>
+  <si>
+    <t>HOKATU_KBN</t>
+  </si>
+  <si>
+    <t>TYOONPA_NAISI_KBN</t>
+  </si>
+  <si>
+    <t>AUTO_FUNGO_KBN</t>
+  </si>
+  <si>
+    <t>TYOONPA_GYOKO_KBN</t>
+  </si>
+  <si>
+    <t>GAZO_KASAN</t>
+  </si>
+  <si>
+    <t>KANSATU_KBN</t>
+  </si>
+  <si>
+    <t>MASUI_KBN</t>
+  </si>
+  <si>
+    <t>FUKUBIKU_NAISI_KASAN</t>
+  </si>
+  <si>
+    <t>FUKUBIKU_KOTUNAN_KASAN</t>
+  </si>
+  <si>
+    <t>MASUI_KASAN</t>
+  </si>
+  <si>
+    <t>MONITER_KASAN</t>
+  </si>
+  <si>
+    <t>TOKETU_KASAN</t>
+  </si>
+  <si>
+    <t>TEN_KBN_NO</t>
+  </si>
+  <si>
+    <t>SHORTSTAY_OPE</t>
+  </si>
+  <si>
+    <t>BUI_KBN</t>
+  </si>
+  <si>
+    <t>SISETUCD1</t>
+  </si>
+  <si>
+    <t>SISETUCD2</t>
+  </si>
+  <si>
+    <t>SISETUCD3</t>
+  </si>
+  <si>
+    <t>SISETUCD4</t>
+  </si>
+  <si>
+    <t>SISETUCD5</t>
+  </si>
+  <si>
+    <t>SISETUCD6</t>
+  </si>
+  <si>
+    <t>SISETUCD7</t>
+  </si>
+  <si>
+    <t>SISETUCD8</t>
+  </si>
+  <si>
+    <t>SISETUCD9</t>
+  </si>
+  <si>
+    <t>SISETUCD10</t>
+  </si>
+  <si>
+    <t>AGEKASAN_MIN1</t>
+  </si>
+  <si>
+    <t>AGEKASAN_MAX1</t>
+  </si>
+  <si>
+    <t>AGEKASAN_CD1</t>
+  </si>
+  <si>
+    <t>AGEKASAN_MIN2</t>
+  </si>
+  <si>
+    <t>AGEKASAN_MAX2</t>
+  </si>
+  <si>
+    <t>AGEKASAN_CD2</t>
+  </si>
+  <si>
+    <t>AGEKASAN_MIN3</t>
+  </si>
+  <si>
+    <t>AGEKASAN_MAX3</t>
+  </si>
+  <si>
+    <t>AGEKASAN_CD3</t>
+  </si>
+  <si>
+    <t>AGEKASAN_MIN4</t>
+  </si>
+  <si>
+    <t>AGEKASAN_MAX4</t>
+  </si>
+  <si>
+    <t>AGEKASAN_CD4</t>
+  </si>
+  <si>
+    <t>KENSA_CMT</t>
+  </si>
+  <si>
+    <t>MADOKU_KBN</t>
+  </si>
+  <si>
+    <t>SINKEI_KBN</t>
+  </si>
+  <si>
+    <t>SEIBUTU_KBN</t>
+  </si>
+  <si>
+    <t>ZOUEI_KBN</t>
+  </si>
+  <si>
+    <t>DRUG_KBN</t>
+  </si>
+  <si>
+    <t>ZAI_KBN</t>
+  </si>
+  <si>
+    <t>CAPACITY</t>
+  </si>
+  <si>
+    <t>KOHATU_KBN</t>
+  </si>
+  <si>
+    <t>TOKUZAI_AGE_KBN</t>
+  </si>
+  <si>
+    <t>SANSO_KBN</t>
+  </si>
+  <si>
+    <t>TOKUZAI_SBT</t>
+  </si>
+  <si>
+    <t>MAX_PRICE</t>
+  </si>
+  <si>
+    <t>MAX_TEN</t>
+  </si>
+  <si>
+    <t>SYUKEI_SAKI</t>
+  </si>
+  <si>
+    <t>CD_KBN</t>
+  </si>
+  <si>
+    <t>CD_SYO</t>
+  </si>
+  <si>
+    <t>CD_BU</t>
+  </si>
+  <si>
+    <t>CD_KBNNO</t>
+  </si>
+  <si>
+    <t>CD_EDANO</t>
+  </si>
+  <si>
+    <t>CD_KOUNO</t>
+  </si>
+  <si>
+    <t>KOKUJI_KBN</t>
+  </si>
+  <si>
+    <t>KOKUJI_SYO</t>
+  </si>
+  <si>
+    <t>KOKUJI_BU</t>
+  </si>
+  <si>
+    <t>KOKUJI_KBN_NO</t>
+  </si>
+  <si>
+    <t>KOKUJI_EDA_NO</t>
+  </si>
+  <si>
+    <t>KOKUJI_KOU_NO</t>
+  </si>
+  <si>
+    <t>KOKUJI1</t>
+  </si>
+  <si>
+    <t>KOKUJI2</t>
+  </si>
+  <si>
+    <t>KOHYO_JUN</t>
+  </si>
+  <si>
+    <t>YJ_CD</t>
+  </si>
+  <si>
+    <t>YAKKA_CD</t>
+  </si>
+  <si>
+    <t>SYUSAI_SBT</t>
+  </si>
+  <si>
+    <t>SYOHIN_KANREN</t>
+  </si>
+  <si>
+    <t>UPD_DATE</t>
+  </si>
+  <si>
+    <t>DEL_DATE</t>
+  </si>
+  <si>
+    <t>KEIKA_DATE</t>
+  </si>
+  <si>
+    <t>ROUSAI_KBN</t>
+  </si>
+  <si>
+    <t>SISI_KBN</t>
+  </si>
+  <si>
+    <t>SHOT_CNT</t>
+  </si>
+  <si>
+    <t>IS_NOSEARCH</t>
+  </si>
+  <si>
+    <t>IS_NODSP_PAPER_RECE</t>
+  </si>
+  <si>
+    <t>IS_NODSP_RYOSYU</t>
+  </si>
+  <si>
+    <t>JIHI_SBT</t>
+  </si>
+  <si>
+    <t>KAZEI_KBN</t>
+  </si>
+  <si>
+    <t>YOHO_KBN</t>
+  </si>
+  <si>
+    <t>IPN_NAME_CD</t>
+  </si>
+  <si>
+    <t>FUKUYO_RISE</t>
+  </si>
+  <si>
+    <t>FUKUYO_MORNING</t>
+  </si>
+  <si>
+    <t>FUKUYO_DAYTIME</t>
+  </si>
+  <si>
+    <t>FUKUYO_NIGHT</t>
+  </si>
+  <si>
+    <t>FUKUYO_SLEEP</t>
+  </si>
+  <si>
+    <t>SURYO_ROUNDUP_KBN</t>
+  </si>
+  <si>
+    <t>KOUSEISIN_KBN</t>
+  </si>
+  <si>
+    <t>SANTEI_ITEM_CD</t>
+  </si>
+  <si>
+    <t>SANTEIGAI_KBN</t>
+  </si>
+  <si>
+    <t>KENSA_ITEM_CD</t>
+  </si>
+  <si>
+    <t>KENSA_ITEM_SEQ_NO</t>
+  </si>
+  <si>
+    <t>RENKEI_CD1</t>
+  </si>
+  <si>
+    <t>RENKEI_CD2</t>
+  </si>
+  <si>
+    <t>SAIKETU_KBN</t>
+  </si>
+  <si>
+    <t>CMT_KBN</t>
+  </si>
+  <si>
+    <t>CMT_COL1</t>
+  </si>
+  <si>
+    <t>CMT_COL_KETA1</t>
+  </si>
+  <si>
+    <t>CMT_COL2</t>
+  </si>
+  <si>
+    <t>CMT_COL_KETA2</t>
+  </si>
+  <si>
+    <t>CMT_COL3</t>
+  </si>
+  <si>
+    <t>CMT_COL_KETA3</t>
+  </si>
+  <si>
+    <t>CMT_COL4</t>
+  </si>
+  <si>
+    <t>CMT_COL_KETA4</t>
+  </si>
+  <si>
+    <t>SELECT_CMT_ID</t>
+  </si>
+  <si>
+    <t>CHUSYA_DRUG_SBT</t>
+  </si>
+  <si>
+    <t>KENSA_FUKUSU_SANTEI</t>
+  </si>
+  <si>
+    <t>AGE_CHECK</t>
+  </si>
+  <si>
+    <t>KOKUJI_BETUNO</t>
+  </si>
+  <si>
+    <t>KOKUJI_KBNNO</t>
+  </si>
+  <si>
+    <t>CMT_SBT</t>
+  </si>
+  <si>
+    <t>IS_NODSP_YAKUTAI</t>
+  </si>
+  <si>
+    <t>ZAIKEI_POINT</t>
+  </si>
+  <si>
+    <t>KENSA_LABEL</t>
+  </si>
+  <si>
+    <t>GAIRAI_KANSEN</t>
+  </si>
+  <si>
+    <t>JIBI_AGE_KASAN</t>
+  </si>
+  <si>
+    <t>JIBI_SYONIKOKIN</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>・ｼ・・ｽ・・ｽ・・・ｻ・・ｫ・・ｷ・・ｳ・・</t>
+  </si>
+  <si>
+    <t>5MG・ｽｾ・ｾ・・ｽｼ・ｾ・・ｽｼ・ｾ・・ｽｮ</t>
+  </si>
+  <si>
+    <t>・・</t>
+  </si>
+  <si>
+    <t>1124017F4049</t>
+  </si>
+  <si>
+    <t>1124017F4</t>
+  </si>
+  <si>
+    <t>DESKTOP-CR909J8</t>
+  </si>
+  <si>
+    <t>LIMIT_DAY</t>
   </si>
 </sst>
 </file>
@@ -771,12 +1312,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1101,7 +1643,7 @@
   <dimension ref="A1:AU28"/>
   <sheetViews>
     <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AO4" sqref="AO4"/>
+      <selection activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1128,7 +1670,7 @@
     <col min="39" max="39" width="14.6640625" customWidth="1"/>
     <col min="40" max="40" width="14.44140625" customWidth="1"/>
     <col min="41" max="41" width="14.77734375" customWidth="1"/>
-    <col min="42" max="42" width="15.21875" customWidth="1"/>
+    <col min="42" max="42" width="34.109375" customWidth="1"/>
     <col min="44" max="44" width="13.77734375" customWidth="1"/>
     <col min="45" max="45" width="16.44140625" customWidth="1"/>
     <col min="47" max="47" width="13.6640625" customWidth="1"/>
@@ -3250,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:47" ht="57.6">
+    <row r="27" spans="1:47" ht="43.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3477,25 +4019,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:GG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AP8" sqref="AP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.21875" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" customWidth="1"/>
+    <col min="16" max="16" width="37.88671875" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" customWidth="1"/>
+    <col min="20" max="20" width="31.109375" customWidth="1"/>
+    <col min="23" max="23" width="34" customWidth="1"/>
+    <col min="24" max="24" width="12.88671875" customWidth="1"/>
+    <col min="25" max="25" width="6.109375" customWidth="1"/>
+    <col min="27" max="27" width="18.77734375" customWidth="1"/>
+    <col min="28" max="28" width="22.6640625" customWidth="1"/>
+    <col min="29" max="29" width="17.5546875" customWidth="1"/>
+    <col min="30" max="30" width="17.6640625" customWidth="1"/>
+    <col min="31" max="31" width="16.5546875" customWidth="1"/>
+    <col min="32" max="32" width="13.44140625" customWidth="1"/>
+    <col min="33" max="33" width="13.5546875" customWidth="1"/>
+    <col min="34" max="34" width="19.5546875" customWidth="1"/>
+    <col min="35" max="35" width="14" customWidth="1"/>
+    <col min="36" max="36" width="17.88671875" customWidth="1"/>
+    <col min="37" max="37" width="26.21875" customWidth="1"/>
+    <col min="38" max="38" width="18.21875" customWidth="1"/>
+    <col min="39" max="39" width="14" customWidth="1"/>
+    <col min="40" max="40" width="12.5546875" customWidth="1"/>
+    <col min="41" max="41" width="12.77734375" customWidth="1"/>
+    <col min="42" max="42" width="21.44140625" customWidth="1"/>
+    <col min="43" max="43" width="15.44140625" customWidth="1"/>
+    <col min="44" max="44" width="13.21875" customWidth="1"/>
+    <col min="45" max="45" width="12.109375" customWidth="1"/>
+    <col min="46" max="46" width="13.44140625" customWidth="1"/>
+    <col min="48" max="48" width="18.109375" customWidth="1"/>
+    <col min="49" max="49" width="11.5546875" customWidth="1"/>
+    <col min="50" max="50" width="21.5546875" customWidth="1"/>
+    <col min="146" max="146" width="25.77734375" customWidth="1"/>
+    <col min="177" max="177" width="24.21875" customWidth="1"/>
+    <col min="178" max="178" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:189">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3503,16 +4083,1095 @@
         <v>77</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>78</v>
       </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>157</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>158</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>162</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>163</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>165</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>172</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>173</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>174</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>175</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>176</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>177</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>178</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>179</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>180</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>181</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>182</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>183</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>184</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>185</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>186</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>187</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>188</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>189</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>190</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>191</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>192</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>193</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>194</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>195</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>196</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>197</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>198</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>199</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>200</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>201</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>202</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>203</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>204</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>205</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>206</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>207</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>208</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>209</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>210</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>211</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>212</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>213</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>214</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>215</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>216</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>217</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>218</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>219</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>220</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>221</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>222</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>223</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>224</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>225</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>226</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>228</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>229</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>230</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>231</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>232</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>233</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>234</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>235</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>236</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>237</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>238</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>239</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>240</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>241</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>242</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>39</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>40</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>42</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>43</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>44</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>243</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>244</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>245</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>246</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>247</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>248</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>249</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>250</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>251</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>252</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>253</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>254</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:189">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>611170008</v>
+      </c>
+      <c r="C2">
+        <v>20201212</v>
+      </c>
+      <c r="D2">
+        <v>99999999</v>
+      </c>
+      <c r="E2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" t="s">
+        <v>257</v>
+      </c>
+      <c r="P2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>9.4</v>
+      </c>
+      <c r="S2">
+        <v>16</v>
+      </c>
+      <c r="T2" t="s">
+        <v>258</v>
+      </c>
+      <c r="U2" t="s">
+        <v>258</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>5</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>1</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>2</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2">
+        <v>0</v>
+      </c>
+      <c r="DT2">
+        <v>0</v>
+      </c>
+      <c r="DU2">
+        <v>0</v>
+      </c>
+      <c r="DV2">
+        <v>0</v>
+      </c>
+      <c r="DW2">
+        <v>6494000</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>259</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>259</v>
+      </c>
+      <c r="DZ2">
+        <v>1</v>
+      </c>
+      <c r="EA2">
+        <v>0</v>
+      </c>
+      <c r="EB2">
+        <v>20200401</v>
+      </c>
+      <c r="EC2">
+        <v>99999999</v>
+      </c>
+      <c r="ED2">
+        <v>0</v>
+      </c>
+      <c r="EE2">
+        <v>0</v>
+      </c>
+      <c r="EF2">
+        <v>0</v>
+      </c>
+      <c r="EG2">
+        <v>0</v>
+      </c>
+      <c r="EH2">
+        <v>0</v>
+      </c>
+      <c r="EI2">
+        <v>0</v>
+      </c>
+      <c r="EJ2">
+        <v>0</v>
+      </c>
+      <c r="EK2">
+        <v>0</v>
+      </c>
+      <c r="EL2">
+        <v>0</v>
+      </c>
+      <c r="EM2">
+        <v>0</v>
+      </c>
+      <c r="EN2">
+        <v>0</v>
+      </c>
+      <c r="EO2">
+        <v>0</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EQ2">
+        <v>0</v>
+      </c>
+      <c r="ER2">
+        <v>0</v>
+      </c>
+      <c r="ES2">
+        <v>0</v>
+      </c>
+      <c r="ET2">
+        <v>0</v>
+      </c>
+      <c r="EU2">
+        <v>0</v>
+      </c>
+      <c r="EV2">
+        <v>0</v>
+      </c>
+      <c r="EW2">
+        <v>1</v>
+      </c>
+      <c r="EX2">
+        <v>611170008</v>
+      </c>
+      <c r="EY2">
+        <v>0</v>
+      </c>
+      <c r="FA2">
+        <v>0</v>
+      </c>
+      <c r="FD2">
+        <v>0</v>
+      </c>
+      <c r="FE2">
+        <v>0</v>
+      </c>
+      <c r="FF2">
+        <v>0</v>
+      </c>
+      <c r="FG2">
+        <v>0</v>
+      </c>
+      <c r="FH2">
+        <v>0</v>
+      </c>
+      <c r="FI2">
+        <v>0</v>
+      </c>
+      <c r="FJ2">
+        <v>0</v>
+      </c>
+      <c r="FK2">
+        <v>0</v>
+      </c>
+      <c r="FL2">
+        <v>0</v>
+      </c>
+      <c r="FM2">
+        <v>0</v>
+      </c>
+      <c r="FN2">
+        <v>0</v>
+      </c>
+      <c r="FO2" s="1">
+        <v>38808</v>
+      </c>
+      <c r="FP2">
+        <v>99999</v>
+      </c>
+      <c r="FR2" s="1">
+        <v>45083.820771435188</v>
+      </c>
+      <c r="FS2">
+        <v>2</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>261</v>
+      </c>
+      <c r="FU2">
+        <v>0</v>
+      </c>
+      <c r="FV2">
+        <v>0</v>
+      </c>
+      <c r="FW2">
+        <v>0</v>
+      </c>
+      <c r="FX2">
+        <v>0</v>
+      </c>
+      <c r="FY2">
+        <v>0</v>
+      </c>
+      <c r="FZ2">
+        <v>0</v>
+      </c>
+      <c r="GA2">
+        <v>0</v>
+      </c>
+      <c r="GB2">
+        <v>0</v>
+      </c>
+      <c r="GC2">
+        <v>0</v>
+      </c>
+      <c r="GD2">
+        <v>0</v>
+      </c>
+      <c r="GE2">
+        <v>0</v>
+      </c>
+      <c r="GF2">
+        <v>0</v>
+      </c>
+      <c r="GG2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1"/>
+    <col min="7" max="7" width="46" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>39</v>
@@ -3532,34 +5191,55 @@
       <c r="L1" t="s">
         <v>44</v>
       </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>2027</v>
+        <v>1</v>
       </c>
       <c r="C2">
+        <v>611170008</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>45021.481516203705</v>
+      </c>
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>44345.874359502312</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+      <c r="I2" t="s">
+        <v>261</v>
       </c>
       <c r="J2" s="1">
-        <v>45034.601094062498</v>
+        <v>45021.48151140046</v>
       </c>
       <c r="K2">
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>82</v>
+        <v>261</v>
+      </c>
+      <c r="M2">
+        <v>20230101</v>
+      </c>
+      <c r="N2">
+        <v>20230301</v>
       </c>
     </row>
   </sheetData>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\emr-cloud-be\CloudTest\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\emr-cloud-be\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22224" windowHeight="7104" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22224" windowHeight="7104" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
     <sheet name="TEN_MST" sheetId="3" r:id="rId2"/>
     <sheet name="DRUG_DAY_LIMIT" sheetId="4" r:id="rId3"/>
+    <sheet name="M10_DAY_LIMIT" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="274">
   <si>
     <t>HP_ID</t>
   </si>
@@ -811,6 +812,39 @@
   </si>
   <si>
     <t>LIMIT_DAY</t>
+  </si>
+  <si>
+    <t>Y101</t>
+  </si>
+  <si>
+    <t>åˆ†ï¼‘ã€€èµ·åºŠæ™‚</t>
+  </si>
+  <si>
+    <t>ï¾…ï½²ï¾Œï½¸</t>
+  </si>
+  <si>
+    <t>ï¾–ï½³ï¾Žï½³</t>
+  </si>
+  <si>
+    <t>ï¾Œï¾žï¾ï½²ï¾</t>
+  </si>
+  <si>
+    <t>æ—¥åˆ†</t>
+  </si>
+  <si>
+    <t>1899-12-30 00:00:00.000</t>
+  </si>
+  <si>
+    <t>1æ—¥1å›žèµ·åºŠæ™‚</t>
+  </si>
+  <si>
+    <t>ST_DATE</t>
+  </si>
+  <si>
+    <t>ED_DATE</t>
+  </si>
+  <si>
+    <t>CMT</t>
   </si>
 </sst>
 </file>
@@ -1642,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU28"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1821,7 +1855,7 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B2">
         <v>1231</v>
@@ -1898,7 +1932,7 @@
     </row>
     <row r="3" spans="1:47">
       <c r="A3">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B3">
         <v>1231</v>
@@ -1978,7 +2012,7 @@
     </row>
     <row r="4" spans="1:47">
       <c r="A4">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B4">
         <v>1231</v>
@@ -2058,7 +2092,7 @@
     </row>
     <row r="5" spans="1:47">
       <c r="A5">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B5">
         <v>1231</v>
@@ -2138,7 +2172,7 @@
     </row>
     <row r="6" spans="1:47">
       <c r="A6">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B6">
         <v>1231</v>
@@ -2215,7 +2249,7 @@
     </row>
     <row r="7" spans="1:47">
       <c r="A7">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B7">
         <v>1231</v>
@@ -2292,7 +2326,7 @@
     </row>
     <row r="8" spans="1:47">
       <c r="A8">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B8">
         <v>1231</v>
@@ -2372,7 +2406,7 @@
     </row>
     <row r="9" spans="1:47">
       <c r="A9">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B9">
         <v>1231</v>
@@ -2449,7 +2483,7 @@
     </row>
     <row r="10" spans="1:47">
       <c r="A10">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B10">
         <v>1231</v>
@@ -2526,7 +2560,7 @@
     </row>
     <row r="11" spans="1:47">
       <c r="A11">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B11">
         <v>1231</v>
@@ -2606,7 +2640,7 @@
     </row>
     <row r="12" spans="1:47">
       <c r="A12">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B12">
         <v>1231</v>
@@ -2683,7 +2717,7 @@
     </row>
     <row r="13" spans="1:47">
       <c r="A13">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B13">
         <v>1231</v>
@@ -2760,7 +2794,7 @@
     </row>
     <row r="14" spans="1:47">
       <c r="A14">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B14">
         <v>1231</v>
@@ -2837,7 +2871,7 @@
     </row>
     <row r="15" spans="1:47">
       <c r="A15">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B15">
         <v>1231</v>
@@ -2914,7 +2948,7 @@
     </row>
     <row r="16" spans="1:47">
       <c r="A16">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B16">
         <v>1231</v>
@@ -2994,7 +3028,7 @@
     </row>
     <row r="17" spans="1:47">
       <c r="A17">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B17">
         <v>1231</v>
@@ -3074,7 +3108,7 @@
     </row>
     <row r="18" spans="1:47">
       <c r="A18">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B18">
         <v>1231</v>
@@ -3154,7 +3188,7 @@
     </row>
     <row r="19" spans="1:47">
       <c r="A19">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B19">
         <v>1231</v>
@@ -3234,7 +3268,7 @@
     </row>
     <row r="20" spans="1:47">
       <c r="A20">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B20">
         <v>1231</v>
@@ -3314,7 +3348,7 @@
     </row>
     <row r="21" spans="1:47">
       <c r="A21">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B21">
         <v>1231</v>
@@ -3397,7 +3431,7 @@
     </row>
     <row r="22" spans="1:47">
       <c r="A22">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B22">
         <v>1231</v>
@@ -3477,7 +3511,7 @@
     </row>
     <row r="23" spans="1:47">
       <c r="A23">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B23">
         <v>1231</v>
@@ -3557,7 +3591,7 @@
     </row>
     <row r="24" spans="1:47">
       <c r="A24">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B24">
         <v>1231</v>
@@ -3634,7 +3668,7 @@
     </row>
     <row r="25" spans="1:47">
       <c r="A25">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B25">
         <v>1231</v>
@@ -3714,7 +3748,7 @@
     </row>
     <row r="26" spans="1:47">
       <c r="A26">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B26">
         <v>1231</v>
@@ -3794,7 +3828,7 @@
     </row>
     <row r="27" spans="1:47" ht="43.2">
       <c r="A27">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B27">
         <v>1231</v>
@@ -3937,7 +3971,7 @@
     </row>
     <row r="28" spans="1:47">
       <c r="A28">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B28">
         <v>1231</v>
@@ -4019,10 +4053,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GG2"/>
+  <dimension ref="A1:GG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AP8" sqref="AP8"/>
+    <sheetView topLeftCell="DO1" workbookViewId="0">
+      <selection activeCell="DW11" sqref="DW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4070,6 +4104,38 @@
     <col min="48" max="48" width="18.109375" customWidth="1"/>
     <col min="49" max="49" width="11.5546875" customWidth="1"/>
     <col min="50" max="50" width="21.5546875" customWidth="1"/>
+    <col min="51" max="51" width="22.33203125" customWidth="1"/>
+    <col min="52" max="52" width="20.21875" customWidth="1"/>
+    <col min="53" max="53" width="16.109375" customWidth="1"/>
+    <col min="54" max="54" width="18.5546875" customWidth="1"/>
+    <col min="55" max="55" width="16.21875" customWidth="1"/>
+    <col min="56" max="56" width="15.44140625" customWidth="1"/>
+    <col min="57" max="57" width="14.109375" customWidth="1"/>
+    <col min="58" max="58" width="13.33203125" customWidth="1"/>
+    <col min="59" max="59" width="20" customWidth="1"/>
+    <col min="60" max="60" width="24.5546875" customWidth="1"/>
+    <col min="61" max="61" width="22" customWidth="1"/>
+    <col min="62" max="62" width="18.88671875" customWidth="1"/>
+    <col min="63" max="63" width="18.6640625" customWidth="1"/>
+    <col min="64" max="64" width="16.77734375" customWidth="1"/>
+    <col min="65" max="65" width="25.109375" customWidth="1"/>
+    <col min="66" max="66" width="19.6640625" customWidth="1"/>
+    <col min="67" max="67" width="20.33203125" customWidth="1"/>
+    <col min="68" max="68" width="24.77734375" customWidth="1"/>
+    <col min="69" max="69" width="28.6640625" customWidth="1"/>
+    <col min="70" max="70" width="18.109375" customWidth="1"/>
+    <col min="71" max="71" width="17.21875" customWidth="1"/>
+    <col min="72" max="72" width="21.109375" customWidth="1"/>
+    <col min="73" max="73" width="18.21875" customWidth="1"/>
+    <col min="76" max="76" width="18.33203125" customWidth="1"/>
+    <col min="77" max="77" width="22.6640625" customWidth="1"/>
+    <col min="78" max="78" width="19.5546875" customWidth="1"/>
+    <col min="79" max="79" width="21" customWidth="1"/>
+    <col min="80" max="80" width="20" customWidth="1"/>
+    <col min="81" max="81" width="17.5546875" customWidth="1"/>
+    <col min="114" max="114" width="25.109375" customWidth="1"/>
+    <col min="115" max="115" width="19.44140625" customWidth="1"/>
+    <col min="128" max="128" width="31.21875" customWidth="1"/>
     <col min="146" max="146" width="25.77734375" customWidth="1"/>
     <col min="177" max="177" width="24.21875" customWidth="1"/>
     <col min="178" max="178" width="21.88671875" customWidth="1"/>
@@ -4646,7 +4712,7 @@
     </row>
     <row r="2" spans="1:189">
       <c r="A2">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B2">
         <v>611170008</v>
@@ -5124,6 +5190,1398 @@
       </c>
       <c r="GG2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:189">
+      <c r="A3">
+        <v>999</v>
+      </c>
+      <c r="B3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3">
+        <v>20160401</v>
+      </c>
+      <c r="D3">
+        <v>99999999</v>
+      </c>
+      <c r="F3">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>264</v>
+      </c>
+      <c r="H3" t="s">
+        <v>265</v>
+      </c>
+      <c r="I3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J3" t="s">
+        <v>267</v>
+      </c>
+      <c r="P3" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>268</v>
+      </c>
+      <c r="U3" t="s">
+        <v>268</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3">
+        <v>0</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
+        <v>0</v>
+      </c>
+      <c r="DZ3">
+        <v>0</v>
+      </c>
+      <c r="EB3">
+        <v>0</v>
+      </c>
+      <c r="EC3">
+        <v>0</v>
+      </c>
+      <c r="ED3">
+        <v>0</v>
+      </c>
+      <c r="EE3">
+        <v>0</v>
+      </c>
+      <c r="EF3">
+        <v>0</v>
+      </c>
+      <c r="EG3">
+        <v>0</v>
+      </c>
+      <c r="EH3">
+        <v>0</v>
+      </c>
+      <c r="EI3">
+        <v>1</v>
+      </c>
+      <c r="EJ3">
+        <v>1</v>
+      </c>
+      <c r="EK3">
+        <v>0</v>
+      </c>
+      <c r="EL3">
+        <v>0</v>
+      </c>
+      <c r="EM3">
+        <v>0</v>
+      </c>
+      <c r="EN3">
+        <v>0</v>
+      </c>
+      <c r="EO3">
+        <v>1</v>
+      </c>
+      <c r="EQ3">
+        <v>1</v>
+      </c>
+      <c r="ER3">
+        <v>0</v>
+      </c>
+      <c r="ES3">
+        <v>0</v>
+      </c>
+      <c r="ET3">
+        <v>0</v>
+      </c>
+      <c r="EU3">
+        <v>0</v>
+      </c>
+      <c r="EV3">
+        <v>0</v>
+      </c>
+      <c r="EW3">
+        <v>0</v>
+      </c>
+      <c r="EX3">
+        <v>9999999999</v>
+      </c>
+      <c r="EY3">
+        <v>0</v>
+      </c>
+      <c r="FA3">
+        <v>0</v>
+      </c>
+      <c r="FB3">
+        <v>101</v>
+      </c>
+      <c r="FD3">
+        <v>0</v>
+      </c>
+      <c r="FE3">
+        <v>0</v>
+      </c>
+      <c r="FF3">
+        <v>0</v>
+      </c>
+      <c r="FG3">
+        <v>0</v>
+      </c>
+      <c r="FH3">
+        <v>0</v>
+      </c>
+      <c r="FI3">
+        <v>0</v>
+      </c>
+      <c r="FJ3">
+        <v>0</v>
+      </c>
+      <c r="FK3">
+        <v>0</v>
+      </c>
+      <c r="FL3">
+        <v>0</v>
+      </c>
+      <c r="FM3">
+        <v>0</v>
+      </c>
+      <c r="FN3">
+        <v>0</v>
+      </c>
+      <c r="FO3" s="1">
+        <v>38289</v>
+      </c>
+      <c r="FP3">
+        <v>61</v>
+      </c>
+      <c r="FR3" t="s">
+        <v>269</v>
+      </c>
+      <c r="FS3">
+        <v>0</v>
+      </c>
+      <c r="FU3">
+        <v>0</v>
+      </c>
+      <c r="FV3">
+        <v>0</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3">
+        <v>0</v>
+      </c>
+      <c r="FY3">
+        <v>0</v>
+      </c>
+      <c r="FZ3">
+        <v>0</v>
+      </c>
+      <c r="GA3">
+        <v>0</v>
+      </c>
+      <c r="GB3">
+        <v>0</v>
+      </c>
+      <c r="GC3">
+        <v>0</v>
+      </c>
+      <c r="GD3">
+        <v>0</v>
+      </c>
+      <c r="GE3">
+        <v>0</v>
+      </c>
+      <c r="GF3">
+        <v>0</v>
+      </c>
+      <c r="GG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:189">
+      <c r="A4">
+        <v>999</v>
+      </c>
+      <c r="B4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4">
+        <v>20080401</v>
+      </c>
+      <c r="D4">
+        <v>20160331</v>
+      </c>
+      <c r="F4">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" t="s">
+        <v>267</v>
+      </c>
+      <c r="P4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>268</v>
+      </c>
+      <c r="U4" t="s">
+        <v>268</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4">
+        <v>0</v>
+      </c>
+      <c r="DR4">
+        <v>0</v>
+      </c>
+      <c r="DS4">
+        <v>0</v>
+      </c>
+      <c r="DT4">
+        <v>0</v>
+      </c>
+      <c r="DW4">
+        <v>0</v>
+      </c>
+      <c r="DZ4">
+        <v>0</v>
+      </c>
+      <c r="EB4">
+        <v>0</v>
+      </c>
+      <c r="EC4">
+        <v>0</v>
+      </c>
+      <c r="ED4">
+        <v>0</v>
+      </c>
+      <c r="EE4">
+        <v>0</v>
+      </c>
+      <c r="EF4">
+        <v>0</v>
+      </c>
+      <c r="EG4">
+        <v>0</v>
+      </c>
+      <c r="EH4">
+        <v>0</v>
+      </c>
+      <c r="EI4">
+        <v>1</v>
+      </c>
+      <c r="EJ4">
+        <v>1</v>
+      </c>
+      <c r="EK4">
+        <v>0</v>
+      </c>
+      <c r="EL4">
+        <v>0</v>
+      </c>
+      <c r="EM4">
+        <v>0</v>
+      </c>
+      <c r="EN4">
+        <v>0</v>
+      </c>
+      <c r="EO4">
+        <v>1</v>
+      </c>
+      <c r="EQ4">
+        <v>1</v>
+      </c>
+      <c r="ER4">
+        <v>0</v>
+      </c>
+      <c r="ES4">
+        <v>0</v>
+      </c>
+      <c r="ET4">
+        <v>0</v>
+      </c>
+      <c r="EU4">
+        <v>0</v>
+      </c>
+      <c r="EV4">
+        <v>0</v>
+      </c>
+      <c r="EW4">
+        <v>0</v>
+      </c>
+      <c r="EX4">
+        <v>9999999999</v>
+      </c>
+      <c r="EY4">
+        <v>0</v>
+      </c>
+      <c r="FA4">
+        <v>0</v>
+      </c>
+      <c r="FB4">
+        <v>101</v>
+      </c>
+      <c r="FD4">
+        <v>0</v>
+      </c>
+      <c r="FE4">
+        <v>0</v>
+      </c>
+      <c r="FF4">
+        <v>0</v>
+      </c>
+      <c r="FG4">
+        <v>0</v>
+      </c>
+      <c r="FH4">
+        <v>0</v>
+      </c>
+      <c r="FI4">
+        <v>0</v>
+      </c>
+      <c r="FJ4">
+        <v>0</v>
+      </c>
+      <c r="FK4">
+        <v>0</v>
+      </c>
+      <c r="FL4">
+        <v>0</v>
+      </c>
+      <c r="FM4">
+        <v>0</v>
+      </c>
+      <c r="FN4">
+        <v>0</v>
+      </c>
+      <c r="FO4" s="1">
+        <v>38289</v>
+      </c>
+      <c r="FP4">
+        <v>61</v>
+      </c>
+      <c r="FR4" t="s">
+        <v>269</v>
+      </c>
+      <c r="FS4">
+        <v>0</v>
+      </c>
+      <c r="FU4">
+        <v>0</v>
+      </c>
+      <c r="FV4">
+        <v>0</v>
+      </c>
+      <c r="FW4">
+        <v>0</v>
+      </c>
+      <c r="FX4">
+        <v>0</v>
+      </c>
+      <c r="FY4">
+        <v>0</v>
+      </c>
+      <c r="FZ4">
+        <v>0</v>
+      </c>
+      <c r="GA4">
+        <v>0</v>
+      </c>
+      <c r="GB4">
+        <v>0</v>
+      </c>
+      <c r="GC4">
+        <v>0</v>
+      </c>
+      <c r="GD4">
+        <v>0</v>
+      </c>
+      <c r="GE4">
+        <v>0</v>
+      </c>
+      <c r="GF4">
+        <v>0</v>
+      </c>
+      <c r="GG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:189">
+      <c r="A5">
+        <v>999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>20080331</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J5" t="s">
+        <v>267</v>
+      </c>
+      <c r="P5" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>268</v>
+      </c>
+      <c r="U5" t="s">
+        <v>268</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <v>0</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
+      <c r="DS5">
+        <v>0</v>
+      </c>
+      <c r="DT5">
+        <v>0</v>
+      </c>
+      <c r="DW5">
+        <v>0</v>
+      </c>
+      <c r="DZ5">
+        <v>0</v>
+      </c>
+      <c r="EB5">
+        <v>0</v>
+      </c>
+      <c r="EC5">
+        <v>0</v>
+      </c>
+      <c r="ED5">
+        <v>0</v>
+      </c>
+      <c r="EE5">
+        <v>0</v>
+      </c>
+      <c r="EF5">
+        <v>0</v>
+      </c>
+      <c r="EG5">
+        <v>0</v>
+      </c>
+      <c r="EH5">
+        <v>0</v>
+      </c>
+      <c r="EI5">
+        <v>1</v>
+      </c>
+      <c r="EJ5">
+        <v>1</v>
+      </c>
+      <c r="EK5">
+        <v>0</v>
+      </c>
+      <c r="EL5">
+        <v>0</v>
+      </c>
+      <c r="EM5">
+        <v>0</v>
+      </c>
+      <c r="EN5">
+        <v>0</v>
+      </c>
+      <c r="EO5">
+        <v>1</v>
+      </c>
+      <c r="EQ5">
+        <v>1</v>
+      </c>
+      <c r="ER5">
+        <v>0</v>
+      </c>
+      <c r="ES5">
+        <v>0</v>
+      </c>
+      <c r="ET5">
+        <v>0</v>
+      </c>
+      <c r="EU5">
+        <v>0</v>
+      </c>
+      <c r="EV5">
+        <v>0</v>
+      </c>
+      <c r="EW5">
+        <v>0</v>
+      </c>
+      <c r="EX5">
+        <v>9999999999</v>
+      </c>
+      <c r="EY5">
+        <v>0</v>
+      </c>
+      <c r="FA5">
+        <v>0</v>
+      </c>
+      <c r="FB5">
+        <v>101</v>
+      </c>
+      <c r="FD5">
+        <v>0</v>
+      </c>
+      <c r="FE5">
+        <v>0</v>
+      </c>
+      <c r="FF5">
+        <v>0</v>
+      </c>
+      <c r="FG5">
+        <v>0</v>
+      </c>
+      <c r="FH5">
+        <v>0</v>
+      </c>
+      <c r="FI5">
+        <v>0</v>
+      </c>
+      <c r="FJ5">
+        <v>0</v>
+      </c>
+      <c r="FK5">
+        <v>0</v>
+      </c>
+      <c r="FL5">
+        <v>0</v>
+      </c>
+      <c r="FM5">
+        <v>0</v>
+      </c>
+      <c r="FN5">
+        <v>0</v>
+      </c>
+      <c r="FO5" s="1">
+        <v>38289</v>
+      </c>
+      <c r="FP5">
+        <v>61</v>
+      </c>
+      <c r="FR5" t="s">
+        <v>269</v>
+      </c>
+      <c r="FS5">
+        <v>0</v>
+      </c>
+      <c r="FU5">
+        <v>0</v>
+      </c>
+      <c r="FV5">
+        <v>0</v>
+      </c>
+      <c r="FW5">
+        <v>0</v>
+      </c>
+      <c r="FX5">
+        <v>0</v>
+      </c>
+      <c r="FY5">
+        <v>0</v>
+      </c>
+      <c r="FZ5">
+        <v>0</v>
+      </c>
+      <c r="GA5">
+        <v>0</v>
+      </c>
+      <c r="GB5">
+        <v>0</v>
+      </c>
+      <c r="GC5">
+        <v>0</v>
+      </c>
+      <c r="GD5">
+        <v>0</v>
+      </c>
+      <c r="GE5">
+        <v>0</v>
+      </c>
+      <c r="GF5">
+        <v>0</v>
+      </c>
+      <c r="GG5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5135,8 +6593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5245,4 +6703,60 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2">
+        <v>999</v>
+      </c>
+      <c r="C2">
+        <v>90</v>
+      </c>
+      <c r="D2">
+        <v>20010101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\emr-cloud-be\CloudTest\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\emr-cloud-be\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22224" windowHeight="7104" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22224" windowHeight="7104" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="274">
   <si>
     <t>HP_ID</t>
   </si>
@@ -4055,8 +4055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GG5"/>
   <sheetViews>
-    <sheetView topLeftCell="DO1" workbookViewId="0">
-      <selection activeCell="DW11" sqref="DW11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4715,7 +4715,7 @@
         <v>999</v>
       </c>
       <c r="B2">
-        <v>611170008</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <v>20201212</v>
@@ -5017,8 +5017,8 @@
       <c r="DW2">
         <v>6494000</v>
       </c>
-      <c r="DX2" t="s">
-        <v>259</v>
+      <c r="DX2">
+        <v>112</v>
       </c>
       <c r="DY2" t="s">
         <v>259</v>
@@ -6594,7 +6594,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6661,10 +6661,10 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="C2">
-        <v>611170008</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6709,8 +6709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6743,8 +6743,8 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>259</v>
+      <c r="A2">
+        <v>112</v>
       </c>
       <c r="B2">
         <v>999</v>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22224" windowHeight="7104" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22224" windowHeight="7104" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="275">
   <si>
     <t>HP_ID</t>
   </si>
@@ -845,6 +845,9 @@
   </si>
   <si>
     <t>CMT</t>
+  </si>
+  <si>
+    <t>AHK</t>
   </si>
 </sst>
 </file>
@@ -4053,10 +4056,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GG5"/>
+  <dimension ref="A1:GG6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6584,6 +6587,473 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:189">
+      <c r="A6">
+        <v>999</v>
+      </c>
+      <c r="B6">
+        <v>1234</v>
+      </c>
+      <c r="C6">
+        <v>20080404</v>
+      </c>
+      <c r="D6">
+        <v>20240331</v>
+      </c>
+      <c r="F6">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H6" t="s">
+        <v>265</v>
+      </c>
+      <c r="I6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J6" t="s">
+        <v>267</v>
+      </c>
+      <c r="P6" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>268</v>
+      </c>
+      <c r="U6" t="s">
+        <v>268</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
+        <v>0</v>
+      </c>
+      <c r="DS6">
+        <v>0</v>
+      </c>
+      <c r="DT6">
+        <v>0</v>
+      </c>
+      <c r="DW6">
+        <v>0</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>274</v>
+      </c>
+      <c r="DZ6">
+        <v>0</v>
+      </c>
+      <c r="EB6">
+        <v>0</v>
+      </c>
+      <c r="EC6">
+        <v>0</v>
+      </c>
+      <c r="ED6">
+        <v>0</v>
+      </c>
+      <c r="EE6">
+        <v>0</v>
+      </c>
+      <c r="EF6">
+        <v>0</v>
+      </c>
+      <c r="EG6">
+        <v>0</v>
+      </c>
+      <c r="EH6">
+        <v>0</v>
+      </c>
+      <c r="EI6">
+        <v>1</v>
+      </c>
+      <c r="EJ6">
+        <v>1</v>
+      </c>
+      <c r="EK6">
+        <v>0</v>
+      </c>
+      <c r="EL6">
+        <v>0</v>
+      </c>
+      <c r="EM6">
+        <v>0</v>
+      </c>
+      <c r="EN6">
+        <v>0</v>
+      </c>
+      <c r="EO6">
+        <v>1</v>
+      </c>
+      <c r="EQ6">
+        <v>1</v>
+      </c>
+      <c r="ER6">
+        <v>0</v>
+      </c>
+      <c r="ES6">
+        <v>0</v>
+      </c>
+      <c r="ET6">
+        <v>0</v>
+      </c>
+      <c r="EU6">
+        <v>0</v>
+      </c>
+      <c r="EV6">
+        <v>0</v>
+      </c>
+      <c r="EW6">
+        <v>0</v>
+      </c>
+      <c r="EX6">
+        <v>9999999999</v>
+      </c>
+      <c r="EY6">
+        <v>0</v>
+      </c>
+      <c r="FA6">
+        <v>0</v>
+      </c>
+      <c r="FB6">
+        <v>101</v>
+      </c>
+      <c r="FD6">
+        <v>0</v>
+      </c>
+      <c r="FE6">
+        <v>0</v>
+      </c>
+      <c r="FF6">
+        <v>0</v>
+      </c>
+      <c r="FG6">
+        <v>0</v>
+      </c>
+      <c r="FH6">
+        <v>0</v>
+      </c>
+      <c r="FI6">
+        <v>0</v>
+      </c>
+      <c r="FJ6">
+        <v>0</v>
+      </c>
+      <c r="FK6">
+        <v>0</v>
+      </c>
+      <c r="FL6">
+        <v>0</v>
+      </c>
+      <c r="FM6">
+        <v>0</v>
+      </c>
+      <c r="FN6">
+        <v>0</v>
+      </c>
+      <c r="FO6" s="1">
+        <v>38289</v>
+      </c>
+      <c r="FP6">
+        <v>61</v>
+      </c>
+      <c r="FR6" t="s">
+        <v>269</v>
+      </c>
+      <c r="FS6">
+        <v>0</v>
+      </c>
+      <c r="FU6">
+        <v>0</v>
+      </c>
+      <c r="FV6">
+        <v>0</v>
+      </c>
+      <c r="FW6">
+        <v>0</v>
+      </c>
+      <c r="FX6">
+        <v>0</v>
+      </c>
+      <c r="FY6">
+        <v>0</v>
+      </c>
+      <c r="FZ6">
+        <v>0</v>
+      </c>
+      <c r="GA6">
+        <v>0</v>
+      </c>
+      <c r="GB6">
+        <v>0</v>
+      </c>
+      <c r="GC6">
+        <v>0</v>
+      </c>
+      <c r="GD6">
+        <v>0</v>
+      </c>
+      <c r="GE6">
+        <v>0</v>
+      </c>
+      <c r="GF6">
+        <v>0</v>
+      </c>
+      <c r="GG6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6591,10 +7061,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6700,6 +7170,50 @@
         <v>20230301</v>
       </c>
     </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>999</v>
+      </c>
+      <c r="C3">
+        <v>1234</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>45021.481516203705</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45021.48151140046</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>261</v>
+      </c>
+      <c r="M3">
+        <v>20230101</v>
+      </c>
+      <c r="N3">
+        <v>20230301</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6707,10 +7221,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6756,6 +7270,20 @@
         <v>20010101</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3">
+        <v>999</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
+      </c>
+      <c r="D3">
+        <v>20010101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -9,20 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22224" windowHeight="7104" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22224" windowHeight="7104" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
-    <sheet name="TEN_MST" sheetId="3" r:id="rId2"/>
-    <sheet name="DRUG_DAY_LIMIT" sheetId="4" r:id="rId3"/>
-    <sheet name="M10_DAY_LIMIT" sheetId="5" r:id="rId4"/>
+    <sheet name="M42_CONTRAINDI_DIS_CON" sheetId="6" r:id="rId2"/>
+    <sheet name="M42_CONTRAINDI_DRUG_MAIN_EX" sheetId="7" r:id="rId3"/>
+    <sheet name="TEN_MST" sheetId="3" r:id="rId4"/>
+    <sheet name="DRUG_DAY_LIMIT" sheetId="4" r:id="rId5"/>
+    <sheet name="M10_DAY_LIMIT" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="304">
   <si>
     <t>HP_ID</t>
   </si>
@@ -848,6 +850,93 @@
   </si>
   <si>
     <t>AHK</t>
+  </si>
+  <si>
+    <t>BYOTAI_CD</t>
+  </si>
+  <si>
+    <t>STANDARD_BYOTAI</t>
+  </si>
+  <si>
+    <t>BYOTAI_KBN</t>
+  </si>
+  <si>
+    <t>ICD10</t>
+  </si>
+  <si>
+    <t>RECE_CD</t>
+  </si>
+  <si>
+    <t>・ｺｦ・ｲ・・・ｫ</t>
+  </si>
+  <si>
+    <t>H000</t>
+  </si>
+  <si>
+    <t>・､ｧ・・ｸ・・・</t>
+  </si>
+  <si>
+    <t>C189</t>
+  </si>
+  <si>
+    <t>TENPU_LEVEL</t>
+  </si>
+  <si>
+    <t>CMT_CD</t>
+  </si>
+  <si>
+    <t>STAGE</t>
+  </si>
+  <si>
+    <t>KIO_CD</t>
+  </si>
+  <si>
+    <t>FAMILY_CD</t>
+  </si>
+  <si>
+    <t>KIJYO_CD</t>
+  </si>
+  <si>
+    <t>CM01356</t>
+  </si>
+  <si>
+    <t>KJ02448</t>
+  </si>
+  <si>
+    <t>CM01357</t>
+  </si>
+  <si>
+    <t>KJ03575</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>X1253</t>
+  </si>
+  <si>
+    <t>X1261</t>
+  </si>
+  <si>
+    <t>X1270</t>
+  </si>
+  <si>
+    <t>X1288</t>
+  </si>
+  <si>
+    <t>F1040</t>
+  </si>
+  <si>
+    <t>X1010</t>
+  </si>
+  <si>
+    <t>X1037</t>
+  </si>
+  <si>
+    <t>X1045</t>
+  </si>
+  <si>
+    <t>A2047</t>
   </si>
 </sst>
 </file>
@@ -1680,13 +1769,13 @@
   <dimension ref="A1:AU28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" customWidth="1"/>
     <col min="8" max="8" width="26.44140625" customWidth="1"/>
@@ -2174,21 +2263,6 @@
       </c>
     </row>
     <row r="6" spans="1:47">
-      <c r="A6">
-        <v>999</v>
-      </c>
-      <c r="B6">
-        <v>1231</v>
-      </c>
-      <c r="C6">
-        <v>345545</v>
-      </c>
-      <c r="D6">
-        <v>4770002</v>
-      </c>
-      <c r="E6">
-        <v>65</v>
-      </c>
       <c r="AA6" t="s">
         <v>52</v>
       </c>
@@ -2251,21 +2325,6 @@
       </c>
     </row>
     <row r="7" spans="1:47">
-      <c r="A7">
-        <v>999</v>
-      </c>
-      <c r="B7">
-        <v>1231</v>
-      </c>
-      <c r="C7">
-        <v>345546</v>
-      </c>
-      <c r="D7">
-        <v>8844446</v>
-      </c>
-      <c r="E7">
-        <v>66</v>
-      </c>
       <c r="AA7" t="s">
         <v>53</v>
       </c>
@@ -2328,24 +2387,6 @@
       </c>
     </row>
     <row r="8" spans="1:47">
-      <c r="A8">
-        <v>999</v>
-      </c>
-      <c r="B8">
-        <v>1231</v>
-      </c>
-      <c r="C8">
-        <v>632660</v>
-      </c>
-      <c r="D8">
-        <v>1519006</v>
-      </c>
-      <c r="E8">
-        <v>70</v>
-      </c>
-      <c r="F8">
-        <v>8002</v>
-      </c>
       <c r="AA8" t="s">
         <v>54</v>
       </c>
@@ -2408,21 +2449,6 @@
       </c>
     </row>
     <row r="9" spans="1:47">
-      <c r="A9">
-        <v>999</v>
-      </c>
-      <c r="B9">
-        <v>1231</v>
-      </c>
-      <c r="C9">
-        <v>626557</v>
-      </c>
-      <c r="D9">
-        <v>4629008</v>
-      </c>
-      <c r="E9">
-        <v>71</v>
-      </c>
       <c r="AA9" t="s">
         <v>56</v>
       </c>
@@ -2485,21 +2511,6 @@
       </c>
     </row>
     <row r="10" spans="1:47">
-      <c r="A10">
-        <v>999</v>
-      </c>
-      <c r="B10">
-        <v>1231</v>
-      </c>
-      <c r="C10">
-        <v>626558</v>
-      </c>
-      <c r="D10">
-        <v>4609008</v>
-      </c>
-      <c r="E10">
-        <v>72</v>
-      </c>
       <c r="AA10" t="s">
         <v>57</v>
       </c>
@@ -2562,24 +2573,6 @@
       </c>
     </row>
     <row r="11" spans="1:47">
-      <c r="A11">
-        <v>999</v>
-      </c>
-      <c r="B11">
-        <v>1231</v>
-      </c>
-      <c r="C11">
-        <v>404342</v>
-      </c>
-      <c r="D11">
-        <v>7222002</v>
-      </c>
-      <c r="E11">
-        <v>73</v>
-      </c>
-      <c r="F11">
-        <v>1103</v>
-      </c>
       <c r="AA11" t="s">
         <v>51</v>
       </c>
@@ -2642,21 +2635,6 @@
       </c>
     </row>
     <row r="12" spans="1:47">
-      <c r="A12">
-        <v>999</v>
-      </c>
-      <c r="B12">
-        <v>1231</v>
-      </c>
-      <c r="C12">
-        <v>404343</v>
-      </c>
-      <c r="D12">
-        <v>8844446</v>
-      </c>
-      <c r="E12">
-        <v>74</v>
-      </c>
       <c r="AA12" t="s">
         <v>53</v>
       </c>
@@ -2719,21 +2697,6 @@
       </c>
     </row>
     <row r="13" spans="1:47">
-      <c r="A13">
-        <v>999</v>
-      </c>
-      <c r="B13">
-        <v>1231</v>
-      </c>
-      <c r="C13">
-        <v>404344</v>
-      </c>
-      <c r="D13">
-        <v>4770002</v>
-      </c>
-      <c r="E13">
-        <v>75</v>
-      </c>
       <c r="AA13" t="s">
         <v>52</v>
       </c>
@@ -2796,21 +2759,6 @@
       </c>
     </row>
     <row r="14" spans="1:47">
-      <c r="A14">
-        <v>999</v>
-      </c>
-      <c r="B14">
-        <v>1231</v>
-      </c>
-      <c r="C14">
-        <v>305983</v>
-      </c>
-      <c r="D14">
-        <v>4609023</v>
-      </c>
-      <c r="E14">
-        <v>76</v>
-      </c>
       <c r="AA14" t="s">
         <v>57</v>
       </c>
@@ -2873,21 +2821,6 @@
       </c>
     </row>
     <row r="15" spans="1:47">
-      <c r="A15">
-        <v>999</v>
-      </c>
-      <c r="B15">
-        <v>1231</v>
-      </c>
-      <c r="C15">
-        <v>305984</v>
-      </c>
-      <c r="D15">
-        <v>4629008</v>
-      </c>
-      <c r="E15">
-        <v>77</v>
-      </c>
       <c r="AA15" t="s">
         <v>56</v>
       </c>
@@ -2950,24 +2883,6 @@
       </c>
     </row>
     <row r="16" spans="1:47">
-      <c r="A16">
-        <v>999</v>
-      </c>
-      <c r="B16">
-        <v>1231</v>
-      </c>
-      <c r="C16">
-        <v>243159</v>
-      </c>
-      <c r="D16">
-        <v>6918003</v>
-      </c>
-      <c r="E16">
-        <v>78</v>
-      </c>
-      <c r="F16">
-        <v>8002</v>
-      </c>
       <c r="AA16" t="s">
         <v>60</v>
       </c>
@@ -3029,25 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:47">
-      <c r="A17">
-        <v>999</v>
-      </c>
-      <c r="B17">
-        <v>1231</v>
-      </c>
-      <c r="C17">
-        <v>243160</v>
-      </c>
-      <c r="D17">
-        <v>9953021</v>
-      </c>
-      <c r="E17">
-        <v>79</v>
-      </c>
-      <c r="F17">
-        <v>8002</v>
-      </c>
+    <row r="17" spans="8:47">
       <c r="AA17" t="s">
         <v>61</v>
       </c>
@@ -3109,25 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:47">
-      <c r="A18">
-        <v>999</v>
-      </c>
-      <c r="B18">
-        <v>1231</v>
-      </c>
-      <c r="C18">
-        <v>234742</v>
-      </c>
-      <c r="D18">
-        <v>7222002</v>
-      </c>
-      <c r="E18">
-        <v>80</v>
-      </c>
-      <c r="F18">
-        <v>1103</v>
-      </c>
+    <row r="18" spans="8:47">
       <c r="AA18" t="s">
         <v>51</v>
       </c>
@@ -3189,25 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:47">
-      <c r="A19">
-        <v>999</v>
-      </c>
-      <c r="B19">
-        <v>1231</v>
-      </c>
-      <c r="C19">
-        <v>234743</v>
-      </c>
-      <c r="D19">
-        <v>1629006</v>
-      </c>
-      <c r="E19">
-        <v>81</v>
-      </c>
-      <c r="F19">
-        <v>8002</v>
-      </c>
+    <row r="19" spans="8:47">
       <c r="AA19" t="s">
         <v>63</v>
       </c>
@@ -3269,25 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:47">
-      <c r="A20">
-        <v>999</v>
-      </c>
-      <c r="B20">
-        <v>1231</v>
-      </c>
-      <c r="C20">
-        <v>234744</v>
-      </c>
-      <c r="D20">
-        <v>8839948</v>
-      </c>
-      <c r="E20">
-        <v>82</v>
-      </c>
-      <c r="F20">
-        <v>8002</v>
-      </c>
+    <row r="20" spans="8:47">
       <c r="AA20" t="s">
         <v>64</v>
       </c>
@@ -3349,28 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:47">
-      <c r="A21">
-        <v>999</v>
-      </c>
-      <c r="B21">
-        <v>1231</v>
-      </c>
-      <c r="C21">
-        <v>198948</v>
-      </c>
-      <c r="D21">
-        <v>9597016</v>
-      </c>
-      <c r="E21">
-        <v>83</v>
-      </c>
-      <c r="F21">
-        <v>2049</v>
-      </c>
-      <c r="G21">
-        <v>1042</v>
-      </c>
+    <row r="21" spans="8:47">
       <c r="AA21" t="s">
         <v>65</v>
       </c>
@@ -3432,25 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:47">
-      <c r="A22">
-        <v>999</v>
-      </c>
-      <c r="B22">
-        <v>1231</v>
-      </c>
-      <c r="C22">
-        <v>125094</v>
-      </c>
-      <c r="D22">
-        <v>7222002</v>
-      </c>
-      <c r="E22">
-        <v>84</v>
-      </c>
-      <c r="F22">
-        <v>1103</v>
-      </c>
+    <row r="22" spans="8:47">
       <c r="AA22" t="s">
         <v>51</v>
       </c>
@@ -3512,25 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:47">
-      <c r="A23">
-        <v>999</v>
-      </c>
-      <c r="B23">
-        <v>1231</v>
-      </c>
-      <c r="C23">
-        <v>125095</v>
-      </c>
-      <c r="D23">
-        <v>7222002</v>
-      </c>
-      <c r="E23">
-        <v>85</v>
-      </c>
-      <c r="F23">
-        <v>1021</v>
-      </c>
+    <row r="23" spans="8:47">
       <c r="AA23" t="s">
         <v>68</v>
       </c>
@@ -3592,22 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:47">
-      <c r="A24">
-        <v>999</v>
-      </c>
-      <c r="B24">
-        <v>1231</v>
-      </c>
-      <c r="C24">
-        <v>632661</v>
-      </c>
-      <c r="D24">
-        <v>8841602</v>
-      </c>
-      <c r="E24">
-        <v>67</v>
-      </c>
+    <row r="24" spans="8:47">
       <c r="AA24" t="s">
         <v>69</v>
       </c>
@@ -3669,25 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:47">
-      <c r="A25">
-        <v>999</v>
-      </c>
-      <c r="B25">
-        <v>1231</v>
-      </c>
-      <c r="C25">
-        <v>626695</v>
-      </c>
-      <c r="D25">
-        <v>8830417</v>
-      </c>
-      <c r="E25">
-        <v>68</v>
-      </c>
-      <c r="F25">
-        <v>7143</v>
-      </c>
+    <row r="25" spans="8:47">
       <c r="AA25" t="s">
         <v>71</v>
       </c>
@@ -3749,25 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:47">
-      <c r="A26">
-        <v>999</v>
-      </c>
-      <c r="B26">
-        <v>1231</v>
-      </c>
-      <c r="C26">
-        <v>626696</v>
-      </c>
-      <c r="D26">
-        <v>1539004</v>
-      </c>
-      <c r="E26">
-        <v>69</v>
-      </c>
-      <c r="F26">
-        <v>8002</v>
-      </c>
+    <row r="26" spans="8:47">
       <c r="AA26" t="s">
         <v>72</v>
       </c>
@@ -3829,28 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:47" ht="43.2">
-      <c r="A27">
-        <v>999</v>
-      </c>
-      <c r="B27">
-        <v>1231</v>
-      </c>
-      <c r="C27">
-        <v>880450</v>
-      </c>
-      <c r="D27">
-        <v>1539004</v>
-      </c>
-      <c r="E27">
-        <v>60</v>
-      </c>
-      <c r="F27">
-        <v>8002</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
+    <row r="27" spans="8:47" ht="43.2">
       <c r="H27">
         <v>3</v>
       </c>
@@ -3972,22 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:47">
-      <c r="A28">
-        <v>999</v>
-      </c>
-      <c r="B28">
-        <v>1231</v>
-      </c>
-      <c r="C28">
-        <v>880650</v>
-      </c>
-      <c r="D28">
-        <v>8847143</v>
-      </c>
-      <c r="E28">
-        <v>86</v>
-      </c>
+    <row r="28" spans="8:47">
       <c r="AA28" t="s">
         <v>75</v>
       </c>
@@ -4056,10 +3755,323 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GG6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2">
+        <v>3731012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F3">
+        <v>1539004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:GG9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7054,16 +7066,1408 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:189">
+      <c r="A7">
+        <v>999</v>
+      </c>
+      <c r="C7">
+        <v>20080401</v>
+      </c>
+      <c r="D7">
+        <v>20160331</v>
+      </c>
+      <c r="F7">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H7" t="s">
+        <v>265</v>
+      </c>
+      <c r="I7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>268</v>
+      </c>
+      <c r="U7" t="s">
+        <v>268</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DB7">
+        <v>0</v>
+      </c>
+      <c r="DC7">
+        <v>0</v>
+      </c>
+      <c r="DD7">
+        <v>0</v>
+      </c>
+      <c r="DE7">
+        <v>0</v>
+      </c>
+      <c r="DF7">
+        <v>0</v>
+      </c>
+      <c r="DG7">
+        <v>0</v>
+      </c>
+      <c r="DH7">
+        <v>0</v>
+      </c>
+      <c r="DJ7">
+        <v>0</v>
+      </c>
+      <c r="DK7">
+        <v>0</v>
+      </c>
+      <c r="DL7">
+        <v>0</v>
+      </c>
+      <c r="DM7">
+        <v>0</v>
+      </c>
+      <c r="DN7">
+        <v>0</v>
+      </c>
+      <c r="DP7">
+        <v>0</v>
+      </c>
+      <c r="DQ7">
+        <v>0</v>
+      </c>
+      <c r="DR7">
+        <v>0</v>
+      </c>
+      <c r="DS7">
+        <v>0</v>
+      </c>
+      <c r="DT7">
+        <v>0</v>
+      </c>
+      <c r="DW7">
+        <v>0</v>
+      </c>
+      <c r="DX7" t="s">
+        <v>295</v>
+      </c>
+      <c r="DZ7">
+        <v>0</v>
+      </c>
+      <c r="EB7">
+        <v>0</v>
+      </c>
+      <c r="EC7">
+        <v>0</v>
+      </c>
+      <c r="ED7">
+        <v>0</v>
+      </c>
+      <c r="EE7">
+        <v>0</v>
+      </c>
+      <c r="EF7">
+        <v>0</v>
+      </c>
+      <c r="EG7">
+        <v>0</v>
+      </c>
+      <c r="EH7">
+        <v>0</v>
+      </c>
+      <c r="EI7">
+        <v>1</v>
+      </c>
+      <c r="EJ7">
+        <v>1</v>
+      </c>
+      <c r="EK7">
+        <v>0</v>
+      </c>
+      <c r="EL7">
+        <v>0</v>
+      </c>
+      <c r="EM7">
+        <v>0</v>
+      </c>
+      <c r="EN7">
+        <v>0</v>
+      </c>
+      <c r="EO7">
+        <v>1</v>
+      </c>
+      <c r="EQ7">
+        <v>1</v>
+      </c>
+      <c r="ER7">
+        <v>0</v>
+      </c>
+      <c r="ES7">
+        <v>0</v>
+      </c>
+      <c r="ET7">
+        <v>0</v>
+      </c>
+      <c r="EU7">
+        <v>0</v>
+      </c>
+      <c r="EV7">
+        <v>0</v>
+      </c>
+      <c r="EW7">
+        <v>0</v>
+      </c>
+      <c r="EX7">
+        <v>9999999999</v>
+      </c>
+      <c r="EY7">
+        <v>0</v>
+      </c>
+      <c r="FA7">
+        <v>0</v>
+      </c>
+      <c r="FB7">
+        <v>101</v>
+      </c>
+      <c r="FD7">
+        <v>0</v>
+      </c>
+      <c r="FE7">
+        <v>0</v>
+      </c>
+      <c r="FF7">
+        <v>0</v>
+      </c>
+      <c r="FG7">
+        <v>0</v>
+      </c>
+      <c r="FH7">
+        <v>0</v>
+      </c>
+      <c r="FI7">
+        <v>0</v>
+      </c>
+      <c r="FJ7">
+        <v>0</v>
+      </c>
+      <c r="FK7">
+        <v>0</v>
+      </c>
+      <c r="FL7">
+        <v>0</v>
+      </c>
+      <c r="FM7">
+        <v>0</v>
+      </c>
+      <c r="FN7">
+        <v>0</v>
+      </c>
+      <c r="FO7" s="1">
+        <v>38289</v>
+      </c>
+      <c r="FP7">
+        <v>61</v>
+      </c>
+      <c r="FR7" t="s">
+        <v>269</v>
+      </c>
+      <c r="FS7">
+        <v>0</v>
+      </c>
+      <c r="FU7">
+        <v>0</v>
+      </c>
+      <c r="FV7">
+        <v>0</v>
+      </c>
+      <c r="FW7">
+        <v>0</v>
+      </c>
+      <c r="FX7">
+        <v>0</v>
+      </c>
+      <c r="FY7">
+        <v>0</v>
+      </c>
+      <c r="FZ7">
+        <v>0</v>
+      </c>
+      <c r="GA7">
+        <v>0</v>
+      </c>
+      <c r="GB7">
+        <v>0</v>
+      </c>
+      <c r="GC7">
+        <v>0</v>
+      </c>
+      <c r="GD7">
+        <v>0</v>
+      </c>
+      <c r="GE7">
+        <v>0</v>
+      </c>
+      <c r="GF7">
+        <v>0</v>
+      </c>
+      <c r="GG7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:189">
+      <c r="A8">
+        <v>999</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>20080331</v>
+      </c>
+      <c r="F8">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J8" t="s">
+        <v>267</v>
+      </c>
+      <c r="P8" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>268</v>
+      </c>
+      <c r="U8" t="s">
+        <v>268</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
+      </c>
+      <c r="CW8">
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <v>0</v>
+      </c>
+      <c r="DB8">
+        <v>0</v>
+      </c>
+      <c r="DC8">
+        <v>0</v>
+      </c>
+      <c r="DD8">
+        <v>0</v>
+      </c>
+      <c r="DE8">
+        <v>0</v>
+      </c>
+      <c r="DF8">
+        <v>0</v>
+      </c>
+      <c r="DG8">
+        <v>0</v>
+      </c>
+      <c r="DH8">
+        <v>0</v>
+      </c>
+      <c r="DJ8">
+        <v>0</v>
+      </c>
+      <c r="DK8">
+        <v>0</v>
+      </c>
+      <c r="DL8">
+        <v>0</v>
+      </c>
+      <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DN8">
+        <v>0</v>
+      </c>
+      <c r="DP8">
+        <v>0</v>
+      </c>
+      <c r="DQ8">
+        <v>0</v>
+      </c>
+      <c r="DR8">
+        <v>0</v>
+      </c>
+      <c r="DS8">
+        <v>0</v>
+      </c>
+      <c r="DT8">
+        <v>0</v>
+      </c>
+      <c r="DW8">
+        <v>0</v>
+      </c>
+      <c r="DX8" t="s">
+        <v>296</v>
+      </c>
+      <c r="DZ8">
+        <v>0</v>
+      </c>
+      <c r="EB8">
+        <v>0</v>
+      </c>
+      <c r="EC8">
+        <v>0</v>
+      </c>
+      <c r="ED8">
+        <v>0</v>
+      </c>
+      <c r="EE8">
+        <v>0</v>
+      </c>
+      <c r="EF8">
+        <v>0</v>
+      </c>
+      <c r="EG8">
+        <v>0</v>
+      </c>
+      <c r="EH8">
+        <v>0</v>
+      </c>
+      <c r="EI8">
+        <v>1</v>
+      </c>
+      <c r="EJ8">
+        <v>1</v>
+      </c>
+      <c r="EK8">
+        <v>0</v>
+      </c>
+      <c r="EL8">
+        <v>0</v>
+      </c>
+      <c r="EM8">
+        <v>0</v>
+      </c>
+      <c r="EN8">
+        <v>0</v>
+      </c>
+      <c r="EO8">
+        <v>1</v>
+      </c>
+      <c r="EQ8">
+        <v>1</v>
+      </c>
+      <c r="ER8">
+        <v>0</v>
+      </c>
+      <c r="ES8">
+        <v>0</v>
+      </c>
+      <c r="ET8">
+        <v>0</v>
+      </c>
+      <c r="EU8">
+        <v>0</v>
+      </c>
+      <c r="EV8">
+        <v>0</v>
+      </c>
+      <c r="EW8">
+        <v>0</v>
+      </c>
+      <c r="EX8">
+        <v>9999999999</v>
+      </c>
+      <c r="EY8">
+        <v>0</v>
+      </c>
+      <c r="FA8">
+        <v>0</v>
+      </c>
+      <c r="FB8">
+        <v>101</v>
+      </c>
+      <c r="FD8">
+        <v>0</v>
+      </c>
+      <c r="FE8">
+        <v>0</v>
+      </c>
+      <c r="FF8">
+        <v>0</v>
+      </c>
+      <c r="FG8">
+        <v>0</v>
+      </c>
+      <c r="FH8">
+        <v>0</v>
+      </c>
+      <c r="FI8">
+        <v>0</v>
+      </c>
+      <c r="FJ8">
+        <v>0</v>
+      </c>
+      <c r="FK8">
+        <v>0</v>
+      </c>
+      <c r="FL8">
+        <v>0</v>
+      </c>
+      <c r="FM8">
+        <v>0</v>
+      </c>
+      <c r="FN8">
+        <v>0</v>
+      </c>
+      <c r="FO8" s="1">
+        <v>38289</v>
+      </c>
+      <c r="FP8">
+        <v>61</v>
+      </c>
+      <c r="FR8" t="s">
+        <v>269</v>
+      </c>
+      <c r="FS8">
+        <v>0</v>
+      </c>
+      <c r="FU8">
+        <v>0</v>
+      </c>
+      <c r="FV8">
+        <v>0</v>
+      </c>
+      <c r="FW8">
+        <v>0</v>
+      </c>
+      <c r="FX8">
+        <v>0</v>
+      </c>
+      <c r="FY8">
+        <v>0</v>
+      </c>
+      <c r="FZ8">
+        <v>0</v>
+      </c>
+      <c r="GA8">
+        <v>0</v>
+      </c>
+      <c r="GB8">
+        <v>0</v>
+      </c>
+      <c r="GC8">
+        <v>0</v>
+      </c>
+      <c r="GD8">
+        <v>0</v>
+      </c>
+      <c r="GE8">
+        <v>0</v>
+      </c>
+      <c r="GF8">
+        <v>0</v>
+      </c>
+      <c r="GG8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:189">
+      <c r="A9">
+        <v>999</v>
+      </c>
+      <c r="C9">
+        <v>20080404</v>
+      </c>
+      <c r="D9">
+        <v>20240331</v>
+      </c>
+      <c r="F9">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>264</v>
+      </c>
+      <c r="H9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I9" t="s">
+        <v>266</v>
+      </c>
+      <c r="J9" t="s">
+        <v>267</v>
+      </c>
+      <c r="P9" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>268</v>
+      </c>
+      <c r="U9" t="s">
+        <v>268</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <v>0</v>
+      </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
+      <c r="DD9">
+        <v>0</v>
+      </c>
+      <c r="DE9">
+        <v>0</v>
+      </c>
+      <c r="DF9">
+        <v>0</v>
+      </c>
+      <c r="DG9">
+        <v>0</v>
+      </c>
+      <c r="DH9">
+        <v>0</v>
+      </c>
+      <c r="DJ9">
+        <v>0</v>
+      </c>
+      <c r="DK9">
+        <v>0</v>
+      </c>
+      <c r="DL9">
+        <v>0</v>
+      </c>
+      <c r="DM9">
+        <v>0</v>
+      </c>
+      <c r="DN9">
+        <v>0</v>
+      </c>
+      <c r="DP9">
+        <v>0</v>
+      </c>
+      <c r="DQ9">
+        <v>0</v>
+      </c>
+      <c r="DR9">
+        <v>0</v>
+      </c>
+      <c r="DS9">
+        <v>0</v>
+      </c>
+      <c r="DT9">
+        <v>0</v>
+      </c>
+      <c r="DW9">
+        <v>0</v>
+      </c>
+      <c r="DX9" t="s">
+        <v>297</v>
+      </c>
+      <c r="DZ9">
+        <v>0</v>
+      </c>
+      <c r="EB9">
+        <v>0</v>
+      </c>
+      <c r="EC9">
+        <v>0</v>
+      </c>
+      <c r="ED9">
+        <v>0</v>
+      </c>
+      <c r="EE9">
+        <v>0</v>
+      </c>
+      <c r="EF9">
+        <v>0</v>
+      </c>
+      <c r="EG9">
+        <v>0</v>
+      </c>
+      <c r="EH9">
+        <v>0</v>
+      </c>
+      <c r="EI9">
+        <v>1</v>
+      </c>
+      <c r="EJ9">
+        <v>1</v>
+      </c>
+      <c r="EK9">
+        <v>0</v>
+      </c>
+      <c r="EL9">
+        <v>0</v>
+      </c>
+      <c r="EM9">
+        <v>0</v>
+      </c>
+      <c r="EN9">
+        <v>0</v>
+      </c>
+      <c r="EO9">
+        <v>1</v>
+      </c>
+      <c r="EQ9">
+        <v>1</v>
+      </c>
+      <c r="ER9">
+        <v>0</v>
+      </c>
+      <c r="ES9">
+        <v>0</v>
+      </c>
+      <c r="ET9">
+        <v>0</v>
+      </c>
+      <c r="EU9">
+        <v>0</v>
+      </c>
+      <c r="EV9">
+        <v>0</v>
+      </c>
+      <c r="EW9">
+        <v>0</v>
+      </c>
+      <c r="EX9">
+        <v>9999999999</v>
+      </c>
+      <c r="EY9">
+        <v>0</v>
+      </c>
+      <c r="FA9">
+        <v>0</v>
+      </c>
+      <c r="FB9">
+        <v>101</v>
+      </c>
+      <c r="FD9">
+        <v>0</v>
+      </c>
+      <c r="FE9">
+        <v>0</v>
+      </c>
+      <c r="FF9">
+        <v>0</v>
+      </c>
+      <c r="FG9">
+        <v>0</v>
+      </c>
+      <c r="FH9">
+        <v>0</v>
+      </c>
+      <c r="FI9">
+        <v>0</v>
+      </c>
+      <c r="FJ9">
+        <v>0</v>
+      </c>
+      <c r="FK9">
+        <v>0</v>
+      </c>
+      <c r="FL9">
+        <v>0</v>
+      </c>
+      <c r="FM9">
+        <v>0</v>
+      </c>
+      <c r="FN9">
+        <v>0</v>
+      </c>
+      <c r="FO9" s="1">
+        <v>38289</v>
+      </c>
+      <c r="FP9">
+        <v>61</v>
+      </c>
+      <c r="FR9" t="s">
+        <v>269</v>
+      </c>
+      <c r="FS9">
+        <v>0</v>
+      </c>
+      <c r="FU9">
+        <v>0</v>
+      </c>
+      <c r="FV9">
+        <v>0</v>
+      </c>
+      <c r="FW9">
+        <v>0</v>
+      </c>
+      <c r="FX9">
+        <v>0</v>
+      </c>
+      <c r="FY9">
+        <v>0</v>
+      </c>
+      <c r="FZ9">
+        <v>0</v>
+      </c>
+      <c r="GA9">
+        <v>0</v>
+      </c>
+      <c r="GB9">
+        <v>0</v>
+      </c>
+      <c r="GC9">
+        <v>0</v>
+      </c>
+      <c r="GD9">
+        <v>0</v>
+      </c>
+      <c r="GE9">
+        <v>0</v>
+      </c>
+      <c r="GF9">
+        <v>0</v>
+      </c>
+      <c r="GG9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -7219,7 +8623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22224" windowHeight="7104" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22224" windowHeight="7104" tabRatio="753" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="312">
   <si>
     <t>HP_ID</t>
   </si>
@@ -182,82 +182,6 @@
     <t>・E・Eｰ・E・Eｨ・E､・E・E・E・E・E・Eｿ・E・E・E・E・Eｫ・E・E・E・E・E｢</t>
   </si>
   <si>
-    <t>・E・Eｱ・Eｲ・E・E・E・E</t>
-  </si>
-  <si>
-    <t>・E・E・E・Eｳｪ・E・Eｰ・Eｸｸ・E・E・E</t>
-  </si>
-  <si>
-    <t>・E・E・E・E・E・E・E・Eｮ・E・E・E・E・E・E</t>
-  </si>
-  <si>
-    <t>6163OONS26</t>
-  </si>
-  <si>
-    <t>・E・Eｽ・Eｭ・E・E・E</t>
-  </si>
-  <si>
-    <t>・E・E・E・E・E・E</t>
-  </si>
-  <si>
-    <t>6163OONS07</t>
-  </si>
-  <si>
-    <t>6163OONS01</t>
-  </si>
-  <si>
-    <t>・E・E｢・E・Eｬ・E・Eｫ・E・Eｮ・E・Eｼ・Eｧ・E・Eｮ・E・E・E・E・E・E・E・Eｮ・E・E・E・E・E・E</t>
-  </si>
-  <si>
-    <t>・E｣・E・E・Eｩ・E・E｢・E・Eｬ・E・Eｫ・E・Eｮ・E・Eｼ・E・Eｮ・E・E・E・E・E・E</t>
-  </si>
-  <si>
-    <t>6163OONS03</t>
-  </si>
-  <si>
-    <t>・E・Eｺ・E・E・E・E・Eｮ・E・E・E・E・E・E</t>
-  </si>
-  <si>
-    <t>・E・E・E・E｡・E・Eｧ・E・E・E・E・E・E・E｡ｬ・E・E・E・E・E・E・E・Eｮ・E・E・E・E・E・E</t>
-  </si>
-  <si>
-    <t>・Eｷｦ・E・E・E・E・E・E・E・Eｴ・E・E・E・E・E・E・E・Eｿ・E・E・E・E・Eｷ</t>
-  </si>
-  <si>
-    <t>6163OONS10</t>
-  </si>
-  <si>
-    <t>6163OONS02</t>
-  </si>
-  <si>
-    <t>・E・E・E・Eｨ・E､・E・E・E・E・E・Eｿ・E・E・E・E・Eｫ・E・E・E・E・E｢</t>
-  </si>
-  <si>
-    <t>・E・E・E・E・E・E・E・Eｪ・E・Eｼ・E・E・E</t>
-  </si>
-  <si>
-    <t>DESKTOP-5OOKR14</t>
-  </si>
-  <si>
-    <t>・E・E・E・E・E・E・Eｧ・E・E・E・E・E・E</t>
-  </si>
-  <si>
-    <t>・E､ｧ・E・Eｸ・E・E・E・E・Eｮ・E・E・E・E・E・E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HosokuCmt
-</t>
-  </si>
-  <si>
-    <t>DESKTOP-7QJRLOU</t>
-  </si>
-  <si>
-    <t>・Eｼ・E・Eｼ・E・E・E｡・E・E・E・E・Eｫ・E・Eｰ・E・Eｫ・E・Eｿ・E・Eｳ・E・Eｳ・E・Eｸ・Eｰｿ・E・E・E</t>
-  </si>
-  <si>
-    <t>DESKTOP-UIODNV1</t>
-  </si>
-  <si>
     <t>ITEM_CD</t>
   </si>
   <si>
@@ -909,9 +833,6 @@
     <t>KJ03575</t>
   </si>
   <si>
-    <t>BY</t>
-  </si>
-  <si>
     <t>X1253</t>
   </si>
   <si>
@@ -921,22 +842,124 @@
     <t>X1270</t>
   </si>
   <si>
-    <t>X1288</t>
-  </si>
-  <si>
-    <t>F1040</t>
-  </si>
-  <si>
-    <t>X1010</t>
-  </si>
-  <si>
-    <t>X1037</t>
-  </si>
-  <si>
-    <t>X1045</t>
-  </si>
-  <si>
-    <t>A2047</t>
+    <t>・ｼ・・・・・ｳ・・ｰｿ・・・</t>
+  </si>
+  <si>
+    <t>・・ｫ・・ｮ・・ｼ・ｧ・・・・・ｯ</t>
+  </si>
+  <si>
+    <t>・・ｭ・・ｼ・・</t>
+  </si>
+  <si>
+    <t>・・｢・・・・・ｭ・・ｼ・・</t>
+  </si>
+  <si>
+    <t>・・ｷ・・ｸ・・｢</t>
+  </si>
+  <si>
+    <t>・・ｫ・・ｮ・・ｼ・ｧ・ｼｻ・ｵ・・・・・・・</t>
+  </si>
+  <si>
+    <t>・・・・・ｪ・・・・・ｿ・・ｫ・・､・・ｳ・ｳｨ・・ｷ・・ｪ・・ｳ・・ｸ・ｼ・・ｽ・・ｼｬ</t>
+  </si>
+  <si>
+    <t>・ｾ・・ｽｵ・ｾ・・ｾ・・ｾ・ｽｶ・ｽｲ・ｾ・・ｾ・・ｽｭ・ｽｳ・ｽｼ・ｾ・・ｾ・・ｽｼ・ｾ・5ML</t>
+  </si>
+  <si>
+    <t>・ｭ・</t>
+  </si>
+  <si>
+    <t>1149503G1027</t>
+  </si>
+  <si>
+    <t>1149503G1</t>
+  </si>
+  <si>
+    <t>・・・・・ｪ・・・・・ｿ・・ｫ・・､・・ｳ・ｳｨ・ｼ・・ｽ・・ｼｬ</t>
+  </si>
+  <si>
+    <t>・ｾ・・ｽｵ・ｾ・・ｾ・・ｾ・ｽｶ・ｽｲ・ｾ・・ｾ・・ｽｭ</t>
+  </si>
+  <si>
+    <t>・ｮ｡</t>
+  </si>
+  <si>
+    <t>1149503A1083</t>
+  </si>
+  <si>
+    <t>1149503A1</t>
+  </si>
+  <si>
+    <t>・・・・・､・・ｭ・・・・・ｭ・・・・・ｳ・ｳｨ・ｰ・・ｶｲ・ｼ・・ｼ・・ｼ・・・・・ｽ・・・ｼ・・ｽ・・ｼｬ</t>
+  </si>
+  <si>
+    <t>・ｾ・・ｽｲ・ｾ・・ｾ・・ｾ・・ｾ・・ｾ・・ｾ・・ｾ・・ｽｭ・ｽｳ・ｽｼ・ｽｬ・ｽｴ・ｽｷ3.6・ｾ・ｾ・</t>
+  </si>
+  <si>
+    <t>1149601A2062</t>
+  </si>
+  <si>
+    <t>1149601A2</t>
+  </si>
+  <si>
+    <t>・・・・・ｭ・・ｵ・・ｼ・・・・ｳｨ・ｰ・・ｶｲ・ｼ・・ｼ・・ｼ・・ｼ・・ｽ・・ｽ・・・ｼ・・ｼ・・ｼ・・ｽ・・ｼｬ</t>
+  </si>
+  <si>
+    <t>・ｾ・・ｾ・・ｽｷ・ｽｻ・ｽｰ・ｾ・・ｾ・・ｽｭ・ｽｳ・ｽｼ</t>
+  </si>
+  <si>
+    <t>2454405H1032</t>
+  </si>
+  <si>
+    <t>2454405H1</t>
+  </si>
+  <si>
+    <t>・・ｪ・・・・・ｫ・・､・・ｳ・ｳｨ・ｰ・・ｶｲ・・ｼ・・ｼ・</t>
+  </si>
+  <si>
+    <t>・ｾ・・ｾ・・ｾ・・ｽｶ・ｽｲ・ｾ・・ｾ・・ｽｭ・ｽｳ・ｽｼ</t>
+  </si>
+  <si>
+    <t>・ｽ・・ｼｬ・ｼｶ</t>
+  </si>
+  <si>
+    <t>1214401A3011</t>
+  </si>
+  <si>
+    <t>1214401A3</t>
+  </si>
+  <si>
+    <t>G1027</t>
+  </si>
+  <si>
+    <t>A1083</t>
+  </si>
+  <si>
+    <t>A2062</t>
+  </si>
+  <si>
+    <t>H1032</t>
+  </si>
+  <si>
+    <t>A3011</t>
+  </si>
+  <si>
+    <t>アレルギー性鼻結膜炎</t>
+  </si>
+  <si>
+    <t>J301</t>
+  </si>
+  <si>
+    <t>１型糖尿病</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>２型糖尿病</t>
+  </si>
+  <si>
+    <t>E11</t>
   </si>
 </sst>
 </file>
@@ -1438,12 +1461,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1766,10 +1786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU28"/>
+  <dimension ref="A1:AU24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1783,6 +1803,7 @@
     <col min="14" max="14" width="15" customWidth="1"/>
     <col min="26" max="26" width="8.88671875" customWidth="1"/>
     <col min="27" max="27" width="46.5546875" customWidth="1"/>
+    <col min="28" max="28" width="28.109375" customWidth="1"/>
     <col min="29" max="29" width="25.21875" customWidth="1"/>
     <col min="30" max="30" width="21" customWidth="1"/>
     <col min="31" max="31" width="18.5546875" customWidth="1"/>
@@ -2263,23 +2284,47 @@
       </c>
     </row>
     <row r="6" spans="1:47">
+      <c r="A6">
+        <v>999</v>
+      </c>
+      <c r="B6">
+        <v>1231</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>250001</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>7085</v>
+      </c>
+      <c r="G6">
+        <v>7097</v>
+      </c>
+      <c r="H6">
+        <v>8050</v>
+      </c>
       <c r="AA6" t="s">
-        <v>52</v>
+        <v>272</v>
       </c>
       <c r="AB6">
-        <v>20160508</v>
+        <v>20230117</v>
       </c>
       <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
         <v>1</v>
       </c>
-      <c r="AD6">
-        <v>20161231</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
       <c r="AF6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -2300,45 +2345,60 @@
         <v>0</v>
       </c>
       <c r="AN6" s="1">
-        <v>2.2916666666666669E-2</v>
+        <v>44943.744889201385</v>
       </c>
       <c r="AO6">
-        <v>66</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="AQ6" s="1">
-        <v>2.2916666666666669E-2</v>
+        <v>44943.744889201385</v>
       </c>
       <c r="AR6">
-        <v>66</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="AT6">
-        <v>9136</v>
+        <v>579147</v>
       </c>
       <c r="AU6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:47">
+      <c r="A7">
+        <v>999</v>
+      </c>
+      <c r="B7">
+        <v>1231</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>250001</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>7097</v>
+      </c>
+      <c r="G7">
+        <v>8051</v>
+      </c>
       <c r="AA7" t="s">
-        <v>53</v>
+        <v>272</v>
       </c>
       <c r="AB7">
-        <v>20160508</v>
+        <v>20230117</v>
       </c>
       <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
         <v>1</v>
-      </c>
-      <c r="AD7">
-        <v>20161231</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
       </c>
       <c r="AF7">
         <v>5</v>
@@ -2362,352 +2422,451 @@
         <v>0</v>
       </c>
       <c r="AN7" s="1">
-        <v>2.2916666666666669E-2</v>
+        <v>44961.063455787036</v>
       </c>
       <c r="AO7">
-        <v>66</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="AQ7" s="1">
-        <v>2.2916666666666669E-2</v>
+        <v>44961.063455787036</v>
       </c>
       <c r="AR7">
-        <v>66</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>9137</v>
+        <v>579156</v>
       </c>
       <c r="AU7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:47">
+      <c r="A8">
+        <v>999</v>
+      </c>
+      <c r="B8">
+        <v>1231</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>493900</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1554</v>
+      </c>
+      <c r="G8">
+        <v>5002</v>
+      </c>
+      <c r="H8">
+        <v>3004</v>
+      </c>
+      <c r="I8">
+        <v>4001</v>
+      </c>
+      <c r="J8">
+        <v>3005</v>
+      </c>
       <c r="AA8" t="s">
-        <v>54</v>
+        <v>273</v>
       </c>
       <c r="AB8">
-        <v>20190531</v>
+        <v>20230208</v>
       </c>
       <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>4</v>
+      </c>
+      <c r="AG8">
+        <v>9</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>44966.523847129632</v>
+      </c>
+      <c r="AO8">
         <v>2</v>
       </c>
-      <c r="AD8">
-        <v>20190612</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>2.9166666666666664E-2</v>
-      </c>
-      <c r="AO8">
-        <v>3</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>55</v>
-      </c>
       <c r="AQ8" s="1">
-        <v>2.9166666666666664E-2</v>
+        <v>44966.523847129632</v>
       </c>
       <c r="AR8">
-        <v>3</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="AT8">
-        <v>9138</v>
+        <v>579165</v>
       </c>
       <c r="AU8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:47">
+      <c r="A9">
+        <v>999</v>
+      </c>
+      <c r="B9">
+        <v>1231</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>493900</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1554</v>
+      </c>
+      <c r="G9">
+        <v>5002</v>
+      </c>
+      <c r="H9">
+        <v>3004</v>
+      </c>
+      <c r="I9">
+        <v>4001</v>
+      </c>
+      <c r="J9">
+        <v>3005</v>
+      </c>
       <c r="AA9" t="s">
-        <v>56</v>
+        <v>273</v>
       </c>
       <c r="AB9">
-        <v>20171010</v>
+        <v>20230208</v>
       </c>
       <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>4</v>
+      </c>
+      <c r="AG9">
+        <v>9</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>44966.523899548614</v>
+      </c>
+      <c r="AO9">
         <v>2</v>
       </c>
-      <c r="AD9">
-        <v>20171031</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="AO9">
-        <v>3</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>55</v>
-      </c>
       <c r="AQ9" s="1">
-        <v>6.9444444444444441E-3</v>
+        <v>44966.523899548614</v>
       </c>
       <c r="AR9">
-        <v>3</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="AT9">
-        <v>9139</v>
+        <v>579167</v>
       </c>
       <c r="AU9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:47">
+      <c r="A10">
+        <v>999</v>
+      </c>
+      <c r="B10">
+        <v>1231</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>706200</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
       <c r="AA10" t="s">
-        <v>57</v>
+        <v>274</v>
       </c>
       <c r="AB10">
-        <v>20171010</v>
+        <v>20230208</v>
       </c>
       <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>44966.523899583335</v>
+      </c>
+      <c r="AO10">
         <v>2</v>
       </c>
-      <c r="AD10">
-        <v>20171031</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="1">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="AO10">
-        <v>3</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>55</v>
-      </c>
       <c r="AQ10" s="1">
-        <v>6.9444444444444441E-3</v>
+        <v>44966.523899583335</v>
       </c>
       <c r="AR10">
-        <v>3</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="AT10">
-        <v>9140</v>
+        <v>579168</v>
       </c>
       <c r="AU10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:47">
+      <c r="A11">
+        <v>999</v>
+      </c>
+      <c r="B11">
+        <v>1231</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>493900</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1554</v>
+      </c>
+      <c r="G11">
+        <v>5002</v>
+      </c>
+      <c r="H11">
+        <v>3004</v>
+      </c>
+      <c r="I11">
+        <v>4001</v>
+      </c>
+      <c r="J11">
+        <v>3005</v>
+      </c>
       <c r="AA11" t="s">
-        <v>51</v>
+        <v>273</v>
       </c>
       <c r="AB11">
-        <v>20170430</v>
+        <v>20230208</v>
       </c>
       <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>4</v>
+      </c>
+      <c r="AG11">
+        <v>9</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>44966.524005810184</v>
+      </c>
+      <c r="AO11">
         <v>2</v>
       </c>
-      <c r="AD11">
-        <v>20170430</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="1">
-        <v>6.2499999999999995E-3</v>
-      </c>
-      <c r="AO11">
-        <v>1</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>58</v>
-      </c>
       <c r="AQ11" s="1">
-        <v>6.2499999999999995E-3</v>
+        <v>44966.524005810184</v>
       </c>
       <c r="AR11">
-        <v>1</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="AT11">
-        <v>9141</v>
+        <v>579169</v>
       </c>
       <c r="AU11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:47">
+      <c r="A12">
+        <v>999</v>
+      </c>
+      <c r="B12">
+        <v>1231</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>706200</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
       <c r="AA12" t="s">
-        <v>53</v>
+        <v>274</v>
       </c>
       <c r="AB12">
-        <v>20170430</v>
+        <v>20230208</v>
       </c>
       <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>44966.524005833337</v>
+      </c>
+      <c r="AO12">
         <v>2</v>
       </c>
-      <c r="AD12">
-        <v>20170430</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>5</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="1">
-        <v>6.2499999999999995E-3</v>
-      </c>
-      <c r="AO12">
-        <v>1</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>58</v>
-      </c>
       <c r="AQ12" s="1">
-        <v>6.2499999999999995E-3</v>
+        <v>44966.524005833337</v>
       </c>
       <c r="AR12">
-        <v>1</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="AT12">
-        <v>9142</v>
+        <v>579170</v>
       </c>
       <c r="AU12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:47">
+      <c r="A13">
+        <v>999</v>
+      </c>
+      <c r="B13">
+        <v>1231</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>706200</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
       <c r="AA13" t="s">
-        <v>52</v>
+        <v>275</v>
       </c>
       <c r="AB13">
-        <v>20170430</v>
+        <v>20230208</v>
       </c>
       <c r="AC13">
         <v>2</v>
       </c>
       <c r="AD13">
-        <v>20170430</v>
+        <v>20230228</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -2734,662 +2893,773 @@
         <v>0</v>
       </c>
       <c r="AN13" s="1">
-        <v>6.2499999999999995E-3</v>
+        <v>44979.401023136576</v>
       </c>
       <c r="AO13">
         <v>1</v>
       </c>
-      <c r="AP13" t="s">
-        <v>58</v>
-      </c>
       <c r="AQ13" s="1">
-        <v>6.2499999999999995E-3</v>
+        <v>44979.401023136576</v>
       </c>
       <c r="AR13">
         <v>1</v>
       </c>
-      <c r="AS13" t="s">
-        <v>58</v>
-      </c>
       <c r="AT13">
-        <v>9143</v>
+        <v>579223</v>
       </c>
       <c r="AU13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:47">
+      <c r="A14">
+        <v>999</v>
+      </c>
+      <c r="B14">
+        <v>1231</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>706200</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
       <c r="AA14" t="s">
-        <v>57</v>
+        <v>274</v>
       </c>
       <c r="AB14">
-        <v>20161113</v>
+        <v>20230315</v>
       </c>
       <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>45001.742766828705</v>
+      </c>
+      <c r="AO14">
         <v>2</v>
       </c>
-      <c r="AD14">
-        <v>20161130</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="1">
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="AO14">
-        <v>1</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>59</v>
-      </c>
       <c r="AQ14" s="1">
-        <v>1.8749999999999999E-2</v>
+        <v>45001.742766828705</v>
       </c>
       <c r="AR14">
-        <v>1</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="AT14">
-        <v>9144</v>
+        <v>579296</v>
       </c>
       <c r="AU14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:47">
+      <c r="A15">
+        <v>999</v>
+      </c>
+      <c r="B15">
+        <v>1231</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>706200</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
       <c r="AA15" t="s">
-        <v>56</v>
+        <v>274</v>
       </c>
       <c r="AB15">
-        <v>20161113</v>
+        <v>20230315</v>
       </c>
       <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>45001.80760980324</v>
+      </c>
+      <c r="AO15">
         <v>2</v>
       </c>
-      <c r="AD15">
-        <v>20161130</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="1">
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="AO15">
-        <v>1</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>59</v>
-      </c>
       <c r="AQ15" s="1">
-        <v>1.8749999999999999E-2</v>
+        <v>45001.80760980324</v>
       </c>
       <c r="AR15">
-        <v>1</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="AT15">
-        <v>9145</v>
+        <v>579311</v>
       </c>
       <c r="AU15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:47">
+      <c r="A16">
+        <v>999</v>
+      </c>
+      <c r="B16">
+        <v>1231</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>885037</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
       <c r="AA16" t="s">
-        <v>60</v>
+        <v>276</v>
       </c>
       <c r="AB16">
-        <v>20160508</v>
+        <v>20230315</v>
       </c>
       <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>45001.818350555557</v>
+      </c>
+      <c r="AO16">
         <v>2</v>
       </c>
-      <c r="AD16">
-        <v>20160522</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="1">
-        <v>3.6805555555555557E-2</v>
-      </c>
-      <c r="AO16">
-        <v>1</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>59</v>
-      </c>
       <c r="AQ16" s="1">
-        <v>3.6805555555555557E-2</v>
+        <v>45001.818350567133</v>
       </c>
       <c r="AR16">
-        <v>1</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="AT16">
-        <v>9146</v>
+        <v>579312</v>
       </c>
       <c r="AU16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="8:47">
+    <row r="17" spans="1:47">
+      <c r="A17">
+        <v>999</v>
+      </c>
+      <c r="B17">
+        <v>1231</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>885037</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
       <c r="AA17" t="s">
-        <v>61</v>
+        <v>276</v>
       </c>
       <c r="AB17">
-        <v>20160508</v>
+        <v>20230315</v>
       </c>
       <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>45001.828272476851</v>
+      </c>
+      <c r="AO17">
         <v>2</v>
       </c>
-      <c r="AD17">
-        <v>20160522</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="1">
-        <v>3.6805555555555557E-2</v>
-      </c>
-      <c r="AO17">
-        <v>1</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>59</v>
-      </c>
       <c r="AQ17" s="1">
-        <v>3.6805555555555557E-2</v>
+        <v>45001.828272476851</v>
       </c>
       <c r="AR17">
-        <v>1</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="AT17">
-        <v>9147</v>
+        <v>579313</v>
       </c>
       <c r="AU17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="8:47">
+    <row r="18" spans="1:47">
+      <c r="A18">
+        <v>999</v>
+      </c>
+      <c r="B18">
+        <v>1231</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>884584</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1401</v>
+      </c>
+      <c r="G18">
+        <v>5001</v>
+      </c>
       <c r="AA18" t="s">
-        <v>51</v>
+        <v>277</v>
       </c>
       <c r="AB18">
-        <v>20151221</v>
+        <v>20230315</v>
       </c>
       <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>45001.844133379629</v>
+      </c>
+      <c r="AO18">
         <v>2</v>
       </c>
-      <c r="AD18">
-        <v>20151231</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="1">
-        <v>3.8194444444444441E-2</v>
-      </c>
-      <c r="AO18">
-        <v>52</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>62</v>
-      </c>
       <c r="AQ18" s="1">
-        <v>3.8194444444444441E-2</v>
+        <v>45001.844133379629</v>
       </c>
       <c r="AR18">
-        <v>52</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="AT18">
-        <v>9148</v>
+        <v>579314</v>
       </c>
       <c r="AU18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="8:47">
+    <row r="19" spans="1:47">
+      <c r="A19">
+        <v>999</v>
+      </c>
+      <c r="B19">
+        <v>1231</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>884584</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1401</v>
+      </c>
+      <c r="G19">
+        <v>5001</v>
+      </c>
       <c r="AA19" t="s">
-        <v>63</v>
+        <v>277</v>
       </c>
       <c r="AB19">
-        <v>20151215</v>
+        <v>20230315</v>
       </c>
       <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>45002.087580185187</v>
+      </c>
+      <c r="AO19">
         <v>2</v>
       </c>
-      <c r="AD19">
-        <v>20151231</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="1">
-        <v>3.8194444444444441E-2</v>
-      </c>
-      <c r="AO19">
-        <v>52</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>62</v>
-      </c>
       <c r="AQ19" s="1">
-        <v>3.8194444444444441E-2</v>
+        <v>45002.087580185187</v>
       </c>
       <c r="AR19">
-        <v>52</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="AT19">
-        <v>9149</v>
+        <v>579315</v>
       </c>
       <c r="AU19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="8:47">
+    <row r="20" spans="1:47">
+      <c r="A20">
+        <v>999</v>
+      </c>
+      <c r="B20">
+        <v>1231</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>885037</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
       <c r="AA20" t="s">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c r="AB20">
-        <v>20151215</v>
+        <v>20230315</v>
       </c>
       <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>45002.088854791669</v>
+      </c>
+      <c r="AO20">
         <v>2</v>
       </c>
-      <c r="AD20">
-        <v>20151231</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="1">
-        <v>3.8194444444444441E-2</v>
-      </c>
-      <c r="AO20">
-        <v>52</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>62</v>
-      </c>
       <c r="AQ20" s="1">
-        <v>3.8194444444444441E-2</v>
+        <v>45002.088854791669</v>
       </c>
       <c r="AR20">
-        <v>52</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="AT20">
-        <v>9150</v>
+        <v>579316</v>
       </c>
       <c r="AU20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="8:47">
+    <row r="21" spans="1:47">
+      <c r="A21">
+        <v>999</v>
+      </c>
+      <c r="B21">
+        <v>1231</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>706200</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
       <c r="AA21" t="s">
-        <v>65</v>
+        <v>274</v>
       </c>
       <c r="AB21">
-        <v>20141122</v>
+        <v>20230315</v>
       </c>
       <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>45002.089675868054</v>
+      </c>
+      <c r="AO21">
         <v>2</v>
       </c>
-      <c r="AD21">
-        <v>20141130</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="1">
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="AO21">
-        <v>72</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>66</v>
-      </c>
       <c r="AQ21" s="1">
-        <v>2.2222222222222223E-2</v>
+        <v>45002.089675868054</v>
       </c>
       <c r="AR21">
-        <v>72</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="AT21">
-        <v>9151</v>
+        <v>579317</v>
       </c>
       <c r="AU21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="8:47">
+    <row r="22" spans="1:47">
+      <c r="A22">
+        <v>999</v>
+      </c>
+      <c r="B22">
+        <v>1231</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>885037</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
       <c r="AA22" t="s">
-        <v>51</v>
+        <v>276</v>
       </c>
       <c r="AB22">
-        <v>20111217</v>
+        <v>20230315</v>
       </c>
       <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>45002.796537002316</v>
+      </c>
+      <c r="AO22">
         <v>2</v>
       </c>
-      <c r="AD22">
-        <v>20141031</v>
-      </c>
-      <c r="AE22">
-        <v>1</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="1">
-        <v>3.9583333333333331E-2</v>
-      </c>
-      <c r="AO22">
-        <v>11</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>67</v>
-      </c>
       <c r="AQ22" s="1">
-        <v>3.9583333333333331E-2</v>
+        <v>45002.796537002316</v>
       </c>
       <c r="AR22">
-        <v>11</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="AT22">
-        <v>9152</v>
+        <v>579318</v>
       </c>
       <c r="AU22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="8:47">
+    <row r="23" spans="1:47">
+      <c r="A23">
+        <v>999</v>
+      </c>
+      <c r="B23">
+        <v>1231</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>706200</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
       <c r="AA23" t="s">
-        <v>68</v>
+        <v>274</v>
       </c>
       <c r="AB23">
-        <v>20111217</v>
+        <v>20230315</v>
       </c>
       <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>45002.814814756945</v>
+      </c>
+      <c r="AO23">
         <v>2</v>
       </c>
-      <c r="AD23">
-        <v>20141031</v>
-      </c>
-      <c r="AE23">
-        <v>1</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="1">
-        <v>3.9583333333333331E-2</v>
-      </c>
-      <c r="AO23">
-        <v>11</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>67</v>
-      </c>
       <c r="AQ23" s="1">
-        <v>3.9583333333333331E-2</v>
+        <v>45002.814814756945</v>
       </c>
       <c r="AR23">
-        <v>11</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="AT23">
-        <v>9153</v>
+        <v>579319</v>
       </c>
       <c r="AU23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="8:47">
+    <row r="24" spans="1:47">
+      <c r="A24">
+        <v>999</v>
+      </c>
+      <c r="B24">
+        <v>1231</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>885037</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
       <c r="AA24" t="s">
-        <v>69</v>
+        <v>276</v>
       </c>
       <c r="AB24">
-        <v>20190612</v>
+        <v>20230315</v>
       </c>
       <c r="AC24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>20190630</v>
+        <v>0</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -3416,335 +3686,21 @@
         <v>0</v>
       </c>
       <c r="AN24" s="1">
-        <v>1.1484953703703704E-2</v>
+        <v>45003.132776770835</v>
       </c>
       <c r="AO24">
         <v>2</v>
       </c>
-      <c r="AP24" t="s">
-        <v>70</v>
-      </c>
       <c r="AQ24" s="1">
-        <v>1.1484953703703704E-2</v>
+        <v>45003.132776770835</v>
       </c>
       <c r="AR24">
         <v>2</v>
       </c>
-      <c r="AS24" t="s">
-        <v>70</v>
-      </c>
       <c r="AT24">
-        <v>880451</v>
+        <v>579320</v>
       </c>
       <c r="AU24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="8:47">
-      <c r="AA25" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB25">
-        <v>20190531</v>
-      </c>
-      <c r="AC25">
-        <v>2</v>
-      </c>
-      <c r="AD25">
-        <v>20190630</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>5</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="1">
-        <v>1.1484953703703704E-2</v>
-      </c>
-      <c r="AO25">
-        <v>2</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ25" s="1">
-        <v>1.1484953703703704E-2</v>
-      </c>
-      <c r="AR25">
-        <v>2</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT25">
-        <v>880452</v>
-      </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="8:47">
-      <c r="AA26" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB26">
-        <v>20190531</v>
-      </c>
-      <c r="AC26">
-        <v>2</v>
-      </c>
-      <c r="AD26">
-        <v>20190630</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AN26" s="1">
-        <v>1.1484953703703704E-2</v>
-      </c>
-      <c r="AO26">
-        <v>2</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ26" s="1">
-        <v>1.1484953703703704E-2</v>
-      </c>
-      <c r="AR26">
-        <v>2</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT26">
-        <v>880453</v>
-      </c>
-      <c r="AU26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="8:47" ht="43.2">
-      <c r="H27">
-        <v>3</v>
-      </c>
-      <c r="I27">
-        <v>4</v>
-      </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
-      <c r="K27">
-        <v>6</v>
-      </c>
-      <c r="L27">
-        <v>7</v>
-      </c>
-      <c r="M27">
-        <v>8</v>
-      </c>
-      <c r="N27">
-        <v>9</v>
-      </c>
-      <c r="O27">
-        <v>10</v>
-      </c>
-      <c r="P27">
-        <v>11</v>
-      </c>
-      <c r="Q27">
-        <v>12</v>
-      </c>
-      <c r="R27">
-        <v>13</v>
-      </c>
-      <c r="S27">
-        <v>14</v>
-      </c>
-      <c r="T27">
-        <v>15</v>
-      </c>
-      <c r="U27">
-        <v>16</v>
-      </c>
-      <c r="V27">
-        <v>17</v>
-      </c>
-      <c r="W27">
-        <v>18</v>
-      </c>
-      <c r="X27">
-        <v>19</v>
-      </c>
-      <c r="Y27">
-        <v>20</v>
-      </c>
-      <c r="Z27">
-        <v>21</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB27">
-        <v>20221215</v>
-      </c>
-      <c r="AC27">
-        <v>1</v>
-      </c>
-      <c r="AD27">
-        <v>20230101</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27" s="1">
-        <v>2.5538194444444443E-2</v>
-      </c>
-      <c r="AO27">
-        <v>2</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ27" s="1">
-        <v>2.5538194444444443E-2</v>
-      </c>
-      <c r="AR27">
-        <v>2</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT27">
-        <v>880585</v>
-      </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="8:47">
-      <c r="AA28" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB28">
-        <v>20221228</v>
-      </c>
-      <c r="AC28">
-        <v>3</v>
-      </c>
-      <c r="AD28">
-        <v>20230222</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="1">
-        <v>2.4668981481481483E-2</v>
-      </c>
-      <c r="AO28">
-        <v>2</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ28" s="1">
-        <v>2.4668981481481483E-2</v>
-      </c>
-      <c r="AR28">
-        <v>2</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>76</v>
-      </c>
-      <c r="AT28">
-        <v>880775</v>
-      </c>
-      <c r="AU28">
         <v>0</v>
       </c>
     </row>
@@ -3755,10 +3711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3772,62 +3728,122 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="C1" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="D1" t="s">
         <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="F1" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>294</v>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="F2">
         <v>3731012</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>294</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="E3" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="F3">
         <v>1539004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4">
+        <v>884584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F5">
+        <v>250001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F6">
+        <v>250001</v>
       </c>
     </row>
   </sheetData>
@@ -3839,8 +3855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3857,208 +3873,235 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C1" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="D1" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="E1" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="F1" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="G1" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="H1" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>294</v>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
       <c r="H2" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>294</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
       <c r="H3" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>294</v>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
       <c r="H4" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>294</v>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
       <c r="H5" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>294</v>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
       <c r="H6" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>294</v>
+      <c r="C7">
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
       <c r="H7" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>294</v>
+      <c r="C8">
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
       <c r="H8" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>294</v>
+      <c r="C9">
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
       <c r="H9" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>294</v>
+      <c r="C10">
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
       <c r="H10" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4068,10 +4111,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GG9"/>
+  <dimension ref="A1:GG14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="DK1" workbookViewId="0">
+      <selection activeCell="DX14" sqref="DX7:DX14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4151,6 +4194,7 @@
     <col min="114" max="114" width="25.109375" customWidth="1"/>
     <col min="115" max="115" width="19.44140625" customWidth="1"/>
     <col min="128" max="128" width="31.21875" customWidth="1"/>
+    <col min="129" max="129" width="26.6640625" customWidth="1"/>
     <col min="146" max="146" width="25.77734375" customWidth="1"/>
     <col min="177" max="177" width="24.21875" customWidth="1"/>
     <col min="178" max="178" width="21.88671875" customWidth="1"/>
@@ -4161,511 +4205,511 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
         <v>27</v>
       </c>
       <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" t="s">
+      <c r="AD1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
+      <c r="AE1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" t="s">
+      <c r="AF1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" t="s">
+      <c r="AG1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AH1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AI1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AJ1" t="s">
         <v>85</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AK1" t="s">
         <v>86</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AL1" t="s">
         <v>87</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AM1" t="s">
         <v>88</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AN1" t="s">
         <v>89</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AO1" t="s">
         <v>90</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AP1" t="s">
         <v>91</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AQ1" t="s">
         <v>92</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AR1" t="s">
         <v>93</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AS1" t="s">
         <v>94</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AT1" t="s">
         <v>95</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AU1" t="s">
         <v>96</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AV1" t="s">
         <v>97</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AW1" t="s">
         <v>98</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AX1" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AY1" t="s">
         <v>100</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AZ1" t="s">
         <v>101</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="BA1" t="s">
         <v>102</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="BB1" t="s">
         <v>103</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="BC1" t="s">
         <v>104</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="BD1" t="s">
         <v>105</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="BE1" t="s">
         <v>106</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="BF1" t="s">
         <v>107</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="BG1" t="s">
         <v>108</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="BH1" t="s">
         <v>109</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="BI1" t="s">
         <v>110</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BJ1" t="s">
         <v>111</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BK1" t="s">
         <v>112</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="BL1" t="s">
         <v>113</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="BM1" t="s">
         <v>114</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="BN1" t="s">
         <v>115</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="BO1" t="s">
         <v>116</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BP1" t="s">
         <v>117</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BQ1" t="s">
         <v>118</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BR1" t="s">
         <v>119</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BS1" t="s">
         <v>120</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BT1" t="s">
         <v>121</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BU1" t="s">
         <v>122</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BV1" t="s">
         <v>123</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BW1" t="s">
         <v>124</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BX1" t="s">
         <v>125</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BY1" t="s">
         <v>126</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BZ1" t="s">
         <v>127</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="CA1" t="s">
         <v>128</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="CB1" t="s">
         <v>129</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="CC1" t="s">
         <v>130</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="CD1" t="s">
         <v>131</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="CE1" t="s">
         <v>132</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="CF1" t="s">
         <v>133</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="CG1" t="s">
         <v>134</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="CH1" t="s">
         <v>135</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="CI1" t="s">
         <v>136</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="CJ1" t="s">
         <v>137</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="CK1" t="s">
         <v>138</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="CL1" t="s">
         <v>139</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="CM1" t="s">
         <v>140</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="CN1" t="s">
         <v>141</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="CO1" t="s">
         <v>142</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="CP1" t="s">
         <v>143</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="CQ1" t="s">
         <v>144</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="CR1" t="s">
         <v>145</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="CS1" t="s">
         <v>146</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="CT1" t="s">
         <v>147</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="CU1" t="s">
         <v>148</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CV1" t="s">
         <v>149</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CW1" t="s">
         <v>150</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CX1" t="s">
         <v>151</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CY1" t="s">
         <v>152</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CZ1" t="s">
         <v>153</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="DA1" t="s">
         <v>154</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="DB1" t="s">
         <v>155</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="DC1" t="s">
         <v>156</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="DD1" t="s">
         <v>157</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="DE1" t="s">
         <v>158</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="DF1" t="s">
         <v>159</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="DG1" t="s">
         <v>160</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="DH1" t="s">
         <v>161</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="DI1" t="s">
         <v>162</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="DJ1" t="s">
         <v>163</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="DK1" t="s">
         <v>164</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="DL1" t="s">
         <v>165</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="DM1" t="s">
         <v>166</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="DN1" t="s">
         <v>167</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="DO1" t="s">
         <v>168</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="DP1" t="s">
         <v>169</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="DQ1" t="s">
         <v>170</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="DR1" t="s">
         <v>171</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="DS1" t="s">
         <v>172</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="DT1" t="s">
         <v>173</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="DU1" t="s">
         <v>174</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="DV1" t="s">
         <v>175</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DW1" t="s">
         <v>176</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DX1" t="s">
         <v>177</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DY1" t="s">
         <v>178</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DZ1" t="s">
         <v>179</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="EA1" t="s">
         <v>180</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="EB1" t="s">
         <v>181</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="EC1" t="s">
         <v>182</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="ED1" t="s">
         <v>183</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="EE1" t="s">
         <v>184</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="EF1" t="s">
         <v>185</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="EG1" t="s">
         <v>186</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="EH1" t="s">
         <v>187</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="EI1" t="s">
         <v>188</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>189</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>190</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>191</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>192</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>193</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>194</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>195</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>196</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>197</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>198</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>199</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>200</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>201</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>202</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>203</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>204</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>205</v>
-      </c>
-      <c r="EB1" t="s">
-        <v>206</v>
-      </c>
-      <c r="EC1" t="s">
-        <v>207</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>208</v>
-      </c>
-      <c r="EE1" t="s">
-        <v>209</v>
-      </c>
-      <c r="EF1" t="s">
-        <v>210</v>
-      </c>
-      <c r="EG1" t="s">
-        <v>211</v>
-      </c>
-      <c r="EH1" t="s">
-        <v>212</v>
-      </c>
-      <c r="EI1" t="s">
-        <v>213</v>
       </c>
       <c r="EJ1" t="s">
         <v>36</v>
       </c>
       <c r="EK1" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="EL1" t="s">
         <v>37</v>
       </c>
       <c r="EM1" t="s">
+        <v>190</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>191</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>192</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>193</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>194</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>195</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>196</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>198</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>199</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>200</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>201</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>202</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>203</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>204</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>205</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>206</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>207</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>208</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>209</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>210</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>211</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>212</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>213</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>214</v>
+      </c>
+      <c r="FL1" t="s">
         <v>215</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="FM1" t="s">
         <v>216</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="FN1" t="s">
         <v>217</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>218</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>219</v>
-      </c>
-      <c r="ER1" t="s">
-        <v>220</v>
-      </c>
-      <c r="ES1" t="s">
-        <v>221</v>
-      </c>
-      <c r="ET1" t="s">
-        <v>222</v>
-      </c>
-      <c r="EU1" t="s">
-        <v>223</v>
-      </c>
-      <c r="EV1" t="s">
-        <v>224</v>
-      </c>
-      <c r="EW1" t="s">
-        <v>225</v>
-      </c>
-      <c r="EX1" t="s">
-        <v>226</v>
-      </c>
-      <c r="EY1" t="s">
-        <v>227</v>
-      </c>
-      <c r="EZ1" t="s">
-        <v>228</v>
-      </c>
-      <c r="FA1" t="s">
-        <v>229</v>
-      </c>
-      <c r="FB1" t="s">
-        <v>230</v>
-      </c>
-      <c r="FC1" t="s">
-        <v>231</v>
-      </c>
-      <c r="FD1" t="s">
-        <v>232</v>
-      </c>
-      <c r="FE1" t="s">
-        <v>233</v>
-      </c>
-      <c r="FF1" t="s">
-        <v>234</v>
-      </c>
-      <c r="FG1" t="s">
-        <v>235</v>
-      </c>
-      <c r="FH1" t="s">
-        <v>236</v>
-      </c>
-      <c r="FI1" t="s">
-        <v>237</v>
-      </c>
-      <c r="FJ1" t="s">
-        <v>238</v>
-      </c>
-      <c r="FK1" t="s">
-        <v>239</v>
-      </c>
-      <c r="FL1" t="s">
-        <v>240</v>
-      </c>
-      <c r="FM1" t="s">
-        <v>241</v>
-      </c>
-      <c r="FN1" t="s">
-        <v>242</v>
       </c>
       <c r="FO1" t="s">
         <v>39</v>
@@ -4686,40 +4730,40 @@
         <v>44</v>
       </c>
       <c r="FU1" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="FV1" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="FW1" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="FX1" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="FY1" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="FZ1" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="GA1" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="GB1" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="GC1" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="GD1" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="GE1" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="GF1" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="GG1" t="s">
         <v>38</v>
@@ -4739,19 +4783,19 @@
         <v>99999999</v>
       </c>
       <c r="E2" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="F2">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="H2" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="P2" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -4763,10 +4807,10 @@
         <v>16</v>
       </c>
       <c r="T2" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="U2" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -5036,7 +5080,7 @@
         <v>112</v>
       </c>
       <c r="DY2" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="DZ2">
         <v>1</v>
@@ -5087,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="EP2" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="EQ2">
         <v>0</v>
@@ -5165,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="FT2" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="FU2">
         <v>0</v>
@@ -5212,7 +5256,7 @@
         <v>999</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="C3">
         <v>20160401</v>
@@ -5224,19 +5268,19 @@
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="H3" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="I3" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="J3" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="P3" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -5245,10 +5289,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="U3" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -5626,7 +5670,7 @@
         <v>61</v>
       </c>
       <c r="FR3" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="FS3">
         <v>0</v>
@@ -5676,7 +5720,7 @@
         <v>999</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="C4">
         <v>20080401</v>
@@ -5688,19 +5732,19 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="H4" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="I4" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="J4" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="P4" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -5709,10 +5753,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="U4" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -6090,7 +6134,7 @@
         <v>61</v>
       </c>
       <c r="FR4" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="FS4">
         <v>0</v>
@@ -6140,7 +6184,7 @@
         <v>999</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6152,19 +6196,19 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="H5" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="I5" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="J5" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="P5" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -6173,10 +6217,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="U5" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -6554,7 +6598,7 @@
         <v>61</v>
       </c>
       <c r="FR5" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="FS5">
         <v>0</v>
@@ -6616,19 +6660,19 @@
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="H6" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="I6" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="J6" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="P6" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -6637,10 +6681,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="U6" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -6901,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="DX6" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="DZ6">
         <v>0</v>
@@ -7021,7 +7065,7 @@
         <v>61</v>
       </c>
       <c r="FR6" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="FS6">
         <v>0</v>
@@ -7080,19 +7124,19 @@
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="H7" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="I7" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="J7" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="P7" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -7101,10 +7145,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="U7" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -7365,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="DX7" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="DZ7">
         <v>0</v>
@@ -7485,7 +7529,7 @@
         <v>61</v>
       </c>
       <c r="FR7" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="FS7">
         <v>0</v>
@@ -7544,19 +7588,19 @@
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="H8" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="I8" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="J8" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="P8" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -7565,10 +7609,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="U8" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -7829,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="DX8" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="DZ8">
         <v>0</v>
@@ -7949,7 +7993,7 @@
         <v>61</v>
       </c>
       <c r="FR8" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="FS8">
         <v>0</v>
@@ -8008,19 +8052,19 @@
         <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="H9" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="I9" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="J9" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="P9" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -8029,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="U9" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -8293,7 +8337,7 @@
         <v>0</v>
       </c>
       <c r="DX9" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="DZ9">
         <v>0</v>
@@ -8413,7 +8457,7 @@
         <v>61</v>
       </c>
       <c r="FR9" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="FS9">
         <v>0</v>
@@ -8455,6 +8499,2413 @@
         <v>0</v>
       </c>
       <c r="GG9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:189">
+      <c r="A10">
+        <v>999</v>
+      </c>
+      <c r="B10">
+        <v>936</v>
+      </c>
+      <c r="C10">
+        <v>20220401</v>
+      </c>
+      <c r="D10">
+        <v>99999999</v>
+      </c>
+      <c r="E10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>278</v>
+      </c>
+      <c r="H10" t="s">
+        <v>279</v>
+      </c>
+      <c r="P10" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>343</v>
+      </c>
+      <c r="S10">
+        <v>47</v>
+      </c>
+      <c r="T10" t="s">
+        <v>280</v>
+      </c>
+      <c r="U10" t="s">
+        <v>280</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
+        <v>0</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CW10">
+        <v>0</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>4</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DA10">
+        <v>0</v>
+      </c>
+      <c r="DB10">
+        <v>0</v>
+      </c>
+      <c r="DC10">
+        <v>0</v>
+      </c>
+      <c r="DD10">
+        <v>0</v>
+      </c>
+      <c r="DE10">
+        <v>0</v>
+      </c>
+      <c r="DF10">
+        <v>0</v>
+      </c>
+      <c r="DG10">
+        <v>0</v>
+      </c>
+      <c r="DH10">
+        <v>0</v>
+      </c>
+      <c r="DJ10">
+        <v>0</v>
+      </c>
+      <c r="DK10">
+        <v>0</v>
+      </c>
+      <c r="DL10">
+        <v>0</v>
+      </c>
+      <c r="DM10">
+        <v>0</v>
+      </c>
+      <c r="DN10">
+        <v>0</v>
+      </c>
+      <c r="DP10">
+        <v>0</v>
+      </c>
+      <c r="DQ10">
+        <v>0</v>
+      </c>
+      <c r="DR10">
+        <v>0</v>
+      </c>
+      <c r="DS10">
+        <v>0</v>
+      </c>
+      <c r="DT10">
+        <v>0</v>
+      </c>
+      <c r="DU10">
+        <v>0</v>
+      </c>
+      <c r="DV10">
+        <v>0</v>
+      </c>
+      <c r="DW10">
+        <v>0</v>
+      </c>
+      <c r="DX10" t="s">
+        <v>301</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>281</v>
+      </c>
+      <c r="DZ10">
+        <v>0</v>
+      </c>
+      <c r="EA10">
+        <v>0</v>
+      </c>
+      <c r="EB10">
+        <v>20220401</v>
+      </c>
+      <c r="EC10">
+        <v>99999999</v>
+      </c>
+      <c r="ED10">
+        <v>0</v>
+      </c>
+      <c r="EE10">
+        <v>0</v>
+      </c>
+      <c r="EF10">
+        <v>0</v>
+      </c>
+      <c r="EG10">
+        <v>0</v>
+      </c>
+      <c r="EH10">
+        <v>0</v>
+      </c>
+      <c r="EI10">
+        <v>0</v>
+      </c>
+      <c r="EJ10">
+        <v>0</v>
+      </c>
+      <c r="EK10">
+        <v>0</v>
+      </c>
+      <c r="EL10">
+        <v>0</v>
+      </c>
+      <c r="EM10">
+        <v>0</v>
+      </c>
+      <c r="EN10">
+        <v>0</v>
+      </c>
+      <c r="EO10">
+        <v>0</v>
+      </c>
+      <c r="EP10" t="s">
+        <v>282</v>
+      </c>
+      <c r="EQ10">
+        <v>0</v>
+      </c>
+      <c r="ER10">
+        <v>0</v>
+      </c>
+      <c r="ES10">
+        <v>0</v>
+      </c>
+      <c r="ET10">
+        <v>0</v>
+      </c>
+      <c r="EU10">
+        <v>0</v>
+      </c>
+      <c r="EV10">
+        <v>1</v>
+      </c>
+      <c r="EW10">
+        <v>0</v>
+      </c>
+      <c r="EX10">
+        <v>620001936</v>
+      </c>
+      <c r="EY10">
+        <v>0</v>
+      </c>
+      <c r="FA10">
+        <v>0</v>
+      </c>
+      <c r="FD10">
+        <v>0</v>
+      </c>
+      <c r="FE10">
+        <v>0</v>
+      </c>
+      <c r="FF10">
+        <v>0</v>
+      </c>
+      <c r="FG10">
+        <v>0</v>
+      </c>
+      <c r="FH10">
+        <v>0</v>
+      </c>
+      <c r="FI10">
+        <v>0</v>
+      </c>
+      <c r="FJ10">
+        <v>0</v>
+      </c>
+      <c r="FK10">
+        <v>0</v>
+      </c>
+      <c r="FL10">
+        <v>0</v>
+      </c>
+      <c r="FM10">
+        <v>0</v>
+      </c>
+      <c r="FN10">
+        <v>0</v>
+      </c>
+      <c r="FO10" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FP10">
+        <v>0</v>
+      </c>
+      <c r="FR10" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FS10">
+        <v>0</v>
+      </c>
+      <c r="FU10">
+        <v>0</v>
+      </c>
+      <c r="FV10">
+        <v>0</v>
+      </c>
+      <c r="FW10">
+        <v>0</v>
+      </c>
+      <c r="FX10">
+        <v>0</v>
+      </c>
+      <c r="FY10">
+        <v>0</v>
+      </c>
+      <c r="FZ10">
+        <v>0</v>
+      </c>
+      <c r="GA10">
+        <v>0</v>
+      </c>
+      <c r="GB10">
+        <v>0</v>
+      </c>
+      <c r="GC10">
+        <v>0</v>
+      </c>
+      <c r="GD10">
+        <v>0</v>
+      </c>
+      <c r="GE10">
+        <v>0</v>
+      </c>
+      <c r="GF10">
+        <v>0</v>
+      </c>
+      <c r="GG10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:189">
+      <c r="A11">
+        <v>999</v>
+      </c>
+      <c r="B11">
+        <v>776</v>
+      </c>
+      <c r="C11">
+        <v>20200401</v>
+      </c>
+      <c r="D11">
+        <v>99999999</v>
+      </c>
+      <c r="E11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H11" t="s">
+        <v>284</v>
+      </c>
+      <c r="P11" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>226</v>
+      </c>
+      <c r="S11">
+        <v>22</v>
+      </c>
+      <c r="T11" t="s">
+        <v>285</v>
+      </c>
+      <c r="U11" t="s">
+        <v>285</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11">
+        <v>0</v>
+      </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
+        <v>0</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>4</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DB11">
+        <v>2</v>
+      </c>
+      <c r="DC11">
+        <v>0</v>
+      </c>
+      <c r="DD11">
+        <v>0</v>
+      </c>
+      <c r="DE11">
+        <v>0</v>
+      </c>
+      <c r="DF11">
+        <v>0</v>
+      </c>
+      <c r="DG11">
+        <v>0</v>
+      </c>
+      <c r="DH11">
+        <v>0</v>
+      </c>
+      <c r="DJ11">
+        <v>0</v>
+      </c>
+      <c r="DK11">
+        <v>0</v>
+      </c>
+      <c r="DL11">
+        <v>0</v>
+      </c>
+      <c r="DM11">
+        <v>0</v>
+      </c>
+      <c r="DN11">
+        <v>0</v>
+      </c>
+      <c r="DP11">
+        <v>0</v>
+      </c>
+      <c r="DQ11">
+        <v>0</v>
+      </c>
+      <c r="DR11">
+        <v>0</v>
+      </c>
+      <c r="DS11">
+        <v>0</v>
+      </c>
+      <c r="DT11">
+        <v>0</v>
+      </c>
+      <c r="DU11">
+        <v>0</v>
+      </c>
+      <c r="DV11">
+        <v>0</v>
+      </c>
+      <c r="DW11">
+        <v>24200000</v>
+      </c>
+      <c r="DX11" t="s">
+        <v>302</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>286</v>
+      </c>
+      <c r="DZ11">
+        <v>0</v>
+      </c>
+      <c r="EA11">
+        <v>0</v>
+      </c>
+      <c r="EB11">
+        <v>20200401</v>
+      </c>
+      <c r="EC11">
+        <v>99999999</v>
+      </c>
+      <c r="ED11">
+        <v>0</v>
+      </c>
+      <c r="EE11">
+        <v>0</v>
+      </c>
+      <c r="EF11">
+        <v>0</v>
+      </c>
+      <c r="EG11">
+        <v>0</v>
+      </c>
+      <c r="EH11">
+        <v>0</v>
+      </c>
+      <c r="EI11">
+        <v>0</v>
+      </c>
+      <c r="EJ11">
+        <v>0</v>
+      </c>
+      <c r="EK11">
+        <v>0</v>
+      </c>
+      <c r="EL11">
+        <v>0</v>
+      </c>
+      <c r="EM11">
+        <v>0</v>
+      </c>
+      <c r="EN11">
+        <v>0</v>
+      </c>
+      <c r="EO11">
+        <v>0</v>
+      </c>
+      <c r="EP11" t="s">
+        <v>287</v>
+      </c>
+      <c r="EQ11">
+        <v>0</v>
+      </c>
+      <c r="ER11">
+        <v>0</v>
+      </c>
+      <c r="ES11">
+        <v>0</v>
+      </c>
+      <c r="ET11">
+        <v>0</v>
+      </c>
+      <c r="EU11">
+        <v>0</v>
+      </c>
+      <c r="EV11">
+        <v>1</v>
+      </c>
+      <c r="EW11">
+        <v>0</v>
+      </c>
+      <c r="EX11">
+        <v>620003776</v>
+      </c>
+      <c r="EY11">
+        <v>0</v>
+      </c>
+      <c r="FA11">
+        <v>0</v>
+      </c>
+      <c r="FD11">
+        <v>0</v>
+      </c>
+      <c r="FE11">
+        <v>0</v>
+      </c>
+      <c r="FF11">
+        <v>0</v>
+      </c>
+      <c r="FG11">
+        <v>0</v>
+      </c>
+      <c r="FH11">
+        <v>0</v>
+      </c>
+      <c r="FI11">
+        <v>0</v>
+      </c>
+      <c r="FJ11">
+        <v>0</v>
+      </c>
+      <c r="FK11">
+        <v>0</v>
+      </c>
+      <c r="FL11">
+        <v>0</v>
+      </c>
+      <c r="FM11">
+        <v>0</v>
+      </c>
+      <c r="FN11">
+        <v>0</v>
+      </c>
+      <c r="FO11" s="1">
+        <v>38877</v>
+      </c>
+      <c r="FP11">
+        <v>99999</v>
+      </c>
+      <c r="FR11" s="1">
+        <v>43709</v>
+      </c>
+      <c r="FS11">
+        <v>99909</v>
+      </c>
+      <c r="FU11">
+        <v>0</v>
+      </c>
+      <c r="FV11">
+        <v>0</v>
+      </c>
+      <c r="FW11">
+        <v>0</v>
+      </c>
+      <c r="FX11">
+        <v>0</v>
+      </c>
+      <c r="FY11">
+        <v>0</v>
+      </c>
+      <c r="FZ11">
+        <v>0</v>
+      </c>
+      <c r="GA11">
+        <v>0</v>
+      </c>
+      <c r="GB11">
+        <v>0</v>
+      </c>
+      <c r="GC11">
+        <v>0</v>
+      </c>
+      <c r="GD11">
+        <v>0</v>
+      </c>
+      <c r="GE11">
+        <v>0</v>
+      </c>
+      <c r="GF11">
+        <v>0</v>
+      </c>
+      <c r="GG11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:189">
+      <c r="A12">
+        <v>999</v>
+      </c>
+      <c r="B12">
+        <v>717</v>
+      </c>
+      <c r="C12">
+        <v>20220401</v>
+      </c>
+      <c r="D12">
+        <v>99999999</v>
+      </c>
+      <c r="E12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>288</v>
+      </c>
+      <c r="H12" t="s">
+        <v>289</v>
+      </c>
+      <c r="P12" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>160</v>
+      </c>
+      <c r="S12">
+        <v>22</v>
+      </c>
+      <c r="T12" t="s">
+        <v>285</v>
+      </c>
+      <c r="U12" t="s">
+        <v>285</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12">
+        <v>0</v>
+      </c>
+      <c r="BZ12">
+        <v>0</v>
+      </c>
+      <c r="CA12">
+        <v>0</v>
+      </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12">
+        <v>0</v>
+      </c>
+      <c r="CE12">
+        <v>0</v>
+      </c>
+      <c r="CF12">
+        <v>0</v>
+      </c>
+      <c r="CG12">
+        <v>0</v>
+      </c>
+      <c r="CT12">
+        <v>0</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12">
+        <v>0</v>
+      </c>
+      <c r="CW12">
+        <v>0</v>
+      </c>
+      <c r="CX12">
+        <v>0</v>
+      </c>
+      <c r="CY12">
+        <v>4</v>
+      </c>
+      <c r="CZ12">
+        <v>0</v>
+      </c>
+      <c r="DA12">
+        <v>0</v>
+      </c>
+      <c r="DB12">
+        <v>0</v>
+      </c>
+      <c r="DC12">
+        <v>0</v>
+      </c>
+      <c r="DD12">
+        <v>0</v>
+      </c>
+      <c r="DE12">
+        <v>0</v>
+      </c>
+      <c r="DF12">
+        <v>0</v>
+      </c>
+      <c r="DG12">
+        <v>0</v>
+      </c>
+      <c r="DH12">
+        <v>0</v>
+      </c>
+      <c r="DJ12">
+        <v>0</v>
+      </c>
+      <c r="DK12">
+        <v>0</v>
+      </c>
+      <c r="DL12">
+        <v>0</v>
+      </c>
+      <c r="DM12">
+        <v>0</v>
+      </c>
+      <c r="DN12">
+        <v>0</v>
+      </c>
+      <c r="DP12">
+        <v>0</v>
+      </c>
+      <c r="DQ12">
+        <v>0</v>
+      </c>
+      <c r="DR12">
+        <v>0</v>
+      </c>
+      <c r="DS12">
+        <v>0</v>
+      </c>
+      <c r="DT12">
+        <v>0</v>
+      </c>
+      <c r="DU12">
+        <v>0</v>
+      </c>
+      <c r="DV12">
+        <v>0</v>
+      </c>
+      <c r="DW12">
+        <v>0</v>
+      </c>
+      <c r="DX12" t="s">
+        <v>303</v>
+      </c>
+      <c r="DY12" t="s">
+        <v>290</v>
+      </c>
+      <c r="DZ12">
+        <v>0</v>
+      </c>
+      <c r="EA12">
+        <v>0</v>
+      </c>
+      <c r="EB12">
+        <v>20220401</v>
+      </c>
+      <c r="EC12">
+        <v>99999999</v>
+      </c>
+      <c r="ED12">
+        <v>0</v>
+      </c>
+      <c r="EE12">
+        <v>0</v>
+      </c>
+      <c r="EF12">
+        <v>0</v>
+      </c>
+      <c r="EG12">
+        <v>0</v>
+      </c>
+      <c r="EH12">
+        <v>0</v>
+      </c>
+      <c r="EI12">
+        <v>0</v>
+      </c>
+      <c r="EJ12">
+        <v>0</v>
+      </c>
+      <c r="EK12">
+        <v>0</v>
+      </c>
+      <c r="EL12">
+        <v>0</v>
+      </c>
+      <c r="EM12">
+        <v>0</v>
+      </c>
+      <c r="EN12">
+        <v>0</v>
+      </c>
+      <c r="EO12">
+        <v>0</v>
+      </c>
+      <c r="EP12" t="s">
+        <v>291</v>
+      </c>
+      <c r="EQ12">
+        <v>0</v>
+      </c>
+      <c r="ER12">
+        <v>0</v>
+      </c>
+      <c r="ES12">
+        <v>0</v>
+      </c>
+      <c r="ET12">
+        <v>0</v>
+      </c>
+      <c r="EU12">
+        <v>0</v>
+      </c>
+      <c r="EV12">
+        <v>1</v>
+      </c>
+      <c r="EW12">
+        <v>0</v>
+      </c>
+      <c r="EX12">
+        <v>620004717</v>
+      </c>
+      <c r="EY12">
+        <v>0</v>
+      </c>
+      <c r="FA12">
+        <v>0</v>
+      </c>
+      <c r="FD12">
+        <v>0</v>
+      </c>
+      <c r="FE12">
+        <v>0</v>
+      </c>
+      <c r="FF12">
+        <v>0</v>
+      </c>
+      <c r="FG12">
+        <v>0</v>
+      </c>
+      <c r="FH12">
+        <v>0</v>
+      </c>
+      <c r="FI12">
+        <v>0</v>
+      </c>
+      <c r="FJ12">
+        <v>0</v>
+      </c>
+      <c r="FK12">
+        <v>0</v>
+      </c>
+      <c r="FL12">
+        <v>0</v>
+      </c>
+      <c r="FM12">
+        <v>0</v>
+      </c>
+      <c r="FN12">
+        <v>0</v>
+      </c>
+      <c r="FO12" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FP12">
+        <v>0</v>
+      </c>
+      <c r="FR12" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FS12">
+        <v>0</v>
+      </c>
+      <c r="FU12">
+        <v>0</v>
+      </c>
+      <c r="FV12">
+        <v>0</v>
+      </c>
+      <c r="FW12">
+        <v>0</v>
+      </c>
+      <c r="FX12">
+        <v>0</v>
+      </c>
+      <c r="FY12">
+        <v>0</v>
+      </c>
+      <c r="FZ12">
+        <v>0</v>
+      </c>
+      <c r="GA12">
+        <v>0</v>
+      </c>
+      <c r="GB12">
+        <v>0</v>
+      </c>
+      <c r="GC12">
+        <v>0</v>
+      </c>
+      <c r="GD12">
+        <v>0</v>
+      </c>
+      <c r="GE12">
+        <v>0</v>
+      </c>
+      <c r="GF12">
+        <v>0</v>
+      </c>
+      <c r="GG12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:189">
+      <c r="A13">
+        <v>999</v>
+      </c>
+      <c r="B13">
+        <v>101</v>
+      </c>
+      <c r="C13">
+        <v>20200401</v>
+      </c>
+      <c r="D13">
+        <v>99999999</v>
+      </c>
+      <c r="E13" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>292</v>
+      </c>
+      <c r="H13" t="s">
+        <v>293</v>
+      </c>
+      <c r="P13" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>57</v>
+      </c>
+      <c r="S13">
+        <v>22</v>
+      </c>
+      <c r="T13" t="s">
+        <v>285</v>
+      </c>
+      <c r="U13" t="s">
+        <v>285</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
+      <c r="BW13">
+        <v>0</v>
+      </c>
+      <c r="BX13">
+        <v>0</v>
+      </c>
+      <c r="BY13">
+        <v>0</v>
+      </c>
+      <c r="BZ13">
+        <v>0</v>
+      </c>
+      <c r="CA13">
+        <v>0</v>
+      </c>
+      <c r="CB13">
+        <v>0</v>
+      </c>
+      <c r="CC13">
+        <v>0</v>
+      </c>
+      <c r="CD13">
+        <v>0</v>
+      </c>
+      <c r="CE13">
+        <v>0</v>
+      </c>
+      <c r="CF13">
+        <v>0</v>
+      </c>
+      <c r="CG13">
+        <v>0</v>
+      </c>
+      <c r="CT13">
+        <v>0</v>
+      </c>
+      <c r="CU13">
+        <v>0</v>
+      </c>
+      <c r="CV13">
+        <v>0</v>
+      </c>
+      <c r="CW13">
+        <v>0</v>
+      </c>
+      <c r="CX13">
+        <v>0</v>
+      </c>
+      <c r="CY13">
+        <v>4</v>
+      </c>
+      <c r="CZ13">
+        <v>0</v>
+      </c>
+      <c r="DA13">
+        <v>0</v>
+      </c>
+      <c r="DB13">
+        <v>1</v>
+      </c>
+      <c r="DC13">
+        <v>0</v>
+      </c>
+      <c r="DD13">
+        <v>0</v>
+      </c>
+      <c r="DE13">
+        <v>0</v>
+      </c>
+      <c r="DF13">
+        <v>0</v>
+      </c>
+      <c r="DG13">
+        <v>0</v>
+      </c>
+      <c r="DH13">
+        <v>0</v>
+      </c>
+      <c r="DJ13">
+        <v>0</v>
+      </c>
+      <c r="DK13">
+        <v>0</v>
+      </c>
+      <c r="DL13">
+        <v>0</v>
+      </c>
+      <c r="DM13">
+        <v>0</v>
+      </c>
+      <c r="DN13">
+        <v>0</v>
+      </c>
+      <c r="DP13">
+        <v>0</v>
+      </c>
+      <c r="DQ13">
+        <v>0</v>
+      </c>
+      <c r="DR13">
+        <v>0</v>
+      </c>
+      <c r="DS13">
+        <v>0</v>
+      </c>
+      <c r="DT13">
+        <v>0</v>
+      </c>
+      <c r="DU13">
+        <v>0</v>
+      </c>
+      <c r="DV13">
+        <v>0</v>
+      </c>
+      <c r="DW13">
+        <v>23699000</v>
+      </c>
+      <c r="DX13" t="s">
+        <v>304</v>
+      </c>
+      <c r="DY13" t="s">
+        <v>294</v>
+      </c>
+      <c r="DZ13">
+        <v>0</v>
+      </c>
+      <c r="EA13">
+        <v>0</v>
+      </c>
+      <c r="EB13">
+        <v>20200401</v>
+      </c>
+      <c r="EC13">
+        <v>99999999</v>
+      </c>
+      <c r="ED13">
+        <v>0</v>
+      </c>
+      <c r="EE13">
+        <v>0</v>
+      </c>
+      <c r="EF13">
+        <v>0</v>
+      </c>
+      <c r="EG13">
+        <v>0</v>
+      </c>
+      <c r="EH13">
+        <v>0</v>
+      </c>
+      <c r="EI13">
+        <v>0</v>
+      </c>
+      <c r="EJ13">
+        <v>0</v>
+      </c>
+      <c r="EK13">
+        <v>0</v>
+      </c>
+      <c r="EL13">
+        <v>0</v>
+      </c>
+      <c r="EM13">
+        <v>0</v>
+      </c>
+      <c r="EN13">
+        <v>0</v>
+      </c>
+      <c r="EO13">
+        <v>0</v>
+      </c>
+      <c r="EP13" t="s">
+        <v>295</v>
+      </c>
+      <c r="EQ13">
+        <v>0</v>
+      </c>
+      <c r="ER13">
+        <v>0</v>
+      </c>
+      <c r="ES13">
+        <v>0</v>
+      </c>
+      <c r="ET13">
+        <v>0</v>
+      </c>
+      <c r="EU13">
+        <v>0</v>
+      </c>
+      <c r="EV13">
+        <v>1</v>
+      </c>
+      <c r="EW13">
+        <v>0</v>
+      </c>
+      <c r="EX13">
+        <v>620525101</v>
+      </c>
+      <c r="EY13">
+        <v>0</v>
+      </c>
+      <c r="FA13">
+        <v>0</v>
+      </c>
+      <c r="FD13">
+        <v>0</v>
+      </c>
+      <c r="FE13">
+        <v>0</v>
+      </c>
+      <c r="FF13">
+        <v>0</v>
+      </c>
+      <c r="FG13">
+        <v>0</v>
+      </c>
+      <c r="FH13">
+        <v>0</v>
+      </c>
+      <c r="FI13">
+        <v>0</v>
+      </c>
+      <c r="FJ13">
+        <v>0</v>
+      </c>
+      <c r="FK13">
+        <v>0</v>
+      </c>
+      <c r="FL13">
+        <v>0</v>
+      </c>
+      <c r="FM13">
+        <v>0</v>
+      </c>
+      <c r="FN13">
+        <v>0</v>
+      </c>
+      <c r="FO13" s="1">
+        <v>40081</v>
+      </c>
+      <c r="FP13">
+        <v>99999</v>
+      </c>
+      <c r="FR13" s="1">
+        <v>43709</v>
+      </c>
+      <c r="FS13">
+        <v>99909</v>
+      </c>
+      <c r="FU13">
+        <v>0</v>
+      </c>
+      <c r="FV13">
+        <v>0</v>
+      </c>
+      <c r="FW13">
+        <v>0</v>
+      </c>
+      <c r="FX13">
+        <v>0</v>
+      </c>
+      <c r="FY13">
+        <v>0</v>
+      </c>
+      <c r="FZ13">
+        <v>0</v>
+      </c>
+      <c r="GA13">
+        <v>0</v>
+      </c>
+      <c r="GB13">
+        <v>0</v>
+      </c>
+      <c r="GC13">
+        <v>0</v>
+      </c>
+      <c r="GD13">
+        <v>0</v>
+      </c>
+      <c r="GE13">
+        <v>0</v>
+      </c>
+      <c r="GF13">
+        <v>0</v>
+      </c>
+      <c r="GG13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:189">
+      <c r="A14">
+        <v>999</v>
+      </c>
+      <c r="B14">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>20200401</v>
+      </c>
+      <c r="D14">
+        <v>99999999</v>
+      </c>
+      <c r="E14" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>296</v>
+      </c>
+      <c r="H14" t="s">
+        <v>297</v>
+      </c>
+      <c r="P14" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="S14">
+        <v>38</v>
+      </c>
+      <c r="T14" t="s">
+        <v>298</v>
+      </c>
+      <c r="U14" t="s">
+        <v>298</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14">
+        <v>0</v>
+      </c>
+      <c r="BS14">
+        <v>0</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>0</v>
+      </c>
+      <c r="BW14">
+        <v>0</v>
+      </c>
+      <c r="BX14">
+        <v>0</v>
+      </c>
+      <c r="BY14">
+        <v>0</v>
+      </c>
+      <c r="BZ14">
+        <v>0</v>
+      </c>
+      <c r="CA14">
+        <v>0</v>
+      </c>
+      <c r="CB14">
+        <v>0</v>
+      </c>
+      <c r="CC14">
+        <v>0</v>
+      </c>
+      <c r="CD14">
+        <v>0</v>
+      </c>
+      <c r="CE14">
+        <v>0</v>
+      </c>
+      <c r="CF14">
+        <v>0</v>
+      </c>
+      <c r="CG14">
+        <v>0</v>
+      </c>
+      <c r="CT14">
+        <v>0</v>
+      </c>
+      <c r="CU14">
+        <v>0</v>
+      </c>
+      <c r="CV14">
+        <v>0</v>
+      </c>
+      <c r="CW14">
+        <v>0</v>
+      </c>
+      <c r="CX14">
+        <v>0</v>
+      </c>
+      <c r="CY14">
+        <v>4</v>
+      </c>
+      <c r="CZ14">
+        <v>0</v>
+      </c>
+      <c r="DA14">
+        <v>0</v>
+      </c>
+      <c r="DB14">
+        <v>0</v>
+      </c>
+      <c r="DC14">
+        <v>0</v>
+      </c>
+      <c r="DD14">
+        <v>0</v>
+      </c>
+      <c r="DE14">
+        <v>0</v>
+      </c>
+      <c r="DF14">
+        <v>0</v>
+      </c>
+      <c r="DG14">
+        <v>0</v>
+      </c>
+      <c r="DH14">
+        <v>0</v>
+      </c>
+      <c r="DJ14">
+        <v>0</v>
+      </c>
+      <c r="DK14">
+        <v>0</v>
+      </c>
+      <c r="DL14">
+        <v>0</v>
+      </c>
+      <c r="DM14">
+        <v>0</v>
+      </c>
+      <c r="DN14">
+        <v>0</v>
+      </c>
+      <c r="DP14">
+        <v>0</v>
+      </c>
+      <c r="DQ14">
+        <v>0</v>
+      </c>
+      <c r="DR14">
+        <v>0</v>
+      </c>
+      <c r="DS14">
+        <v>0</v>
+      </c>
+      <c r="DT14">
+        <v>0</v>
+      </c>
+      <c r="DU14">
+        <v>0</v>
+      </c>
+      <c r="DV14">
+        <v>0</v>
+      </c>
+      <c r="DW14">
+        <v>26376000</v>
+      </c>
+      <c r="DX14" t="s">
+        <v>305</v>
+      </c>
+      <c r="DY14" t="s">
+        <v>299</v>
+      </c>
+      <c r="DZ14">
+        <v>1</v>
+      </c>
+      <c r="EA14">
+        <v>0</v>
+      </c>
+      <c r="EB14">
+        <v>20200401</v>
+      </c>
+      <c r="EC14">
+        <v>99999999</v>
+      </c>
+      <c r="ED14">
+        <v>0</v>
+      </c>
+      <c r="EE14">
+        <v>0</v>
+      </c>
+      <c r="EF14">
+        <v>0</v>
+      </c>
+      <c r="EG14">
+        <v>0</v>
+      </c>
+      <c r="EH14">
+        <v>0</v>
+      </c>
+      <c r="EI14">
+        <v>0</v>
+      </c>
+      <c r="EJ14">
+        <v>0</v>
+      </c>
+      <c r="EK14">
+        <v>0</v>
+      </c>
+      <c r="EL14">
+        <v>0</v>
+      </c>
+      <c r="EM14">
+        <v>0</v>
+      </c>
+      <c r="EN14">
+        <v>0</v>
+      </c>
+      <c r="EO14">
+        <v>0</v>
+      </c>
+      <c r="EP14" t="s">
+        <v>300</v>
+      </c>
+      <c r="EQ14">
+        <v>0</v>
+      </c>
+      <c r="ER14">
+        <v>0</v>
+      </c>
+      <c r="ES14">
+        <v>0</v>
+      </c>
+      <c r="ET14">
+        <v>0</v>
+      </c>
+      <c r="EU14">
+        <v>0</v>
+      </c>
+      <c r="EV14">
+        <v>0</v>
+      </c>
+      <c r="EW14">
+        <v>0</v>
+      </c>
+      <c r="EX14">
+        <v>641210022</v>
+      </c>
+      <c r="EY14">
+        <v>0</v>
+      </c>
+      <c r="FA14">
+        <v>0</v>
+      </c>
+      <c r="FD14">
+        <v>0</v>
+      </c>
+      <c r="FE14">
+        <v>0</v>
+      </c>
+      <c r="FF14">
+        <v>0</v>
+      </c>
+      <c r="FG14">
+        <v>0</v>
+      </c>
+      <c r="FH14">
+        <v>0</v>
+      </c>
+      <c r="FI14">
+        <v>0</v>
+      </c>
+      <c r="FJ14">
+        <v>0</v>
+      </c>
+      <c r="FK14">
+        <v>0</v>
+      </c>
+      <c r="FL14">
+        <v>0</v>
+      </c>
+      <c r="FM14">
+        <v>0</v>
+      </c>
+      <c r="FN14">
+        <v>0</v>
+      </c>
+      <c r="FO14" s="1">
+        <v>38808</v>
+      </c>
+      <c r="FP14">
+        <v>99999</v>
+      </c>
+      <c r="FR14" s="1">
+        <v>43709.613194444442</v>
+      </c>
+      <c r="FS14">
+        <v>99909</v>
+      </c>
+      <c r="FU14">
+        <v>0</v>
+      </c>
+      <c r="FV14">
+        <v>0</v>
+      </c>
+      <c r="FW14">
+        <v>0</v>
+      </c>
+      <c r="FX14">
+        <v>0</v>
+      </c>
+      <c r="FY14">
+        <v>0</v>
+      </c>
+      <c r="FZ14">
+        <v>0</v>
+      </c>
+      <c r="GA14">
+        <v>0</v>
+      </c>
+      <c r="GB14">
+        <v>0</v>
+      </c>
+      <c r="GC14">
+        <v>0</v>
+      </c>
+      <c r="GD14">
+        <v>0</v>
+      </c>
+      <c r="GE14">
+        <v>0</v>
+      </c>
+      <c r="GF14">
+        <v>0</v>
+      </c>
+      <c r="GG14">
         <v>0</v>
       </c>
     </row>
@@ -8494,13 +10945,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="F1" t="s">
         <v>38</v>
@@ -8527,7 +10978,7 @@
         <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -8549,14 +11000,14 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>45021.481516203705</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="J2" s="1">
         <v>45021.48151140046</v>
@@ -8565,7 +11016,7 @@
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="M2">
         <v>20230101</v>
@@ -8593,14 +11044,14 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>45021.481516203705</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="J3" s="1">
         <v>45021.48151140046</v>
@@ -8609,7 +11060,7 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="M3">
         <v>20230101</v>
@@ -8642,22 +11093,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="D1" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="E1" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="F1" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8676,7 +11127,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="B3">
         <v>999</v>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\emr-cloud-be\CloudTest\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Le Minh\source\repos\emr-cloud-be\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22224" windowHeight="7104" tabRatio="753" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22230" windowHeight="7110" tabRatio="753" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,15 @@
     <sheet name="M42_CONTRAINDI_DRUG_MAIN_EX" sheetId="7" r:id="rId3"/>
     <sheet name="TEN_MST" sheetId="3" r:id="rId4"/>
     <sheet name="DRUG_DAY_LIMIT" sheetId="4" r:id="rId5"/>
-    <sheet name="M10_DAY_LIMIT" sheetId="5" r:id="rId6"/>
+    <sheet name="M12_FOOD_ALRGY" sheetId="8" r:id="rId6"/>
+    <sheet name="M10_DAY_LIMIT" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="321">
   <si>
     <t>HP_ID</t>
   </si>
@@ -960,6 +961,33 @@
   </si>
   <si>
     <t>E11</t>
+  </si>
+  <si>
+    <t>KIKIN_CD</t>
+  </si>
+  <si>
+    <t>FOOD_KBN</t>
+  </si>
+  <si>
+    <t>ATTENTION_CMT</t>
+  </si>
+  <si>
+    <t>WORKING_MECHANISM</t>
+  </si>
+  <si>
+    <t>1119402A1022</t>
+  </si>
+  <si>
+    <t>・､ｧ・ｱ・・・｢・・ｬ・・ｫ・・ｮ・・ｼ・・ｮ・・・・・・・・｣・・・・・・・・・ｸ・・ｦ・・ｿ・</t>
+  </si>
+  <si>
+    <t>・ｻ・・ｬ・・､・・ｯ・・・・､・・ｺ・ｲｹ・・・・・ｫ・・・・・・・・・・・</t>
+  </si>
+  <si>
+    <t>・・ｵ・・｢・・ｬ・・ｫ・・ｮ・・ｼ・・ｮ・・・・・・・・｣・・・・・・・・・ｸ・・ｦ・・ｿ・</t>
+  </si>
+  <si>
+    <t>・ｻ・・ｬ・・､・・ｯ・ｲｾ・｣ｽ・・ｵ・ｻ・・・ｬ・・ｷ・・・・・ｳ・・・・・ｫ・・・・・・・・・・・</t>
   </si>
 </sst>
 </file>
@@ -1792,35 +1820,35 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" customWidth="1"/>
-    <col min="9" max="9" width="27.88671875" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="26" max="26" width="8.88671875" customWidth="1"/>
-    <col min="27" max="27" width="46.5546875" customWidth="1"/>
-    <col min="28" max="28" width="28.109375" customWidth="1"/>
-    <col min="29" max="29" width="25.21875" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" customWidth="1"/>
+    <col min="27" max="27" width="46.5703125" customWidth="1"/>
+    <col min="28" max="28" width="28.140625" customWidth="1"/>
+    <col min="29" max="29" width="25.28515625" customWidth="1"/>
     <col min="30" max="30" width="21" customWidth="1"/>
-    <col min="31" max="31" width="18.5546875" customWidth="1"/>
+    <col min="31" max="31" width="18.5703125" customWidth="1"/>
     <col min="32" max="32" width="28" customWidth="1"/>
-    <col min="33" max="33" width="17.5546875" customWidth="1"/>
-    <col min="34" max="34" width="19.6640625" customWidth="1"/>
-    <col min="35" max="35" width="19.109375" customWidth="1"/>
-    <col min="36" max="36" width="16.109375" customWidth="1"/>
-    <col min="37" max="37" width="16.44140625" customWidth="1"/>
+    <col min="33" max="33" width="17.5703125" customWidth="1"/>
+    <col min="34" max="34" width="19.7109375" customWidth="1"/>
+    <col min="35" max="35" width="19.140625" customWidth="1"/>
+    <col min="36" max="36" width="16.140625" customWidth="1"/>
+    <col min="37" max="37" width="16.42578125" customWidth="1"/>
     <col min="38" max="38" width="18" customWidth="1"/>
-    <col min="39" max="39" width="14.6640625" customWidth="1"/>
-    <col min="40" max="40" width="14.44140625" customWidth="1"/>
-    <col min="41" max="41" width="14.77734375" customWidth="1"/>
-    <col min="42" max="42" width="34.109375" customWidth="1"/>
-    <col min="44" max="44" width="13.77734375" customWidth="1"/>
-    <col min="45" max="45" width="16.44140625" customWidth="1"/>
-    <col min="47" max="47" width="13.6640625" customWidth="1"/>
+    <col min="39" max="39" width="14.7109375" customWidth="1"/>
+    <col min="40" max="40" width="14.42578125" customWidth="1"/>
+    <col min="41" max="41" width="14.7109375" customWidth="1"/>
+    <col min="42" max="42" width="34.140625" customWidth="1"/>
+    <col min="44" max="44" width="13.7109375" customWidth="1"/>
+    <col min="45" max="45" width="16.42578125" customWidth="1"/>
+    <col min="47" max="47" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -3717,13 +3745,13 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3855,20 +3883,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4113,91 +4141,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GG14"/>
   <sheetViews>
-    <sheetView topLeftCell="DK1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="DX14" sqref="DX7:DX14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.21875" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="15.88671875" customWidth="1"/>
-    <col min="16" max="16" width="37.88671875" customWidth="1"/>
-    <col min="17" max="17" width="10.77734375" customWidth="1"/>
-    <col min="19" max="19" width="23.33203125" customWidth="1"/>
-    <col min="20" max="20" width="31.109375" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="37.85546875" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="23.28515625" customWidth="1"/>
+    <col min="20" max="20" width="31.140625" customWidth="1"/>
     <col min="23" max="23" width="34" customWidth="1"/>
-    <col min="24" max="24" width="12.88671875" customWidth="1"/>
-    <col min="25" max="25" width="6.109375" customWidth="1"/>
-    <col min="27" max="27" width="18.77734375" customWidth="1"/>
-    <col min="28" max="28" width="22.6640625" customWidth="1"/>
-    <col min="29" max="29" width="17.5546875" customWidth="1"/>
-    <col min="30" max="30" width="17.6640625" customWidth="1"/>
-    <col min="31" max="31" width="16.5546875" customWidth="1"/>
-    <col min="32" max="32" width="13.44140625" customWidth="1"/>
-    <col min="33" max="33" width="13.5546875" customWidth="1"/>
-    <col min="34" max="34" width="19.5546875" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" customWidth="1"/>
+    <col min="25" max="25" width="6.140625" customWidth="1"/>
+    <col min="27" max="27" width="18.7109375" customWidth="1"/>
+    <col min="28" max="28" width="22.7109375" customWidth="1"/>
+    <col min="29" max="29" width="17.5703125" customWidth="1"/>
+    <col min="30" max="30" width="17.7109375" customWidth="1"/>
+    <col min="31" max="31" width="16.5703125" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" customWidth="1"/>
+    <col min="33" max="33" width="13.5703125" customWidth="1"/>
+    <col min="34" max="34" width="19.5703125" customWidth="1"/>
     <col min="35" max="35" width="14" customWidth="1"/>
-    <col min="36" max="36" width="17.88671875" customWidth="1"/>
-    <col min="37" max="37" width="26.21875" customWidth="1"/>
-    <col min="38" max="38" width="18.21875" customWidth="1"/>
+    <col min="36" max="36" width="17.85546875" customWidth="1"/>
+    <col min="37" max="37" width="26.28515625" customWidth="1"/>
+    <col min="38" max="38" width="18.28515625" customWidth="1"/>
     <col min="39" max="39" width="14" customWidth="1"/>
-    <col min="40" max="40" width="12.5546875" customWidth="1"/>
-    <col min="41" max="41" width="12.77734375" customWidth="1"/>
-    <col min="42" max="42" width="21.44140625" customWidth="1"/>
-    <col min="43" max="43" width="15.44140625" customWidth="1"/>
-    <col min="44" max="44" width="13.21875" customWidth="1"/>
-    <col min="45" max="45" width="12.109375" customWidth="1"/>
-    <col min="46" max="46" width="13.44140625" customWidth="1"/>
-    <col min="48" max="48" width="18.109375" customWidth="1"/>
-    <col min="49" max="49" width="11.5546875" customWidth="1"/>
-    <col min="50" max="50" width="21.5546875" customWidth="1"/>
-    <col min="51" max="51" width="22.33203125" customWidth="1"/>
-    <col min="52" max="52" width="20.21875" customWidth="1"/>
-    <col min="53" max="53" width="16.109375" customWidth="1"/>
-    <col min="54" max="54" width="18.5546875" customWidth="1"/>
-    <col min="55" max="55" width="16.21875" customWidth="1"/>
-    <col min="56" max="56" width="15.44140625" customWidth="1"/>
-    <col min="57" max="57" width="14.109375" customWidth="1"/>
-    <col min="58" max="58" width="13.33203125" customWidth="1"/>
+    <col min="40" max="40" width="12.5703125" customWidth="1"/>
+    <col min="41" max="41" width="12.7109375" customWidth="1"/>
+    <col min="42" max="42" width="21.42578125" customWidth="1"/>
+    <col min="43" max="43" width="15.42578125" customWidth="1"/>
+    <col min="44" max="44" width="13.28515625" customWidth="1"/>
+    <col min="45" max="45" width="12.140625" customWidth="1"/>
+    <col min="46" max="46" width="13.42578125" customWidth="1"/>
+    <col min="48" max="48" width="18.140625" customWidth="1"/>
+    <col min="49" max="49" width="11.5703125" customWidth="1"/>
+    <col min="50" max="50" width="21.5703125" customWidth="1"/>
+    <col min="51" max="51" width="22.28515625" customWidth="1"/>
+    <col min="52" max="52" width="20.28515625" customWidth="1"/>
+    <col min="53" max="53" width="16.140625" customWidth="1"/>
+    <col min="54" max="54" width="18.5703125" customWidth="1"/>
+    <col min="55" max="55" width="16.28515625" customWidth="1"/>
+    <col min="56" max="56" width="15.42578125" customWidth="1"/>
+    <col min="57" max="57" width="14.140625" customWidth="1"/>
+    <col min="58" max="58" width="13.28515625" customWidth="1"/>
     <col min="59" max="59" width="20" customWidth="1"/>
-    <col min="60" max="60" width="24.5546875" customWidth="1"/>
+    <col min="60" max="60" width="24.5703125" customWidth="1"/>
     <col min="61" max="61" width="22" customWidth="1"/>
-    <col min="62" max="62" width="18.88671875" customWidth="1"/>
-    <col min="63" max="63" width="18.6640625" customWidth="1"/>
-    <col min="64" max="64" width="16.77734375" customWidth="1"/>
-    <col min="65" max="65" width="25.109375" customWidth="1"/>
-    <col min="66" max="66" width="19.6640625" customWidth="1"/>
-    <col min="67" max="67" width="20.33203125" customWidth="1"/>
-    <col min="68" max="68" width="24.77734375" customWidth="1"/>
-    <col min="69" max="69" width="28.6640625" customWidth="1"/>
-    <col min="70" max="70" width="18.109375" customWidth="1"/>
-    <col min="71" max="71" width="17.21875" customWidth="1"/>
-    <col min="72" max="72" width="21.109375" customWidth="1"/>
-    <col min="73" max="73" width="18.21875" customWidth="1"/>
-    <col min="76" max="76" width="18.33203125" customWidth="1"/>
-    <col min="77" max="77" width="22.6640625" customWidth="1"/>
-    <col min="78" max="78" width="19.5546875" customWidth="1"/>
+    <col min="62" max="62" width="18.85546875" customWidth="1"/>
+    <col min="63" max="63" width="18.7109375" customWidth="1"/>
+    <col min="64" max="64" width="16.7109375" customWidth="1"/>
+    <col min="65" max="65" width="25.140625" customWidth="1"/>
+    <col min="66" max="66" width="19.7109375" customWidth="1"/>
+    <col min="67" max="67" width="20.28515625" customWidth="1"/>
+    <col min="68" max="68" width="24.7109375" customWidth="1"/>
+    <col min="69" max="69" width="28.7109375" customWidth="1"/>
+    <col min="70" max="70" width="18.140625" customWidth="1"/>
+    <col min="71" max="71" width="17.28515625" customWidth="1"/>
+    <col min="72" max="72" width="21.140625" customWidth="1"/>
+    <col min="73" max="73" width="18.28515625" customWidth="1"/>
+    <col min="76" max="76" width="18.28515625" customWidth="1"/>
+    <col min="77" max="77" width="22.7109375" customWidth="1"/>
+    <col min="78" max="78" width="19.5703125" customWidth="1"/>
     <col min="79" max="79" width="21" customWidth="1"/>
     <col min="80" max="80" width="20" customWidth="1"/>
-    <col min="81" max="81" width="17.5546875" customWidth="1"/>
-    <col min="114" max="114" width="25.109375" customWidth="1"/>
-    <col min="115" max="115" width="19.44140625" customWidth="1"/>
-    <col min="128" max="128" width="31.21875" customWidth="1"/>
-    <col min="129" max="129" width="26.6640625" customWidth="1"/>
-    <col min="146" max="146" width="25.77734375" customWidth="1"/>
-    <col min="177" max="177" width="24.21875" customWidth="1"/>
-    <col min="178" max="178" width="21.88671875" customWidth="1"/>
+    <col min="81" max="81" width="17.5703125" customWidth="1"/>
+    <col min="114" max="114" width="25.140625" customWidth="1"/>
+    <col min="115" max="115" width="19.42578125" customWidth="1"/>
+    <col min="128" max="128" width="31.28515625" customWidth="1"/>
+    <col min="129" max="129" width="26.7109375" customWidth="1"/>
+    <col min="146" max="146" width="25.7109375" customWidth="1"/>
+    <col min="177" max="177" width="24.28515625" customWidth="1"/>
+    <col min="178" max="178" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:189">
@@ -10922,19 +10950,19 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
     <col min="7" max="7" width="46" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -11076,19 +11104,121 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>640407085</v>
+      </c>
+      <c r="B2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>640407085</v>
+      </c>
+      <c r="B3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>640407085</v>
+      </c>
+      <c r="B4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Le Minh\source\repos\emr-cloud-be\CloudTest\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Le Minh\source\emr-cloud-be\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22230" windowHeight="7110" tabRatio="753" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22230" windowHeight="7110" tabRatio="753" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
     <sheet name="M42_CONTRAINDI_DIS_CON" sheetId="6" r:id="rId2"/>
     <sheet name="M42_CONTRAINDI_DRUG_MAIN_EX" sheetId="7" r:id="rId3"/>
-    <sheet name="TEN_MST" sheetId="3" r:id="rId4"/>
-    <sheet name="DRUG_DAY_LIMIT" sheetId="4" r:id="rId5"/>
-    <sheet name="M12_FOOD_ALRGY" sheetId="8" r:id="rId6"/>
+    <sheet name="M12_FOOD_ALRGY" sheetId="8" r:id="rId4"/>
+    <sheet name="TEN_MST" sheetId="3" r:id="rId5"/>
+    <sheet name="DRUG_DAY_LIMIT" sheetId="4" r:id="rId6"/>
     <sheet name="M10_DAY_LIMIT" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="319">
   <si>
     <t>HP_ID</t>
   </si>
@@ -975,19 +975,13 @@
     <t>WORKING_MECHANISM</t>
   </si>
   <si>
-    <t>1119402A1022</t>
-  </si>
-  <si>
-    <t>・､ｧ・ｱ・・・｢・・ｬ・・ｫ・・ｮ・・ｼ・・ｮ・・・・・・・・｣・・・・・・・・・ｸ・・ｦ・・ｿ・</t>
-  </si>
-  <si>
-    <t>・ｻ・・ｬ・・､・・ｯ・・・・､・・ｺ・ｲｹ・・・・・ｫ・・・・・・・・・・・</t>
-  </si>
-  <si>
-    <t>・・ｵ・・｢・・ｬ・・ｫ・・ｮ・・ｼ・・ｮ・・・・・・・・｣・・・・・・・・・ｸ・・ｦ・・ｿ・</t>
-  </si>
-  <si>
-    <t>・ｻ・・ｬ・・､・・ｯ・ｲｾ・｣ｽ・・ｵ・ｻ・・・ｬ・・ｷ・・・・・ｳ・・・・・ｫ・・・・・・・・・・・</t>
+    <t>7212030S1029</t>
+  </si>
+  <si>
+    <t>・・｢・・ｫ・・ｳ・・ｼ・・ｫ・・ｫ・・・・・・・・ｪ・・｣・・・・・・・・・・・・・・・ｸ・</t>
+  </si>
+  <si>
+    <t>・ｻ・・ｬ・・､・・ｯ・・ｨ・・ｿ・・・・・ｼ・・ｫ・・・・・ｫ・・・・・・・・・・・</t>
   </si>
 </sst>
 </file>
@@ -4139,9 +4133,64 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>610406404</v>
+      </c>
+      <c r="B2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GG14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="DK1" workbookViewId="0">
       <selection activeCell="DX14" sqref="DX7:DX14"/>
     </sheetView>
   </sheetViews>
@@ -10942,7 +10991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
@@ -11095,108 +11144,6 @@
       </c>
       <c r="N3">
         <v>20230301</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>640407085</v>
-      </c>
-      <c r="B2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>640407085</v>
-      </c>
-      <c r="B3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>640407085</v>
-      </c>
-      <c r="B4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F4" t="s">
-        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="753" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="753" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,16 @@
     <sheet name="PT_INF" sheetId="8" r:id="rId4"/>
     <sheet name="PT_ALRGY_DRUG" sheetId="9" r:id="rId5"/>
     <sheet name="TEN_MST" sheetId="3" r:id="rId6"/>
-    <sheet name="DRUG_DAY_LIMIT" sheetId="4" r:id="rId7"/>
-    <sheet name="M10_DAY_LIMIT" sheetId="5" r:id="rId8"/>
+    <sheet name="KINKI_MST" sheetId="10" r:id="rId7"/>
+    <sheet name="DRUG_DAY_LIMIT" sheetId="4" r:id="rId8"/>
+    <sheet name="M10_DAY_LIMIT" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="361">
   <si>
     <t>HP_ID</t>
   </si>
@@ -1082,6 +1083,33 @@
   </si>
   <si>
     <t>RINAHISIHARA</t>
+  </si>
+  <si>
+    <t>・ｼ・・ｼ・・｡ｩ・・ｸ・・｡・・・・・・・・ｫ・・､・・ｳ・ｳｨ・・・ｼｮ・ｼｭ・・</t>
+  </si>
+  <si>
+    <t>2%・ｽｴ・ｾ・・ｽｻ・ｾ・・ｾ・・ｾ・・ｾ・・ｾ・</t>
+  </si>
+  <si>
+    <t>1214402A3016</t>
+  </si>
+  <si>
+    <t>1214402A3</t>
+  </si>
+  <si>
+    <t>DESKTOP-UV4VB9D</t>
+  </si>
+  <si>
+    <t>A_CD</t>
+  </si>
+  <si>
+    <t>B_CD</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00.000</t>
+  </si>
+  <si>
+    <t>A3032</t>
   </si>
 </sst>
 </file>
@@ -4479,7 +4507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -4607,10 +4635,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GG14"/>
+  <dimension ref="A1:GG16"/>
   <sheetViews>
-    <sheetView topLeftCell="DK1" workbookViewId="0">
-      <selection activeCell="DX14" sqref="DX7:DX14"/>
+    <sheetView tabSelected="1" topLeftCell="DI7" workbookViewId="0">
+      <selection activeCell="DX15" sqref="DX15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11405,12 +11433,1074 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:189">
+      <c r="A15">
+        <v>999</v>
+      </c>
+      <c r="B15">
+        <v>6111</v>
+      </c>
+      <c r="C15">
+        <v>20200401</v>
+      </c>
+      <c r="D15">
+        <v>99999999</v>
+      </c>
+      <c r="E15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H15" t="s">
+        <v>232</v>
+      </c>
+      <c r="P15" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>9.4</v>
+      </c>
+      <c r="S15">
+        <v>16</v>
+      </c>
+      <c r="T15" t="s">
+        <v>233</v>
+      </c>
+      <c r="U15" t="s">
+        <v>233</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
+      <c r="BR15">
+        <v>0</v>
+      </c>
+      <c r="BS15">
+        <v>0</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>0</v>
+      </c>
+      <c r="BW15">
+        <v>0</v>
+      </c>
+      <c r="BX15">
+        <v>0</v>
+      </c>
+      <c r="BY15">
+        <v>0</v>
+      </c>
+      <c r="BZ15">
+        <v>0</v>
+      </c>
+      <c r="CA15">
+        <v>0</v>
+      </c>
+      <c r="CB15">
+        <v>0</v>
+      </c>
+      <c r="CC15">
+        <v>0</v>
+      </c>
+      <c r="CD15">
+        <v>0</v>
+      </c>
+      <c r="CE15">
+        <v>0</v>
+      </c>
+      <c r="CF15">
+        <v>0</v>
+      </c>
+      <c r="CG15">
+        <v>0</v>
+      </c>
+      <c r="CT15">
+        <v>0</v>
+      </c>
+      <c r="CU15">
+        <v>5</v>
+      </c>
+      <c r="CV15">
+        <v>0</v>
+      </c>
+      <c r="CW15">
+        <v>0</v>
+      </c>
+      <c r="CX15">
+        <v>0</v>
+      </c>
+      <c r="CY15">
+        <v>1</v>
+      </c>
+      <c r="CZ15">
+        <v>0</v>
+      </c>
+      <c r="DA15">
+        <v>0</v>
+      </c>
+      <c r="DB15">
+        <v>2</v>
+      </c>
+      <c r="DC15">
+        <v>0</v>
+      </c>
+      <c r="DD15">
+        <v>0</v>
+      </c>
+      <c r="DE15">
+        <v>0</v>
+      </c>
+      <c r="DF15">
+        <v>0</v>
+      </c>
+      <c r="DG15">
+        <v>0</v>
+      </c>
+      <c r="DH15">
+        <v>0</v>
+      </c>
+      <c r="DJ15">
+        <v>0</v>
+      </c>
+      <c r="DK15">
+        <v>0</v>
+      </c>
+      <c r="DL15">
+        <v>0</v>
+      </c>
+      <c r="DM15">
+        <v>0</v>
+      </c>
+      <c r="DN15">
+        <v>0</v>
+      </c>
+      <c r="DP15">
+        <v>0</v>
+      </c>
+      <c r="DQ15">
+        <v>0</v>
+      </c>
+      <c r="DR15">
+        <v>0</v>
+      </c>
+      <c r="DS15">
+        <v>0</v>
+      </c>
+      <c r="DT15">
+        <v>0</v>
+      </c>
+      <c r="DU15">
+        <v>0</v>
+      </c>
+      <c r="DV15">
+        <v>0</v>
+      </c>
+      <c r="DW15">
+        <v>6494000</v>
+      </c>
+      <c r="DX15">
+        <v>4049</v>
+      </c>
+      <c r="DY15" t="s">
+        <v>234</v>
+      </c>
+      <c r="DZ15">
+        <v>1</v>
+      </c>
+      <c r="EA15">
+        <v>0</v>
+      </c>
+      <c r="EB15">
+        <v>20200401</v>
+      </c>
+      <c r="EC15">
+        <v>99999999</v>
+      </c>
+      <c r="ED15">
+        <v>0</v>
+      </c>
+      <c r="EE15">
+        <v>0</v>
+      </c>
+      <c r="EF15">
+        <v>0</v>
+      </c>
+      <c r="EG15">
+        <v>0</v>
+      </c>
+      <c r="EH15">
+        <v>0</v>
+      </c>
+      <c r="EI15">
+        <v>0</v>
+      </c>
+      <c r="EJ15">
+        <v>0</v>
+      </c>
+      <c r="EK15">
+        <v>0</v>
+      </c>
+      <c r="EL15">
+        <v>0</v>
+      </c>
+      <c r="EM15">
+        <v>0</v>
+      </c>
+      <c r="EN15">
+        <v>0</v>
+      </c>
+      <c r="EO15">
+        <v>0</v>
+      </c>
+      <c r="EP15" t="s">
+        <v>235</v>
+      </c>
+      <c r="EQ15">
+        <v>0</v>
+      </c>
+      <c r="ER15">
+        <v>0</v>
+      </c>
+      <c r="ES15">
+        <v>0</v>
+      </c>
+      <c r="ET15">
+        <v>0</v>
+      </c>
+      <c r="EU15">
+        <v>0</v>
+      </c>
+      <c r="EV15">
+        <v>0</v>
+      </c>
+      <c r="EW15">
+        <v>1</v>
+      </c>
+      <c r="EX15">
+        <v>611170008</v>
+      </c>
+      <c r="EY15">
+        <v>0</v>
+      </c>
+      <c r="FA15">
+        <v>0</v>
+      </c>
+      <c r="FD15">
+        <v>0</v>
+      </c>
+      <c r="FE15">
+        <v>0</v>
+      </c>
+      <c r="FF15">
+        <v>0</v>
+      </c>
+      <c r="FG15">
+        <v>0</v>
+      </c>
+      <c r="FH15">
+        <v>0</v>
+      </c>
+      <c r="FI15">
+        <v>0</v>
+      </c>
+      <c r="FJ15">
+        <v>0</v>
+      </c>
+      <c r="FK15">
+        <v>0</v>
+      </c>
+      <c r="FL15">
+        <v>0</v>
+      </c>
+      <c r="FM15">
+        <v>0</v>
+      </c>
+      <c r="FN15">
+        <v>0</v>
+      </c>
+      <c r="FO15" s="1">
+        <v>38808</v>
+      </c>
+      <c r="FP15">
+        <v>99999</v>
+      </c>
+      <c r="FR15" s="1">
+        <v>45083.820771435188</v>
+      </c>
+      <c r="FS15">
+        <v>2</v>
+      </c>
+      <c r="FT15" t="s">
+        <v>236</v>
+      </c>
+      <c r="FU15">
+        <v>0</v>
+      </c>
+      <c r="FV15">
+        <v>0</v>
+      </c>
+      <c r="FW15">
+        <v>0</v>
+      </c>
+      <c r="FX15">
+        <v>0</v>
+      </c>
+      <c r="FY15">
+        <v>0</v>
+      </c>
+      <c r="FZ15">
+        <v>0</v>
+      </c>
+      <c r="GA15">
+        <v>0</v>
+      </c>
+      <c r="GB15">
+        <v>0</v>
+      </c>
+      <c r="GC15">
+        <v>0</v>
+      </c>
+      <c r="GD15">
+        <v>0</v>
+      </c>
+      <c r="GE15">
+        <v>0</v>
+      </c>
+      <c r="GF15">
+        <v>0</v>
+      </c>
+      <c r="GG15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:189">
+      <c r="A16">
+        <v>999</v>
+      </c>
+      <c r="B16">
+        <v>6404</v>
+      </c>
+      <c r="C16">
+        <v>20200401</v>
+      </c>
+      <c r="D16">
+        <v>99999999</v>
+      </c>
+      <c r="E16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>352</v>
+      </c>
+      <c r="H16" t="s">
+        <v>353</v>
+      </c>
+      <c r="P16" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>15.3</v>
+      </c>
+      <c r="S16">
+        <v>38</v>
+      </c>
+      <c r="T16" t="s">
+        <v>298</v>
+      </c>
+      <c r="U16" t="s">
+        <v>298</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>0</v>
+      </c>
+      <c r="BR16">
+        <v>0</v>
+      </c>
+      <c r="BS16">
+        <v>0</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>0</v>
+      </c>
+      <c r="BW16">
+        <v>0</v>
+      </c>
+      <c r="BX16">
+        <v>0</v>
+      </c>
+      <c r="BY16">
+        <v>0</v>
+      </c>
+      <c r="BZ16">
+        <v>0</v>
+      </c>
+      <c r="CA16">
+        <v>0</v>
+      </c>
+      <c r="CB16">
+        <v>0</v>
+      </c>
+      <c r="CC16">
+        <v>0</v>
+      </c>
+      <c r="CD16">
+        <v>0</v>
+      </c>
+      <c r="CE16">
+        <v>0</v>
+      </c>
+      <c r="CF16">
+        <v>0</v>
+      </c>
+      <c r="CG16">
+        <v>0</v>
+      </c>
+      <c r="CT16">
+        <v>0</v>
+      </c>
+      <c r="CU16">
+        <v>0</v>
+      </c>
+      <c r="CV16">
+        <v>0</v>
+      </c>
+      <c r="CW16">
+        <v>0</v>
+      </c>
+      <c r="CX16">
+        <v>0</v>
+      </c>
+      <c r="CY16">
+        <v>4</v>
+      </c>
+      <c r="CZ16">
+        <v>0</v>
+      </c>
+      <c r="DA16">
+        <v>0</v>
+      </c>
+      <c r="DB16">
+        <v>0</v>
+      </c>
+      <c r="DC16">
+        <v>0</v>
+      </c>
+      <c r="DD16">
+        <v>0</v>
+      </c>
+      <c r="DE16">
+        <v>0</v>
+      </c>
+      <c r="DF16">
+        <v>0</v>
+      </c>
+      <c r="DG16">
+        <v>0</v>
+      </c>
+      <c r="DH16">
+        <v>0</v>
+      </c>
+      <c r="DJ16">
+        <v>0</v>
+      </c>
+      <c r="DK16">
+        <v>0</v>
+      </c>
+      <c r="DL16">
+        <v>0</v>
+      </c>
+      <c r="DM16">
+        <v>0</v>
+      </c>
+      <c r="DN16">
+        <v>0</v>
+      </c>
+      <c r="DP16">
+        <v>0</v>
+      </c>
+      <c r="DQ16">
+        <v>0</v>
+      </c>
+      <c r="DR16">
+        <v>0</v>
+      </c>
+      <c r="DS16">
+        <v>0</v>
+      </c>
+      <c r="DT16">
+        <v>0</v>
+      </c>
+      <c r="DU16">
+        <v>0</v>
+      </c>
+      <c r="DV16">
+        <v>0</v>
+      </c>
+      <c r="DW16">
+        <v>24168000</v>
+      </c>
+      <c r="DX16" t="s">
+        <v>360</v>
+      </c>
+      <c r="DY16" t="s">
+        <v>354</v>
+      </c>
+      <c r="DZ16">
+        <v>1</v>
+      </c>
+      <c r="EA16">
+        <v>641210041</v>
+      </c>
+      <c r="EB16">
+        <v>20200401</v>
+      </c>
+      <c r="EC16">
+        <v>99999999</v>
+      </c>
+      <c r="ED16">
+        <v>0</v>
+      </c>
+      <c r="EE16">
+        <v>0</v>
+      </c>
+      <c r="EF16">
+        <v>0</v>
+      </c>
+      <c r="EG16">
+        <v>0</v>
+      </c>
+      <c r="EH16">
+        <v>0</v>
+      </c>
+      <c r="EI16">
+        <v>0</v>
+      </c>
+      <c r="EJ16">
+        <v>0</v>
+      </c>
+      <c r="EK16">
+        <v>0</v>
+      </c>
+      <c r="EL16">
+        <v>0</v>
+      </c>
+      <c r="EM16">
+        <v>0</v>
+      </c>
+      <c r="EN16">
+        <v>0</v>
+      </c>
+      <c r="EO16">
+        <v>0</v>
+      </c>
+      <c r="EP16" t="s">
+        <v>355</v>
+      </c>
+      <c r="EQ16">
+        <v>0</v>
+      </c>
+      <c r="ER16">
+        <v>0</v>
+      </c>
+      <c r="ES16">
+        <v>0</v>
+      </c>
+      <c r="ET16">
+        <v>0</v>
+      </c>
+      <c r="EU16">
+        <v>0</v>
+      </c>
+      <c r="EV16">
+        <v>0</v>
+      </c>
+      <c r="EW16">
+        <v>0</v>
+      </c>
+      <c r="EX16">
+        <v>640431028</v>
+      </c>
+      <c r="EY16">
+        <v>0</v>
+      </c>
+      <c r="FA16">
+        <v>0</v>
+      </c>
+      <c r="FD16">
+        <v>0</v>
+      </c>
+      <c r="FE16">
+        <v>0</v>
+      </c>
+      <c r="FF16">
+        <v>0</v>
+      </c>
+      <c r="FG16">
+        <v>0</v>
+      </c>
+      <c r="FH16">
+        <v>0</v>
+      </c>
+      <c r="FI16">
+        <v>0</v>
+      </c>
+      <c r="FJ16">
+        <v>0</v>
+      </c>
+      <c r="FK16">
+        <v>0</v>
+      </c>
+      <c r="FL16">
+        <v>0</v>
+      </c>
+      <c r="FM16">
+        <v>0</v>
+      </c>
+      <c r="FN16">
+        <v>0</v>
+      </c>
+      <c r="FO16" s="1">
+        <v>38808</v>
+      </c>
+      <c r="FP16">
+        <v>99999</v>
+      </c>
+      <c r="FR16" s="1">
+        <v>45058.376174143516</v>
+      </c>
+      <c r="FS16">
+        <v>2</v>
+      </c>
+      <c r="FT16" t="s">
+        <v>356</v>
+      </c>
+      <c r="FU16">
+        <v>0</v>
+      </c>
+      <c r="FV16">
+        <v>0</v>
+      </c>
+      <c r="FW16">
+        <v>0</v>
+      </c>
+      <c r="FX16">
+        <v>0</v>
+      </c>
+      <c r="FY16">
+        <v>0</v>
+      </c>
+      <c r="FZ16">
+        <v>0</v>
+      </c>
+      <c r="GA16">
+        <v>0</v>
+      </c>
+      <c r="GB16">
+        <v>0</v>
+      </c>
+      <c r="GC16">
+        <v>0</v>
+      </c>
+      <c r="GD16">
+        <v>0</v>
+      </c>
+      <c r="GE16">
+        <v>0</v>
+      </c>
+      <c r="GF16">
+        <v>0</v>
+      </c>
+      <c r="GG16">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="30.21875" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="40.200000000000003" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="45.6" customHeight="1">
+      <c r="A2">
+        <v>999</v>
+      </c>
+      <c r="B2">
+        <v>6111</v>
+      </c>
+      <c r="C2">
+        <v>6404</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45021.481516203705</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
@@ -11570,7 +12660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\emr-cloud-be\CloudTest\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Le Minh\source\repos\emr-cloud-be\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="753" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22230" windowHeight="7110" tabRatio="753" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,17 @@
     <sheet name="PT_ALRGY_DRUG" sheetId="9" r:id="rId5"/>
     <sheet name="PT_OTHER_DRUG" sheetId="11" r:id="rId6"/>
     <sheet name="TEN_MST" sheetId="12" r:id="rId7"/>
-    <sheet name="KINKI_MST" sheetId="10" r:id="rId8"/>
-    <sheet name="DRUG_DAY_LIMIT" sheetId="4" r:id="rId9"/>
-    <sheet name="M10_DAY_LIMIT" sheetId="5" r:id="rId10"/>
+    <sheet name="M12_FOOD_ALRGY" sheetId="13" r:id="rId8"/>
+    <sheet name="KINKI_MST" sheetId="10" r:id="rId9"/>
+    <sheet name="DRUG_DAY_LIMIT" sheetId="4" r:id="rId10"/>
+    <sheet name="M10_DAY_LIMIT" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="381">
   <si>
     <t>HP_ID</t>
   </si>
@@ -1150,6 +1151,27 @@
   </si>
   <si>
     <t>6111700T1</t>
+  </si>
+  <si>
+    <t>KIKIN_CD</t>
+  </si>
+  <si>
+    <t>FOOD_KBN</t>
+  </si>
+  <si>
+    <t>ATTENTION_CMT</t>
+  </si>
+  <si>
+    <t>WORKING_MECHANISM</t>
+  </si>
+  <si>
+    <t>7212030S1029</t>
+  </si>
+  <si>
+    <t>・・｢・・ｫ・・ｳ・・ｼ・・ｫ・・ｫ・・・・・・・・ｪ・・｣・・・・・・・・・・・・・・・ｸ・</t>
+  </si>
+  <si>
+    <t>・ｻ・・ｬ・・､・・ｯ・・ｨ・・ｿ・・・・・ｼ・・ｫ・・・・・ｫ・・・・・・・・・・・</t>
   </si>
 </sst>
 </file>
@@ -1982,35 +2004,35 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" customWidth="1"/>
-    <col min="9" max="9" width="27.88671875" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="26" max="26" width="8.88671875" customWidth="1"/>
-    <col min="27" max="27" width="46.5546875" customWidth="1"/>
-    <col min="28" max="28" width="28.109375" customWidth="1"/>
-    <col min="29" max="29" width="25.33203125" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" customWidth="1"/>
+    <col min="27" max="27" width="46.5703125" customWidth="1"/>
+    <col min="28" max="28" width="28.140625" customWidth="1"/>
+    <col min="29" max="29" width="25.28515625" customWidth="1"/>
     <col min="30" max="30" width="21" customWidth="1"/>
-    <col min="31" max="31" width="18.5546875" customWidth="1"/>
+    <col min="31" max="31" width="18.5703125" customWidth="1"/>
     <col min="32" max="32" width="28" customWidth="1"/>
-    <col min="33" max="33" width="17.5546875" customWidth="1"/>
-    <col min="34" max="34" width="19.6640625" customWidth="1"/>
-    <col min="35" max="35" width="19.109375" customWidth="1"/>
-    <col min="36" max="36" width="16.109375" customWidth="1"/>
-    <col min="37" max="37" width="16.44140625" customWidth="1"/>
+    <col min="33" max="33" width="17.5703125" customWidth="1"/>
+    <col min="34" max="34" width="19.7109375" customWidth="1"/>
+    <col min="35" max="35" width="19.140625" customWidth="1"/>
+    <col min="36" max="36" width="16.140625" customWidth="1"/>
+    <col min="37" max="37" width="16.42578125" customWidth="1"/>
     <col min="38" max="38" width="18" customWidth="1"/>
-    <col min="39" max="39" width="14.6640625" customWidth="1"/>
-    <col min="40" max="40" width="14.44140625" customWidth="1"/>
-    <col min="41" max="41" width="14.6640625" customWidth="1"/>
-    <col min="42" max="42" width="34.109375" customWidth="1"/>
-    <col min="44" max="44" width="13.6640625" customWidth="1"/>
-    <col min="45" max="45" width="16.44140625" customWidth="1"/>
-    <col min="47" max="47" width="13.6640625" customWidth="1"/>
+    <col min="39" max="39" width="14.7109375" customWidth="1"/>
+    <col min="40" max="40" width="14.42578125" customWidth="1"/>
+    <col min="41" max="41" width="14.7109375" customWidth="1"/>
+    <col min="42" max="42" width="34.140625" customWidth="1"/>
+    <col min="44" max="44" width="13.7109375" customWidth="1"/>
+    <col min="45" max="45" width="16.42578125" customWidth="1"/>
+    <col min="47" max="47" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -3901,19 +3923,179 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="46" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>999</v>
+      </c>
+      <c r="C2">
+        <v>61</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45021.481516203705</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45021.48151140046</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>236</v>
+      </c>
+      <c r="M2">
+        <v>20230101</v>
+      </c>
+      <c r="N2">
+        <v>20230301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>999</v>
+      </c>
+      <c r="C3">
+        <v>1234</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45021.481516203705</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45021.48151140046</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M3">
+        <v>20230101</v>
+      </c>
+      <c r="N3">
+        <v>20230301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3977,13 +4159,13 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4119,16 +4301,16 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4377,30 +4559,30 @@
       <selection activeCell="BB18" sqref="BB18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="39.44140625" customWidth="1"/>
-    <col min="6" max="6" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
-    <col min="12" max="12" width="23.5546875" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" customWidth="1"/>
-    <col min="16" max="16" width="22.33203125" customWidth="1"/>
-    <col min="32" max="32" width="28.5546875" customWidth="1"/>
-    <col min="33" max="33" width="19.88671875" customWidth="1"/>
-    <col min="35" max="35" width="25.33203125" customWidth="1"/>
-    <col min="36" max="36" width="17.88671875" customWidth="1"/>
-    <col min="40" max="40" width="14.5546875" customWidth="1"/>
-    <col min="42" max="42" width="25.33203125" customWidth="1"/>
-    <col min="43" max="43" width="18.33203125" customWidth="1"/>
-    <col min="44" max="44" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" customWidth="1"/>
+    <col min="32" max="32" width="28.5703125" customWidth="1"/>
+    <col min="33" max="33" width="19.85546875" customWidth="1"/>
+    <col min="35" max="35" width="25.28515625" customWidth="1"/>
+    <col min="36" max="36" width="17.85546875" customWidth="1"/>
+    <col min="40" max="40" width="14.5703125" customWidth="1"/>
+    <col min="42" max="42" width="25.28515625" customWidth="1"/>
+    <col min="43" max="43" width="18.28515625" customWidth="1"/>
+    <col min="44" max="44" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
@@ -4621,24 +4803,24 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="74.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="74.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" customWidth="1"/>
-    <col min="12" max="12" width="18.21875" customWidth="1"/>
-    <col min="13" max="13" width="19.5546875" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" customWidth="1"/>
-    <col min="16" max="16" width="34.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="16" max="16" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4751,16 +4933,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="13" max="13" width="22.33203125" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:174">
@@ -4873,11 +5055,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:GG16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:189">
       <c r="A1" t="s">
@@ -12565,95 +12747,52 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="30.21875" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="40.200000000000003" customHeight="1">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="B1" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>376</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s">
-        <v>45</v>
+        <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45.6" customHeight="1">
+    <row r="2" spans="1:6">
       <c r="A2">
-        <v>999</v>
-      </c>
-      <c r="B2">
-        <v>6111</v>
+        <v>610406404</v>
+      </c>
+      <c r="B2" t="s">
+        <v>378</v>
       </c>
       <c r="C2">
-        <v>6404</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>45021.481516203705</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I2" t="s">
-        <v>352</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F2" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -12663,157 +12802,95 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" customWidth="1"/>
-    <col min="7" max="7" width="46" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:12" ht="40.15" customHeight="1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>351</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:12" ht="45.6" customHeight="1">
       <c r="A2">
-        <v>6</v>
+        <v>999</v>
       </c>
       <c r="B2">
-        <v>999</v>
+        <v>6111</v>
       </c>
       <c r="C2">
-        <v>61</v>
+        <v>6404</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
         <v>45021.481516203705</v>
       </c>
-      <c r="H2">
+      <c r="G2">
         <v>2</v>
       </c>
+      <c r="H2" t="s">
+        <v>236</v>
+      </c>
       <c r="I2" t="s">
-        <v>236</v>
-      </c>
-      <c r="J2" s="1">
-        <v>45021.48151140046</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>236</v>
-      </c>
-      <c r="M2">
-        <v>20230101</v>
-      </c>
-      <c r="N2">
-        <v>20230301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>999</v>
-      </c>
-      <c r="C3">
-        <v>1234</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>90</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>45021.481516203705</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>236</v>
-      </c>
-      <c r="J3" s="1">
-        <v>45021.48151140046</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>236</v>
-      </c>
-      <c r="M3">
-        <v>20230101</v>
-      </c>
-      <c r="N3">
-        <v>20230301</v>
+        <v>352</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\emr-cloud-be\CloudTest\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Le Minh\source\repos\emr-cloud-be\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="753" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22230" windowHeight="7110" tabRatio="753" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,17 @@
     <sheet name="PT_ALRGY_DRUG" sheetId="9" r:id="rId5"/>
     <sheet name="PT_OTHER_DRUG" sheetId="11" r:id="rId6"/>
     <sheet name="TEN_MST" sheetId="12" r:id="rId7"/>
-    <sheet name="KINKI_MST" sheetId="10" r:id="rId8"/>
-    <sheet name="DRUG_DAY_LIMIT" sheetId="4" r:id="rId9"/>
-    <sheet name="M10_DAY_LIMIT" sheetId="5" r:id="rId10"/>
+    <sheet name="M38_INGREDIENTS" sheetId="13" r:id="rId8"/>
+    <sheet name="KINKI_MST" sheetId="10" r:id="rId9"/>
+    <sheet name="DRUG_DAY_LIMIT" sheetId="4" r:id="rId10"/>
+    <sheet name="M10_DAY_LIMIT" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="381">
   <si>
     <t>HP_ID</t>
   </si>
@@ -1150,6 +1151,27 @@
   </si>
   <si>
     <t>6111700T1</t>
+  </si>
+  <si>
+    <t>SERIAL_NUM</t>
+  </si>
+  <si>
+    <t>SEIBUN_CD</t>
+  </si>
+  <si>
+    <t>SBT</t>
+  </si>
+  <si>
+    <t>44197BZ</t>
+  </si>
+  <si>
+    <t>900675Z</t>
+  </si>
+  <si>
+    <t>905575Z</t>
+  </si>
+  <si>
+    <t>906875Z</t>
   </si>
 </sst>
 </file>
@@ -1982,35 +2004,35 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" customWidth="1"/>
-    <col min="9" max="9" width="27.88671875" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="26" max="26" width="8.88671875" customWidth="1"/>
-    <col min="27" max="27" width="46.5546875" customWidth="1"/>
-    <col min="28" max="28" width="28.109375" customWidth="1"/>
-    <col min="29" max="29" width="25.33203125" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" customWidth="1"/>
+    <col min="27" max="27" width="46.5703125" customWidth="1"/>
+    <col min="28" max="28" width="28.140625" customWidth="1"/>
+    <col min="29" max="29" width="25.28515625" customWidth="1"/>
     <col min="30" max="30" width="21" customWidth="1"/>
-    <col min="31" max="31" width="18.5546875" customWidth="1"/>
+    <col min="31" max="31" width="18.5703125" customWidth="1"/>
     <col min="32" max="32" width="28" customWidth="1"/>
-    <col min="33" max="33" width="17.5546875" customWidth="1"/>
-    <col min="34" max="34" width="19.6640625" customWidth="1"/>
-    <col min="35" max="35" width="19.109375" customWidth="1"/>
-    <col min="36" max="36" width="16.109375" customWidth="1"/>
-    <col min="37" max="37" width="16.44140625" customWidth="1"/>
+    <col min="33" max="33" width="17.5703125" customWidth="1"/>
+    <col min="34" max="34" width="19.7109375" customWidth="1"/>
+    <col min="35" max="35" width="19.140625" customWidth="1"/>
+    <col min="36" max="36" width="16.140625" customWidth="1"/>
+    <col min="37" max="37" width="16.42578125" customWidth="1"/>
     <col min="38" max="38" width="18" customWidth="1"/>
-    <col min="39" max="39" width="14.6640625" customWidth="1"/>
-    <col min="40" max="40" width="14.44140625" customWidth="1"/>
-    <col min="41" max="41" width="14.6640625" customWidth="1"/>
-    <col min="42" max="42" width="34.109375" customWidth="1"/>
-    <col min="44" max="44" width="13.6640625" customWidth="1"/>
-    <col min="45" max="45" width="16.44140625" customWidth="1"/>
-    <col min="47" max="47" width="13.6640625" customWidth="1"/>
+    <col min="39" max="39" width="14.7109375" customWidth="1"/>
+    <col min="40" max="40" width="14.42578125" customWidth="1"/>
+    <col min="41" max="41" width="14.7109375" customWidth="1"/>
+    <col min="42" max="42" width="34.140625" customWidth="1"/>
+    <col min="44" max="44" width="13.7109375" customWidth="1"/>
+    <col min="45" max="45" width="16.42578125" customWidth="1"/>
+    <col min="47" max="47" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -3901,19 +3923,179 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="46" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>999</v>
+      </c>
+      <c r="C2">
+        <v>61</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45021.481516203705</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45021.48151140046</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>236</v>
+      </c>
+      <c r="M2">
+        <v>20230101</v>
+      </c>
+      <c r="N2">
+        <v>20230301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>999</v>
+      </c>
+      <c r="C3">
+        <v>1234</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45021.481516203705</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45021.48151140046</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M3">
+        <v>20230101</v>
+      </c>
+      <c r="N3">
+        <v>20230301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3977,13 +4159,13 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4119,16 +4301,16 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4377,30 +4559,30 @@
       <selection activeCell="BB18" sqref="BB18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="39.44140625" customWidth="1"/>
-    <col min="6" max="6" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
-    <col min="12" max="12" width="23.5546875" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" customWidth="1"/>
-    <col min="16" max="16" width="22.33203125" customWidth="1"/>
-    <col min="32" max="32" width="28.5546875" customWidth="1"/>
-    <col min="33" max="33" width="19.88671875" customWidth="1"/>
-    <col min="35" max="35" width="25.33203125" customWidth="1"/>
-    <col min="36" max="36" width="17.88671875" customWidth="1"/>
-    <col min="40" max="40" width="14.5546875" customWidth="1"/>
-    <col min="42" max="42" width="25.33203125" customWidth="1"/>
-    <col min="43" max="43" width="18.33203125" customWidth="1"/>
-    <col min="44" max="44" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" customWidth="1"/>
+    <col min="32" max="32" width="28.5703125" customWidth="1"/>
+    <col min="33" max="33" width="19.85546875" customWidth="1"/>
+    <col min="35" max="35" width="25.28515625" customWidth="1"/>
+    <col min="36" max="36" width="17.85546875" customWidth="1"/>
+    <col min="40" max="40" width="14.5703125" customWidth="1"/>
+    <col min="42" max="42" width="25.28515625" customWidth="1"/>
+    <col min="43" max="43" width="18.28515625" customWidth="1"/>
+    <col min="44" max="44" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
@@ -4621,24 +4803,24 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="74.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="74.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" customWidth="1"/>
-    <col min="12" max="12" width="18.21875" customWidth="1"/>
-    <col min="13" max="13" width="19.5546875" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" customWidth="1"/>
-    <col min="16" max="16" width="34.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="16" max="16" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4751,16 +4933,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="13" max="13" width="22.33203125" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:174">
@@ -4873,11 +5055,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:GG16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:189">
       <c r="A1" t="s">
@@ -12565,95 +12747,93 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="30.21875" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="40.200000000000003" customHeight="1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="B1" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="C1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1314701</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" ht="45.6" customHeight="1">
-      <c r="A2">
-        <v>999</v>
-      </c>
-      <c r="B2">
-        <v>6111</v>
-      </c>
-      <c r="C2">
-        <v>6404</v>
-      </c>
-      <c r="D2">
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1319717</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>45021.481516203705</v>
-      </c>
-      <c r="G2">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I2" t="s">
-        <v>352</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -12663,157 +12843,95 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" customWidth="1"/>
-    <col min="7" max="7" width="46" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:12" ht="40.15" customHeight="1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>351</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:12" ht="45.6" customHeight="1">
       <c r="A2">
-        <v>6</v>
+        <v>999</v>
       </c>
       <c r="B2">
-        <v>999</v>
+        <v>6111</v>
       </c>
       <c r="C2">
-        <v>61</v>
+        <v>6404</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
         <v>45021.481516203705</v>
       </c>
-      <c r="H2">
+      <c r="G2">
         <v>2</v>
       </c>
+      <c r="H2" t="s">
+        <v>236</v>
+      </c>
       <c r="I2" t="s">
-        <v>236</v>
-      </c>
-      <c r="J2" s="1">
-        <v>45021.48151140046</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>236</v>
-      </c>
-      <c r="M2">
-        <v>20230101</v>
-      </c>
-      <c r="N2">
-        <v>20230301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>999</v>
-      </c>
-      <c r="C3">
-        <v>1234</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>90</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>45021.481516203705</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>236</v>
-      </c>
-      <c r="J3" s="1">
-        <v>45021.48151140046</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>236</v>
-      </c>
-      <c r="M3">
-        <v>20230101</v>
-      </c>
-      <c r="N3">
-        <v>20230301</v>
+        <v>352</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Le Minh\source\repos\emr-cloud-be\CloudTest\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\SmartKarte_1\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22230" windowHeight="7110" tabRatio="753" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22230" windowHeight="7110" tabRatio="753" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -5055,8 +5055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GG16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:GG16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6584,7 +6584,7 @@
         <v>238</v>
       </c>
       <c r="C4">
-        <v>20080401</v>
+        <v>20080404</v>
       </c>
       <c r="D4">
         <v>20160331</v>
@@ -12749,7 +12749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\SmartKarte_1\CloudTest\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\emr-cloud-be\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22230" windowHeight="7110" tabRatio="753" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="753" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="381">
   <si>
     <t>HP_ID</t>
   </si>
@@ -2004,35 +2004,35 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" customWidth="1"/>
+    <col min="9" max="9" width="27.88671875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="26" max="26" width="8.85546875" customWidth="1"/>
-    <col min="27" max="27" width="46.5703125" customWidth="1"/>
-    <col min="28" max="28" width="28.140625" customWidth="1"/>
-    <col min="29" max="29" width="25.28515625" customWidth="1"/>
+    <col min="26" max="26" width="8.88671875" customWidth="1"/>
+    <col min="27" max="27" width="46.5546875" customWidth="1"/>
+    <col min="28" max="28" width="28.109375" customWidth="1"/>
+    <col min="29" max="29" width="25.33203125" customWidth="1"/>
     <col min="30" max="30" width="21" customWidth="1"/>
-    <col min="31" max="31" width="18.5703125" customWidth="1"/>
+    <col min="31" max="31" width="18.5546875" customWidth="1"/>
     <col min="32" max="32" width="28" customWidth="1"/>
-    <col min="33" max="33" width="17.5703125" customWidth="1"/>
-    <col min="34" max="34" width="19.7109375" customWidth="1"/>
-    <col min="35" max="35" width="19.140625" customWidth="1"/>
-    <col min="36" max="36" width="16.140625" customWidth="1"/>
-    <col min="37" max="37" width="16.42578125" customWidth="1"/>
+    <col min="33" max="33" width="17.5546875" customWidth="1"/>
+    <col min="34" max="34" width="19.6640625" customWidth="1"/>
+    <col min="35" max="35" width="19.109375" customWidth="1"/>
+    <col min="36" max="36" width="16.109375" customWidth="1"/>
+    <col min="37" max="37" width="16.44140625" customWidth="1"/>
     <col min="38" max="38" width="18" customWidth="1"/>
-    <col min="39" max="39" width="14.7109375" customWidth="1"/>
-    <col min="40" max="40" width="14.42578125" customWidth="1"/>
-    <col min="41" max="41" width="14.7109375" customWidth="1"/>
-    <col min="42" max="42" width="34.140625" customWidth="1"/>
-    <col min="44" max="44" width="13.7109375" customWidth="1"/>
-    <col min="45" max="45" width="16.42578125" customWidth="1"/>
-    <col min="47" max="47" width="13.7109375" customWidth="1"/>
+    <col min="39" max="39" width="14.6640625" customWidth="1"/>
+    <col min="40" max="40" width="14.44140625" customWidth="1"/>
+    <col min="41" max="41" width="14.6640625" customWidth="1"/>
+    <col min="42" max="42" width="34.109375" customWidth="1"/>
+    <col min="44" max="44" width="13.6640625" customWidth="1"/>
+    <col min="45" max="45" width="16.44140625" customWidth="1"/>
+    <col min="47" max="47" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -3929,19 +3929,19 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1"/>
     <col min="7" max="7" width="46" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4089,13 +4089,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4159,13 +4159,13 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4295,22 +4295,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4544,6 +4544,29 @@
       </c>
       <c r="H10" t="s">
         <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -4559,30 +4582,30 @@
       <selection activeCell="BB18" sqref="BB18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="31.88671875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1"/>
+    <col min="8" max="8" width="26.88671875" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" customWidth="1"/>
-    <col min="32" max="32" width="28.5703125" customWidth="1"/>
-    <col min="33" max="33" width="19.85546875" customWidth="1"/>
-    <col min="35" max="35" width="25.28515625" customWidth="1"/>
-    <col min="36" max="36" width="17.85546875" customWidth="1"/>
-    <col min="40" max="40" width="14.5703125" customWidth="1"/>
-    <col min="42" max="42" width="25.28515625" customWidth="1"/>
-    <col min="43" max="43" width="18.28515625" customWidth="1"/>
-    <col min="44" max="44" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.5546875" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" customWidth="1"/>
+    <col min="16" max="16" width="22.33203125" customWidth="1"/>
+    <col min="32" max="32" width="28.5546875" customWidth="1"/>
+    <col min="33" max="33" width="19.88671875" customWidth="1"/>
+    <col min="35" max="35" width="25.33203125" customWidth="1"/>
+    <col min="36" max="36" width="17.88671875" customWidth="1"/>
+    <col min="40" max="40" width="14.5546875" customWidth="1"/>
+    <col min="42" max="42" width="25.33203125" customWidth="1"/>
+    <col min="43" max="43" width="18.33203125" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
@@ -4803,24 +4826,24 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="74.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="74.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" customWidth="1"/>
-    <col min="16" max="16" width="34.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.5546875" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" customWidth="1"/>
+    <col min="16" max="16" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4933,16 +4956,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:174">
@@ -5055,11 +5078,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:189">
       <c r="A1" t="s">
@@ -12753,7 +12776,7 @@
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -12808,19 +12831,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="40.15" customHeight="1">
+    <row r="1" spans="1:12" ht="40.200000000000003" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="753" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="753" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="KINKI_MST" sheetId="10" r:id="rId9"/>
     <sheet name="DRUG_DAY_LIMIT" sheetId="4" r:id="rId10"/>
     <sheet name="M10_DAY_LIMIT" sheetId="5" r:id="rId11"/>
+    <sheet name="M01_KINKI" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="388">
   <si>
     <t>HP_ID</t>
   </si>
@@ -1172,6 +1173,27 @@
   </si>
   <si>
     <t>・ｻ・・ｬ・・､・・ｯ・・ｨ・・ｿ・・・・・ｼ・・ｫ・・・・・ｫ・・・・・・・・・・・</t>
+  </si>
+  <si>
+    <t>6220816T3</t>
+  </si>
+  <si>
+    <t>SAYOKIJYO_CD</t>
+  </si>
+  <si>
+    <t>KYODO_CD</t>
+  </si>
+  <si>
+    <t>KYODO</t>
+  </si>
+  <si>
+    <t>DATA_KBN</t>
+  </si>
+  <si>
+    <t>D006</t>
+  </si>
+  <si>
+    <t>S2001</t>
   </si>
 </sst>
 </file>
@@ -4151,6 +4173,72 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1190700</v>
+      </c>
+      <c r="B2">
+        <v>1190700</v>
+      </c>
+      <c r="C2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
@@ -4297,7 +4385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -4950,14 +5038,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FR3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="41.5546875" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
@@ -4968,7 +5057,7 @@
     <col min="13" max="13" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:174">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5018,13 +5107,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:174">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>999</v>
       </c>
-      <c r="B2">
-        <v>1231</v>
-      </c>
       <c r="C2">
         <v>6</v>
       </c>
@@ -5065,9 +5151,49 @@
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="1:174">
-      <c r="FO3" s="1"/>
-      <c r="FR3" s="1"/>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>999</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>99999999</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>45104.430274398146</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>349</v>
+      </c>
+      <c r="N3" s="1">
+        <v>45104.430274398146</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>349</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="753" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="753" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,16 @@
     <sheet name="DRUG_DAY_LIMIT" sheetId="4" r:id="rId10"/>
     <sheet name="M10_DAY_LIMIT" sheetId="5" r:id="rId11"/>
     <sheet name="M01_KINKI" sheetId="14" r:id="rId12"/>
+    <sheet name="PT_SUPPLE" sheetId="15" r:id="rId13"/>
+    <sheet name="M41_SUPPLE_INDEXDEF" sheetId="16" r:id="rId14"/>
+    <sheet name="M41_SUPPLE_INDEXCODE" sheetId="17" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="396">
   <si>
     <t>HP_ID</t>
   </si>
@@ -1194,6 +1197,30 @@
   </si>
   <si>
     <t>S2001</t>
+  </si>
+  <si>
+    <t>INDEX_CD</t>
+  </si>
+  <si>
+    <t>INDEX_WORD</t>
+  </si>
+  <si>
+    <t>Supple 3</t>
+  </si>
+  <si>
+    <t>UNIT-TEST</t>
+  </si>
+  <si>
+    <t>SEIBUN_CD</t>
+  </si>
+  <si>
+    <t>TOKUHO_FLG</t>
+  </si>
+  <si>
+    <t>UNITTEST</t>
+  </si>
+  <si>
+    <t>UT00002</t>
   </si>
 </sst>
 </file>
@@ -4175,10 +4202,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4232,6 +4259,245 @@
       </c>
       <c r="G2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3">
+        <v>1190700</v>
+      </c>
+      <c r="C3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1"/>
+    <col min="8" max="8" width="33.109375" customWidth="1"/>
+    <col min="9" max="9" width="37.33203125" customWidth="1"/>
+    <col min="10" max="10" width="37.5546875" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+    <col min="15" max="15" width="25.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>13934</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G2">
+        <v>20200101</v>
+      </c>
+      <c r="H2">
+        <v>20231212</v>
+      </c>
+      <c r="I2" t="s">
+        <v>390</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="K5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="K6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="K7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="K8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="K9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="N14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="48.21875" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -5204,11 +5470,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GG16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="154" max="154" width="24.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:189">
       <c r="A1" t="s">

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="753" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="926" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -18,22 +18,24 @@
     <sheet name="PT_INF" sheetId="8" r:id="rId4"/>
     <sheet name="PT_ALRGY_DRUG" sheetId="9" r:id="rId5"/>
     <sheet name="PT_OTHER_DRUG" sheetId="11" r:id="rId6"/>
-    <sheet name="TEN_MST" sheetId="12" r:id="rId7"/>
-    <sheet name="M12_FOOD_ALRGY" sheetId="13" r:id="rId8"/>
-    <sheet name="KINKI_MST" sheetId="10" r:id="rId9"/>
-    <sheet name="DRUG_DAY_LIMIT" sheetId="4" r:id="rId10"/>
-    <sheet name="M10_DAY_LIMIT" sheetId="5" r:id="rId11"/>
-    <sheet name="M01_KINKI" sheetId="14" r:id="rId12"/>
-    <sheet name="PT_SUPPLE" sheetId="15" r:id="rId13"/>
-    <sheet name="M41_SUPPLE_INDEXDEF" sheetId="16" r:id="rId14"/>
-    <sheet name="M41_SUPPLE_INDEXCODE" sheetId="17" r:id="rId15"/>
+    <sheet name="PT_OTC_DRUG" sheetId="18" r:id="rId7"/>
+    <sheet name="M38_INGREDIENTS" sheetId="19" r:id="rId8"/>
+    <sheet name="TEN_MST" sheetId="12" r:id="rId9"/>
+    <sheet name="M12_FOOD_ALRGY" sheetId="13" r:id="rId10"/>
+    <sheet name="KINKI_MST" sheetId="10" r:id="rId11"/>
+    <sheet name="DRUG_DAY_LIMIT" sheetId="4" r:id="rId12"/>
+    <sheet name="M10_DAY_LIMIT" sheetId="5" r:id="rId13"/>
+    <sheet name="M01_KINKI" sheetId="14" r:id="rId14"/>
+    <sheet name="PT_SUPPLE" sheetId="15" r:id="rId15"/>
+    <sheet name="M41_SUPPLE_INDEXDEF" sheetId="16" r:id="rId16"/>
+    <sheet name="M41_SUPPLE_INDEXCODE" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="401">
   <si>
     <t>HP_ID</t>
   </si>
@@ -1221,6 +1223,21 @@
   </si>
   <si>
     <t>UT00002</t>
+  </si>
+  <si>
+    <t>SERIAL_NUM</t>
+  </si>
+  <si>
+    <t>TRADE_NAME</t>
+  </si>
+  <si>
+    <t>・・・・・・・・ｻ・・ｳH2・・</t>
+  </si>
+  <si>
+    <t>UNIT TEST</t>
+  </si>
+  <si>
+    <t>SBT</t>
   </si>
 </sst>
 </file>
@@ -1722,10 +1739,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3972,6 +3990,160 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>610406404</v>
+      </c>
+      <c r="B2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="40.200000000000003" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.2" customHeight="1">
+      <c r="A2">
+        <v>999</v>
+      </c>
+      <c r="B2">
+        <v>6111</v>
+      </c>
+      <c r="C2">
+        <v>6404</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45021.481516203705</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I2" t="s">
+        <v>352</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4130,12 +4302,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4200,12 +4372,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4262,8 +4434,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>394</v>
+      <c r="A3">
+        <v>9999999</v>
       </c>
       <c r="B3">
         <v>1190700</v>
@@ -4278,6 +4450,26 @@
         <v>3</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1124</v>
+      </c>
+      <c r="B4">
+        <v>9999999</v>
+      </c>
+      <c r="C4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
     </row>
@@ -4286,7 +4478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
@@ -4432,12 +4624,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4470,7 +4662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -5307,7 +5499,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5468,9 +5660,203 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27.88671875" customWidth="1"/>
+    <col min="11" max="11" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>999</v>
+      </c>
+      <c r="B2">
+        <v>1231</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>99999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G2">
+        <v>20190603</v>
+      </c>
+      <c r="H2">
+        <v>20231212</v>
+      </c>
+      <c r="I2" t="s">
+        <v>399</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>45103.986898148149</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>45199.108252777776</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="K3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="K7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="K8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="K11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="K12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3">
+        <v>99999</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9999999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -13162,157 +13548,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>610406404</v>
-      </c>
-      <c r="B2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="40.200000000000003" customHeight="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="45.6" customHeight="1">
-      <c r="A2">
-        <v>999</v>
-      </c>
-      <c r="B2">
-        <v>6111</v>
-      </c>
-      <c r="C2">
-        <v>6404</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>45021.481516203705</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I2" t="s">
-        <v>352</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="926" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="926" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -23,20 +23,21 @@
     <sheet name="M38_INGREDIENTS" sheetId="19" r:id="rId9"/>
     <sheet name="TEN_MST" sheetId="12" r:id="rId10"/>
     <sheet name="M12_FOOD_ALRGY" sheetId="13" r:id="rId11"/>
-    <sheet name="KINKI_MST" sheetId="10" r:id="rId12"/>
-    <sheet name="DRUG_DAY_LIMIT" sheetId="4" r:id="rId13"/>
-    <sheet name="M10_DAY_LIMIT" sheetId="5" r:id="rId14"/>
-    <sheet name="M01_KINKI" sheetId="14" r:id="rId15"/>
-    <sheet name="PT_SUPPLE" sheetId="15" r:id="rId16"/>
-    <sheet name="M41_SUPPLE_INDEXDEF" sheetId="16" r:id="rId17"/>
-    <sheet name="M41_SUPPLE_INDEXCODE" sheetId="17" r:id="rId18"/>
+    <sheet name="M14_AGE_CHECK" sheetId="21" r:id="rId12"/>
+    <sheet name="KINKI_MST" sheetId="10" r:id="rId13"/>
+    <sheet name="DRUG_DAY_LIMIT" sheetId="4" r:id="rId14"/>
+    <sheet name="M10_DAY_LIMIT" sheetId="5" r:id="rId15"/>
+    <sheet name="M01_KINKI" sheetId="14" r:id="rId16"/>
+    <sheet name="PT_SUPPLE" sheetId="15" r:id="rId17"/>
+    <sheet name="M41_SUPPLE_INDEXDEF" sheetId="16" r:id="rId18"/>
+    <sheet name="M41_SUPPLE_INDEXCODE" sheetId="17" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="412">
   <si>
     <t>HP_ID</t>
   </si>
@@ -1242,6 +1243,36 @@
   </si>
   <si>
     <t>ALRGY_KBN</t>
+  </si>
+  <si>
+    <t>ATTENTION_CMT_CD</t>
+  </si>
+  <si>
+    <t>AGE_KBN</t>
+  </si>
+  <si>
+    <t>WEIGHT_KBN</t>
+  </si>
+  <si>
+    <t>SEX_KBN</t>
+  </si>
+  <si>
+    <t>AGE_MIN</t>
+  </si>
+  <si>
+    <t>AGE_MAX</t>
+  </si>
+  <si>
+    <t>WEIGHT_MIN</t>
+  </si>
+  <si>
+    <t>WEIGHT_MAX</t>
+  </si>
+  <si>
+    <t>・ｻ・ｸ・・ｬ・・ｫ・ｫ・・ｽ｢・・・・ｧ・・ｯ・・・・・・・ｩ・・・ｽ・・・・ｽ・・ｸ・・・・・・ｦ・・・・・・・・</t>
+  </si>
+  <si>
+    <t>UT</t>
   </si>
 </sst>
 </file>
@@ -1743,11 +1774,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3997,7 +4029,7 @@
   <dimension ref="A1:GG16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11202,7 +11234,7 @@
     </row>
     <row r="16" spans="1:189">
       <c r="A16">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <v>6220816</v>
@@ -11694,7 +11726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -11772,6 +11804,94 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J1" t="s">
+        <v>408</v>
+      </c>
+      <c r="K1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>999</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -11870,7 +11990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
@@ -12030,7 +12150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -12100,7 +12220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -12206,7 +12326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
@@ -12352,7 +12472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -12390,7 +12510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="926" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="926" firstSheet="14" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="424">
   <si>
     <t>HP_ID</t>
   </si>
@@ -1309,6 +1309,9 @@
   </si>
   <si>
     <t>・・｣・・・14</t>
+  </si>
+  <si>
+    <t>UT99999</t>
   </si>
 </sst>
 </file>
@@ -12610,7 +12613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -13083,10 +13086,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13179,6 +13182,26 @@
         <v>3</v>
       </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5">
+        <v>1124017</v>
+      </c>
+      <c r="C5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
     </row>
@@ -13333,8 +13356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13480,7 +13503,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13502,7 +13525,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
       <c r="B2" t="s">
         <v>391</v>
@@ -13518,7 +13541,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13540,7 +13563,7 @@
         <v>395</v>
       </c>
       <c r="B2" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\emr-cloud-be\CloudTest\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\emr-cloud-be\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="926" firstSheet="14" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="926" firstSheet="7" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="424">
   <si>
     <t>HP_ID</t>
   </si>
@@ -4259,10 +4259,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GG17"/>
+  <dimension ref="A1:GG19"/>
   <sheetViews>
-    <sheetView topLeftCell="DK1" workbookViewId="0">
-      <selection activeCell="DX17" sqref="DX17"/>
+    <sheetView topLeftCell="DP1" workbookViewId="0">
+      <selection activeCell="EC28" sqref="EC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12432,6 +12432,976 @@
         <v>0</v>
       </c>
       <c r="GG17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:189">
+      <c r="A18">
+        <v>999</v>
+      </c>
+      <c r="B18">
+        <v>6404</v>
+      </c>
+      <c r="C18">
+        <v>20220401</v>
+      </c>
+      <c r="D18">
+        <v>99999999</v>
+      </c>
+      <c r="E18" t="s">
+        <v>230</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>364</v>
+      </c>
+      <c r="H18" t="s">
+        <v>371</v>
+      </c>
+      <c r="P18" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>343</v>
+      </c>
+      <c r="S18">
+        <v>47</v>
+      </c>
+      <c r="T18" t="s">
+        <v>279</v>
+      </c>
+      <c r="U18" t="s">
+        <v>279</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
+        <v>0</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <v>0</v>
+      </c>
+      <c r="BQ18">
+        <v>0</v>
+      </c>
+      <c r="BR18">
+        <v>0</v>
+      </c>
+      <c r="BS18">
+        <v>0</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>0</v>
+      </c>
+      <c r="BW18">
+        <v>0</v>
+      </c>
+      <c r="BX18">
+        <v>0</v>
+      </c>
+      <c r="BY18">
+        <v>0</v>
+      </c>
+      <c r="BZ18">
+        <v>0</v>
+      </c>
+      <c r="CA18">
+        <v>0</v>
+      </c>
+      <c r="CB18">
+        <v>0</v>
+      </c>
+      <c r="CC18">
+        <v>0</v>
+      </c>
+      <c r="CD18">
+        <v>0</v>
+      </c>
+      <c r="CE18">
+        <v>0</v>
+      </c>
+      <c r="CF18">
+        <v>0</v>
+      </c>
+      <c r="CG18">
+        <v>0</v>
+      </c>
+      <c r="CT18">
+        <v>0</v>
+      </c>
+      <c r="CU18">
+        <v>0</v>
+      </c>
+      <c r="CV18">
+        <v>0</v>
+      </c>
+      <c r="CW18">
+        <v>0</v>
+      </c>
+      <c r="CX18">
+        <v>0</v>
+      </c>
+      <c r="CY18">
+        <v>4</v>
+      </c>
+      <c r="CZ18">
+        <v>0</v>
+      </c>
+      <c r="DA18">
+        <v>0</v>
+      </c>
+      <c r="DB18">
+        <v>0</v>
+      </c>
+      <c r="DC18">
+        <v>0</v>
+      </c>
+      <c r="DD18">
+        <v>0</v>
+      </c>
+      <c r="DE18">
+        <v>0</v>
+      </c>
+      <c r="DF18">
+        <v>0</v>
+      </c>
+      <c r="DG18">
+        <v>0</v>
+      </c>
+      <c r="DH18">
+        <v>0</v>
+      </c>
+      <c r="DJ18">
+        <v>0</v>
+      </c>
+      <c r="DK18">
+        <v>0</v>
+      </c>
+      <c r="DL18">
+        <v>0</v>
+      </c>
+      <c r="DM18">
+        <v>0</v>
+      </c>
+      <c r="DN18">
+        <v>0</v>
+      </c>
+      <c r="DP18">
+        <v>0</v>
+      </c>
+      <c r="DQ18">
+        <v>0</v>
+      </c>
+      <c r="DR18">
+        <v>0</v>
+      </c>
+      <c r="DS18">
+        <v>0</v>
+      </c>
+      <c r="DT18">
+        <v>0</v>
+      </c>
+      <c r="DU18">
+        <v>0</v>
+      </c>
+      <c r="DV18">
+        <v>0</v>
+      </c>
+      <c r="DW18">
+        <v>0</v>
+      </c>
+      <c r="DX18">
+        <v>6404</v>
+      </c>
+      <c r="DY18" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ18">
+        <v>0</v>
+      </c>
+      <c r="EA18">
+        <v>0</v>
+      </c>
+      <c r="EB18">
+        <v>20220401</v>
+      </c>
+      <c r="EC18">
+        <v>99999999</v>
+      </c>
+      <c r="ED18">
+        <v>0</v>
+      </c>
+      <c r="EE18">
+        <v>0</v>
+      </c>
+      <c r="EF18">
+        <v>0</v>
+      </c>
+      <c r="EG18">
+        <v>0</v>
+      </c>
+      <c r="EH18">
+        <v>0</v>
+      </c>
+      <c r="EI18">
+        <v>0</v>
+      </c>
+      <c r="EJ18">
+        <v>0</v>
+      </c>
+      <c r="EK18">
+        <v>0</v>
+      </c>
+      <c r="EL18">
+        <v>0</v>
+      </c>
+      <c r="EM18">
+        <v>0</v>
+      </c>
+      <c r="EN18">
+        <v>0</v>
+      </c>
+      <c r="EO18">
+        <v>0</v>
+      </c>
+      <c r="EP18" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ18">
+        <v>0</v>
+      </c>
+      <c r="ER18">
+        <v>0</v>
+      </c>
+      <c r="ES18">
+        <v>0</v>
+      </c>
+      <c r="ET18">
+        <v>0</v>
+      </c>
+      <c r="EU18">
+        <v>0</v>
+      </c>
+      <c r="EV18">
+        <v>1</v>
+      </c>
+      <c r="EW18">
+        <v>0</v>
+      </c>
+      <c r="EX18">
+        <v>620001936</v>
+      </c>
+      <c r="EY18">
+        <v>0</v>
+      </c>
+      <c r="FA18">
+        <v>0</v>
+      </c>
+      <c r="FD18">
+        <v>0</v>
+      </c>
+      <c r="FE18">
+        <v>0</v>
+      </c>
+      <c r="FF18">
+        <v>0</v>
+      </c>
+      <c r="FG18">
+        <v>0</v>
+      </c>
+      <c r="FH18">
+        <v>0</v>
+      </c>
+      <c r="FI18">
+        <v>0</v>
+      </c>
+      <c r="FJ18">
+        <v>0</v>
+      </c>
+      <c r="FK18">
+        <v>0</v>
+      </c>
+      <c r="FL18">
+        <v>0</v>
+      </c>
+      <c r="FM18">
+        <v>0</v>
+      </c>
+      <c r="FN18">
+        <v>0</v>
+      </c>
+      <c r="FO18" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FP18">
+        <v>0</v>
+      </c>
+      <c r="FR18" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FS18">
+        <v>0</v>
+      </c>
+      <c r="FU18">
+        <v>0</v>
+      </c>
+      <c r="FV18">
+        <v>0</v>
+      </c>
+      <c r="FW18">
+        <v>0</v>
+      </c>
+      <c r="FX18">
+        <v>0</v>
+      </c>
+      <c r="FY18">
+        <v>0</v>
+      </c>
+      <c r="FZ18">
+        <v>0</v>
+      </c>
+      <c r="GA18">
+        <v>0</v>
+      </c>
+      <c r="GB18">
+        <v>0</v>
+      </c>
+      <c r="GC18">
+        <v>0</v>
+      </c>
+      <c r="GD18">
+        <v>0</v>
+      </c>
+      <c r="GE18">
+        <v>0</v>
+      </c>
+      <c r="GF18">
+        <v>0</v>
+      </c>
+      <c r="GG18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:189">
+      <c r="A19">
+        <v>999</v>
+      </c>
+      <c r="B19">
+        <v>6111</v>
+      </c>
+      <c r="C19">
+        <v>20220401</v>
+      </c>
+      <c r="D19">
+        <v>99999999</v>
+      </c>
+      <c r="E19" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>364</v>
+      </c>
+      <c r="H19" t="s">
+        <v>371</v>
+      </c>
+      <c r="P19" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>343</v>
+      </c>
+      <c r="S19">
+        <v>47</v>
+      </c>
+      <c r="T19" t="s">
+        <v>279</v>
+      </c>
+      <c r="U19" t="s">
+        <v>279</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
+      <c r="BQ19">
+        <v>0</v>
+      </c>
+      <c r="BR19">
+        <v>0</v>
+      </c>
+      <c r="BS19">
+        <v>0</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
+        <v>0</v>
+      </c>
+      <c r="BW19">
+        <v>0</v>
+      </c>
+      <c r="BX19">
+        <v>0</v>
+      </c>
+      <c r="BY19">
+        <v>0</v>
+      </c>
+      <c r="BZ19">
+        <v>0</v>
+      </c>
+      <c r="CA19">
+        <v>0</v>
+      </c>
+      <c r="CB19">
+        <v>0</v>
+      </c>
+      <c r="CC19">
+        <v>0</v>
+      </c>
+      <c r="CD19">
+        <v>0</v>
+      </c>
+      <c r="CE19">
+        <v>0</v>
+      </c>
+      <c r="CF19">
+        <v>0</v>
+      </c>
+      <c r="CG19">
+        <v>0</v>
+      </c>
+      <c r="CT19">
+        <v>0</v>
+      </c>
+      <c r="CU19">
+        <v>0</v>
+      </c>
+      <c r="CV19">
+        <v>0</v>
+      </c>
+      <c r="CW19">
+        <v>0</v>
+      </c>
+      <c r="CX19">
+        <v>0</v>
+      </c>
+      <c r="CY19">
+        <v>4</v>
+      </c>
+      <c r="CZ19">
+        <v>0</v>
+      </c>
+      <c r="DA19">
+        <v>0</v>
+      </c>
+      <c r="DB19">
+        <v>0</v>
+      </c>
+      <c r="DC19">
+        <v>0</v>
+      </c>
+      <c r="DD19">
+        <v>0</v>
+      </c>
+      <c r="DE19">
+        <v>0</v>
+      </c>
+      <c r="DF19">
+        <v>0</v>
+      </c>
+      <c r="DG19">
+        <v>0</v>
+      </c>
+      <c r="DH19">
+        <v>0</v>
+      </c>
+      <c r="DJ19">
+        <v>0</v>
+      </c>
+      <c r="DK19">
+        <v>0</v>
+      </c>
+      <c r="DL19">
+        <v>0</v>
+      </c>
+      <c r="DM19">
+        <v>0</v>
+      </c>
+      <c r="DN19">
+        <v>0</v>
+      </c>
+      <c r="DP19">
+        <v>0</v>
+      </c>
+      <c r="DQ19">
+        <v>0</v>
+      </c>
+      <c r="DR19">
+        <v>0</v>
+      </c>
+      <c r="DS19">
+        <v>0</v>
+      </c>
+      <c r="DT19">
+        <v>0</v>
+      </c>
+      <c r="DU19">
+        <v>0</v>
+      </c>
+      <c r="DV19">
+        <v>0</v>
+      </c>
+      <c r="DW19">
+        <v>0</v>
+      </c>
+      <c r="DX19">
+        <v>6111</v>
+      </c>
+      <c r="DY19" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ19">
+        <v>0</v>
+      </c>
+      <c r="EA19">
+        <v>0</v>
+      </c>
+      <c r="EB19">
+        <v>20220401</v>
+      </c>
+      <c r="EC19">
+        <v>99999999</v>
+      </c>
+      <c r="ED19">
+        <v>0</v>
+      </c>
+      <c r="EE19">
+        <v>0</v>
+      </c>
+      <c r="EF19">
+        <v>0</v>
+      </c>
+      <c r="EG19">
+        <v>0</v>
+      </c>
+      <c r="EH19">
+        <v>0</v>
+      </c>
+      <c r="EI19">
+        <v>0</v>
+      </c>
+      <c r="EJ19">
+        <v>0</v>
+      </c>
+      <c r="EK19">
+        <v>0</v>
+      </c>
+      <c r="EL19">
+        <v>0</v>
+      </c>
+      <c r="EM19">
+        <v>0</v>
+      </c>
+      <c r="EN19">
+        <v>0</v>
+      </c>
+      <c r="EO19">
+        <v>0</v>
+      </c>
+      <c r="EP19" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ19">
+        <v>0</v>
+      </c>
+      <c r="ER19">
+        <v>0</v>
+      </c>
+      <c r="ES19">
+        <v>0</v>
+      </c>
+      <c r="ET19">
+        <v>0</v>
+      </c>
+      <c r="EU19">
+        <v>0</v>
+      </c>
+      <c r="EV19">
+        <v>1</v>
+      </c>
+      <c r="EW19">
+        <v>0</v>
+      </c>
+      <c r="EX19">
+        <v>620001936</v>
+      </c>
+      <c r="EY19">
+        <v>0</v>
+      </c>
+      <c r="FA19">
+        <v>0</v>
+      </c>
+      <c r="FD19">
+        <v>0</v>
+      </c>
+      <c r="FE19">
+        <v>0</v>
+      </c>
+      <c r="FF19">
+        <v>0</v>
+      </c>
+      <c r="FG19">
+        <v>0</v>
+      </c>
+      <c r="FH19">
+        <v>0</v>
+      </c>
+      <c r="FI19">
+        <v>0</v>
+      </c>
+      <c r="FJ19">
+        <v>0</v>
+      </c>
+      <c r="FK19">
+        <v>0</v>
+      </c>
+      <c r="FL19">
+        <v>0</v>
+      </c>
+      <c r="FM19">
+        <v>0</v>
+      </c>
+      <c r="FN19">
+        <v>0</v>
+      </c>
+      <c r="FO19" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FP19">
+        <v>0</v>
+      </c>
+      <c r="FR19" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FS19">
+        <v>0</v>
+      </c>
+      <c r="FU19">
+        <v>0</v>
+      </c>
+      <c r="FV19">
+        <v>0</v>
+      </c>
+      <c r="FW19">
+        <v>0</v>
+      </c>
+      <c r="FX19">
+        <v>0</v>
+      </c>
+      <c r="FY19">
+        <v>0</v>
+      </c>
+      <c r="FZ19">
+        <v>0</v>
+      </c>
+      <c r="GA19">
+        <v>0</v>
+      </c>
+      <c r="GB19">
+        <v>0</v>
+      </c>
+      <c r="GC19">
+        <v>0</v>
+      </c>
+      <c r="GD19">
+        <v>0</v>
+      </c>
+      <c r="GE19">
+        <v>0</v>
+      </c>
+      <c r="GF19">
+        <v>0</v>
+      </c>
+      <c r="GG19">
         <v>0</v>
       </c>
     </row>
@@ -12757,10 +13727,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12846,6 +13816,41 @@
         <v>0</v>
       </c>
       <c r="L2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.2" customHeight="1">
+      <c r="A3">
+        <v>999</v>
+      </c>
+      <c r="B3">
+        <v>6404</v>
+      </c>
+      <c r="C3">
+        <v>6404</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45021.481516203705</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>236</v>
+      </c>
+      <c r="I3" t="s">
+        <v>352</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>10</v>
       </c>
     </row>
@@ -13088,7 +14093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\emr-cloud-be\CloudTest\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\emr-cloud-be\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="926" firstSheet="7" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="926" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="425">
   <si>
     <t>HP_ID</t>
   </si>
@@ -1200,9 +1200,6 @@
     <t>DATA_KBN</t>
   </si>
   <si>
-    <t>D006</t>
-  </si>
-  <si>
     <t>S2001</t>
   </si>
   <si>
@@ -1312,6 +1309,12 @@
   </si>
   <si>
     <t>UT99999</t>
+  </si>
+  <si>
+    <t>61UT</t>
+  </si>
+  <si>
+    <t>1124017F</t>
   </si>
 </sst>
 </file>
@@ -4094,10 +4097,10 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1" t="s">
         <v>396</v>
-      </c>
-      <c r="F1" t="s">
-        <v>397</v>
       </c>
       <c r="G1" t="s">
         <v>27</v>
@@ -4147,7 +4150,7 @@
         <v>99999</v>
       </c>
       <c r="F2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G2">
         <v>20190603</v>
@@ -4156,7 +4159,7 @@
         <v>20231212</v>
       </c>
       <c r="I2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -4232,13 +4235,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4259,15 +4262,16 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GG19"/>
+  <dimension ref="A1:GG20"/>
   <sheetViews>
-    <sheetView topLeftCell="DP1" workbookViewId="0">
-      <selection activeCell="EC28" sqref="EC28"/>
+    <sheetView topLeftCell="DN1" workbookViewId="0">
+      <selection activeCell="DX20" sqref="DX20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="128" max="128" width="27.33203125" customWidth="1"/>
     <col min="154" max="154" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12264,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="DX17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="DY17" t="s">
         <v>280</v>
@@ -13402,6 +13406,491 @@
         <v>0</v>
       </c>
       <c r="GG19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:189">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C20">
+        <v>20220401</v>
+      </c>
+      <c r="D20">
+        <v>99999999</v>
+      </c>
+      <c r="E20" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>364</v>
+      </c>
+      <c r="H20" t="s">
+        <v>371</v>
+      </c>
+      <c r="P20" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>343</v>
+      </c>
+      <c r="S20">
+        <v>47</v>
+      </c>
+      <c r="T20" t="s">
+        <v>279</v>
+      </c>
+      <c r="U20" t="s">
+        <v>279</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>0</v>
+      </c>
+      <c r="BR20">
+        <v>0</v>
+      </c>
+      <c r="BS20">
+        <v>0</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>0</v>
+      </c>
+      <c r="BW20">
+        <v>0</v>
+      </c>
+      <c r="BX20">
+        <v>0</v>
+      </c>
+      <c r="BY20">
+        <v>0</v>
+      </c>
+      <c r="BZ20">
+        <v>0</v>
+      </c>
+      <c r="CA20">
+        <v>0</v>
+      </c>
+      <c r="CB20">
+        <v>0</v>
+      </c>
+      <c r="CC20">
+        <v>0</v>
+      </c>
+      <c r="CD20">
+        <v>0</v>
+      </c>
+      <c r="CE20">
+        <v>0</v>
+      </c>
+      <c r="CF20">
+        <v>0</v>
+      </c>
+      <c r="CG20">
+        <v>0</v>
+      </c>
+      <c r="CT20">
+        <v>0</v>
+      </c>
+      <c r="CU20">
+        <v>0</v>
+      </c>
+      <c r="CV20">
+        <v>0</v>
+      </c>
+      <c r="CW20">
+        <v>0</v>
+      </c>
+      <c r="CX20">
+        <v>0</v>
+      </c>
+      <c r="CY20">
+        <v>4</v>
+      </c>
+      <c r="CZ20">
+        <v>0</v>
+      </c>
+      <c r="DA20">
+        <v>0</v>
+      </c>
+      <c r="DB20">
+        <v>0</v>
+      </c>
+      <c r="DC20">
+        <v>0</v>
+      </c>
+      <c r="DD20">
+        <v>0</v>
+      </c>
+      <c r="DE20">
+        <v>0</v>
+      </c>
+      <c r="DF20">
+        <v>0</v>
+      </c>
+      <c r="DG20">
+        <v>0</v>
+      </c>
+      <c r="DH20">
+        <v>0</v>
+      </c>
+      <c r="DJ20">
+        <v>0</v>
+      </c>
+      <c r="DK20">
+        <v>0</v>
+      </c>
+      <c r="DL20">
+        <v>0</v>
+      </c>
+      <c r="DM20">
+        <v>0</v>
+      </c>
+      <c r="DN20">
+        <v>0</v>
+      </c>
+      <c r="DP20">
+        <v>0</v>
+      </c>
+      <c r="DQ20">
+        <v>0</v>
+      </c>
+      <c r="DR20">
+        <v>0</v>
+      </c>
+      <c r="DS20">
+        <v>0</v>
+      </c>
+      <c r="DT20">
+        <v>0</v>
+      </c>
+      <c r="DU20">
+        <v>0</v>
+      </c>
+      <c r="DV20">
+        <v>0</v>
+      </c>
+      <c r="DW20">
+        <v>0</v>
+      </c>
+      <c r="DX20" t="s">
+        <v>234</v>
+      </c>
+      <c r="DY20" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ20">
+        <v>0</v>
+      </c>
+      <c r="EA20">
+        <v>0</v>
+      </c>
+      <c r="EB20">
+        <v>20220401</v>
+      </c>
+      <c r="EC20">
+        <v>99999999</v>
+      </c>
+      <c r="ED20">
+        <v>0</v>
+      </c>
+      <c r="EE20">
+        <v>0</v>
+      </c>
+      <c r="EF20">
+        <v>0</v>
+      </c>
+      <c r="EG20">
+        <v>0</v>
+      </c>
+      <c r="EH20">
+        <v>0</v>
+      </c>
+      <c r="EI20">
+        <v>0</v>
+      </c>
+      <c r="EJ20">
+        <v>0</v>
+      </c>
+      <c r="EK20">
+        <v>0</v>
+      </c>
+      <c r="EL20">
+        <v>0</v>
+      </c>
+      <c r="EM20">
+        <v>0</v>
+      </c>
+      <c r="EN20">
+        <v>0</v>
+      </c>
+      <c r="EO20">
+        <v>0</v>
+      </c>
+      <c r="EP20" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ20">
+        <v>0</v>
+      </c>
+      <c r="ER20">
+        <v>0</v>
+      </c>
+      <c r="ES20">
+        <v>0</v>
+      </c>
+      <c r="ET20">
+        <v>0</v>
+      </c>
+      <c r="EU20">
+        <v>0</v>
+      </c>
+      <c r="EV20">
+        <v>1</v>
+      </c>
+      <c r="EW20">
+        <v>0</v>
+      </c>
+      <c r="EX20">
+        <v>620001936</v>
+      </c>
+      <c r="EY20">
+        <v>0</v>
+      </c>
+      <c r="FA20">
+        <v>0</v>
+      </c>
+      <c r="FD20">
+        <v>0</v>
+      </c>
+      <c r="FE20">
+        <v>0</v>
+      </c>
+      <c r="FF20">
+        <v>0</v>
+      </c>
+      <c r="FG20">
+        <v>0</v>
+      </c>
+      <c r="FH20">
+        <v>0</v>
+      </c>
+      <c r="FI20">
+        <v>0</v>
+      </c>
+      <c r="FJ20">
+        <v>0</v>
+      </c>
+      <c r="FK20">
+        <v>0</v>
+      </c>
+      <c r="FL20">
+        <v>0</v>
+      </c>
+      <c r="FM20">
+        <v>0</v>
+      </c>
+      <c r="FN20">
+        <v>0</v>
+      </c>
+      <c r="FO20" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FP20">
+        <v>0</v>
+      </c>
+      <c r="FR20" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FS20">
+        <v>0</v>
+      </c>
+      <c r="FU20">
+        <v>0</v>
+      </c>
+      <c r="FV20">
+        <v>0</v>
+      </c>
+      <c r="FW20">
+        <v>0</v>
+      </c>
+      <c r="FX20">
+        <v>0</v>
+      </c>
+      <c r="FY20">
+        <v>0</v>
+      </c>
+      <c r="FZ20">
+        <v>0</v>
+      </c>
+      <c r="GA20">
+        <v>0</v>
+      </c>
+      <c r="GB20">
+        <v>0</v>
+      </c>
+      <c r="GC20">
+        <v>0</v>
+      </c>
+      <c r="GD20">
+        <v>0</v>
+      </c>
+      <c r="GE20">
+        <v>0</v>
+      </c>
+      <c r="GF20">
+        <v>0</v>
+      </c>
+      <c r="GG20">
         <v>0</v>
       </c>
     </row>
@@ -13515,7 +14004,7 @@
         <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C1" t="s">
         <v>377</v>
@@ -13524,25 +14013,25 @@
         <v>259</v>
       </c>
       <c r="E1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F1" t="s">
         <v>403</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>404</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>405</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>406</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>407</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>408</v>
-      </c>
-      <c r="K1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -13550,10 +14039,10 @@
         <v>357</v>
       </c>
       <c r="B2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -13727,10 +14216,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13853,6 +14342,9 @@
       <c r="L3">
         <v>10</v>
       </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.2" customHeight="1">
+      <c r="F4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14091,10 +14583,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14138,10 +14630,10 @@
         <v>1190700</v>
       </c>
       <c r="C2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D2" t="s">
         <v>386</v>
-      </c>
-      <c r="D2" t="s">
-        <v>387</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -14158,10 +14650,10 @@
         <v>1190700</v>
       </c>
       <c r="C3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D3" t="s">
         <v>386</v>
-      </c>
-      <c r="D3" t="s">
-        <v>387</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -14178,10 +14670,10 @@
         <v>9999999</v>
       </c>
       <c r="C4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D4" t="s">
         <v>386</v>
-      </c>
-      <c r="D4" t="s">
-        <v>387</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -14192,21 +14684,41 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B5">
         <v>1124017</v>
       </c>
       <c r="C5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D5" t="s">
         <v>386</v>
-      </c>
-      <c r="D5" t="s">
-        <v>387</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1124017</v>
+      </c>
+      <c r="B6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C6" t="s">
+        <v>410</v>
+      </c>
+      <c r="D6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
     </row>
@@ -14392,10 +14904,10 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1" t="s">
         <v>388</v>
-      </c>
-      <c r="F1" t="s">
-        <v>389</v>
       </c>
       <c r="G1" t="s">
         <v>27</v>
@@ -14442,10 +14954,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G2">
         <v>20200101</v>
@@ -14454,7 +14966,7 @@
         <v>20231212</v>
       </c>
       <c r="I2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -14519,21 +15031,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1" t="s">
         <v>392</v>
-      </c>
-      <c r="B1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C1" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -14557,18 +15069,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -14854,7 +15366,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -14910,7 +15422,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -14972,10 +15484,10 @@
         <v>250001</v>
       </c>
       <c r="I2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J2" t="s">
         <v>414</v>
-      </c>
-      <c r="J2" t="s">
-        <v>415</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -15023,7 +15535,7 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -15035,16 +15547,16 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H1" t="s">
         <v>417</v>
-      </c>
-      <c r="H1" t="s">
-        <v>418</v>
       </c>
       <c r="I1" t="s">
         <v>311</v>
@@ -15062,10 +15574,10 @@
         <v>314</v>
       </c>
       <c r="N1" t="s">
+        <v>418</v>
+      </c>
+      <c r="O1" t="s">
         <v>419</v>
-      </c>
-      <c r="O1" t="s">
-        <v>420</v>
       </c>
       <c r="P1" t="s">
         <v>38</v>
@@ -15100,7 +15612,7 @@
         <v>1231</v>
       </c>
       <c r="E2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -15112,10 +15624,10 @@
         <v>99999</v>
       </c>
       <c r="I2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J2" t="s">
         <v>421</v>
-      </c>
-      <c r="J2" t="s">
-        <v>422</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -15556,7 +16068,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F1" t="s">
         <v>27</v>
@@ -15609,7 +16121,7 @@
         <v>20300603</v>
       </c>
       <c r="H2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -15647,7 +16159,7 @@
         <v>20300603</v>
       </c>
       <c r="H3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I3">
         <v>0</v>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\emr-cloud-be\CloudTest\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\emr-cloud-be\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="926" firstSheet="7" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="961" firstSheet="11" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -30,17 +30,19 @@
     <sheet name="KINKI_MST" sheetId="10" r:id="rId16"/>
     <sheet name="DRUG_DAY_LIMIT" sheetId="4" r:id="rId17"/>
     <sheet name="M10_DAY_LIMIT" sheetId="5" r:id="rId18"/>
-    <sheet name="M01_KINKI" sheetId="14" r:id="rId19"/>
-    <sheet name="PT_SUPPLE" sheetId="15" r:id="rId20"/>
-    <sheet name="M41_SUPPLE_INDEXDEF" sheetId="16" r:id="rId21"/>
-    <sheet name="M41_SUPPLE_INDEXCODE" sheetId="17" r:id="rId22"/>
+    <sheet name="M56_EX_ED_INGREDIENTS" sheetId="25" r:id="rId19"/>
+    <sheet name="M56_PRODRUG_CD" sheetId="26" r:id="rId20"/>
+    <sheet name="M01_KINKI" sheetId="14" r:id="rId21"/>
+    <sheet name="PT_SUPPLE" sheetId="15" r:id="rId22"/>
+    <sheet name="M41_SUPPLE_INDEXDEF" sheetId="16" r:id="rId23"/>
+    <sheet name="M41_SUPPLE_INDEXCODE" sheetId="17" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="435">
   <si>
     <t>HP_ID</t>
   </si>
@@ -1312,6 +1314,39 @@
   </si>
   <si>
     <t>UT99999</t>
+  </si>
+  <si>
+    <t>SEIBUN_INDEX_CD</t>
+  </si>
+  <si>
+    <t>PRODRUG_CHECK</t>
+  </si>
+  <si>
+    <t>ANALOGUE_CHECK</t>
+  </si>
+  <si>
+    <t>YOKAIEKI_CHECK</t>
+  </si>
+  <si>
+    <t>TENKABUTU_CHECK</t>
+  </si>
+  <si>
+    <t>UT2700X1011</t>
+  </si>
+  <si>
+    <t>UT2700</t>
+  </si>
+  <si>
+    <t>KASSEITAI_CD</t>
+  </si>
+  <si>
+    <t>IS11230A0</t>
+  </si>
+  <si>
+    <t>UT2700X1012</t>
+  </si>
+  <si>
+    <t>UT2701</t>
   </si>
 </sst>
 </file>
@@ -4259,15 +4294,16 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GG19"/>
+  <dimension ref="A1:GG21"/>
   <sheetViews>
-    <sheetView topLeftCell="DP1" workbookViewId="0">
-      <selection activeCell="EC28" sqref="EC28"/>
+    <sheetView topLeftCell="DQ1" workbookViewId="0">
+      <selection activeCell="DX21" sqref="DX21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="128" max="128" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="154" max="154" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13402,6 +13438,976 @@
         <v>0</v>
       </c>
       <c r="GG19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:189">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>430</v>
+      </c>
+      <c r="C20">
+        <v>20220401</v>
+      </c>
+      <c r="D20">
+        <v>99999999</v>
+      </c>
+      <c r="E20" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>364</v>
+      </c>
+      <c r="H20" t="s">
+        <v>371</v>
+      </c>
+      <c r="P20" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>343</v>
+      </c>
+      <c r="S20">
+        <v>47</v>
+      </c>
+      <c r="T20" t="s">
+        <v>279</v>
+      </c>
+      <c r="U20" t="s">
+        <v>279</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>0</v>
+      </c>
+      <c r="BR20">
+        <v>0</v>
+      </c>
+      <c r="BS20">
+        <v>0</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>0</v>
+      </c>
+      <c r="BW20">
+        <v>0</v>
+      </c>
+      <c r="BX20">
+        <v>0</v>
+      </c>
+      <c r="BY20">
+        <v>0</v>
+      </c>
+      <c r="BZ20">
+        <v>0</v>
+      </c>
+      <c r="CA20">
+        <v>0</v>
+      </c>
+      <c r="CB20">
+        <v>0</v>
+      </c>
+      <c r="CC20">
+        <v>0</v>
+      </c>
+      <c r="CD20">
+        <v>0</v>
+      </c>
+      <c r="CE20">
+        <v>0</v>
+      </c>
+      <c r="CF20">
+        <v>0</v>
+      </c>
+      <c r="CG20">
+        <v>0</v>
+      </c>
+      <c r="CT20">
+        <v>0</v>
+      </c>
+      <c r="CU20">
+        <v>0</v>
+      </c>
+      <c r="CV20">
+        <v>0</v>
+      </c>
+      <c r="CW20">
+        <v>0</v>
+      </c>
+      <c r="CX20">
+        <v>0</v>
+      </c>
+      <c r="CY20">
+        <v>4</v>
+      </c>
+      <c r="CZ20">
+        <v>0</v>
+      </c>
+      <c r="DA20">
+        <v>0</v>
+      </c>
+      <c r="DB20">
+        <v>0</v>
+      </c>
+      <c r="DC20">
+        <v>0</v>
+      </c>
+      <c r="DD20">
+        <v>0</v>
+      </c>
+      <c r="DE20">
+        <v>0</v>
+      </c>
+      <c r="DF20">
+        <v>0</v>
+      </c>
+      <c r="DG20">
+        <v>0</v>
+      </c>
+      <c r="DH20">
+        <v>0</v>
+      </c>
+      <c r="DJ20">
+        <v>0</v>
+      </c>
+      <c r="DK20">
+        <v>0</v>
+      </c>
+      <c r="DL20">
+        <v>0</v>
+      </c>
+      <c r="DM20">
+        <v>0</v>
+      </c>
+      <c r="DN20">
+        <v>0</v>
+      </c>
+      <c r="DP20">
+        <v>0</v>
+      </c>
+      <c r="DQ20">
+        <v>0</v>
+      </c>
+      <c r="DR20">
+        <v>0</v>
+      </c>
+      <c r="DS20">
+        <v>0</v>
+      </c>
+      <c r="DT20">
+        <v>0</v>
+      </c>
+      <c r="DU20">
+        <v>0</v>
+      </c>
+      <c r="DV20">
+        <v>0</v>
+      </c>
+      <c r="DW20">
+        <v>0</v>
+      </c>
+      <c r="DX20" t="s">
+        <v>429</v>
+      </c>
+      <c r="DY20" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ20">
+        <v>0</v>
+      </c>
+      <c r="EA20">
+        <v>0</v>
+      </c>
+      <c r="EB20">
+        <v>20220401</v>
+      </c>
+      <c r="EC20">
+        <v>99999999</v>
+      </c>
+      <c r="ED20">
+        <v>0</v>
+      </c>
+      <c r="EE20">
+        <v>0</v>
+      </c>
+      <c r="EF20">
+        <v>0</v>
+      </c>
+      <c r="EG20">
+        <v>0</v>
+      </c>
+      <c r="EH20">
+        <v>0</v>
+      </c>
+      <c r="EI20">
+        <v>0</v>
+      </c>
+      <c r="EJ20">
+        <v>0</v>
+      </c>
+      <c r="EK20">
+        <v>0</v>
+      </c>
+      <c r="EL20">
+        <v>0</v>
+      </c>
+      <c r="EM20">
+        <v>0</v>
+      </c>
+      <c r="EN20">
+        <v>0</v>
+      </c>
+      <c r="EO20">
+        <v>0</v>
+      </c>
+      <c r="EP20" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ20">
+        <v>0</v>
+      </c>
+      <c r="ER20">
+        <v>0</v>
+      </c>
+      <c r="ES20">
+        <v>0</v>
+      </c>
+      <c r="ET20">
+        <v>0</v>
+      </c>
+      <c r="EU20">
+        <v>0</v>
+      </c>
+      <c r="EV20">
+        <v>1</v>
+      </c>
+      <c r="EW20">
+        <v>0</v>
+      </c>
+      <c r="EX20">
+        <v>620001936</v>
+      </c>
+      <c r="EY20">
+        <v>0</v>
+      </c>
+      <c r="FA20">
+        <v>0</v>
+      </c>
+      <c r="FD20">
+        <v>0</v>
+      </c>
+      <c r="FE20">
+        <v>0</v>
+      </c>
+      <c r="FF20">
+        <v>0</v>
+      </c>
+      <c r="FG20">
+        <v>0</v>
+      </c>
+      <c r="FH20">
+        <v>0</v>
+      </c>
+      <c r="FI20">
+        <v>0</v>
+      </c>
+      <c r="FJ20">
+        <v>0</v>
+      </c>
+      <c r="FK20">
+        <v>0</v>
+      </c>
+      <c r="FL20">
+        <v>0</v>
+      </c>
+      <c r="FM20">
+        <v>0</v>
+      </c>
+      <c r="FN20">
+        <v>0</v>
+      </c>
+      <c r="FO20" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FP20">
+        <v>0</v>
+      </c>
+      <c r="FR20" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FS20">
+        <v>0</v>
+      </c>
+      <c r="FU20">
+        <v>0</v>
+      </c>
+      <c r="FV20">
+        <v>0</v>
+      </c>
+      <c r="FW20">
+        <v>0</v>
+      </c>
+      <c r="FX20">
+        <v>0</v>
+      </c>
+      <c r="FY20">
+        <v>0</v>
+      </c>
+      <c r="FZ20">
+        <v>0</v>
+      </c>
+      <c r="GA20">
+        <v>0</v>
+      </c>
+      <c r="GB20">
+        <v>0</v>
+      </c>
+      <c r="GC20">
+        <v>0</v>
+      </c>
+      <c r="GD20">
+        <v>0</v>
+      </c>
+      <c r="GE20">
+        <v>0</v>
+      </c>
+      <c r="GF20">
+        <v>0</v>
+      </c>
+      <c r="GG20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:189">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>434</v>
+      </c>
+      <c r="C21">
+        <v>20220401</v>
+      </c>
+      <c r="D21">
+        <v>99999999</v>
+      </c>
+      <c r="E21" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>364</v>
+      </c>
+      <c r="H21" t="s">
+        <v>371</v>
+      </c>
+      <c r="P21" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>343</v>
+      </c>
+      <c r="S21">
+        <v>47</v>
+      </c>
+      <c r="T21" t="s">
+        <v>279</v>
+      </c>
+      <c r="U21" t="s">
+        <v>279</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>0</v>
+      </c>
+      <c r="BR21">
+        <v>0</v>
+      </c>
+      <c r="BS21">
+        <v>0</v>
+      </c>
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>0</v>
+      </c>
+      <c r="BW21">
+        <v>0</v>
+      </c>
+      <c r="BX21">
+        <v>0</v>
+      </c>
+      <c r="BY21">
+        <v>0</v>
+      </c>
+      <c r="BZ21">
+        <v>0</v>
+      </c>
+      <c r="CA21">
+        <v>0</v>
+      </c>
+      <c r="CB21">
+        <v>0</v>
+      </c>
+      <c r="CC21">
+        <v>0</v>
+      </c>
+      <c r="CD21">
+        <v>0</v>
+      </c>
+      <c r="CE21">
+        <v>0</v>
+      </c>
+      <c r="CF21">
+        <v>0</v>
+      </c>
+      <c r="CG21">
+        <v>0</v>
+      </c>
+      <c r="CT21">
+        <v>0</v>
+      </c>
+      <c r="CU21">
+        <v>0</v>
+      </c>
+      <c r="CV21">
+        <v>0</v>
+      </c>
+      <c r="CW21">
+        <v>0</v>
+      </c>
+      <c r="CX21">
+        <v>0</v>
+      </c>
+      <c r="CY21">
+        <v>4</v>
+      </c>
+      <c r="CZ21">
+        <v>0</v>
+      </c>
+      <c r="DA21">
+        <v>0</v>
+      </c>
+      <c r="DB21">
+        <v>0</v>
+      </c>
+      <c r="DC21">
+        <v>0</v>
+      </c>
+      <c r="DD21">
+        <v>0</v>
+      </c>
+      <c r="DE21">
+        <v>0</v>
+      </c>
+      <c r="DF21">
+        <v>0</v>
+      </c>
+      <c r="DG21">
+        <v>0</v>
+      </c>
+      <c r="DH21">
+        <v>0</v>
+      </c>
+      <c r="DJ21">
+        <v>0</v>
+      </c>
+      <c r="DK21">
+        <v>0</v>
+      </c>
+      <c r="DL21">
+        <v>0</v>
+      </c>
+      <c r="DM21">
+        <v>0</v>
+      </c>
+      <c r="DN21">
+        <v>0</v>
+      </c>
+      <c r="DP21">
+        <v>0</v>
+      </c>
+      <c r="DQ21">
+        <v>0</v>
+      </c>
+      <c r="DR21">
+        <v>0</v>
+      </c>
+      <c r="DS21">
+        <v>0</v>
+      </c>
+      <c r="DT21">
+        <v>0</v>
+      </c>
+      <c r="DU21">
+        <v>0</v>
+      </c>
+      <c r="DV21">
+        <v>0</v>
+      </c>
+      <c r="DW21">
+        <v>0</v>
+      </c>
+      <c r="DX21" t="s">
+        <v>433</v>
+      </c>
+      <c r="DY21" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ21">
+        <v>0</v>
+      </c>
+      <c r="EA21">
+        <v>0</v>
+      </c>
+      <c r="EB21">
+        <v>20220401</v>
+      </c>
+      <c r="EC21">
+        <v>99999999</v>
+      </c>
+      <c r="ED21">
+        <v>0</v>
+      </c>
+      <c r="EE21">
+        <v>0</v>
+      </c>
+      <c r="EF21">
+        <v>0</v>
+      </c>
+      <c r="EG21">
+        <v>0</v>
+      </c>
+      <c r="EH21">
+        <v>0</v>
+      </c>
+      <c r="EI21">
+        <v>0</v>
+      </c>
+      <c r="EJ21">
+        <v>0</v>
+      </c>
+      <c r="EK21">
+        <v>0</v>
+      </c>
+      <c r="EL21">
+        <v>0</v>
+      </c>
+      <c r="EM21">
+        <v>0</v>
+      </c>
+      <c r="EN21">
+        <v>0</v>
+      </c>
+      <c r="EO21">
+        <v>0</v>
+      </c>
+      <c r="EP21" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ21">
+        <v>0</v>
+      </c>
+      <c r="ER21">
+        <v>0</v>
+      </c>
+      <c r="ES21">
+        <v>0</v>
+      </c>
+      <c r="ET21">
+        <v>0</v>
+      </c>
+      <c r="EU21">
+        <v>0</v>
+      </c>
+      <c r="EV21">
+        <v>1</v>
+      </c>
+      <c r="EW21">
+        <v>0</v>
+      </c>
+      <c r="EX21">
+        <v>620001936</v>
+      </c>
+      <c r="EY21">
+        <v>0</v>
+      </c>
+      <c r="FA21">
+        <v>0</v>
+      </c>
+      <c r="FD21">
+        <v>0</v>
+      </c>
+      <c r="FE21">
+        <v>0</v>
+      </c>
+      <c r="FF21">
+        <v>0</v>
+      </c>
+      <c r="FG21">
+        <v>0</v>
+      </c>
+      <c r="FH21">
+        <v>0</v>
+      </c>
+      <c r="FI21">
+        <v>0</v>
+      </c>
+      <c r="FJ21">
+        <v>0</v>
+      </c>
+      <c r="FK21">
+        <v>0</v>
+      </c>
+      <c r="FL21">
+        <v>0</v>
+      </c>
+      <c r="FM21">
+        <v>0</v>
+      </c>
+      <c r="FN21">
+        <v>0</v>
+      </c>
+      <c r="FO21" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FP21">
+        <v>0</v>
+      </c>
+      <c r="FR21" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FS21">
+        <v>0</v>
+      </c>
+      <c r="FU21">
+        <v>0</v>
+      </c>
+      <c r="FV21">
+        <v>0</v>
+      </c>
+      <c r="FW21">
+        <v>0</v>
+      </c>
+      <c r="FX21">
+        <v>0</v>
+      </c>
+      <c r="FY21">
+        <v>0</v>
+      </c>
+      <c r="FZ21">
+        <v>0</v>
+      </c>
+      <c r="GA21">
+        <v>0</v>
+      </c>
+      <c r="GB21">
+        <v>0</v>
+      </c>
+      <c r="GC21">
+        <v>0</v>
+      </c>
+      <c r="GD21">
+        <v>0</v>
+      </c>
+      <c r="GE21">
+        <v>0</v>
+      </c>
+      <c r="GF21">
+        <v>0</v>
+      </c>
+      <c r="GG21">
         <v>0</v>
       </c>
     </row>
@@ -13729,7 +14735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -14091,123 +15097,88 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>351</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>260</v>
+        <v>392</v>
       </c>
       <c r="D1" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="E1" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="F1" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="G1" t="s">
-        <v>385</v>
+        <v>426</v>
+      </c>
+      <c r="H1" t="s">
+        <v>427</v>
+      </c>
+      <c r="I1" t="s">
+        <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1190700</v>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>429</v>
       </c>
       <c r="B2">
-        <v>1190700</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
+        <v>430</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>9999999</v>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>433</v>
       </c>
       <c r="B3">
-        <v>1190700</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>386</v>
-      </c>
-      <c r="D3" t="s">
-        <v>387</v>
+        <v>434</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1124</v>
-      </c>
-      <c r="B4">
-        <v>9999999</v>
-      </c>
-      <c r="C4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>395</v>
-      </c>
-      <c r="B5">
-        <v>1124017</v>
-      </c>
-      <c r="C5" t="s">
-        <v>386</v>
-      </c>
-      <c r="D5" t="s">
-        <v>387</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -14358,6 +15329,184 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1190700</v>
+      </c>
+      <c r="B2">
+        <v>1190700</v>
+      </c>
+      <c r="C2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>9999999</v>
+      </c>
+      <c r="B3">
+        <v>1190700</v>
+      </c>
+      <c r="C3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1124</v>
+      </c>
+      <c r="B4">
+        <v>9999999</v>
+      </c>
+      <c r="C4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5">
+        <v>1124017</v>
+      </c>
+      <c r="C5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
@@ -14503,7 +15652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -14541,7 +15690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\emr-cloud-be\CloudTest\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\emr-cloud-be\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="961" firstSheet="11" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="961" firstSheet="10" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -31,18 +31,19 @@
     <sheet name="DRUG_DAY_LIMIT" sheetId="4" r:id="rId17"/>
     <sheet name="M10_DAY_LIMIT" sheetId="5" r:id="rId18"/>
     <sheet name="M56_EX_ED_INGREDIENTS" sheetId="25" r:id="rId19"/>
-    <sheet name="M56_PRODRUG_CD" sheetId="26" r:id="rId20"/>
-    <sheet name="M01_KINKI" sheetId="14" r:id="rId21"/>
-    <sheet name="PT_SUPPLE" sheetId="15" r:id="rId22"/>
-    <sheet name="M41_SUPPLE_INDEXDEF" sheetId="16" r:id="rId23"/>
-    <sheet name="M41_SUPPLE_INDEXCODE" sheetId="17" r:id="rId24"/>
+    <sheet name="M56_EX_INGRDT_MAIN" sheetId="27" r:id="rId20"/>
+    <sheet name="M56_PRODRUG_CD" sheetId="26" r:id="rId21"/>
+    <sheet name="M01_KINKI" sheetId="14" r:id="rId22"/>
+    <sheet name="PT_SUPPLE" sheetId="15" r:id="rId23"/>
+    <sheet name="M41_SUPPLE_INDEXDEF" sheetId="16" r:id="rId24"/>
+    <sheet name="M41_SUPPLE_INDEXCODE" sheetId="17" r:id="rId25"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="446">
   <si>
     <t>HP_ID</t>
   </si>
@@ -1331,9 +1332,6 @@
     <t>TENKABUTU_CHECK</t>
   </si>
   <si>
-    <t>UT2700X1011</t>
-  </si>
-  <si>
     <t>UT2700</t>
   </si>
   <si>
@@ -1343,10 +1341,46 @@
     <t>IS11230A0</t>
   </si>
   <si>
-    <t>UT2700X1012</t>
-  </si>
-  <si>
     <t>UT2701</t>
+  </si>
+  <si>
+    <t>UT271012</t>
+  </si>
+  <si>
+    <t>UT271011</t>
+  </si>
+  <si>
+    <t>YOHO_CD</t>
+  </si>
+  <si>
+    <t>HAIGOU_FLG</t>
+  </si>
+  <si>
+    <t>YUEKI_FLG</t>
+  </si>
+  <si>
+    <t>KANPO_FLG</t>
+  </si>
+  <si>
+    <t>ZENSINSAYO_FLG</t>
+  </si>
+  <si>
+    <t>USG013</t>
+  </si>
+  <si>
+    <t>UT271013</t>
+  </si>
+  <si>
+    <t>UT271014</t>
+  </si>
+  <si>
+    <t>UT2702</t>
+  </si>
+  <si>
+    <t>UT2703</t>
+  </si>
+  <si>
+    <t>USG014</t>
   </si>
 </sst>
 </file>
@@ -4294,10 +4328,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GG21"/>
+  <dimension ref="A1:GG23"/>
   <sheetViews>
-    <sheetView topLeftCell="DQ1" workbookViewId="0">
-      <selection activeCell="DX21" sqref="DX21"/>
+    <sheetView view="pageLayout" topLeftCell="EG1" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="EO1" sqref="EO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13446,7 +13480,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C20">
         <v>20220401</v>
@@ -13755,7 +13789,7 @@
         <v>0</v>
       </c>
       <c r="DX20" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="DY20" t="s">
         <v>280</v>
@@ -13931,7 +13965,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C21">
         <v>20220401</v>
@@ -14411,8 +14445,979 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:189">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>443</v>
+      </c>
+      <c r="C22">
+        <v>20220401</v>
+      </c>
+      <c r="D22">
+        <v>99999999</v>
+      </c>
+      <c r="E22" t="s">
+        <v>230</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>364</v>
+      </c>
+      <c r="H22" t="s">
+        <v>371</v>
+      </c>
+      <c r="P22" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>343</v>
+      </c>
+      <c r="S22">
+        <v>47</v>
+      </c>
+      <c r="T22" t="s">
+        <v>279</v>
+      </c>
+      <c r="U22" t="s">
+        <v>279</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
+        <v>0</v>
+      </c>
+      <c r="BM22">
+        <v>0</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <v>0</v>
+      </c>
+      <c r="BP22">
+        <v>0</v>
+      </c>
+      <c r="BQ22">
+        <v>0</v>
+      </c>
+      <c r="BR22">
+        <v>0</v>
+      </c>
+      <c r="BS22">
+        <v>0</v>
+      </c>
+      <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BV22">
+        <v>0</v>
+      </c>
+      <c r="BW22">
+        <v>0</v>
+      </c>
+      <c r="BX22">
+        <v>0</v>
+      </c>
+      <c r="BY22">
+        <v>0</v>
+      </c>
+      <c r="BZ22">
+        <v>0</v>
+      </c>
+      <c r="CA22">
+        <v>0</v>
+      </c>
+      <c r="CB22">
+        <v>0</v>
+      </c>
+      <c r="CC22">
+        <v>0</v>
+      </c>
+      <c r="CD22">
+        <v>0</v>
+      </c>
+      <c r="CE22">
+        <v>0</v>
+      </c>
+      <c r="CF22">
+        <v>0</v>
+      </c>
+      <c r="CG22">
+        <v>0</v>
+      </c>
+      <c r="CT22">
+        <v>0</v>
+      </c>
+      <c r="CU22">
+        <v>0</v>
+      </c>
+      <c r="CV22">
+        <v>0</v>
+      </c>
+      <c r="CW22">
+        <v>0</v>
+      </c>
+      <c r="CX22">
+        <v>0</v>
+      </c>
+      <c r="CY22">
+        <v>4</v>
+      </c>
+      <c r="CZ22">
+        <v>0</v>
+      </c>
+      <c r="DA22">
+        <v>0</v>
+      </c>
+      <c r="DB22">
+        <v>0</v>
+      </c>
+      <c r="DC22">
+        <v>0</v>
+      </c>
+      <c r="DD22">
+        <v>0</v>
+      </c>
+      <c r="DE22">
+        <v>0</v>
+      </c>
+      <c r="DF22">
+        <v>0</v>
+      </c>
+      <c r="DG22">
+        <v>0</v>
+      </c>
+      <c r="DH22">
+        <v>0</v>
+      </c>
+      <c r="DJ22">
+        <v>0</v>
+      </c>
+      <c r="DK22">
+        <v>0</v>
+      </c>
+      <c r="DL22">
+        <v>0</v>
+      </c>
+      <c r="DM22">
+        <v>0</v>
+      </c>
+      <c r="DN22">
+        <v>0</v>
+      </c>
+      <c r="DP22">
+        <v>0</v>
+      </c>
+      <c r="DQ22">
+        <v>0</v>
+      </c>
+      <c r="DR22">
+        <v>0</v>
+      </c>
+      <c r="DS22">
+        <v>0</v>
+      </c>
+      <c r="DT22">
+        <v>0</v>
+      </c>
+      <c r="DU22">
+        <v>0</v>
+      </c>
+      <c r="DV22">
+        <v>0</v>
+      </c>
+      <c r="DW22">
+        <v>0</v>
+      </c>
+      <c r="DX22" t="s">
+        <v>441</v>
+      </c>
+      <c r="DY22" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ22">
+        <v>0</v>
+      </c>
+      <c r="EA22">
+        <v>0</v>
+      </c>
+      <c r="EB22">
+        <v>20220401</v>
+      </c>
+      <c r="EC22">
+        <v>99999999</v>
+      </c>
+      <c r="ED22">
+        <v>0</v>
+      </c>
+      <c r="EE22">
+        <v>0</v>
+      </c>
+      <c r="EF22">
+        <v>0</v>
+      </c>
+      <c r="EG22">
+        <v>0</v>
+      </c>
+      <c r="EH22">
+        <v>0</v>
+      </c>
+      <c r="EI22">
+        <v>0</v>
+      </c>
+      <c r="EJ22">
+        <v>0</v>
+      </c>
+      <c r="EK22">
+        <v>0</v>
+      </c>
+      <c r="EL22">
+        <v>0</v>
+      </c>
+      <c r="EM22">
+        <v>0</v>
+      </c>
+      <c r="EN22">
+        <v>0</v>
+      </c>
+      <c r="EO22">
+        <v>0</v>
+      </c>
+      <c r="EP22" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ22">
+        <v>0</v>
+      </c>
+      <c r="ER22">
+        <v>0</v>
+      </c>
+      <c r="ES22">
+        <v>0</v>
+      </c>
+      <c r="ET22">
+        <v>0</v>
+      </c>
+      <c r="EU22">
+        <v>0</v>
+      </c>
+      <c r="EV22">
+        <v>1</v>
+      </c>
+      <c r="EW22">
+        <v>0</v>
+      </c>
+      <c r="EX22">
+        <v>620001936</v>
+      </c>
+      <c r="EY22">
+        <v>0</v>
+      </c>
+      <c r="FA22">
+        <v>0</v>
+      </c>
+      <c r="FD22">
+        <v>0</v>
+      </c>
+      <c r="FE22">
+        <v>0</v>
+      </c>
+      <c r="FF22">
+        <v>0</v>
+      </c>
+      <c r="FG22">
+        <v>0</v>
+      </c>
+      <c r="FH22">
+        <v>0</v>
+      </c>
+      <c r="FI22">
+        <v>0</v>
+      </c>
+      <c r="FJ22">
+        <v>0</v>
+      </c>
+      <c r="FK22">
+        <v>0</v>
+      </c>
+      <c r="FL22">
+        <v>0</v>
+      </c>
+      <c r="FM22">
+        <v>0</v>
+      </c>
+      <c r="FN22">
+        <v>0</v>
+      </c>
+      <c r="FO22" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FP22">
+        <v>0</v>
+      </c>
+      <c r="FR22" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FS22">
+        <v>0</v>
+      </c>
+      <c r="FU22">
+        <v>0</v>
+      </c>
+      <c r="FV22">
+        <v>0</v>
+      </c>
+      <c r="FW22">
+        <v>0</v>
+      </c>
+      <c r="FX22">
+        <v>0</v>
+      </c>
+      <c r="FY22">
+        <v>0</v>
+      </c>
+      <c r="FZ22">
+        <v>0</v>
+      </c>
+      <c r="GA22">
+        <v>0</v>
+      </c>
+      <c r="GB22">
+        <v>0</v>
+      </c>
+      <c r="GC22">
+        <v>0</v>
+      </c>
+      <c r="GD22">
+        <v>0</v>
+      </c>
+      <c r="GE22">
+        <v>0</v>
+      </c>
+      <c r="GF22">
+        <v>0</v>
+      </c>
+      <c r="GG22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:189">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>444</v>
+      </c>
+      <c r="C23">
+        <v>20220401</v>
+      </c>
+      <c r="D23">
+        <v>99999999</v>
+      </c>
+      <c r="E23" t="s">
+        <v>230</v>
+      </c>
+      <c r="F23">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>364</v>
+      </c>
+      <c r="H23" t="s">
+        <v>371</v>
+      </c>
+      <c r="P23" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>343</v>
+      </c>
+      <c r="S23">
+        <v>47</v>
+      </c>
+      <c r="T23" t="s">
+        <v>279</v>
+      </c>
+      <c r="U23" t="s">
+        <v>279</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>0</v>
+      </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <v>0</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>0</v>
+      </c>
+      <c r="BR23">
+        <v>0</v>
+      </c>
+      <c r="BS23">
+        <v>0</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>0</v>
+      </c>
+      <c r="BW23">
+        <v>0</v>
+      </c>
+      <c r="BX23">
+        <v>0</v>
+      </c>
+      <c r="BY23">
+        <v>0</v>
+      </c>
+      <c r="BZ23">
+        <v>0</v>
+      </c>
+      <c r="CA23">
+        <v>0</v>
+      </c>
+      <c r="CB23">
+        <v>0</v>
+      </c>
+      <c r="CC23">
+        <v>0</v>
+      </c>
+      <c r="CD23">
+        <v>0</v>
+      </c>
+      <c r="CE23">
+        <v>0</v>
+      </c>
+      <c r="CF23">
+        <v>0</v>
+      </c>
+      <c r="CG23">
+        <v>0</v>
+      </c>
+      <c r="CT23">
+        <v>0</v>
+      </c>
+      <c r="CU23">
+        <v>0</v>
+      </c>
+      <c r="CV23">
+        <v>0</v>
+      </c>
+      <c r="CW23">
+        <v>0</v>
+      </c>
+      <c r="CX23">
+        <v>0</v>
+      </c>
+      <c r="CY23">
+        <v>4</v>
+      </c>
+      <c r="CZ23">
+        <v>0</v>
+      </c>
+      <c r="DA23">
+        <v>0</v>
+      </c>
+      <c r="DB23">
+        <v>0</v>
+      </c>
+      <c r="DC23">
+        <v>0</v>
+      </c>
+      <c r="DD23">
+        <v>0</v>
+      </c>
+      <c r="DE23">
+        <v>0</v>
+      </c>
+      <c r="DF23">
+        <v>0</v>
+      </c>
+      <c r="DG23">
+        <v>0</v>
+      </c>
+      <c r="DH23">
+        <v>0</v>
+      </c>
+      <c r="DJ23">
+        <v>0</v>
+      </c>
+      <c r="DK23">
+        <v>0</v>
+      </c>
+      <c r="DL23">
+        <v>0</v>
+      </c>
+      <c r="DM23">
+        <v>0</v>
+      </c>
+      <c r="DN23">
+        <v>0</v>
+      </c>
+      <c r="DP23">
+        <v>0</v>
+      </c>
+      <c r="DQ23">
+        <v>0</v>
+      </c>
+      <c r="DR23">
+        <v>0</v>
+      </c>
+      <c r="DS23">
+        <v>0</v>
+      </c>
+      <c r="DT23">
+        <v>0</v>
+      </c>
+      <c r="DU23">
+        <v>0</v>
+      </c>
+      <c r="DV23">
+        <v>0</v>
+      </c>
+      <c r="DW23">
+        <v>0</v>
+      </c>
+      <c r="DX23" t="s">
+        <v>442</v>
+      </c>
+      <c r="DY23" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ23">
+        <v>0</v>
+      </c>
+      <c r="EA23">
+        <v>0</v>
+      </c>
+      <c r="EB23">
+        <v>20220401</v>
+      </c>
+      <c r="EC23">
+        <v>99999999</v>
+      </c>
+      <c r="ED23">
+        <v>0</v>
+      </c>
+      <c r="EE23">
+        <v>0</v>
+      </c>
+      <c r="EF23">
+        <v>0</v>
+      </c>
+      <c r="EG23">
+        <v>0</v>
+      </c>
+      <c r="EH23">
+        <v>0</v>
+      </c>
+      <c r="EI23">
+        <v>0</v>
+      </c>
+      <c r="EJ23">
+        <v>0</v>
+      </c>
+      <c r="EK23">
+        <v>0</v>
+      </c>
+      <c r="EL23">
+        <v>0</v>
+      </c>
+      <c r="EM23">
+        <v>0</v>
+      </c>
+      <c r="EN23">
+        <v>0</v>
+      </c>
+      <c r="EO23">
+        <v>0</v>
+      </c>
+      <c r="EP23" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ23">
+        <v>0</v>
+      </c>
+      <c r="ER23">
+        <v>0</v>
+      </c>
+      <c r="ES23">
+        <v>0</v>
+      </c>
+      <c r="ET23">
+        <v>0</v>
+      </c>
+      <c r="EU23">
+        <v>0</v>
+      </c>
+      <c r="EV23">
+        <v>1</v>
+      </c>
+      <c r="EW23">
+        <v>0</v>
+      </c>
+      <c r="EX23">
+        <v>620001936</v>
+      </c>
+      <c r="EY23">
+        <v>0</v>
+      </c>
+      <c r="FA23">
+        <v>0</v>
+      </c>
+      <c r="FD23">
+        <v>0</v>
+      </c>
+      <c r="FE23">
+        <v>0</v>
+      </c>
+      <c r="FF23">
+        <v>0</v>
+      </c>
+      <c r="FG23">
+        <v>0</v>
+      </c>
+      <c r="FH23">
+        <v>0</v>
+      </c>
+      <c r="FI23">
+        <v>0</v>
+      </c>
+      <c r="FJ23">
+        <v>0</v>
+      </c>
+      <c r="FK23">
+        <v>0</v>
+      </c>
+      <c r="FL23">
+        <v>0</v>
+      </c>
+      <c r="FM23">
+        <v>0</v>
+      </c>
+      <c r="FN23">
+        <v>0</v>
+      </c>
+      <c r="FO23" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FP23">
+        <v>0</v>
+      </c>
+      <c r="FR23" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FS23">
+        <v>0</v>
+      </c>
+      <c r="FU23">
+        <v>0</v>
+      </c>
+      <c r="FV23">
+        <v>0</v>
+      </c>
+      <c r="FW23">
+        <v>0</v>
+      </c>
+      <c r="FX23">
+        <v>0</v>
+      </c>
+      <c r="FY23">
+        <v>0</v>
+      </c>
+      <c r="FZ23">
+        <v>0</v>
+      </c>
+      <c r="GA23">
+        <v>0</v>
+      </c>
+      <c r="GB23">
+        <v>0</v>
+      </c>
+      <c r="GC23">
+        <v>0</v>
+      </c>
+      <c r="GD23">
+        <v>0</v>
+      </c>
+      <c r="GE23">
+        <v>0</v>
+      </c>
+      <c r="GF23">
+        <v>0</v>
+      </c>
+      <c r="GG23">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69915254237288138" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15097,10 +16102,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15146,19 +16151,22 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>429</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>430</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -15169,7 +16177,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -15178,6 +16186,46 @@
         <v>1</v>
       </c>
       <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
     </row>
@@ -15330,10 +16378,112 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>440</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>445</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15350,29 +16500,29 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -15380,7 +16530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -15506,7 +16656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
@@ -15652,7 +16802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -15690,7 +16840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="961" firstSheet="10" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="961" firstSheet="20" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -33,17 +33,19 @@
     <sheet name="M56_EX_ED_INGREDIENTS" sheetId="25" r:id="rId19"/>
     <sheet name="M56_EX_INGRDT_MAIN" sheetId="27" r:id="rId20"/>
     <sheet name="M56_PRODRUG_CD" sheetId="26" r:id="rId21"/>
-    <sheet name="M01_KINKI" sheetId="14" r:id="rId22"/>
-    <sheet name="PT_SUPPLE" sheetId="15" r:id="rId23"/>
-    <sheet name="M41_SUPPLE_INDEXDEF" sheetId="16" r:id="rId24"/>
-    <sheet name="M41_SUPPLE_INDEXCODE" sheetId="17" r:id="rId25"/>
+    <sheet name="M56_YJ_DRUG_CLASS" sheetId="29" r:id="rId22"/>
+    <sheet name="M56_DRUG_CLASS" sheetId="30" r:id="rId23"/>
+    <sheet name="M01_KINKI" sheetId="14" r:id="rId24"/>
+    <sheet name="PT_SUPPLE" sheetId="15" r:id="rId25"/>
+    <sheet name="M41_SUPPLE_INDEXDEF" sheetId="16" r:id="rId26"/>
+    <sheet name="M41_SUPPLE_INDEXCODE" sheetId="17" r:id="rId27"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="455">
   <si>
     <t>HP_ID</t>
   </si>
@@ -1381,6 +1383,33 @@
   </si>
   <si>
     <t>USG014</t>
+  </si>
+  <si>
+    <t>CLASS_CD</t>
+  </si>
+  <si>
+    <t>CLASS_NAME</t>
+  </si>
+  <si>
+    <t>CLASS_DUPLICATION</t>
+  </si>
+  <si>
+    <t>11UT1011</t>
+  </si>
+  <si>
+    <t>11UT1012</t>
+  </si>
+  <si>
+    <t>UT180100</t>
+  </si>
+  <si>
+    <t>UT_CLASS0</t>
+  </si>
+  <si>
+    <t>UT2704</t>
+  </si>
+  <si>
+    <t>UT2705</t>
   </si>
 </sst>
 </file>
@@ -4328,10 +4357,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GG23"/>
+  <dimension ref="A1:GG25"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="EG1" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="EO1" sqref="EO1"/>
+    <sheetView view="pageLayout" topLeftCell="DR7" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="DX25" sqref="DX25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15412,6 +15441,976 @@
         <v>0</v>
       </c>
       <c r="GG23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:189">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>453</v>
+      </c>
+      <c r="C24">
+        <v>20220401</v>
+      </c>
+      <c r="D24">
+        <v>99999999</v>
+      </c>
+      <c r="E24" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>364</v>
+      </c>
+      <c r="H24" t="s">
+        <v>371</v>
+      </c>
+      <c r="P24" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>343</v>
+      </c>
+      <c r="S24">
+        <v>47</v>
+      </c>
+      <c r="T24" t="s">
+        <v>279</v>
+      </c>
+      <c r="U24" t="s">
+        <v>279</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>0</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
+        <v>0</v>
+      </c>
+      <c r="BL24">
+        <v>0</v>
+      </c>
+      <c r="BM24">
+        <v>0</v>
+      </c>
+      <c r="BN24">
+        <v>0</v>
+      </c>
+      <c r="BO24">
+        <v>0</v>
+      </c>
+      <c r="BP24">
+        <v>0</v>
+      </c>
+      <c r="BQ24">
+        <v>0</v>
+      </c>
+      <c r="BR24">
+        <v>0</v>
+      </c>
+      <c r="BS24">
+        <v>0</v>
+      </c>
+      <c r="BT24">
+        <v>0</v>
+      </c>
+      <c r="BV24">
+        <v>0</v>
+      </c>
+      <c r="BW24">
+        <v>0</v>
+      </c>
+      <c r="BX24">
+        <v>0</v>
+      </c>
+      <c r="BY24">
+        <v>0</v>
+      </c>
+      <c r="BZ24">
+        <v>0</v>
+      </c>
+      <c r="CA24">
+        <v>0</v>
+      </c>
+      <c r="CB24">
+        <v>0</v>
+      </c>
+      <c r="CC24">
+        <v>0</v>
+      </c>
+      <c r="CD24">
+        <v>0</v>
+      </c>
+      <c r="CE24">
+        <v>0</v>
+      </c>
+      <c r="CF24">
+        <v>0</v>
+      </c>
+      <c r="CG24">
+        <v>0</v>
+      </c>
+      <c r="CT24">
+        <v>0</v>
+      </c>
+      <c r="CU24">
+        <v>0</v>
+      </c>
+      <c r="CV24">
+        <v>0</v>
+      </c>
+      <c r="CW24">
+        <v>0</v>
+      </c>
+      <c r="CX24">
+        <v>0</v>
+      </c>
+      <c r="CY24">
+        <v>4</v>
+      </c>
+      <c r="CZ24">
+        <v>0</v>
+      </c>
+      <c r="DA24">
+        <v>0</v>
+      </c>
+      <c r="DB24">
+        <v>0</v>
+      </c>
+      <c r="DC24">
+        <v>0</v>
+      </c>
+      <c r="DD24">
+        <v>0</v>
+      </c>
+      <c r="DE24">
+        <v>0</v>
+      </c>
+      <c r="DF24">
+        <v>0</v>
+      </c>
+      <c r="DG24">
+        <v>0</v>
+      </c>
+      <c r="DH24">
+        <v>0</v>
+      </c>
+      <c r="DJ24">
+        <v>0</v>
+      </c>
+      <c r="DK24">
+        <v>0</v>
+      </c>
+      <c r="DL24">
+        <v>0</v>
+      </c>
+      <c r="DM24">
+        <v>0</v>
+      </c>
+      <c r="DN24">
+        <v>0</v>
+      </c>
+      <c r="DP24">
+        <v>0</v>
+      </c>
+      <c r="DQ24">
+        <v>0</v>
+      </c>
+      <c r="DR24">
+        <v>0</v>
+      </c>
+      <c r="DS24">
+        <v>0</v>
+      </c>
+      <c r="DT24">
+        <v>0</v>
+      </c>
+      <c r="DU24">
+        <v>0</v>
+      </c>
+      <c r="DV24">
+        <v>0</v>
+      </c>
+      <c r="DW24">
+        <v>0</v>
+      </c>
+      <c r="DX24" t="s">
+        <v>449</v>
+      </c>
+      <c r="DY24" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ24">
+        <v>0</v>
+      </c>
+      <c r="EA24">
+        <v>0</v>
+      </c>
+      <c r="EB24">
+        <v>20220401</v>
+      </c>
+      <c r="EC24">
+        <v>99999999</v>
+      </c>
+      <c r="ED24">
+        <v>0</v>
+      </c>
+      <c r="EE24">
+        <v>0</v>
+      </c>
+      <c r="EF24">
+        <v>0</v>
+      </c>
+      <c r="EG24">
+        <v>0</v>
+      </c>
+      <c r="EH24">
+        <v>0</v>
+      </c>
+      <c r="EI24">
+        <v>0</v>
+      </c>
+      <c r="EJ24">
+        <v>0</v>
+      </c>
+      <c r="EK24">
+        <v>0</v>
+      </c>
+      <c r="EL24">
+        <v>0</v>
+      </c>
+      <c r="EM24">
+        <v>0</v>
+      </c>
+      <c r="EN24">
+        <v>0</v>
+      </c>
+      <c r="EO24">
+        <v>0</v>
+      </c>
+      <c r="EP24" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ24">
+        <v>0</v>
+      </c>
+      <c r="ER24">
+        <v>0</v>
+      </c>
+      <c r="ES24">
+        <v>0</v>
+      </c>
+      <c r="ET24">
+        <v>0</v>
+      </c>
+      <c r="EU24">
+        <v>0</v>
+      </c>
+      <c r="EV24">
+        <v>1</v>
+      </c>
+      <c r="EW24">
+        <v>0</v>
+      </c>
+      <c r="EX24">
+        <v>620001936</v>
+      </c>
+      <c r="EY24">
+        <v>0</v>
+      </c>
+      <c r="FA24">
+        <v>0</v>
+      </c>
+      <c r="FD24">
+        <v>0</v>
+      </c>
+      <c r="FE24">
+        <v>0</v>
+      </c>
+      <c r="FF24">
+        <v>0</v>
+      </c>
+      <c r="FG24">
+        <v>0</v>
+      </c>
+      <c r="FH24">
+        <v>0</v>
+      </c>
+      <c r="FI24">
+        <v>0</v>
+      </c>
+      <c r="FJ24">
+        <v>0</v>
+      </c>
+      <c r="FK24">
+        <v>0</v>
+      </c>
+      <c r="FL24">
+        <v>0</v>
+      </c>
+      <c r="FM24">
+        <v>0</v>
+      </c>
+      <c r="FN24">
+        <v>0</v>
+      </c>
+      <c r="FO24" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FP24">
+        <v>0</v>
+      </c>
+      <c r="FR24" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FS24">
+        <v>0</v>
+      </c>
+      <c r="FU24">
+        <v>0</v>
+      </c>
+      <c r="FV24">
+        <v>0</v>
+      </c>
+      <c r="FW24">
+        <v>0</v>
+      </c>
+      <c r="FX24">
+        <v>0</v>
+      </c>
+      <c r="FY24">
+        <v>0</v>
+      </c>
+      <c r="FZ24">
+        <v>0</v>
+      </c>
+      <c r="GA24">
+        <v>0</v>
+      </c>
+      <c r="GB24">
+        <v>0</v>
+      </c>
+      <c r="GC24">
+        <v>0</v>
+      </c>
+      <c r="GD24">
+        <v>0</v>
+      </c>
+      <c r="GE24">
+        <v>0</v>
+      </c>
+      <c r="GF24">
+        <v>0</v>
+      </c>
+      <c r="GG24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:189">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>454</v>
+      </c>
+      <c r="C25">
+        <v>20220401</v>
+      </c>
+      <c r="D25">
+        <v>99999999</v>
+      </c>
+      <c r="E25" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>364</v>
+      </c>
+      <c r="H25" t="s">
+        <v>371</v>
+      </c>
+      <c r="P25" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>343</v>
+      </c>
+      <c r="S25">
+        <v>47</v>
+      </c>
+      <c r="T25" t="s">
+        <v>279</v>
+      </c>
+      <c r="U25" t="s">
+        <v>279</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25">
+        <v>0</v>
+      </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <v>0</v>
+      </c>
+      <c r="BL25">
+        <v>0</v>
+      </c>
+      <c r="BM25">
+        <v>0</v>
+      </c>
+      <c r="BN25">
+        <v>0</v>
+      </c>
+      <c r="BO25">
+        <v>0</v>
+      </c>
+      <c r="BP25">
+        <v>0</v>
+      </c>
+      <c r="BQ25">
+        <v>0</v>
+      </c>
+      <c r="BR25">
+        <v>0</v>
+      </c>
+      <c r="BS25">
+        <v>0</v>
+      </c>
+      <c r="BT25">
+        <v>0</v>
+      </c>
+      <c r="BV25">
+        <v>0</v>
+      </c>
+      <c r="BW25">
+        <v>0</v>
+      </c>
+      <c r="BX25">
+        <v>0</v>
+      </c>
+      <c r="BY25">
+        <v>0</v>
+      </c>
+      <c r="BZ25">
+        <v>0</v>
+      </c>
+      <c r="CA25">
+        <v>0</v>
+      </c>
+      <c r="CB25">
+        <v>0</v>
+      </c>
+      <c r="CC25">
+        <v>0</v>
+      </c>
+      <c r="CD25">
+        <v>0</v>
+      </c>
+      <c r="CE25">
+        <v>0</v>
+      </c>
+      <c r="CF25">
+        <v>0</v>
+      </c>
+      <c r="CG25">
+        <v>0</v>
+      </c>
+      <c r="CT25">
+        <v>0</v>
+      </c>
+      <c r="CU25">
+        <v>0</v>
+      </c>
+      <c r="CV25">
+        <v>0</v>
+      </c>
+      <c r="CW25">
+        <v>0</v>
+      </c>
+      <c r="CX25">
+        <v>0</v>
+      </c>
+      <c r="CY25">
+        <v>4</v>
+      </c>
+      <c r="CZ25">
+        <v>0</v>
+      </c>
+      <c r="DA25">
+        <v>0</v>
+      </c>
+      <c r="DB25">
+        <v>0</v>
+      </c>
+      <c r="DC25">
+        <v>0</v>
+      </c>
+      <c r="DD25">
+        <v>0</v>
+      </c>
+      <c r="DE25">
+        <v>0</v>
+      </c>
+      <c r="DF25">
+        <v>0</v>
+      </c>
+      <c r="DG25">
+        <v>0</v>
+      </c>
+      <c r="DH25">
+        <v>0</v>
+      </c>
+      <c r="DJ25">
+        <v>0</v>
+      </c>
+      <c r="DK25">
+        <v>0</v>
+      </c>
+      <c r="DL25">
+        <v>0</v>
+      </c>
+      <c r="DM25">
+        <v>0</v>
+      </c>
+      <c r="DN25">
+        <v>0</v>
+      </c>
+      <c r="DP25">
+        <v>0</v>
+      </c>
+      <c r="DQ25">
+        <v>0</v>
+      </c>
+      <c r="DR25">
+        <v>0</v>
+      </c>
+      <c r="DS25">
+        <v>0</v>
+      </c>
+      <c r="DT25">
+        <v>0</v>
+      </c>
+      <c r="DU25">
+        <v>0</v>
+      </c>
+      <c r="DV25">
+        <v>0</v>
+      </c>
+      <c r="DW25">
+        <v>0</v>
+      </c>
+      <c r="DX25" t="s">
+        <v>450</v>
+      </c>
+      <c r="DY25" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ25">
+        <v>0</v>
+      </c>
+      <c r="EA25">
+        <v>0</v>
+      </c>
+      <c r="EB25">
+        <v>20220401</v>
+      </c>
+      <c r="EC25">
+        <v>99999999</v>
+      </c>
+      <c r="ED25">
+        <v>0</v>
+      </c>
+      <c r="EE25">
+        <v>0</v>
+      </c>
+      <c r="EF25">
+        <v>0</v>
+      </c>
+      <c r="EG25">
+        <v>0</v>
+      </c>
+      <c r="EH25">
+        <v>0</v>
+      </c>
+      <c r="EI25">
+        <v>0</v>
+      </c>
+      <c r="EJ25">
+        <v>0</v>
+      </c>
+      <c r="EK25">
+        <v>0</v>
+      </c>
+      <c r="EL25">
+        <v>0</v>
+      </c>
+      <c r="EM25">
+        <v>0</v>
+      </c>
+      <c r="EN25">
+        <v>0</v>
+      </c>
+      <c r="EO25">
+        <v>0</v>
+      </c>
+      <c r="EP25" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ25">
+        <v>0</v>
+      </c>
+      <c r="ER25">
+        <v>0</v>
+      </c>
+      <c r="ES25">
+        <v>0</v>
+      </c>
+      <c r="ET25">
+        <v>0</v>
+      </c>
+      <c r="EU25">
+        <v>0</v>
+      </c>
+      <c r="EV25">
+        <v>1</v>
+      </c>
+      <c r="EW25">
+        <v>0</v>
+      </c>
+      <c r="EX25">
+        <v>620001936</v>
+      </c>
+      <c r="EY25">
+        <v>0</v>
+      </c>
+      <c r="FA25">
+        <v>0</v>
+      </c>
+      <c r="FD25">
+        <v>0</v>
+      </c>
+      <c r="FE25">
+        <v>0</v>
+      </c>
+      <c r="FF25">
+        <v>0</v>
+      </c>
+      <c r="FG25">
+        <v>0</v>
+      </c>
+      <c r="FH25">
+        <v>0</v>
+      </c>
+      <c r="FI25">
+        <v>0</v>
+      </c>
+      <c r="FJ25">
+        <v>0</v>
+      </c>
+      <c r="FK25">
+        <v>0</v>
+      </c>
+      <c r="FL25">
+        <v>0</v>
+      </c>
+      <c r="FM25">
+        <v>0</v>
+      </c>
+      <c r="FN25">
+        <v>0</v>
+      </c>
+      <c r="FO25" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FP25">
+        <v>0</v>
+      </c>
+      <c r="FR25" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FS25">
+        <v>0</v>
+      </c>
+      <c r="FU25">
+        <v>0</v>
+      </c>
+      <c r="FV25">
+        <v>0</v>
+      </c>
+      <c r="FW25">
+        <v>0</v>
+      </c>
+      <c r="FX25">
+        <v>0</v>
+      </c>
+      <c r="FY25">
+        <v>0</v>
+      </c>
+      <c r="FZ25">
+        <v>0</v>
+      </c>
+      <c r="GA25">
+        <v>0</v>
+      </c>
+      <c r="GB25">
+        <v>0</v>
+      </c>
+      <c r="GC25">
+        <v>0</v>
+      </c>
+      <c r="GD25">
+        <v>0</v>
+      </c>
+      <c r="GE25">
+        <v>0</v>
+      </c>
+      <c r="GF25">
+        <v>0</v>
+      </c>
+      <c r="GG25">
         <v>0</v>
       </c>
     </row>
@@ -16378,10 +17377,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16470,6 +17469,34 @@
         <v>445</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>445</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
     </row>
@@ -16532,6 +17559,91 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16656,7 +17768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
@@ -16802,7 +17914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -16840,7 +17952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="961" firstSheet="20" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="961" firstSheet="20" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -32,20 +32,23 @@
     <sheet name="M10_DAY_LIMIT" sheetId="5" r:id="rId18"/>
     <sheet name="M56_EX_ED_INGREDIENTS" sheetId="25" r:id="rId19"/>
     <sheet name="M56_EX_INGRDT_MAIN" sheetId="27" r:id="rId20"/>
-    <sheet name="M56_PRODRUG_CD" sheetId="26" r:id="rId21"/>
-    <sheet name="M56_YJ_DRUG_CLASS" sheetId="29" r:id="rId22"/>
-    <sheet name="M56_DRUG_CLASS" sheetId="30" r:id="rId23"/>
-    <sheet name="M01_KINKI" sheetId="14" r:id="rId24"/>
-    <sheet name="PT_SUPPLE" sheetId="15" r:id="rId25"/>
-    <sheet name="M41_SUPPLE_INDEXDEF" sheetId="16" r:id="rId26"/>
-    <sheet name="M41_SUPPLE_INDEXCODE" sheetId="17" r:id="rId27"/>
+    <sheet name="M56_ALRGY_DERIVATIVES" sheetId="32" r:id="rId21"/>
+    <sheet name="M56_DRVALRGY_CODE" sheetId="33" r:id="rId22"/>
+    <sheet name="M56_PRODRUG_CD" sheetId="26" r:id="rId23"/>
+    <sheet name="M56_YJ_DRUG_CLASS" sheetId="29" r:id="rId24"/>
+    <sheet name="M56_DRUG_CLASS" sheetId="30" r:id="rId25"/>
+    <sheet name="M56_EX_ANALOGUE" sheetId="31" r:id="rId26"/>
+    <sheet name="M01_KINKI" sheetId="14" r:id="rId27"/>
+    <sheet name="PT_SUPPLE" sheetId="15" r:id="rId28"/>
+    <sheet name="M41_SUPPLE_INDEXDEF" sheetId="16" r:id="rId29"/>
+    <sheet name="M41_SUPPLE_INDEXCODE" sheetId="17" r:id="rId30"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="469">
   <si>
     <t>HP_ID</t>
   </si>
@@ -1410,6 +1413,48 @@
   </si>
   <si>
     <t>UT2705</t>
+  </si>
+  <si>
+    <t>ANALOGUE_CD</t>
+  </si>
+  <si>
+    <t>AL0000024</t>
+  </si>
+  <si>
+    <t>11UT1013</t>
+  </si>
+  <si>
+    <t>USG015</t>
+  </si>
+  <si>
+    <t>11UT1014</t>
+  </si>
+  <si>
+    <t>UT2706</t>
+  </si>
+  <si>
+    <t>UT2707</t>
+  </si>
+  <si>
+    <t>DRVALRGY_CD</t>
+  </si>
+  <si>
+    <t>IS1112700</t>
+  </si>
+  <si>
+    <t>DRVALRGY_NAME</t>
+  </si>
+  <si>
+    <t>DRVALRGY_GRP</t>
+  </si>
+  <si>
+    <t>RANK_NO</t>
+  </si>
+  <si>
+    <t>G001</t>
+  </si>
+  <si>
+    <t>UT000313</t>
   </si>
 </sst>
 </file>
@@ -4357,10 +4402,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GG25"/>
+  <dimension ref="A1:GG27"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="DR7" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="DX25" sqref="DX25"/>
+    <sheetView view="pageLayout" topLeftCell="DO7" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="DX27" sqref="DX26:DX27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16411,6 +16456,976 @@
         <v>0</v>
       </c>
       <c r="GG25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:189">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>460</v>
+      </c>
+      <c r="C26">
+        <v>20220401</v>
+      </c>
+      <c r="D26">
+        <v>99999999</v>
+      </c>
+      <c r="E26" t="s">
+        <v>230</v>
+      </c>
+      <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>364</v>
+      </c>
+      <c r="H26" t="s">
+        <v>371</v>
+      </c>
+      <c r="P26" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>343</v>
+      </c>
+      <c r="S26">
+        <v>47</v>
+      </c>
+      <c r="T26" t="s">
+        <v>279</v>
+      </c>
+      <c r="U26" t="s">
+        <v>279</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
+        <v>0</v>
+      </c>
+      <c r="BK26">
+        <v>0</v>
+      </c>
+      <c r="BL26">
+        <v>0</v>
+      </c>
+      <c r="BM26">
+        <v>0</v>
+      </c>
+      <c r="BN26">
+        <v>0</v>
+      </c>
+      <c r="BO26">
+        <v>0</v>
+      </c>
+      <c r="BP26">
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <v>0</v>
+      </c>
+      <c r="BR26">
+        <v>0</v>
+      </c>
+      <c r="BS26">
+        <v>0</v>
+      </c>
+      <c r="BT26">
+        <v>0</v>
+      </c>
+      <c r="BV26">
+        <v>0</v>
+      </c>
+      <c r="BW26">
+        <v>0</v>
+      </c>
+      <c r="BX26">
+        <v>0</v>
+      </c>
+      <c r="BY26">
+        <v>0</v>
+      </c>
+      <c r="BZ26">
+        <v>0</v>
+      </c>
+      <c r="CA26">
+        <v>0</v>
+      </c>
+      <c r="CB26">
+        <v>0</v>
+      </c>
+      <c r="CC26">
+        <v>0</v>
+      </c>
+      <c r="CD26">
+        <v>0</v>
+      </c>
+      <c r="CE26">
+        <v>0</v>
+      </c>
+      <c r="CF26">
+        <v>0</v>
+      </c>
+      <c r="CG26">
+        <v>0</v>
+      </c>
+      <c r="CT26">
+        <v>0</v>
+      </c>
+      <c r="CU26">
+        <v>0</v>
+      </c>
+      <c r="CV26">
+        <v>0</v>
+      </c>
+      <c r="CW26">
+        <v>0</v>
+      </c>
+      <c r="CX26">
+        <v>0</v>
+      </c>
+      <c r="CY26">
+        <v>4</v>
+      </c>
+      <c r="CZ26">
+        <v>0</v>
+      </c>
+      <c r="DA26">
+        <v>0</v>
+      </c>
+      <c r="DB26">
+        <v>0</v>
+      </c>
+      <c r="DC26">
+        <v>0</v>
+      </c>
+      <c r="DD26">
+        <v>0</v>
+      </c>
+      <c r="DE26">
+        <v>0</v>
+      </c>
+      <c r="DF26">
+        <v>0</v>
+      </c>
+      <c r="DG26">
+        <v>0</v>
+      </c>
+      <c r="DH26">
+        <v>0</v>
+      </c>
+      <c r="DJ26">
+        <v>0</v>
+      </c>
+      <c r="DK26">
+        <v>0</v>
+      </c>
+      <c r="DL26">
+        <v>0</v>
+      </c>
+      <c r="DM26">
+        <v>0</v>
+      </c>
+      <c r="DN26">
+        <v>0</v>
+      </c>
+      <c r="DP26">
+        <v>0</v>
+      </c>
+      <c r="DQ26">
+        <v>0</v>
+      </c>
+      <c r="DR26">
+        <v>0</v>
+      </c>
+      <c r="DS26">
+        <v>0</v>
+      </c>
+      <c r="DT26">
+        <v>0</v>
+      </c>
+      <c r="DU26">
+        <v>0</v>
+      </c>
+      <c r="DV26">
+        <v>0</v>
+      </c>
+      <c r="DW26">
+        <v>0</v>
+      </c>
+      <c r="DX26" t="s">
+        <v>457</v>
+      </c>
+      <c r="DY26" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ26">
+        <v>0</v>
+      </c>
+      <c r="EA26">
+        <v>0</v>
+      </c>
+      <c r="EB26">
+        <v>20220401</v>
+      </c>
+      <c r="EC26">
+        <v>99999999</v>
+      </c>
+      <c r="ED26">
+        <v>0</v>
+      </c>
+      <c r="EE26">
+        <v>0</v>
+      </c>
+      <c r="EF26">
+        <v>0</v>
+      </c>
+      <c r="EG26">
+        <v>0</v>
+      </c>
+      <c r="EH26">
+        <v>0</v>
+      </c>
+      <c r="EI26">
+        <v>0</v>
+      </c>
+      <c r="EJ26">
+        <v>0</v>
+      </c>
+      <c r="EK26">
+        <v>0</v>
+      </c>
+      <c r="EL26">
+        <v>0</v>
+      </c>
+      <c r="EM26">
+        <v>0</v>
+      </c>
+      <c r="EN26">
+        <v>0</v>
+      </c>
+      <c r="EO26">
+        <v>0</v>
+      </c>
+      <c r="EP26" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ26">
+        <v>0</v>
+      </c>
+      <c r="ER26">
+        <v>0</v>
+      </c>
+      <c r="ES26">
+        <v>0</v>
+      </c>
+      <c r="ET26">
+        <v>0</v>
+      </c>
+      <c r="EU26">
+        <v>0</v>
+      </c>
+      <c r="EV26">
+        <v>1</v>
+      </c>
+      <c r="EW26">
+        <v>0</v>
+      </c>
+      <c r="EX26">
+        <v>620001936</v>
+      </c>
+      <c r="EY26">
+        <v>0</v>
+      </c>
+      <c r="FA26">
+        <v>0</v>
+      </c>
+      <c r="FD26">
+        <v>0</v>
+      </c>
+      <c r="FE26">
+        <v>0</v>
+      </c>
+      <c r="FF26">
+        <v>0</v>
+      </c>
+      <c r="FG26">
+        <v>0</v>
+      </c>
+      <c r="FH26">
+        <v>0</v>
+      </c>
+      <c r="FI26">
+        <v>0</v>
+      </c>
+      <c r="FJ26">
+        <v>0</v>
+      </c>
+      <c r="FK26">
+        <v>0</v>
+      </c>
+      <c r="FL26">
+        <v>0</v>
+      </c>
+      <c r="FM26">
+        <v>0</v>
+      </c>
+      <c r="FN26">
+        <v>0</v>
+      </c>
+      <c r="FO26" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FP26">
+        <v>0</v>
+      </c>
+      <c r="FR26" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FS26">
+        <v>0</v>
+      </c>
+      <c r="FU26">
+        <v>0</v>
+      </c>
+      <c r="FV26">
+        <v>0</v>
+      </c>
+      <c r="FW26">
+        <v>0</v>
+      </c>
+      <c r="FX26">
+        <v>0</v>
+      </c>
+      <c r="FY26">
+        <v>0</v>
+      </c>
+      <c r="FZ26">
+        <v>0</v>
+      </c>
+      <c r="GA26">
+        <v>0</v>
+      </c>
+      <c r="GB26">
+        <v>0</v>
+      </c>
+      <c r="GC26">
+        <v>0</v>
+      </c>
+      <c r="GD26">
+        <v>0</v>
+      </c>
+      <c r="GE26">
+        <v>0</v>
+      </c>
+      <c r="GF26">
+        <v>0</v>
+      </c>
+      <c r="GG26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:189">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>461</v>
+      </c>
+      <c r="C27">
+        <v>20220401</v>
+      </c>
+      <c r="D27">
+        <v>99999999</v>
+      </c>
+      <c r="E27" t="s">
+        <v>230</v>
+      </c>
+      <c r="F27">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>364</v>
+      </c>
+      <c r="H27" t="s">
+        <v>371</v>
+      </c>
+      <c r="P27" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>343</v>
+      </c>
+      <c r="S27">
+        <v>47</v>
+      </c>
+      <c r="T27" t="s">
+        <v>279</v>
+      </c>
+      <c r="U27" t="s">
+        <v>279</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>0</v>
+      </c>
+      <c r="BK27">
+        <v>0</v>
+      </c>
+      <c r="BL27">
+        <v>0</v>
+      </c>
+      <c r="BM27">
+        <v>0</v>
+      </c>
+      <c r="BN27">
+        <v>0</v>
+      </c>
+      <c r="BO27">
+        <v>0</v>
+      </c>
+      <c r="BP27">
+        <v>0</v>
+      </c>
+      <c r="BQ27">
+        <v>0</v>
+      </c>
+      <c r="BR27">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>0</v>
+      </c>
+      <c r="BT27">
+        <v>0</v>
+      </c>
+      <c r="BV27">
+        <v>0</v>
+      </c>
+      <c r="BW27">
+        <v>0</v>
+      </c>
+      <c r="BX27">
+        <v>0</v>
+      </c>
+      <c r="BY27">
+        <v>0</v>
+      </c>
+      <c r="BZ27">
+        <v>0</v>
+      </c>
+      <c r="CA27">
+        <v>0</v>
+      </c>
+      <c r="CB27">
+        <v>0</v>
+      </c>
+      <c r="CC27">
+        <v>0</v>
+      </c>
+      <c r="CD27">
+        <v>0</v>
+      </c>
+      <c r="CE27">
+        <v>0</v>
+      </c>
+      <c r="CF27">
+        <v>0</v>
+      </c>
+      <c r="CG27">
+        <v>0</v>
+      </c>
+      <c r="CT27">
+        <v>0</v>
+      </c>
+      <c r="CU27">
+        <v>0</v>
+      </c>
+      <c r="CV27">
+        <v>0</v>
+      </c>
+      <c r="CW27">
+        <v>0</v>
+      </c>
+      <c r="CX27">
+        <v>0</v>
+      </c>
+      <c r="CY27">
+        <v>4</v>
+      </c>
+      <c r="CZ27">
+        <v>0</v>
+      </c>
+      <c r="DA27">
+        <v>0</v>
+      </c>
+      <c r="DB27">
+        <v>0</v>
+      </c>
+      <c r="DC27">
+        <v>0</v>
+      </c>
+      <c r="DD27">
+        <v>0</v>
+      </c>
+      <c r="DE27">
+        <v>0</v>
+      </c>
+      <c r="DF27">
+        <v>0</v>
+      </c>
+      <c r="DG27">
+        <v>0</v>
+      </c>
+      <c r="DH27">
+        <v>0</v>
+      </c>
+      <c r="DJ27">
+        <v>0</v>
+      </c>
+      <c r="DK27">
+        <v>0</v>
+      </c>
+      <c r="DL27">
+        <v>0</v>
+      </c>
+      <c r="DM27">
+        <v>0</v>
+      </c>
+      <c r="DN27">
+        <v>0</v>
+      </c>
+      <c r="DP27">
+        <v>0</v>
+      </c>
+      <c r="DQ27">
+        <v>0</v>
+      </c>
+      <c r="DR27">
+        <v>0</v>
+      </c>
+      <c r="DS27">
+        <v>0</v>
+      </c>
+      <c r="DT27">
+        <v>0</v>
+      </c>
+      <c r="DU27">
+        <v>0</v>
+      </c>
+      <c r="DV27">
+        <v>0</v>
+      </c>
+      <c r="DW27">
+        <v>0</v>
+      </c>
+      <c r="DX27" t="s">
+        <v>459</v>
+      </c>
+      <c r="DY27" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ27">
+        <v>0</v>
+      </c>
+      <c r="EA27">
+        <v>0</v>
+      </c>
+      <c r="EB27">
+        <v>20220401</v>
+      </c>
+      <c r="EC27">
+        <v>99999999</v>
+      </c>
+      <c r="ED27">
+        <v>0</v>
+      </c>
+      <c r="EE27">
+        <v>0</v>
+      </c>
+      <c r="EF27">
+        <v>0</v>
+      </c>
+      <c r="EG27">
+        <v>0</v>
+      </c>
+      <c r="EH27">
+        <v>0</v>
+      </c>
+      <c r="EI27">
+        <v>0</v>
+      </c>
+      <c r="EJ27">
+        <v>0</v>
+      </c>
+      <c r="EK27">
+        <v>0</v>
+      </c>
+      <c r="EL27">
+        <v>0</v>
+      </c>
+      <c r="EM27">
+        <v>0</v>
+      </c>
+      <c r="EN27">
+        <v>0</v>
+      </c>
+      <c r="EO27">
+        <v>0</v>
+      </c>
+      <c r="EP27" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ27">
+        <v>0</v>
+      </c>
+      <c r="ER27">
+        <v>0</v>
+      </c>
+      <c r="ES27">
+        <v>0</v>
+      </c>
+      <c r="ET27">
+        <v>0</v>
+      </c>
+      <c r="EU27">
+        <v>0</v>
+      </c>
+      <c r="EV27">
+        <v>1</v>
+      </c>
+      <c r="EW27">
+        <v>0</v>
+      </c>
+      <c r="EX27">
+        <v>620001936</v>
+      </c>
+      <c r="EY27">
+        <v>0</v>
+      </c>
+      <c r="FA27">
+        <v>0</v>
+      </c>
+      <c r="FD27">
+        <v>0</v>
+      </c>
+      <c r="FE27">
+        <v>0</v>
+      </c>
+      <c r="FF27">
+        <v>0</v>
+      </c>
+      <c r="FG27">
+        <v>0</v>
+      </c>
+      <c r="FH27">
+        <v>0</v>
+      </c>
+      <c r="FI27">
+        <v>0</v>
+      </c>
+      <c r="FJ27">
+        <v>0</v>
+      </c>
+      <c r="FK27">
+        <v>0</v>
+      </c>
+      <c r="FL27">
+        <v>0</v>
+      </c>
+      <c r="FM27">
+        <v>0</v>
+      </c>
+      <c r="FN27">
+        <v>0</v>
+      </c>
+      <c r="FO27" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FP27">
+        <v>0</v>
+      </c>
+      <c r="FR27" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FS27">
+        <v>0</v>
+      </c>
+      <c r="FU27">
+        <v>0</v>
+      </c>
+      <c r="FV27">
+        <v>0</v>
+      </c>
+      <c r="FW27">
+        <v>0</v>
+      </c>
+      <c r="FX27">
+        <v>0</v>
+      </c>
+      <c r="FY27">
+        <v>0</v>
+      </c>
+      <c r="FZ27">
+        <v>0</v>
+      </c>
+      <c r="GA27">
+        <v>0</v>
+      </c>
+      <c r="GB27">
+        <v>0</v>
+      </c>
+      <c r="GC27">
+        <v>0</v>
+      </c>
+      <c r="GD27">
+        <v>0</v>
+      </c>
+      <c r="GE27">
+        <v>0</v>
+      </c>
+      <c r="GF27">
+        <v>0</v>
+      </c>
+      <c r="GG27">
         <v>0</v>
       </c>
     </row>
@@ -17101,10 +18116,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17226,6 +18241,98 @@
       </c>
       <c r="F5">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17377,10 +18484,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17482,9 +18589,6 @@
       <c r="C6" t="s">
         <v>445</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -17496,7 +18600,32 @@
       <c r="C7" t="s">
         <v>445</v>
       </c>
-      <c r="G7">
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>445</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>458</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
     </row>
@@ -17509,8 +18638,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="A3:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17557,7 +18787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -17600,12 +18830,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17642,7 +18872,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -17768,7 +19045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
@@ -17914,7 +19191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -17945,41 +19222,6 @@
       </c>
       <c r="B2" t="s">
         <v>391</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B2" t="s">
-        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -18287,6 +19529,41 @@
       </c>
       <c r="H12" t="s">
         <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22236" windowHeight="7116" tabRatio="961" firstSheet="11" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20196" windowHeight="7548" tabRatio="961" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -31,18 +31,24 @@
     <sheet name="DRUG_DAY_LIMIT" sheetId="4" r:id="rId17"/>
     <sheet name="M10_DAY_LIMIT" sheetId="5" r:id="rId18"/>
     <sheet name="M56_EX_ED_INGREDIENTS" sheetId="25" r:id="rId19"/>
-    <sheet name="M56_PRODRUG_CD" sheetId="26" r:id="rId20"/>
-    <sheet name="M01_KINKI" sheetId="14" r:id="rId21"/>
-    <sheet name="PT_SUPPLE" sheetId="15" r:id="rId22"/>
-    <sheet name="M41_SUPPLE_INDEXDEF" sheetId="16" r:id="rId23"/>
-    <sheet name="M41_SUPPLE_INDEXCODE" sheetId="17" r:id="rId24"/>
+    <sheet name="M56_EX_INGRDT_MAIN" sheetId="27" r:id="rId20"/>
+    <sheet name="M56_ALRGY_DERIVATIVES" sheetId="32" r:id="rId21"/>
+    <sheet name="M56_DRVALRGY_CODE" sheetId="33" r:id="rId22"/>
+    <sheet name="M56_PRODRUG_CD" sheetId="26" r:id="rId23"/>
+    <sheet name="M56_YJ_DRUG_CLASS" sheetId="29" r:id="rId24"/>
+    <sheet name="M56_DRUG_CLASS" sheetId="30" r:id="rId25"/>
+    <sheet name="M56_EX_ANALOGUE" sheetId="31" r:id="rId26"/>
+    <sheet name="M01_KINKI" sheetId="14" r:id="rId27"/>
+    <sheet name="PT_SUPPLE" sheetId="15" r:id="rId28"/>
+    <sheet name="M41_SUPPLE_INDEXDEF" sheetId="16" r:id="rId29"/>
+    <sheet name="M41_SUPPLE_INDEXCODE" sheetId="17" r:id="rId30"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="471">
   <si>
     <t>HP_ID</t>
   </si>
@@ -1331,9 +1337,6 @@
     <t>TENKABUTU_CHECK</t>
   </si>
   <si>
-    <t>UT2700X1011</t>
-  </si>
-  <si>
     <t>UT2700</t>
   </si>
   <si>
@@ -1343,10 +1346,121 @@
     <t>IS11230A0</t>
   </si>
   <si>
-    <t>UT2700X1012</t>
-  </si>
-  <si>
     <t>UT2701</t>
+  </si>
+  <si>
+    <t>UT271012</t>
+  </si>
+  <si>
+    <t>UT271011</t>
+  </si>
+  <si>
+    <t>YOHO_CD</t>
+  </si>
+  <si>
+    <t>HAIGOU_FLG</t>
+  </si>
+  <si>
+    <t>YUEKI_FLG</t>
+  </si>
+  <si>
+    <t>KANPO_FLG</t>
+  </si>
+  <si>
+    <t>ZENSINSAYO_FLG</t>
+  </si>
+  <si>
+    <t>USG013</t>
+  </si>
+  <si>
+    <t>UT271013</t>
+  </si>
+  <si>
+    <t>UT271014</t>
+  </si>
+  <si>
+    <t>UT2702</t>
+  </si>
+  <si>
+    <t>UT2703</t>
+  </si>
+  <si>
+    <t>USG014</t>
+  </si>
+  <si>
+    <t>CLASS_CD</t>
+  </si>
+  <si>
+    <t>CLASS_NAME</t>
+  </si>
+  <si>
+    <t>CLASS_DUPLICATION</t>
+  </si>
+  <si>
+    <t>11UT1011</t>
+  </si>
+  <si>
+    <t>11UT1012</t>
+  </si>
+  <si>
+    <t>UT180100</t>
+  </si>
+  <si>
+    <t>UT_CLASS0</t>
+  </si>
+  <si>
+    <t>UT2704</t>
+  </si>
+  <si>
+    <t>UT2705</t>
+  </si>
+  <si>
+    <t>ANALOGUE_CD</t>
+  </si>
+  <si>
+    <t>AL0000024</t>
+  </si>
+  <si>
+    <t>11UT1013</t>
+  </si>
+  <si>
+    <t>USG015</t>
+  </si>
+  <si>
+    <t>11UT1014</t>
+  </si>
+  <si>
+    <t>UT2706</t>
+  </si>
+  <si>
+    <t>UT2707</t>
+  </si>
+  <si>
+    <t>DRVALRGY_CD</t>
+  </si>
+  <si>
+    <t>IS1112700</t>
+  </si>
+  <si>
+    <t>DRVALRGY_NAME</t>
+  </si>
+  <si>
+    <t>DRVALRGY_GRP</t>
+  </si>
+  <si>
+    <t>RANK_NO</t>
+  </si>
+  <si>
+    <t>G001</t>
+  </si>
+  <si>
+    <t>UT000313</t>
+  </si>
+  <si>
+    <t>UT271015</t>
+  </si>
+  <si>
+    <t>UT2708</t>
   </si>
 </sst>
 </file>
@@ -2178,7 +2292,7 @@
   <dimension ref="A1:AU24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4294,10 +4408,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GG21"/>
+  <dimension ref="A1:GG28"/>
   <sheetViews>
-    <sheetView topLeftCell="DQ1" workbookViewId="0">
-      <selection activeCell="DX21" sqref="DX21"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="DM1" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="DW28" sqref="DW28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13446,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C20">
         <v>20220401</v>
@@ -13755,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="DX20" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="DY20" t="s">
         <v>280</v>
@@ -13931,7 +14045,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C21">
         <v>20220401</v>
@@ -14411,8 +14525,3404 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:189">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>443</v>
+      </c>
+      <c r="C22">
+        <v>20220401</v>
+      </c>
+      <c r="D22">
+        <v>99999999</v>
+      </c>
+      <c r="E22" t="s">
+        <v>230</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>364</v>
+      </c>
+      <c r="H22" t="s">
+        <v>371</v>
+      </c>
+      <c r="P22" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>343</v>
+      </c>
+      <c r="S22">
+        <v>47</v>
+      </c>
+      <c r="T22" t="s">
+        <v>279</v>
+      </c>
+      <c r="U22" t="s">
+        <v>279</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
+        <v>0</v>
+      </c>
+      <c r="BM22">
+        <v>0</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <v>0</v>
+      </c>
+      <c r="BP22">
+        <v>0</v>
+      </c>
+      <c r="BQ22">
+        <v>0</v>
+      </c>
+      <c r="BR22">
+        <v>0</v>
+      </c>
+      <c r="BS22">
+        <v>0</v>
+      </c>
+      <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BV22">
+        <v>0</v>
+      </c>
+      <c r="BW22">
+        <v>0</v>
+      </c>
+      <c r="BX22">
+        <v>0</v>
+      </c>
+      <c r="BY22">
+        <v>0</v>
+      </c>
+      <c r="BZ22">
+        <v>0</v>
+      </c>
+      <c r="CA22">
+        <v>0</v>
+      </c>
+      <c r="CB22">
+        <v>0</v>
+      </c>
+      <c r="CC22">
+        <v>0</v>
+      </c>
+      <c r="CD22">
+        <v>0</v>
+      </c>
+      <c r="CE22">
+        <v>0</v>
+      </c>
+      <c r="CF22">
+        <v>0</v>
+      </c>
+      <c r="CG22">
+        <v>0</v>
+      </c>
+      <c r="CT22">
+        <v>0</v>
+      </c>
+      <c r="CU22">
+        <v>0</v>
+      </c>
+      <c r="CV22">
+        <v>0</v>
+      </c>
+      <c r="CW22">
+        <v>0</v>
+      </c>
+      <c r="CX22">
+        <v>0</v>
+      </c>
+      <c r="CY22">
+        <v>4</v>
+      </c>
+      <c r="CZ22">
+        <v>0</v>
+      </c>
+      <c r="DA22">
+        <v>0</v>
+      </c>
+      <c r="DB22">
+        <v>0</v>
+      </c>
+      <c r="DC22">
+        <v>0</v>
+      </c>
+      <c r="DD22">
+        <v>0</v>
+      </c>
+      <c r="DE22">
+        <v>0</v>
+      </c>
+      <c r="DF22">
+        <v>0</v>
+      </c>
+      <c r="DG22">
+        <v>0</v>
+      </c>
+      <c r="DH22">
+        <v>0</v>
+      </c>
+      <c r="DJ22">
+        <v>0</v>
+      </c>
+      <c r="DK22">
+        <v>0</v>
+      </c>
+      <c r="DL22">
+        <v>0</v>
+      </c>
+      <c r="DM22">
+        <v>0</v>
+      </c>
+      <c r="DN22">
+        <v>0</v>
+      </c>
+      <c r="DP22">
+        <v>0</v>
+      </c>
+      <c r="DQ22">
+        <v>0</v>
+      </c>
+      <c r="DR22">
+        <v>0</v>
+      </c>
+      <c r="DS22">
+        <v>0</v>
+      </c>
+      <c r="DT22">
+        <v>0</v>
+      </c>
+      <c r="DU22">
+        <v>0</v>
+      </c>
+      <c r="DV22">
+        <v>0</v>
+      </c>
+      <c r="DW22">
+        <v>0</v>
+      </c>
+      <c r="DX22" t="s">
+        <v>441</v>
+      </c>
+      <c r="DY22" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ22">
+        <v>0</v>
+      </c>
+      <c r="EA22">
+        <v>0</v>
+      </c>
+      <c r="EB22">
+        <v>20220401</v>
+      </c>
+      <c r="EC22">
+        <v>99999999</v>
+      </c>
+      <c r="ED22">
+        <v>0</v>
+      </c>
+      <c r="EE22">
+        <v>0</v>
+      </c>
+      <c r="EF22">
+        <v>0</v>
+      </c>
+      <c r="EG22">
+        <v>0</v>
+      </c>
+      <c r="EH22">
+        <v>0</v>
+      </c>
+      <c r="EI22">
+        <v>0</v>
+      </c>
+      <c r="EJ22">
+        <v>0</v>
+      </c>
+      <c r="EK22">
+        <v>0</v>
+      </c>
+      <c r="EL22">
+        <v>0</v>
+      </c>
+      <c r="EM22">
+        <v>0</v>
+      </c>
+      <c r="EN22">
+        <v>0</v>
+      </c>
+      <c r="EO22">
+        <v>0</v>
+      </c>
+      <c r="EP22" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ22">
+        <v>0</v>
+      </c>
+      <c r="ER22">
+        <v>0</v>
+      </c>
+      <c r="ES22">
+        <v>0</v>
+      </c>
+      <c r="ET22">
+        <v>0</v>
+      </c>
+      <c r="EU22">
+        <v>0</v>
+      </c>
+      <c r="EV22">
+        <v>1</v>
+      </c>
+      <c r="EW22">
+        <v>0</v>
+      </c>
+      <c r="EX22">
+        <v>620001936</v>
+      </c>
+      <c r="EY22">
+        <v>0</v>
+      </c>
+      <c r="FA22">
+        <v>0</v>
+      </c>
+      <c r="FD22">
+        <v>0</v>
+      </c>
+      <c r="FE22">
+        <v>0</v>
+      </c>
+      <c r="FF22">
+        <v>0</v>
+      </c>
+      <c r="FG22">
+        <v>0</v>
+      </c>
+      <c r="FH22">
+        <v>0</v>
+      </c>
+      <c r="FI22">
+        <v>0</v>
+      </c>
+      <c r="FJ22">
+        <v>0</v>
+      </c>
+      <c r="FK22">
+        <v>0</v>
+      </c>
+      <c r="FL22">
+        <v>0</v>
+      </c>
+      <c r="FM22">
+        <v>0</v>
+      </c>
+      <c r="FN22">
+        <v>0</v>
+      </c>
+      <c r="FO22" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FP22">
+        <v>0</v>
+      </c>
+      <c r="FR22" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FS22">
+        <v>0</v>
+      </c>
+      <c r="FU22">
+        <v>0</v>
+      </c>
+      <c r="FV22">
+        <v>0</v>
+      </c>
+      <c r="FW22">
+        <v>0</v>
+      </c>
+      <c r="FX22">
+        <v>0</v>
+      </c>
+      <c r="FY22">
+        <v>0</v>
+      </c>
+      <c r="FZ22">
+        <v>0</v>
+      </c>
+      <c r="GA22">
+        <v>0</v>
+      </c>
+      <c r="GB22">
+        <v>0</v>
+      </c>
+      <c r="GC22">
+        <v>0</v>
+      </c>
+      <c r="GD22">
+        <v>0</v>
+      </c>
+      <c r="GE22">
+        <v>0</v>
+      </c>
+      <c r="GF22">
+        <v>0</v>
+      </c>
+      <c r="GG22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:189">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>444</v>
+      </c>
+      <c r="C23">
+        <v>20220401</v>
+      </c>
+      <c r="D23">
+        <v>99999999</v>
+      </c>
+      <c r="E23" t="s">
+        <v>230</v>
+      </c>
+      <c r="F23">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>364</v>
+      </c>
+      <c r="H23" t="s">
+        <v>371</v>
+      </c>
+      <c r="P23" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>343</v>
+      </c>
+      <c r="S23">
+        <v>47</v>
+      </c>
+      <c r="T23" t="s">
+        <v>279</v>
+      </c>
+      <c r="U23" t="s">
+        <v>279</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>0</v>
+      </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <v>0</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>0</v>
+      </c>
+      <c r="BR23">
+        <v>0</v>
+      </c>
+      <c r="BS23">
+        <v>0</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>0</v>
+      </c>
+      <c r="BW23">
+        <v>0</v>
+      </c>
+      <c r="BX23">
+        <v>0</v>
+      </c>
+      <c r="BY23">
+        <v>0</v>
+      </c>
+      <c r="BZ23">
+        <v>0</v>
+      </c>
+      <c r="CA23">
+        <v>0</v>
+      </c>
+      <c r="CB23">
+        <v>0</v>
+      </c>
+      <c r="CC23">
+        <v>0</v>
+      </c>
+      <c r="CD23">
+        <v>0</v>
+      </c>
+      <c r="CE23">
+        <v>0</v>
+      </c>
+      <c r="CF23">
+        <v>0</v>
+      </c>
+      <c r="CG23">
+        <v>0</v>
+      </c>
+      <c r="CT23">
+        <v>0</v>
+      </c>
+      <c r="CU23">
+        <v>0</v>
+      </c>
+      <c r="CV23">
+        <v>0</v>
+      </c>
+      <c r="CW23">
+        <v>0</v>
+      </c>
+      <c r="CX23">
+        <v>0</v>
+      </c>
+      <c r="CY23">
+        <v>4</v>
+      </c>
+      <c r="CZ23">
+        <v>0</v>
+      </c>
+      <c r="DA23">
+        <v>0</v>
+      </c>
+      <c r="DB23">
+        <v>0</v>
+      </c>
+      <c r="DC23">
+        <v>0</v>
+      </c>
+      <c r="DD23">
+        <v>0</v>
+      </c>
+      <c r="DE23">
+        <v>0</v>
+      </c>
+      <c r="DF23">
+        <v>0</v>
+      </c>
+      <c r="DG23">
+        <v>0</v>
+      </c>
+      <c r="DH23">
+        <v>0</v>
+      </c>
+      <c r="DJ23">
+        <v>0</v>
+      </c>
+      <c r="DK23">
+        <v>0</v>
+      </c>
+      <c r="DL23">
+        <v>0</v>
+      </c>
+      <c r="DM23">
+        <v>0</v>
+      </c>
+      <c r="DN23">
+        <v>0</v>
+      </c>
+      <c r="DP23">
+        <v>0</v>
+      </c>
+      <c r="DQ23">
+        <v>0</v>
+      </c>
+      <c r="DR23">
+        <v>0</v>
+      </c>
+      <c r="DS23">
+        <v>0</v>
+      </c>
+      <c r="DT23">
+        <v>0</v>
+      </c>
+      <c r="DU23">
+        <v>0</v>
+      </c>
+      <c r="DV23">
+        <v>0</v>
+      </c>
+      <c r="DW23">
+        <v>0</v>
+      </c>
+      <c r="DX23" t="s">
+        <v>442</v>
+      </c>
+      <c r="DY23" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ23">
+        <v>0</v>
+      </c>
+      <c r="EA23">
+        <v>0</v>
+      </c>
+      <c r="EB23">
+        <v>20220401</v>
+      </c>
+      <c r="EC23">
+        <v>99999999</v>
+      </c>
+      <c r="ED23">
+        <v>0</v>
+      </c>
+      <c r="EE23">
+        <v>0</v>
+      </c>
+      <c r="EF23">
+        <v>0</v>
+      </c>
+      <c r="EG23">
+        <v>0</v>
+      </c>
+      <c r="EH23">
+        <v>0</v>
+      </c>
+      <c r="EI23">
+        <v>0</v>
+      </c>
+      <c r="EJ23">
+        <v>0</v>
+      </c>
+      <c r="EK23">
+        <v>0</v>
+      </c>
+      <c r="EL23">
+        <v>0</v>
+      </c>
+      <c r="EM23">
+        <v>0</v>
+      </c>
+      <c r="EN23">
+        <v>0</v>
+      </c>
+      <c r="EO23">
+        <v>0</v>
+      </c>
+      <c r="EP23" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ23">
+        <v>0</v>
+      </c>
+      <c r="ER23">
+        <v>0</v>
+      </c>
+      <c r="ES23">
+        <v>0</v>
+      </c>
+      <c r="ET23">
+        <v>0</v>
+      </c>
+      <c r="EU23">
+        <v>0</v>
+      </c>
+      <c r="EV23">
+        <v>1</v>
+      </c>
+      <c r="EW23">
+        <v>0</v>
+      </c>
+      <c r="EX23">
+        <v>620001936</v>
+      </c>
+      <c r="EY23">
+        <v>0</v>
+      </c>
+      <c r="FA23">
+        <v>0</v>
+      </c>
+      <c r="FD23">
+        <v>0</v>
+      </c>
+      <c r="FE23">
+        <v>0</v>
+      </c>
+      <c r="FF23">
+        <v>0</v>
+      </c>
+      <c r="FG23">
+        <v>0</v>
+      </c>
+      <c r="FH23">
+        <v>0</v>
+      </c>
+      <c r="FI23">
+        <v>0</v>
+      </c>
+      <c r="FJ23">
+        <v>0</v>
+      </c>
+      <c r="FK23">
+        <v>0</v>
+      </c>
+      <c r="FL23">
+        <v>0</v>
+      </c>
+      <c r="FM23">
+        <v>0</v>
+      </c>
+      <c r="FN23">
+        <v>0</v>
+      </c>
+      <c r="FO23" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FP23">
+        <v>0</v>
+      </c>
+      <c r="FR23" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FS23">
+        <v>0</v>
+      </c>
+      <c r="FU23">
+        <v>0</v>
+      </c>
+      <c r="FV23">
+        <v>0</v>
+      </c>
+      <c r="FW23">
+        <v>0</v>
+      </c>
+      <c r="FX23">
+        <v>0</v>
+      </c>
+      <c r="FY23">
+        <v>0</v>
+      </c>
+      <c r="FZ23">
+        <v>0</v>
+      </c>
+      <c r="GA23">
+        <v>0</v>
+      </c>
+      <c r="GB23">
+        <v>0</v>
+      </c>
+      <c r="GC23">
+        <v>0</v>
+      </c>
+      <c r="GD23">
+        <v>0</v>
+      </c>
+      <c r="GE23">
+        <v>0</v>
+      </c>
+      <c r="GF23">
+        <v>0</v>
+      </c>
+      <c r="GG23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:189">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>453</v>
+      </c>
+      <c r="C24">
+        <v>20220401</v>
+      </c>
+      <c r="D24">
+        <v>99999999</v>
+      </c>
+      <c r="E24" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>364</v>
+      </c>
+      <c r="H24" t="s">
+        <v>371</v>
+      </c>
+      <c r="P24" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>343</v>
+      </c>
+      <c r="S24">
+        <v>47</v>
+      </c>
+      <c r="T24" t="s">
+        <v>279</v>
+      </c>
+      <c r="U24" t="s">
+        <v>279</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>0</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
+        <v>0</v>
+      </c>
+      <c r="BL24">
+        <v>0</v>
+      </c>
+      <c r="BM24">
+        <v>0</v>
+      </c>
+      <c r="BN24">
+        <v>0</v>
+      </c>
+      <c r="BO24">
+        <v>0</v>
+      </c>
+      <c r="BP24">
+        <v>0</v>
+      </c>
+      <c r="BQ24">
+        <v>0</v>
+      </c>
+      <c r="BR24">
+        <v>0</v>
+      </c>
+      <c r="BS24">
+        <v>0</v>
+      </c>
+      <c r="BT24">
+        <v>0</v>
+      </c>
+      <c r="BV24">
+        <v>0</v>
+      </c>
+      <c r="BW24">
+        <v>0</v>
+      </c>
+      <c r="BX24">
+        <v>0</v>
+      </c>
+      <c r="BY24">
+        <v>0</v>
+      </c>
+      <c r="BZ24">
+        <v>0</v>
+      </c>
+      <c r="CA24">
+        <v>0</v>
+      </c>
+      <c r="CB24">
+        <v>0</v>
+      </c>
+      <c r="CC24">
+        <v>0</v>
+      </c>
+      <c r="CD24">
+        <v>0</v>
+      </c>
+      <c r="CE24">
+        <v>0</v>
+      </c>
+      <c r="CF24">
+        <v>0</v>
+      </c>
+      <c r="CG24">
+        <v>0</v>
+      </c>
+      <c r="CT24">
+        <v>0</v>
+      </c>
+      <c r="CU24">
+        <v>0</v>
+      </c>
+      <c r="CV24">
+        <v>0</v>
+      </c>
+      <c r="CW24">
+        <v>0</v>
+      </c>
+      <c r="CX24">
+        <v>0</v>
+      </c>
+      <c r="CY24">
+        <v>4</v>
+      </c>
+      <c r="CZ24">
+        <v>0</v>
+      </c>
+      <c r="DA24">
+        <v>0</v>
+      </c>
+      <c r="DB24">
+        <v>0</v>
+      </c>
+      <c r="DC24">
+        <v>0</v>
+      </c>
+      <c r="DD24">
+        <v>0</v>
+      </c>
+      <c r="DE24">
+        <v>0</v>
+      </c>
+      <c r="DF24">
+        <v>0</v>
+      </c>
+      <c r="DG24">
+        <v>0</v>
+      </c>
+      <c r="DH24">
+        <v>0</v>
+      </c>
+      <c r="DJ24">
+        <v>0</v>
+      </c>
+      <c r="DK24">
+        <v>0</v>
+      </c>
+      <c r="DL24">
+        <v>0</v>
+      </c>
+      <c r="DM24">
+        <v>0</v>
+      </c>
+      <c r="DN24">
+        <v>0</v>
+      </c>
+      <c r="DP24">
+        <v>0</v>
+      </c>
+      <c r="DQ24">
+        <v>0</v>
+      </c>
+      <c r="DR24">
+        <v>0</v>
+      </c>
+      <c r="DS24">
+        <v>0</v>
+      </c>
+      <c r="DT24">
+        <v>0</v>
+      </c>
+      <c r="DU24">
+        <v>0</v>
+      </c>
+      <c r="DV24">
+        <v>0</v>
+      </c>
+      <c r="DW24">
+        <v>0</v>
+      </c>
+      <c r="DX24" t="s">
+        <v>449</v>
+      </c>
+      <c r="DY24" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ24">
+        <v>0</v>
+      </c>
+      <c r="EA24">
+        <v>0</v>
+      </c>
+      <c r="EB24">
+        <v>20220401</v>
+      </c>
+      <c r="EC24">
+        <v>99999999</v>
+      </c>
+      <c r="ED24">
+        <v>0</v>
+      </c>
+      <c r="EE24">
+        <v>0</v>
+      </c>
+      <c r="EF24">
+        <v>0</v>
+      </c>
+      <c r="EG24">
+        <v>0</v>
+      </c>
+      <c r="EH24">
+        <v>0</v>
+      </c>
+      <c r="EI24">
+        <v>0</v>
+      </c>
+      <c r="EJ24">
+        <v>0</v>
+      </c>
+      <c r="EK24">
+        <v>0</v>
+      </c>
+      <c r="EL24">
+        <v>0</v>
+      </c>
+      <c r="EM24">
+        <v>0</v>
+      </c>
+      <c r="EN24">
+        <v>0</v>
+      </c>
+      <c r="EO24">
+        <v>0</v>
+      </c>
+      <c r="EP24" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ24">
+        <v>0</v>
+      </c>
+      <c r="ER24">
+        <v>0</v>
+      </c>
+      <c r="ES24">
+        <v>0</v>
+      </c>
+      <c r="ET24">
+        <v>0</v>
+      </c>
+      <c r="EU24">
+        <v>0</v>
+      </c>
+      <c r="EV24">
+        <v>1</v>
+      </c>
+      <c r="EW24">
+        <v>0</v>
+      </c>
+      <c r="EX24">
+        <v>620001936</v>
+      </c>
+      <c r="EY24">
+        <v>0</v>
+      </c>
+      <c r="FA24">
+        <v>0</v>
+      </c>
+      <c r="FD24">
+        <v>0</v>
+      </c>
+      <c r="FE24">
+        <v>0</v>
+      </c>
+      <c r="FF24">
+        <v>0</v>
+      </c>
+      <c r="FG24">
+        <v>0</v>
+      </c>
+      <c r="FH24">
+        <v>0</v>
+      </c>
+      <c r="FI24">
+        <v>0</v>
+      </c>
+      <c r="FJ24">
+        <v>0</v>
+      </c>
+      <c r="FK24">
+        <v>0</v>
+      </c>
+      <c r="FL24">
+        <v>0</v>
+      </c>
+      <c r="FM24">
+        <v>0</v>
+      </c>
+      <c r="FN24">
+        <v>0</v>
+      </c>
+      <c r="FO24" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FP24">
+        <v>0</v>
+      </c>
+      <c r="FR24" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FS24">
+        <v>0</v>
+      </c>
+      <c r="FU24">
+        <v>0</v>
+      </c>
+      <c r="FV24">
+        <v>0</v>
+      </c>
+      <c r="FW24">
+        <v>0</v>
+      </c>
+      <c r="FX24">
+        <v>0</v>
+      </c>
+      <c r="FY24">
+        <v>0</v>
+      </c>
+      <c r="FZ24">
+        <v>0</v>
+      </c>
+      <c r="GA24">
+        <v>0</v>
+      </c>
+      <c r="GB24">
+        <v>0</v>
+      </c>
+      <c r="GC24">
+        <v>0</v>
+      </c>
+      <c r="GD24">
+        <v>0</v>
+      </c>
+      <c r="GE24">
+        <v>0</v>
+      </c>
+      <c r="GF24">
+        <v>0</v>
+      </c>
+      <c r="GG24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:189">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>454</v>
+      </c>
+      <c r="C25">
+        <v>20220401</v>
+      </c>
+      <c r="D25">
+        <v>99999999</v>
+      </c>
+      <c r="E25" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>364</v>
+      </c>
+      <c r="H25" t="s">
+        <v>371</v>
+      </c>
+      <c r="P25" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>343</v>
+      </c>
+      <c r="S25">
+        <v>47</v>
+      </c>
+      <c r="T25" t="s">
+        <v>279</v>
+      </c>
+      <c r="U25" t="s">
+        <v>279</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25">
+        <v>0</v>
+      </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <v>0</v>
+      </c>
+      <c r="BL25">
+        <v>0</v>
+      </c>
+      <c r="BM25">
+        <v>0</v>
+      </c>
+      <c r="BN25">
+        <v>0</v>
+      </c>
+      <c r="BO25">
+        <v>0</v>
+      </c>
+      <c r="BP25">
+        <v>0</v>
+      </c>
+      <c r="BQ25">
+        <v>0</v>
+      </c>
+      <c r="BR25">
+        <v>0</v>
+      </c>
+      <c r="BS25">
+        <v>0</v>
+      </c>
+      <c r="BT25">
+        <v>0</v>
+      </c>
+      <c r="BV25">
+        <v>0</v>
+      </c>
+      <c r="BW25">
+        <v>0</v>
+      </c>
+      <c r="BX25">
+        <v>0</v>
+      </c>
+      <c r="BY25">
+        <v>0</v>
+      </c>
+      <c r="BZ25">
+        <v>0</v>
+      </c>
+      <c r="CA25">
+        <v>0</v>
+      </c>
+      <c r="CB25">
+        <v>0</v>
+      </c>
+      <c r="CC25">
+        <v>0</v>
+      </c>
+      <c r="CD25">
+        <v>0</v>
+      </c>
+      <c r="CE25">
+        <v>0</v>
+      </c>
+      <c r="CF25">
+        <v>0</v>
+      </c>
+      <c r="CG25">
+        <v>0</v>
+      </c>
+      <c r="CT25">
+        <v>0</v>
+      </c>
+      <c r="CU25">
+        <v>0</v>
+      </c>
+      <c r="CV25">
+        <v>0</v>
+      </c>
+      <c r="CW25">
+        <v>0</v>
+      </c>
+      <c r="CX25">
+        <v>0</v>
+      </c>
+      <c r="CY25">
+        <v>4</v>
+      </c>
+      <c r="CZ25">
+        <v>0</v>
+      </c>
+      <c r="DA25">
+        <v>0</v>
+      </c>
+      <c r="DB25">
+        <v>0</v>
+      </c>
+      <c r="DC25">
+        <v>0</v>
+      </c>
+      <c r="DD25">
+        <v>0</v>
+      </c>
+      <c r="DE25">
+        <v>0</v>
+      </c>
+      <c r="DF25">
+        <v>0</v>
+      </c>
+      <c r="DG25">
+        <v>0</v>
+      </c>
+      <c r="DH25">
+        <v>0</v>
+      </c>
+      <c r="DJ25">
+        <v>0</v>
+      </c>
+      <c r="DK25">
+        <v>0</v>
+      </c>
+      <c r="DL25">
+        <v>0</v>
+      </c>
+      <c r="DM25">
+        <v>0</v>
+      </c>
+      <c r="DN25">
+        <v>0</v>
+      </c>
+      <c r="DP25">
+        <v>0</v>
+      </c>
+      <c r="DQ25">
+        <v>0</v>
+      </c>
+      <c r="DR25">
+        <v>0</v>
+      </c>
+      <c r="DS25">
+        <v>0</v>
+      </c>
+      <c r="DT25">
+        <v>0</v>
+      </c>
+      <c r="DU25">
+        <v>0</v>
+      </c>
+      <c r="DV25">
+        <v>0</v>
+      </c>
+      <c r="DW25">
+        <v>0</v>
+      </c>
+      <c r="DX25" t="s">
+        <v>450</v>
+      </c>
+      <c r="DY25" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ25">
+        <v>0</v>
+      </c>
+      <c r="EA25">
+        <v>0</v>
+      </c>
+      <c r="EB25">
+        <v>20220401</v>
+      </c>
+      <c r="EC25">
+        <v>99999999</v>
+      </c>
+      <c r="ED25">
+        <v>0</v>
+      </c>
+      <c r="EE25">
+        <v>0</v>
+      </c>
+      <c r="EF25">
+        <v>0</v>
+      </c>
+      <c r="EG25">
+        <v>0</v>
+      </c>
+      <c r="EH25">
+        <v>0</v>
+      </c>
+      <c r="EI25">
+        <v>0</v>
+      </c>
+      <c r="EJ25">
+        <v>0</v>
+      </c>
+      <c r="EK25">
+        <v>0</v>
+      </c>
+      <c r="EL25">
+        <v>0</v>
+      </c>
+      <c r="EM25">
+        <v>0</v>
+      </c>
+      <c r="EN25">
+        <v>0</v>
+      </c>
+      <c r="EO25">
+        <v>0</v>
+      </c>
+      <c r="EP25" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ25">
+        <v>0</v>
+      </c>
+      <c r="ER25">
+        <v>0</v>
+      </c>
+      <c r="ES25">
+        <v>0</v>
+      </c>
+      <c r="ET25">
+        <v>0</v>
+      </c>
+      <c r="EU25">
+        <v>0</v>
+      </c>
+      <c r="EV25">
+        <v>1</v>
+      </c>
+      <c r="EW25">
+        <v>0</v>
+      </c>
+      <c r="EX25">
+        <v>620001936</v>
+      </c>
+      <c r="EY25">
+        <v>0</v>
+      </c>
+      <c r="FA25">
+        <v>0</v>
+      </c>
+      <c r="FD25">
+        <v>0</v>
+      </c>
+      <c r="FE25">
+        <v>0</v>
+      </c>
+      <c r="FF25">
+        <v>0</v>
+      </c>
+      <c r="FG25">
+        <v>0</v>
+      </c>
+      <c r="FH25">
+        <v>0</v>
+      </c>
+      <c r="FI25">
+        <v>0</v>
+      </c>
+      <c r="FJ25">
+        <v>0</v>
+      </c>
+      <c r="FK25">
+        <v>0</v>
+      </c>
+      <c r="FL25">
+        <v>0</v>
+      </c>
+      <c r="FM25">
+        <v>0</v>
+      </c>
+      <c r="FN25">
+        <v>0</v>
+      </c>
+      <c r="FO25" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FP25">
+        <v>0</v>
+      </c>
+      <c r="FR25" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FS25">
+        <v>0</v>
+      </c>
+      <c r="FU25">
+        <v>0</v>
+      </c>
+      <c r="FV25">
+        <v>0</v>
+      </c>
+      <c r="FW25">
+        <v>0</v>
+      </c>
+      <c r="FX25">
+        <v>0</v>
+      </c>
+      <c r="FY25">
+        <v>0</v>
+      </c>
+      <c r="FZ25">
+        <v>0</v>
+      </c>
+      <c r="GA25">
+        <v>0</v>
+      </c>
+      <c r="GB25">
+        <v>0</v>
+      </c>
+      <c r="GC25">
+        <v>0</v>
+      </c>
+      <c r="GD25">
+        <v>0</v>
+      </c>
+      <c r="GE25">
+        <v>0</v>
+      </c>
+      <c r="GF25">
+        <v>0</v>
+      </c>
+      <c r="GG25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:189">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>460</v>
+      </c>
+      <c r="C26">
+        <v>20220401</v>
+      </c>
+      <c r="D26">
+        <v>99999999</v>
+      </c>
+      <c r="E26" t="s">
+        <v>230</v>
+      </c>
+      <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>364</v>
+      </c>
+      <c r="H26" t="s">
+        <v>371</v>
+      </c>
+      <c r="P26" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>343</v>
+      </c>
+      <c r="S26">
+        <v>47</v>
+      </c>
+      <c r="T26" t="s">
+        <v>279</v>
+      </c>
+      <c r="U26" t="s">
+        <v>279</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
+        <v>0</v>
+      </c>
+      <c r="BK26">
+        <v>0</v>
+      </c>
+      <c r="BL26">
+        <v>0</v>
+      </c>
+      <c r="BM26">
+        <v>0</v>
+      </c>
+      <c r="BN26">
+        <v>0</v>
+      </c>
+      <c r="BO26">
+        <v>0</v>
+      </c>
+      <c r="BP26">
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <v>0</v>
+      </c>
+      <c r="BR26">
+        <v>0</v>
+      </c>
+      <c r="BS26">
+        <v>0</v>
+      </c>
+      <c r="BT26">
+        <v>0</v>
+      </c>
+      <c r="BV26">
+        <v>0</v>
+      </c>
+      <c r="BW26">
+        <v>0</v>
+      </c>
+      <c r="BX26">
+        <v>0</v>
+      </c>
+      <c r="BY26">
+        <v>0</v>
+      </c>
+      <c r="BZ26">
+        <v>0</v>
+      </c>
+      <c r="CA26">
+        <v>0</v>
+      </c>
+      <c r="CB26">
+        <v>0</v>
+      </c>
+      <c r="CC26">
+        <v>0</v>
+      </c>
+      <c r="CD26">
+        <v>0</v>
+      </c>
+      <c r="CE26">
+        <v>0</v>
+      </c>
+      <c r="CF26">
+        <v>0</v>
+      </c>
+      <c r="CG26">
+        <v>0</v>
+      </c>
+      <c r="CT26">
+        <v>0</v>
+      </c>
+      <c r="CU26">
+        <v>0</v>
+      </c>
+      <c r="CV26">
+        <v>0</v>
+      </c>
+      <c r="CW26">
+        <v>0</v>
+      </c>
+      <c r="CX26">
+        <v>0</v>
+      </c>
+      <c r="CY26">
+        <v>4</v>
+      </c>
+      <c r="CZ26">
+        <v>0</v>
+      </c>
+      <c r="DA26">
+        <v>0</v>
+      </c>
+      <c r="DB26">
+        <v>0</v>
+      </c>
+      <c r="DC26">
+        <v>0</v>
+      </c>
+      <c r="DD26">
+        <v>0</v>
+      </c>
+      <c r="DE26">
+        <v>0</v>
+      </c>
+      <c r="DF26">
+        <v>0</v>
+      </c>
+      <c r="DG26">
+        <v>0</v>
+      </c>
+      <c r="DH26">
+        <v>0</v>
+      </c>
+      <c r="DJ26">
+        <v>0</v>
+      </c>
+      <c r="DK26">
+        <v>0</v>
+      </c>
+      <c r="DL26">
+        <v>0</v>
+      </c>
+      <c r="DM26">
+        <v>0</v>
+      </c>
+      <c r="DN26">
+        <v>0</v>
+      </c>
+      <c r="DP26">
+        <v>0</v>
+      </c>
+      <c r="DQ26">
+        <v>0</v>
+      </c>
+      <c r="DR26">
+        <v>0</v>
+      </c>
+      <c r="DS26">
+        <v>0</v>
+      </c>
+      <c r="DT26">
+        <v>0</v>
+      </c>
+      <c r="DU26">
+        <v>0</v>
+      </c>
+      <c r="DV26">
+        <v>0</v>
+      </c>
+      <c r="DW26">
+        <v>0</v>
+      </c>
+      <c r="DX26" t="s">
+        <v>457</v>
+      </c>
+      <c r="DY26" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ26">
+        <v>0</v>
+      </c>
+      <c r="EA26">
+        <v>0</v>
+      </c>
+      <c r="EB26">
+        <v>20220401</v>
+      </c>
+      <c r="EC26">
+        <v>99999999</v>
+      </c>
+      <c r="ED26">
+        <v>0</v>
+      </c>
+      <c r="EE26">
+        <v>0</v>
+      </c>
+      <c r="EF26">
+        <v>0</v>
+      </c>
+      <c r="EG26">
+        <v>0</v>
+      </c>
+      <c r="EH26">
+        <v>0</v>
+      </c>
+      <c r="EI26">
+        <v>0</v>
+      </c>
+      <c r="EJ26">
+        <v>0</v>
+      </c>
+      <c r="EK26">
+        <v>0</v>
+      </c>
+      <c r="EL26">
+        <v>0</v>
+      </c>
+      <c r="EM26">
+        <v>0</v>
+      </c>
+      <c r="EN26">
+        <v>0</v>
+      </c>
+      <c r="EO26">
+        <v>0</v>
+      </c>
+      <c r="EP26" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ26">
+        <v>0</v>
+      </c>
+      <c r="ER26">
+        <v>0</v>
+      </c>
+      <c r="ES26">
+        <v>0</v>
+      </c>
+      <c r="ET26">
+        <v>0</v>
+      </c>
+      <c r="EU26">
+        <v>0</v>
+      </c>
+      <c r="EV26">
+        <v>1</v>
+      </c>
+      <c r="EW26">
+        <v>0</v>
+      </c>
+      <c r="EX26">
+        <v>620001936</v>
+      </c>
+      <c r="EY26">
+        <v>0</v>
+      </c>
+      <c r="FA26">
+        <v>0</v>
+      </c>
+      <c r="FD26">
+        <v>0</v>
+      </c>
+      <c r="FE26">
+        <v>0</v>
+      </c>
+      <c r="FF26">
+        <v>0</v>
+      </c>
+      <c r="FG26">
+        <v>0</v>
+      </c>
+      <c r="FH26">
+        <v>0</v>
+      </c>
+      <c r="FI26">
+        <v>0</v>
+      </c>
+      <c r="FJ26">
+        <v>0</v>
+      </c>
+      <c r="FK26">
+        <v>0</v>
+      </c>
+      <c r="FL26">
+        <v>0</v>
+      </c>
+      <c r="FM26">
+        <v>0</v>
+      </c>
+      <c r="FN26">
+        <v>0</v>
+      </c>
+      <c r="FO26" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FP26">
+        <v>0</v>
+      </c>
+      <c r="FR26" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FS26">
+        <v>0</v>
+      </c>
+      <c r="FU26">
+        <v>0</v>
+      </c>
+      <c r="FV26">
+        <v>0</v>
+      </c>
+      <c r="FW26">
+        <v>0</v>
+      </c>
+      <c r="FX26">
+        <v>0</v>
+      </c>
+      <c r="FY26">
+        <v>0</v>
+      </c>
+      <c r="FZ26">
+        <v>0</v>
+      </c>
+      <c r="GA26">
+        <v>0</v>
+      </c>
+      <c r="GB26">
+        <v>0</v>
+      </c>
+      <c r="GC26">
+        <v>0</v>
+      </c>
+      <c r="GD26">
+        <v>0</v>
+      </c>
+      <c r="GE26">
+        <v>0</v>
+      </c>
+      <c r="GF26">
+        <v>0</v>
+      </c>
+      <c r="GG26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:189">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>461</v>
+      </c>
+      <c r="C27">
+        <v>20220401</v>
+      </c>
+      <c r="D27">
+        <v>99999999</v>
+      </c>
+      <c r="E27" t="s">
+        <v>230</v>
+      </c>
+      <c r="F27">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>364</v>
+      </c>
+      <c r="H27" t="s">
+        <v>371</v>
+      </c>
+      <c r="P27" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>343</v>
+      </c>
+      <c r="S27">
+        <v>47</v>
+      </c>
+      <c r="T27" t="s">
+        <v>279</v>
+      </c>
+      <c r="U27" t="s">
+        <v>279</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>0</v>
+      </c>
+      <c r="BK27">
+        <v>0</v>
+      </c>
+      <c r="BL27">
+        <v>0</v>
+      </c>
+      <c r="BM27">
+        <v>0</v>
+      </c>
+      <c r="BN27">
+        <v>0</v>
+      </c>
+      <c r="BO27">
+        <v>0</v>
+      </c>
+      <c r="BP27">
+        <v>0</v>
+      </c>
+      <c r="BQ27">
+        <v>0</v>
+      </c>
+      <c r="BR27">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>0</v>
+      </c>
+      <c r="BT27">
+        <v>0</v>
+      </c>
+      <c r="BV27">
+        <v>0</v>
+      </c>
+      <c r="BW27">
+        <v>0</v>
+      </c>
+      <c r="BX27">
+        <v>0</v>
+      </c>
+      <c r="BY27">
+        <v>0</v>
+      </c>
+      <c r="BZ27">
+        <v>0</v>
+      </c>
+      <c r="CA27">
+        <v>0</v>
+      </c>
+      <c r="CB27">
+        <v>0</v>
+      </c>
+      <c r="CC27">
+        <v>0</v>
+      </c>
+      <c r="CD27">
+        <v>0</v>
+      </c>
+      <c r="CE27">
+        <v>0</v>
+      </c>
+      <c r="CF27">
+        <v>0</v>
+      </c>
+      <c r="CG27">
+        <v>0</v>
+      </c>
+      <c r="CT27">
+        <v>0</v>
+      </c>
+      <c r="CU27">
+        <v>0</v>
+      </c>
+      <c r="CV27">
+        <v>0</v>
+      </c>
+      <c r="CW27">
+        <v>0</v>
+      </c>
+      <c r="CX27">
+        <v>0</v>
+      </c>
+      <c r="CY27">
+        <v>4</v>
+      </c>
+      <c r="CZ27">
+        <v>0</v>
+      </c>
+      <c r="DA27">
+        <v>0</v>
+      </c>
+      <c r="DB27">
+        <v>0</v>
+      </c>
+      <c r="DC27">
+        <v>0</v>
+      </c>
+      <c r="DD27">
+        <v>0</v>
+      </c>
+      <c r="DE27">
+        <v>0</v>
+      </c>
+      <c r="DF27">
+        <v>0</v>
+      </c>
+      <c r="DG27">
+        <v>0</v>
+      </c>
+      <c r="DH27">
+        <v>0</v>
+      </c>
+      <c r="DJ27">
+        <v>0</v>
+      </c>
+      <c r="DK27">
+        <v>0</v>
+      </c>
+      <c r="DL27">
+        <v>0</v>
+      </c>
+      <c r="DM27">
+        <v>0</v>
+      </c>
+      <c r="DN27">
+        <v>0</v>
+      </c>
+      <c r="DP27">
+        <v>0</v>
+      </c>
+      <c r="DQ27">
+        <v>0</v>
+      </c>
+      <c r="DR27">
+        <v>0</v>
+      </c>
+      <c r="DS27">
+        <v>0</v>
+      </c>
+      <c r="DT27">
+        <v>0</v>
+      </c>
+      <c r="DU27">
+        <v>0</v>
+      </c>
+      <c r="DV27">
+        <v>0</v>
+      </c>
+      <c r="DW27">
+        <v>0</v>
+      </c>
+      <c r="DX27" t="s">
+        <v>459</v>
+      </c>
+      <c r="DY27" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ27">
+        <v>0</v>
+      </c>
+      <c r="EA27">
+        <v>0</v>
+      </c>
+      <c r="EB27">
+        <v>20220401</v>
+      </c>
+      <c r="EC27">
+        <v>99999999</v>
+      </c>
+      <c r="ED27">
+        <v>0</v>
+      </c>
+      <c r="EE27">
+        <v>0</v>
+      </c>
+      <c r="EF27">
+        <v>0</v>
+      </c>
+      <c r="EG27">
+        <v>0</v>
+      </c>
+      <c r="EH27">
+        <v>0</v>
+      </c>
+      <c r="EI27">
+        <v>0</v>
+      </c>
+      <c r="EJ27">
+        <v>0</v>
+      </c>
+      <c r="EK27">
+        <v>0</v>
+      </c>
+      <c r="EL27">
+        <v>0</v>
+      </c>
+      <c r="EM27">
+        <v>0</v>
+      </c>
+      <c r="EN27">
+        <v>0</v>
+      </c>
+      <c r="EO27">
+        <v>0</v>
+      </c>
+      <c r="EP27" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ27">
+        <v>0</v>
+      </c>
+      <c r="ER27">
+        <v>0</v>
+      </c>
+      <c r="ES27">
+        <v>0</v>
+      </c>
+      <c r="ET27">
+        <v>0</v>
+      </c>
+      <c r="EU27">
+        <v>0</v>
+      </c>
+      <c r="EV27">
+        <v>1</v>
+      </c>
+      <c r="EW27">
+        <v>0</v>
+      </c>
+      <c r="EX27">
+        <v>620001936</v>
+      </c>
+      <c r="EY27">
+        <v>0</v>
+      </c>
+      <c r="FA27">
+        <v>0</v>
+      </c>
+      <c r="FD27">
+        <v>0</v>
+      </c>
+      <c r="FE27">
+        <v>0</v>
+      </c>
+      <c r="FF27">
+        <v>0</v>
+      </c>
+      <c r="FG27">
+        <v>0</v>
+      </c>
+      <c r="FH27">
+        <v>0</v>
+      </c>
+      <c r="FI27">
+        <v>0</v>
+      </c>
+      <c r="FJ27">
+        <v>0</v>
+      </c>
+      <c r="FK27">
+        <v>0</v>
+      </c>
+      <c r="FL27">
+        <v>0</v>
+      </c>
+      <c r="FM27">
+        <v>0</v>
+      </c>
+      <c r="FN27">
+        <v>0</v>
+      </c>
+      <c r="FO27" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FP27">
+        <v>0</v>
+      </c>
+      <c r="FR27" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FS27">
+        <v>0</v>
+      </c>
+      <c r="FU27">
+        <v>0</v>
+      </c>
+      <c r="FV27">
+        <v>0</v>
+      </c>
+      <c r="FW27">
+        <v>0</v>
+      </c>
+      <c r="FX27">
+        <v>0</v>
+      </c>
+      <c r="FY27">
+        <v>0</v>
+      </c>
+      <c r="FZ27">
+        <v>0</v>
+      </c>
+      <c r="GA27">
+        <v>0</v>
+      </c>
+      <c r="GB27">
+        <v>0</v>
+      </c>
+      <c r="GC27">
+        <v>0</v>
+      </c>
+      <c r="GD27">
+        <v>0</v>
+      </c>
+      <c r="GE27">
+        <v>0</v>
+      </c>
+      <c r="GF27">
+        <v>0</v>
+      </c>
+      <c r="GG27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:189">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>470</v>
+      </c>
+      <c r="C28">
+        <v>20220401</v>
+      </c>
+      <c r="D28">
+        <v>99999999</v>
+      </c>
+      <c r="E28" t="s">
+        <v>230</v>
+      </c>
+      <c r="F28">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>364</v>
+      </c>
+      <c r="H28" t="s">
+        <v>371</v>
+      </c>
+      <c r="P28" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>343</v>
+      </c>
+      <c r="S28">
+        <v>47</v>
+      </c>
+      <c r="T28" t="s">
+        <v>279</v>
+      </c>
+      <c r="U28" t="s">
+        <v>279</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <v>0</v>
+      </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>0</v>
+      </c>
+      <c r="BL28">
+        <v>0</v>
+      </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+      <c r="BN28">
+        <v>0</v>
+      </c>
+      <c r="BO28">
+        <v>0</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
+      <c r="BQ28">
+        <v>0</v>
+      </c>
+      <c r="BR28">
+        <v>0</v>
+      </c>
+      <c r="BS28">
+        <v>0</v>
+      </c>
+      <c r="BT28">
+        <v>0</v>
+      </c>
+      <c r="BV28">
+        <v>0</v>
+      </c>
+      <c r="BW28">
+        <v>0</v>
+      </c>
+      <c r="BX28">
+        <v>0</v>
+      </c>
+      <c r="BY28">
+        <v>0</v>
+      </c>
+      <c r="BZ28">
+        <v>0</v>
+      </c>
+      <c r="CA28">
+        <v>0</v>
+      </c>
+      <c r="CB28">
+        <v>0</v>
+      </c>
+      <c r="CC28">
+        <v>0</v>
+      </c>
+      <c r="CD28">
+        <v>0</v>
+      </c>
+      <c r="CE28">
+        <v>0</v>
+      </c>
+      <c r="CF28">
+        <v>0</v>
+      </c>
+      <c r="CG28">
+        <v>0</v>
+      </c>
+      <c r="CT28">
+        <v>0</v>
+      </c>
+      <c r="CU28">
+        <v>0</v>
+      </c>
+      <c r="CV28">
+        <v>0</v>
+      </c>
+      <c r="CW28">
+        <v>0</v>
+      </c>
+      <c r="CX28">
+        <v>0</v>
+      </c>
+      <c r="CY28">
+        <v>4</v>
+      </c>
+      <c r="CZ28">
+        <v>0</v>
+      </c>
+      <c r="DA28">
+        <v>0</v>
+      </c>
+      <c r="DB28">
+        <v>0</v>
+      </c>
+      <c r="DC28">
+        <v>0</v>
+      </c>
+      <c r="DD28">
+        <v>0</v>
+      </c>
+      <c r="DE28">
+        <v>0</v>
+      </c>
+      <c r="DF28">
+        <v>0</v>
+      </c>
+      <c r="DG28">
+        <v>0</v>
+      </c>
+      <c r="DH28">
+        <v>0</v>
+      </c>
+      <c r="DJ28">
+        <v>0</v>
+      </c>
+      <c r="DK28">
+        <v>0</v>
+      </c>
+      <c r="DL28">
+        <v>0</v>
+      </c>
+      <c r="DM28">
+        <v>0</v>
+      </c>
+      <c r="DN28">
+        <v>0</v>
+      </c>
+      <c r="DP28">
+        <v>0</v>
+      </c>
+      <c r="DQ28">
+        <v>0</v>
+      </c>
+      <c r="DR28">
+        <v>0</v>
+      </c>
+      <c r="DS28">
+        <v>0</v>
+      </c>
+      <c r="DT28">
+        <v>0</v>
+      </c>
+      <c r="DU28">
+        <v>0</v>
+      </c>
+      <c r="DV28">
+        <v>0</v>
+      </c>
+      <c r="DW28">
+        <v>0</v>
+      </c>
+      <c r="DX28" t="s">
+        <v>469</v>
+      </c>
+      <c r="DY28" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ28">
+        <v>0</v>
+      </c>
+      <c r="EA28">
+        <v>0</v>
+      </c>
+      <c r="EB28">
+        <v>20220401</v>
+      </c>
+      <c r="EC28">
+        <v>99999999</v>
+      </c>
+      <c r="ED28">
+        <v>0</v>
+      </c>
+      <c r="EE28">
+        <v>0</v>
+      </c>
+      <c r="EF28">
+        <v>0</v>
+      </c>
+      <c r="EG28">
+        <v>0</v>
+      </c>
+      <c r="EH28">
+        <v>0</v>
+      </c>
+      <c r="EI28">
+        <v>0</v>
+      </c>
+      <c r="EJ28">
+        <v>0</v>
+      </c>
+      <c r="EK28">
+        <v>0</v>
+      </c>
+      <c r="EL28">
+        <v>0</v>
+      </c>
+      <c r="EM28">
+        <v>0</v>
+      </c>
+      <c r="EN28">
+        <v>0</v>
+      </c>
+      <c r="EO28">
+        <v>0</v>
+      </c>
+      <c r="EP28" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ28">
+        <v>0</v>
+      </c>
+      <c r="ER28">
+        <v>0</v>
+      </c>
+      <c r="ES28">
+        <v>0</v>
+      </c>
+      <c r="ET28">
+        <v>0</v>
+      </c>
+      <c r="EU28">
+        <v>0</v>
+      </c>
+      <c r="EV28">
+        <v>1</v>
+      </c>
+      <c r="EW28">
+        <v>0</v>
+      </c>
+      <c r="EX28">
+        <v>620001936</v>
+      </c>
+      <c r="EY28">
+        <v>0</v>
+      </c>
+      <c r="FA28">
+        <v>0</v>
+      </c>
+      <c r="FD28">
+        <v>0</v>
+      </c>
+      <c r="FE28">
+        <v>0</v>
+      </c>
+      <c r="FF28">
+        <v>0</v>
+      </c>
+      <c r="FG28">
+        <v>0</v>
+      </c>
+      <c r="FH28">
+        <v>0</v>
+      </c>
+      <c r="FI28">
+        <v>0</v>
+      </c>
+      <c r="FJ28">
+        <v>0</v>
+      </c>
+      <c r="FK28">
+        <v>0</v>
+      </c>
+      <c r="FL28">
+        <v>0</v>
+      </c>
+      <c r="FM28">
+        <v>0</v>
+      </c>
+      <c r="FN28">
+        <v>0</v>
+      </c>
+      <c r="FO28" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FP28">
+        <v>0</v>
+      </c>
+      <c r="FR28" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FS28">
+        <v>0</v>
+      </c>
+      <c r="FU28">
+        <v>0</v>
+      </c>
+      <c r="FV28">
+        <v>0</v>
+      </c>
+      <c r="FW28">
+        <v>0</v>
+      </c>
+      <c r="FX28">
+        <v>0</v>
+      </c>
+      <c r="FY28">
+        <v>0</v>
+      </c>
+      <c r="FZ28">
+        <v>0</v>
+      </c>
+      <c r="GA28">
+        <v>0</v>
+      </c>
+      <c r="GB28">
+        <v>0</v>
+      </c>
+      <c r="GC28">
+        <v>0</v>
+      </c>
+      <c r="GD28">
+        <v>0</v>
+      </c>
+      <c r="GE28">
+        <v>0</v>
+      </c>
+      <c r="GF28">
+        <v>0</v>
+      </c>
+      <c r="GG28">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69915254237288138" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15097,10 +18607,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15146,19 +18656,22 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>429</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>430</v>
-      </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -15169,7 +18682,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -15179,6 +18692,155 @@
       </c>
       <c r="F3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -15330,10 +18992,263 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>440</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>445</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>445</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>458</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="A3:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15350,29 +19265,29 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -15380,12 +19295,144 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15506,7 +19553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
@@ -15652,7 +19699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -15683,41 +19730,6 @@
       </c>
       <c r="B2" t="s">
         <v>391</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B2" t="s">
-        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -16025,6 +20037,41 @@
       </c>
       <c r="H12" t="s">
         <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20196" windowHeight="7548" tabRatio="961" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20196" windowHeight="7548" tabRatio="882" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="484">
   <si>
     <t>HP_ID</t>
   </si>
@@ -1461,13 +1461,52 @@
   </si>
   <si>
     <t>UT2708</t>
+  </si>
+  <si>
+    <t>UT2709</t>
+  </si>
+  <si>
+    <t>UT271016</t>
+  </si>
+  <si>
+    <t>UT2710</t>
+  </si>
+  <si>
+    <t>UT271017</t>
+  </si>
+  <si>
+    <t>UT271018</t>
+  </si>
+  <si>
+    <t>UT271019</t>
+  </si>
+  <si>
+    <t>UT2711</t>
+  </si>
+  <si>
+    <t>UT2712</t>
+  </si>
+  <si>
+    <t>UT271020</t>
+  </si>
+  <si>
+    <t>UT2713</t>
+  </si>
+  <si>
+    <t>UT271021</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>UT2714</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1618,6 +1657,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1962,12 +2009,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="47" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4408,10 +4457,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GG28"/>
+  <dimension ref="A1:GG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="DM1" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="DW28" sqref="DW28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17917,6 +17966,2916 @@
         <v>0</v>
       </c>
       <c r="GG28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:189">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>471</v>
+      </c>
+      <c r="C29">
+        <v>20220401</v>
+      </c>
+      <c r="D29">
+        <v>99999999</v>
+      </c>
+      <c r="E29" t="s">
+        <v>230</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>364</v>
+      </c>
+      <c r="H29" t="s">
+        <v>371</v>
+      </c>
+      <c r="P29" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>343</v>
+      </c>
+      <c r="S29">
+        <v>47</v>
+      </c>
+      <c r="T29" t="s">
+        <v>279</v>
+      </c>
+      <c r="U29" t="s">
+        <v>279</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29">
+        <v>0</v>
+      </c>
+      <c r="BJ29">
+        <v>0</v>
+      </c>
+      <c r="BK29">
+        <v>0</v>
+      </c>
+      <c r="BL29">
+        <v>0</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>0</v>
+      </c>
+      <c r="BO29">
+        <v>0</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+      <c r="BQ29">
+        <v>0</v>
+      </c>
+      <c r="BR29">
+        <v>0</v>
+      </c>
+      <c r="BS29">
+        <v>0</v>
+      </c>
+      <c r="BT29">
+        <v>0</v>
+      </c>
+      <c r="BV29">
+        <v>0</v>
+      </c>
+      <c r="BW29">
+        <v>0</v>
+      </c>
+      <c r="BX29">
+        <v>0</v>
+      </c>
+      <c r="BY29">
+        <v>0</v>
+      </c>
+      <c r="BZ29">
+        <v>0</v>
+      </c>
+      <c r="CA29">
+        <v>0</v>
+      </c>
+      <c r="CB29">
+        <v>0</v>
+      </c>
+      <c r="CC29">
+        <v>0</v>
+      </c>
+      <c r="CD29">
+        <v>0</v>
+      </c>
+      <c r="CE29">
+        <v>0</v>
+      </c>
+      <c r="CF29">
+        <v>0</v>
+      </c>
+      <c r="CG29">
+        <v>0</v>
+      </c>
+      <c r="CT29">
+        <v>0</v>
+      </c>
+      <c r="CU29">
+        <v>0</v>
+      </c>
+      <c r="CV29">
+        <v>0</v>
+      </c>
+      <c r="CW29">
+        <v>0</v>
+      </c>
+      <c r="CX29">
+        <v>0</v>
+      </c>
+      <c r="CY29">
+        <v>4</v>
+      </c>
+      <c r="CZ29">
+        <v>0</v>
+      </c>
+      <c r="DA29">
+        <v>0</v>
+      </c>
+      <c r="DB29">
+        <v>0</v>
+      </c>
+      <c r="DC29">
+        <v>0</v>
+      </c>
+      <c r="DD29">
+        <v>0</v>
+      </c>
+      <c r="DE29">
+        <v>0</v>
+      </c>
+      <c r="DF29">
+        <v>0</v>
+      </c>
+      <c r="DG29">
+        <v>0</v>
+      </c>
+      <c r="DH29">
+        <v>0</v>
+      </c>
+      <c r="DJ29">
+        <v>0</v>
+      </c>
+      <c r="DK29">
+        <v>0</v>
+      </c>
+      <c r="DL29">
+        <v>0</v>
+      </c>
+      <c r="DM29">
+        <v>0</v>
+      </c>
+      <c r="DN29">
+        <v>0</v>
+      </c>
+      <c r="DP29">
+        <v>0</v>
+      </c>
+      <c r="DQ29">
+        <v>0</v>
+      </c>
+      <c r="DR29">
+        <v>0</v>
+      </c>
+      <c r="DS29">
+        <v>0</v>
+      </c>
+      <c r="DT29">
+        <v>0</v>
+      </c>
+      <c r="DU29">
+        <v>0</v>
+      </c>
+      <c r="DV29">
+        <v>0</v>
+      </c>
+      <c r="DW29">
+        <v>0</v>
+      </c>
+      <c r="DX29" t="s">
+        <v>472</v>
+      </c>
+      <c r="DY29" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ29">
+        <v>0</v>
+      </c>
+      <c r="EA29">
+        <v>0</v>
+      </c>
+      <c r="EB29">
+        <v>20220401</v>
+      </c>
+      <c r="EC29">
+        <v>99999999</v>
+      </c>
+      <c r="ED29">
+        <v>0</v>
+      </c>
+      <c r="EE29">
+        <v>0</v>
+      </c>
+      <c r="EF29">
+        <v>0</v>
+      </c>
+      <c r="EG29">
+        <v>0</v>
+      </c>
+      <c r="EH29">
+        <v>0</v>
+      </c>
+      <c r="EI29">
+        <v>0</v>
+      </c>
+      <c r="EJ29">
+        <v>0</v>
+      </c>
+      <c r="EK29">
+        <v>0</v>
+      </c>
+      <c r="EL29">
+        <v>0</v>
+      </c>
+      <c r="EM29">
+        <v>0</v>
+      </c>
+      <c r="EN29">
+        <v>0</v>
+      </c>
+      <c r="EO29">
+        <v>0</v>
+      </c>
+      <c r="EP29" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ29">
+        <v>0</v>
+      </c>
+      <c r="ER29">
+        <v>0</v>
+      </c>
+      <c r="ES29">
+        <v>0</v>
+      </c>
+      <c r="ET29">
+        <v>0</v>
+      </c>
+      <c r="EU29">
+        <v>0</v>
+      </c>
+      <c r="EV29">
+        <v>1</v>
+      </c>
+      <c r="EW29">
+        <v>0</v>
+      </c>
+      <c r="EX29">
+        <v>620001936</v>
+      </c>
+      <c r="EY29">
+        <v>0</v>
+      </c>
+      <c r="FA29">
+        <v>0</v>
+      </c>
+      <c r="FD29">
+        <v>0</v>
+      </c>
+      <c r="FE29">
+        <v>0</v>
+      </c>
+      <c r="FF29">
+        <v>0</v>
+      </c>
+      <c r="FG29">
+        <v>0</v>
+      </c>
+      <c r="FH29">
+        <v>0</v>
+      </c>
+      <c r="FI29">
+        <v>0</v>
+      </c>
+      <c r="FJ29">
+        <v>0</v>
+      </c>
+      <c r="FK29">
+        <v>0</v>
+      </c>
+      <c r="FL29">
+        <v>0</v>
+      </c>
+      <c r="FM29">
+        <v>0</v>
+      </c>
+      <c r="FN29">
+        <v>0</v>
+      </c>
+      <c r="FO29" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FP29">
+        <v>0</v>
+      </c>
+      <c r="FR29" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FS29">
+        <v>0</v>
+      </c>
+      <c r="FU29">
+        <v>0</v>
+      </c>
+      <c r="FV29">
+        <v>0</v>
+      </c>
+      <c r="FW29">
+        <v>0</v>
+      </c>
+      <c r="FX29">
+        <v>0</v>
+      </c>
+      <c r="FY29">
+        <v>0</v>
+      </c>
+      <c r="FZ29">
+        <v>0</v>
+      </c>
+      <c r="GA29">
+        <v>0</v>
+      </c>
+      <c r="GB29">
+        <v>0</v>
+      </c>
+      <c r="GC29">
+        <v>0</v>
+      </c>
+      <c r="GD29">
+        <v>0</v>
+      </c>
+      <c r="GE29">
+        <v>0</v>
+      </c>
+      <c r="GF29">
+        <v>0</v>
+      </c>
+      <c r="GG29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:189" s="5" customFormat="1">
+      <c r="A30" s="5">
+        <v>1</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C30" s="5">
+        <v>20220401</v>
+      </c>
+      <c r="D30" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F30" s="5">
+        <v>30</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>1</v>
+      </c>
+      <c r="R30" s="5">
+        <v>343</v>
+      </c>
+      <c r="S30" s="5">
+        <v>47</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="W30" s="5">
+        <v>0</v>
+      </c>
+      <c r="X30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BH30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BO30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BS30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BV30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BY30" s="5">
+        <v>0</v>
+      </c>
+      <c r="BZ30" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA30" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB30" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC30" s="5">
+        <v>0</v>
+      </c>
+      <c r="CD30" s="5">
+        <v>0</v>
+      </c>
+      <c r="CE30" s="5">
+        <v>0</v>
+      </c>
+      <c r="CF30" s="5">
+        <v>0</v>
+      </c>
+      <c r="CG30" s="5">
+        <v>0</v>
+      </c>
+      <c r="CT30" s="5">
+        <v>0</v>
+      </c>
+      <c r="CU30" s="5">
+        <v>0</v>
+      </c>
+      <c r="CV30" s="5">
+        <v>0</v>
+      </c>
+      <c r="CW30" s="5">
+        <v>0</v>
+      </c>
+      <c r="CX30" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY30" s="5">
+        <v>4</v>
+      </c>
+      <c r="CZ30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DA30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DB30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DC30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DD30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DE30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DF30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DG30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DH30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DJ30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DK30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DL30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DM30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DN30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DP30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DQ30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DR30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DS30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DT30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DU30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DV30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DW30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DX30" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="DY30" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ30" s="5">
+        <v>0</v>
+      </c>
+      <c r="EA30" s="5">
+        <v>0</v>
+      </c>
+      <c r="EB30" s="5">
+        <v>20220401</v>
+      </c>
+      <c r="EC30" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="ED30" s="5">
+        <v>0</v>
+      </c>
+      <c r="EE30" s="5">
+        <v>0</v>
+      </c>
+      <c r="EF30" s="5">
+        <v>0</v>
+      </c>
+      <c r="EG30" s="5">
+        <v>0</v>
+      </c>
+      <c r="EH30" s="5">
+        <v>0</v>
+      </c>
+      <c r="EI30" s="5">
+        <v>0</v>
+      </c>
+      <c r="EJ30" s="5">
+        <v>0</v>
+      </c>
+      <c r="EK30" s="5">
+        <v>0</v>
+      </c>
+      <c r="EL30" s="5">
+        <v>0</v>
+      </c>
+      <c r="EM30" s="5">
+        <v>0</v>
+      </c>
+      <c r="EN30" s="5">
+        <v>0</v>
+      </c>
+      <c r="EO30" s="5">
+        <v>0</v>
+      </c>
+      <c r="EP30" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ30" s="5">
+        <v>0</v>
+      </c>
+      <c r="ER30" s="5">
+        <v>0</v>
+      </c>
+      <c r="ES30" s="5">
+        <v>0</v>
+      </c>
+      <c r="ET30" s="5">
+        <v>0</v>
+      </c>
+      <c r="EU30" s="5">
+        <v>0</v>
+      </c>
+      <c r="EV30" s="5">
+        <v>1</v>
+      </c>
+      <c r="EW30" s="5">
+        <v>0</v>
+      </c>
+      <c r="EX30" s="5">
+        <v>620001936</v>
+      </c>
+      <c r="EY30" s="5">
+        <v>0</v>
+      </c>
+      <c r="FA30" s="5">
+        <v>0</v>
+      </c>
+      <c r="FD30" s="5">
+        <v>0</v>
+      </c>
+      <c r="FE30" s="5">
+        <v>0</v>
+      </c>
+      <c r="FF30" s="5">
+        <v>0</v>
+      </c>
+      <c r="FG30" s="5">
+        <v>0</v>
+      </c>
+      <c r="FH30" s="5">
+        <v>0</v>
+      </c>
+      <c r="FI30" s="5">
+        <v>0</v>
+      </c>
+      <c r="FJ30" s="5">
+        <v>0</v>
+      </c>
+      <c r="FK30" s="5">
+        <v>0</v>
+      </c>
+      <c r="FL30" s="5">
+        <v>0</v>
+      </c>
+      <c r="FM30" s="5">
+        <v>0</v>
+      </c>
+      <c r="FN30" s="5">
+        <v>0</v>
+      </c>
+      <c r="FO30" s="6">
+        <v>44627</v>
+      </c>
+      <c r="FP30" s="5">
+        <v>0</v>
+      </c>
+      <c r="FR30" s="6">
+        <v>44627</v>
+      </c>
+      <c r="FS30" s="5">
+        <v>0</v>
+      </c>
+      <c r="FU30" s="5">
+        <v>0</v>
+      </c>
+      <c r="FV30" s="5">
+        <v>0</v>
+      </c>
+      <c r="FW30" s="5">
+        <v>0</v>
+      </c>
+      <c r="FX30" s="5">
+        <v>0</v>
+      </c>
+      <c r="FY30" s="5">
+        <v>0</v>
+      </c>
+      <c r="FZ30" s="5">
+        <v>0</v>
+      </c>
+      <c r="GA30" s="5">
+        <v>0</v>
+      </c>
+      <c r="GB30" s="5">
+        <v>0</v>
+      </c>
+      <c r="GC30" s="5">
+        <v>0</v>
+      </c>
+      <c r="GD30" s="5">
+        <v>0</v>
+      </c>
+      <c r="GE30" s="5">
+        <v>0</v>
+      </c>
+      <c r="GF30" s="5">
+        <v>0</v>
+      </c>
+      <c r="GG30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:189">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>477</v>
+      </c>
+      <c r="C31">
+        <v>20220401</v>
+      </c>
+      <c r="D31">
+        <v>99999999</v>
+      </c>
+      <c r="E31" t="s">
+        <v>230</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>364</v>
+      </c>
+      <c r="H31" t="s">
+        <v>371</v>
+      </c>
+      <c r="P31" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>343</v>
+      </c>
+      <c r="S31">
+        <v>47</v>
+      </c>
+      <c r="T31" t="s">
+        <v>279</v>
+      </c>
+      <c r="U31" t="s">
+        <v>279</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>0</v>
+      </c>
+      <c r="BG31">
+        <v>0</v>
+      </c>
+      <c r="BH31">
+        <v>0</v>
+      </c>
+      <c r="BI31">
+        <v>0</v>
+      </c>
+      <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BK31">
+        <v>0</v>
+      </c>
+      <c r="BL31">
+        <v>0</v>
+      </c>
+      <c r="BM31">
+        <v>0</v>
+      </c>
+      <c r="BN31">
+        <v>0</v>
+      </c>
+      <c r="BO31">
+        <v>0</v>
+      </c>
+      <c r="BP31">
+        <v>0</v>
+      </c>
+      <c r="BQ31">
+        <v>0</v>
+      </c>
+      <c r="BR31">
+        <v>0</v>
+      </c>
+      <c r="BS31">
+        <v>0</v>
+      </c>
+      <c r="BT31">
+        <v>0</v>
+      </c>
+      <c r="BV31">
+        <v>0</v>
+      </c>
+      <c r="BW31">
+        <v>0</v>
+      </c>
+      <c r="BX31">
+        <v>0</v>
+      </c>
+      <c r="BY31">
+        <v>0</v>
+      </c>
+      <c r="BZ31">
+        <v>0</v>
+      </c>
+      <c r="CA31">
+        <v>0</v>
+      </c>
+      <c r="CB31">
+        <v>0</v>
+      </c>
+      <c r="CC31">
+        <v>0</v>
+      </c>
+      <c r="CD31">
+        <v>0</v>
+      </c>
+      <c r="CE31">
+        <v>0</v>
+      </c>
+      <c r="CF31">
+        <v>0</v>
+      </c>
+      <c r="CG31">
+        <v>0</v>
+      </c>
+      <c r="CT31">
+        <v>0</v>
+      </c>
+      <c r="CU31">
+        <v>0</v>
+      </c>
+      <c r="CV31">
+        <v>0</v>
+      </c>
+      <c r="CW31">
+        <v>0</v>
+      </c>
+      <c r="CX31">
+        <v>0</v>
+      </c>
+      <c r="CY31">
+        <v>4</v>
+      </c>
+      <c r="CZ31">
+        <v>0</v>
+      </c>
+      <c r="DA31">
+        <v>0</v>
+      </c>
+      <c r="DB31">
+        <v>0</v>
+      </c>
+      <c r="DC31">
+        <v>0</v>
+      </c>
+      <c r="DD31">
+        <v>0</v>
+      </c>
+      <c r="DE31">
+        <v>0</v>
+      </c>
+      <c r="DF31">
+        <v>0</v>
+      </c>
+      <c r="DG31">
+        <v>0</v>
+      </c>
+      <c r="DH31">
+        <v>0</v>
+      </c>
+      <c r="DJ31">
+        <v>0</v>
+      </c>
+      <c r="DK31">
+        <v>0</v>
+      </c>
+      <c r="DL31">
+        <v>0</v>
+      </c>
+      <c r="DM31">
+        <v>0</v>
+      </c>
+      <c r="DN31">
+        <v>0</v>
+      </c>
+      <c r="DP31">
+        <v>0</v>
+      </c>
+      <c r="DQ31">
+        <v>0</v>
+      </c>
+      <c r="DR31">
+        <v>0</v>
+      </c>
+      <c r="DS31">
+        <v>0</v>
+      </c>
+      <c r="DT31">
+        <v>0</v>
+      </c>
+      <c r="DU31">
+        <v>0</v>
+      </c>
+      <c r="DV31">
+        <v>0</v>
+      </c>
+      <c r="DW31">
+        <v>0</v>
+      </c>
+      <c r="DX31" t="s">
+        <v>475</v>
+      </c>
+      <c r="DY31" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ31">
+        <v>0</v>
+      </c>
+      <c r="EA31">
+        <v>0</v>
+      </c>
+      <c r="EB31">
+        <v>20220401</v>
+      </c>
+      <c r="EC31">
+        <v>99999999</v>
+      </c>
+      <c r="ED31">
+        <v>0</v>
+      </c>
+      <c r="EE31">
+        <v>0</v>
+      </c>
+      <c r="EF31">
+        <v>0</v>
+      </c>
+      <c r="EG31">
+        <v>0</v>
+      </c>
+      <c r="EH31">
+        <v>0</v>
+      </c>
+      <c r="EI31">
+        <v>0</v>
+      </c>
+      <c r="EJ31">
+        <v>0</v>
+      </c>
+      <c r="EK31">
+        <v>0</v>
+      </c>
+      <c r="EL31">
+        <v>0</v>
+      </c>
+      <c r="EM31">
+        <v>0</v>
+      </c>
+      <c r="EN31">
+        <v>0</v>
+      </c>
+      <c r="EO31">
+        <v>0</v>
+      </c>
+      <c r="EP31" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ31">
+        <v>0</v>
+      </c>
+      <c r="ER31">
+        <v>0</v>
+      </c>
+      <c r="ES31">
+        <v>0</v>
+      </c>
+      <c r="ET31">
+        <v>0</v>
+      </c>
+      <c r="EU31">
+        <v>0</v>
+      </c>
+      <c r="EV31">
+        <v>1</v>
+      </c>
+      <c r="EW31">
+        <v>0</v>
+      </c>
+      <c r="EX31">
+        <v>620001936</v>
+      </c>
+      <c r="EY31">
+        <v>0</v>
+      </c>
+      <c r="FA31">
+        <v>0</v>
+      </c>
+      <c r="FD31">
+        <v>0</v>
+      </c>
+      <c r="FE31">
+        <v>0</v>
+      </c>
+      <c r="FF31">
+        <v>0</v>
+      </c>
+      <c r="FG31">
+        <v>0</v>
+      </c>
+      <c r="FH31">
+        <v>0</v>
+      </c>
+      <c r="FI31">
+        <v>0</v>
+      </c>
+      <c r="FJ31">
+        <v>0</v>
+      </c>
+      <c r="FK31">
+        <v>0</v>
+      </c>
+      <c r="FL31">
+        <v>0</v>
+      </c>
+      <c r="FM31">
+        <v>0</v>
+      </c>
+      <c r="FN31">
+        <v>0</v>
+      </c>
+      <c r="FO31" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FP31">
+        <v>0</v>
+      </c>
+      <c r="FR31" s="1">
+        <v>44627</v>
+      </c>
+      <c r="FS31">
+        <v>0</v>
+      </c>
+      <c r="FU31">
+        <v>0</v>
+      </c>
+      <c r="FV31">
+        <v>0</v>
+      </c>
+      <c r="FW31">
+        <v>0</v>
+      </c>
+      <c r="FX31">
+        <v>0</v>
+      </c>
+      <c r="FY31">
+        <v>0</v>
+      </c>
+      <c r="FZ31">
+        <v>0</v>
+      </c>
+      <c r="GA31">
+        <v>0</v>
+      </c>
+      <c r="GB31">
+        <v>0</v>
+      </c>
+      <c r="GC31">
+        <v>0</v>
+      </c>
+      <c r="GD31">
+        <v>0</v>
+      </c>
+      <c r="GE31">
+        <v>0</v>
+      </c>
+      <c r="GF31">
+        <v>0</v>
+      </c>
+      <c r="GG31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:189" s="5" customFormat="1">
+      <c r="A32" s="5">
+        <v>1</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C32" s="5">
+        <v>20220401</v>
+      </c>
+      <c r="D32" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="5">
+        <v>30</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>1</v>
+      </c>
+      <c r="R32" s="5">
+        <v>343</v>
+      </c>
+      <c r="S32" s="5">
+        <v>47</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="W32" s="5">
+        <v>0</v>
+      </c>
+      <c r="X32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BH32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BO32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BS32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BV32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BY32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BZ32" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA32" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB32" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC32" s="5">
+        <v>0</v>
+      </c>
+      <c r="CD32" s="5">
+        <v>0</v>
+      </c>
+      <c r="CE32" s="5">
+        <v>0</v>
+      </c>
+      <c r="CF32" s="5">
+        <v>0</v>
+      </c>
+      <c r="CG32" s="5">
+        <v>0</v>
+      </c>
+      <c r="CT32" s="5">
+        <v>0</v>
+      </c>
+      <c r="CU32" s="5">
+        <v>0</v>
+      </c>
+      <c r="CV32" s="5">
+        <v>0</v>
+      </c>
+      <c r="CW32" s="5">
+        <v>0</v>
+      </c>
+      <c r="CX32" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY32" s="5">
+        <v>4</v>
+      </c>
+      <c r="CZ32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DA32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DB32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DC32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DD32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DE32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DF32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DG32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DH32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DJ32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DK32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DL32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DM32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DN32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DP32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DQ32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DR32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DS32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DT32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DU32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DV32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DW32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DX32" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="DY32" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ32" s="5">
+        <v>0</v>
+      </c>
+      <c r="EA32" s="5">
+        <v>0</v>
+      </c>
+      <c r="EB32" s="5">
+        <v>20220401</v>
+      </c>
+      <c r="EC32" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="ED32" s="5">
+        <v>0</v>
+      </c>
+      <c r="EE32" s="5">
+        <v>0</v>
+      </c>
+      <c r="EF32" s="5">
+        <v>0</v>
+      </c>
+      <c r="EG32" s="5">
+        <v>0</v>
+      </c>
+      <c r="EH32" s="5">
+        <v>0</v>
+      </c>
+      <c r="EI32" s="5">
+        <v>0</v>
+      </c>
+      <c r="EJ32" s="5">
+        <v>0</v>
+      </c>
+      <c r="EK32" s="5">
+        <v>0</v>
+      </c>
+      <c r="EL32" s="5">
+        <v>0</v>
+      </c>
+      <c r="EM32" s="5">
+        <v>0</v>
+      </c>
+      <c r="EN32" s="5">
+        <v>0</v>
+      </c>
+      <c r="EO32" s="5">
+        <v>0</v>
+      </c>
+      <c r="EP32" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ32" s="5">
+        <v>0</v>
+      </c>
+      <c r="ER32" s="5">
+        <v>0</v>
+      </c>
+      <c r="ES32" s="5">
+        <v>0</v>
+      </c>
+      <c r="ET32" s="5">
+        <v>0</v>
+      </c>
+      <c r="EU32" s="5">
+        <v>0</v>
+      </c>
+      <c r="EV32" s="5">
+        <v>1</v>
+      </c>
+      <c r="EW32" s="5">
+        <v>0</v>
+      </c>
+      <c r="EX32" s="5">
+        <v>620001936</v>
+      </c>
+      <c r="EY32" s="5">
+        <v>0</v>
+      </c>
+      <c r="FA32" s="5">
+        <v>0</v>
+      </c>
+      <c r="FD32" s="5">
+        <v>0</v>
+      </c>
+      <c r="FE32" s="5">
+        <v>0</v>
+      </c>
+      <c r="FF32" s="5">
+        <v>0</v>
+      </c>
+      <c r="FG32" s="5">
+        <v>0</v>
+      </c>
+      <c r="FH32" s="5">
+        <v>0</v>
+      </c>
+      <c r="FI32" s="5">
+        <v>0</v>
+      </c>
+      <c r="FJ32" s="5">
+        <v>0</v>
+      </c>
+      <c r="FK32" s="5">
+        <v>0</v>
+      </c>
+      <c r="FL32" s="5">
+        <v>0</v>
+      </c>
+      <c r="FM32" s="5">
+        <v>0</v>
+      </c>
+      <c r="FN32" s="5">
+        <v>0</v>
+      </c>
+      <c r="FO32" s="6">
+        <v>44627</v>
+      </c>
+      <c r="FP32" s="5">
+        <v>0</v>
+      </c>
+      <c r="FR32" s="6">
+        <v>44627</v>
+      </c>
+      <c r="FS32" s="5">
+        <v>0</v>
+      </c>
+      <c r="FU32" s="5">
+        <v>0</v>
+      </c>
+      <c r="FV32" s="5">
+        <v>0</v>
+      </c>
+      <c r="FW32" s="5">
+        <v>0</v>
+      </c>
+      <c r="FX32" s="5">
+        <v>0</v>
+      </c>
+      <c r="FY32" s="5">
+        <v>0</v>
+      </c>
+      <c r="FZ32" s="5">
+        <v>0</v>
+      </c>
+      <c r="GA32" s="5">
+        <v>0</v>
+      </c>
+      <c r="GB32" s="5">
+        <v>0</v>
+      </c>
+      <c r="GC32" s="5">
+        <v>0</v>
+      </c>
+      <c r="GD32" s="5">
+        <v>0</v>
+      </c>
+      <c r="GE32" s="5">
+        <v>0</v>
+      </c>
+      <c r="GF32" s="5">
+        <v>0</v>
+      </c>
+      <c r="GG32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:189" s="5" customFormat="1">
+      <c r="A33" s="5">
+        <v>1</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C33" s="5">
+        <v>20220401</v>
+      </c>
+      <c r="D33" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F33" s="5">
+        <v>30</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>1</v>
+      </c>
+      <c r="R33" s="5">
+        <v>343</v>
+      </c>
+      <c r="S33" s="5">
+        <v>47</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="W33" s="5">
+        <v>0</v>
+      </c>
+      <c r="X33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BH33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BO33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BS33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BV33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BY33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BZ33" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA33" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB33" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC33" s="5">
+        <v>0</v>
+      </c>
+      <c r="CD33" s="5">
+        <v>0</v>
+      </c>
+      <c r="CE33" s="5">
+        <v>0</v>
+      </c>
+      <c r="CF33" s="5">
+        <v>0</v>
+      </c>
+      <c r="CG33" s="5">
+        <v>0</v>
+      </c>
+      <c r="CT33" s="5">
+        <v>0</v>
+      </c>
+      <c r="CU33" s="5">
+        <v>0</v>
+      </c>
+      <c r="CV33" s="5">
+        <v>0</v>
+      </c>
+      <c r="CW33" s="5">
+        <v>0</v>
+      </c>
+      <c r="CX33" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY33" s="5">
+        <v>4</v>
+      </c>
+      <c r="CZ33" s="5">
+        <v>0</v>
+      </c>
+      <c r="DA33" s="5">
+        <v>0</v>
+      </c>
+      <c r="DB33" s="5">
+        <v>0</v>
+      </c>
+      <c r="DC33" s="5">
+        <v>0</v>
+      </c>
+      <c r="DD33" s="5">
+        <v>0</v>
+      </c>
+      <c r="DE33" s="5">
+        <v>0</v>
+      </c>
+      <c r="DF33" s="5">
+        <v>0</v>
+      </c>
+      <c r="DG33" s="5">
+        <v>0</v>
+      </c>
+      <c r="DH33" s="5">
+        <v>0</v>
+      </c>
+      <c r="DJ33" s="5">
+        <v>0</v>
+      </c>
+      <c r="DK33" s="5">
+        <v>0</v>
+      </c>
+      <c r="DL33" s="5">
+        <v>0</v>
+      </c>
+      <c r="DM33" s="5">
+        <v>0</v>
+      </c>
+      <c r="DN33" s="5">
+        <v>0</v>
+      </c>
+      <c r="DP33" s="5">
+        <v>0</v>
+      </c>
+      <c r="DQ33" s="5">
+        <v>0</v>
+      </c>
+      <c r="DR33" s="5">
+        <v>0</v>
+      </c>
+      <c r="DS33" s="5">
+        <v>0</v>
+      </c>
+      <c r="DT33" s="5">
+        <v>0</v>
+      </c>
+      <c r="DU33" s="5">
+        <v>0</v>
+      </c>
+      <c r="DV33" s="5">
+        <v>0</v>
+      </c>
+      <c r="DW33" s="5">
+        <v>0</v>
+      </c>
+      <c r="DX33" t="s">
+        <v>479</v>
+      </c>
+      <c r="DY33" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ33" s="5">
+        <v>0</v>
+      </c>
+      <c r="EA33" s="5">
+        <v>0</v>
+      </c>
+      <c r="EB33" s="5">
+        <v>20220401</v>
+      </c>
+      <c r="EC33" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="ED33" s="5">
+        <v>0</v>
+      </c>
+      <c r="EE33" s="5">
+        <v>0</v>
+      </c>
+      <c r="EF33" s="5">
+        <v>0</v>
+      </c>
+      <c r="EG33" s="5">
+        <v>0</v>
+      </c>
+      <c r="EH33" s="5">
+        <v>0</v>
+      </c>
+      <c r="EI33" s="5">
+        <v>0</v>
+      </c>
+      <c r="EJ33" s="5">
+        <v>0</v>
+      </c>
+      <c r="EK33" s="5">
+        <v>0</v>
+      </c>
+      <c r="EL33" s="5">
+        <v>0</v>
+      </c>
+      <c r="EM33" s="5">
+        <v>0</v>
+      </c>
+      <c r="EN33" s="5">
+        <v>0</v>
+      </c>
+      <c r="EO33" s="5">
+        <v>0</v>
+      </c>
+      <c r="EP33" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ33" s="5">
+        <v>0</v>
+      </c>
+      <c r="ER33" s="5">
+        <v>0</v>
+      </c>
+      <c r="ES33" s="5">
+        <v>0</v>
+      </c>
+      <c r="ET33" s="5">
+        <v>0</v>
+      </c>
+      <c r="EU33" s="5">
+        <v>0</v>
+      </c>
+      <c r="EV33" s="5">
+        <v>1</v>
+      </c>
+      <c r="EW33" s="5">
+        <v>0</v>
+      </c>
+      <c r="EX33" s="5">
+        <v>620001936</v>
+      </c>
+      <c r="EY33" s="5">
+        <v>0</v>
+      </c>
+      <c r="FA33" s="5">
+        <v>0</v>
+      </c>
+      <c r="FD33" s="5">
+        <v>0</v>
+      </c>
+      <c r="FE33" s="5">
+        <v>0</v>
+      </c>
+      <c r="FF33" s="5">
+        <v>0</v>
+      </c>
+      <c r="FG33" s="5">
+        <v>0</v>
+      </c>
+      <c r="FH33" s="5">
+        <v>0</v>
+      </c>
+      <c r="FI33" s="5">
+        <v>0</v>
+      </c>
+      <c r="FJ33" s="5">
+        <v>0</v>
+      </c>
+      <c r="FK33" s="5">
+        <v>0</v>
+      </c>
+      <c r="FL33" s="5">
+        <v>0</v>
+      </c>
+      <c r="FM33" s="5">
+        <v>0</v>
+      </c>
+      <c r="FN33" s="5">
+        <v>0</v>
+      </c>
+      <c r="FO33" s="6">
+        <v>44627</v>
+      </c>
+      <c r="FP33" s="5">
+        <v>0</v>
+      </c>
+      <c r="FR33" s="6">
+        <v>44627</v>
+      </c>
+      <c r="FS33" s="5">
+        <v>0</v>
+      </c>
+      <c r="FU33" s="5">
+        <v>0</v>
+      </c>
+      <c r="FV33" s="5">
+        <v>0</v>
+      </c>
+      <c r="FW33" s="5">
+        <v>0</v>
+      </c>
+      <c r="FX33" s="5">
+        <v>0</v>
+      </c>
+      <c r="FY33" s="5">
+        <v>0</v>
+      </c>
+      <c r="FZ33" s="5">
+        <v>0</v>
+      </c>
+      <c r="GA33" s="5">
+        <v>0</v>
+      </c>
+      <c r="GB33" s="5">
+        <v>0</v>
+      </c>
+      <c r="GC33" s="5">
+        <v>0</v>
+      </c>
+      <c r="GD33" s="5">
+        <v>0</v>
+      </c>
+      <c r="GE33" s="5">
+        <v>0</v>
+      </c>
+      <c r="GF33" s="5">
+        <v>0</v>
+      </c>
+      <c r="GG33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:189" s="5" customFormat="1">
+      <c r="A34" s="5">
+        <v>1</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C34" s="5">
+        <v>20220401</v>
+      </c>
+      <c r="D34" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F34" s="5">
+        <v>30</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>1</v>
+      </c>
+      <c r="R34" s="5">
+        <v>343</v>
+      </c>
+      <c r="S34" s="5">
+        <v>47</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="W34" s="5">
+        <v>0</v>
+      </c>
+      <c r="X34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BH34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BO34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BS34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BV34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BY34" s="5">
+        <v>0</v>
+      </c>
+      <c r="BZ34" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA34" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB34" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC34" s="5">
+        <v>0</v>
+      </c>
+      <c r="CD34" s="5">
+        <v>0</v>
+      </c>
+      <c r="CE34" s="5">
+        <v>0</v>
+      </c>
+      <c r="CF34" s="5">
+        <v>0</v>
+      </c>
+      <c r="CG34" s="5">
+        <v>0</v>
+      </c>
+      <c r="CT34" s="5">
+        <v>0</v>
+      </c>
+      <c r="CU34" s="5">
+        <v>0</v>
+      </c>
+      <c r="CV34" s="5">
+        <v>0</v>
+      </c>
+      <c r="CW34" s="5">
+        <v>0</v>
+      </c>
+      <c r="CX34" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY34" s="5">
+        <v>4</v>
+      </c>
+      <c r="CZ34" s="5">
+        <v>0</v>
+      </c>
+      <c r="DA34" s="5">
+        <v>0</v>
+      </c>
+      <c r="DB34" s="5">
+        <v>0</v>
+      </c>
+      <c r="DC34" s="5">
+        <v>0</v>
+      </c>
+      <c r="DD34" s="5">
+        <v>0</v>
+      </c>
+      <c r="DE34" s="5">
+        <v>0</v>
+      </c>
+      <c r="DF34" s="5">
+        <v>0</v>
+      </c>
+      <c r="DG34" s="5">
+        <v>0</v>
+      </c>
+      <c r="DH34" s="5">
+        <v>0</v>
+      </c>
+      <c r="DJ34" s="5">
+        <v>0</v>
+      </c>
+      <c r="DK34" s="5">
+        <v>0</v>
+      </c>
+      <c r="DL34" s="5">
+        <v>0</v>
+      </c>
+      <c r="DM34" s="5">
+        <v>0</v>
+      </c>
+      <c r="DN34" s="5">
+        <v>0</v>
+      </c>
+      <c r="DP34" s="5">
+        <v>0</v>
+      </c>
+      <c r="DQ34" s="5">
+        <v>0</v>
+      </c>
+      <c r="DR34" s="5">
+        <v>0</v>
+      </c>
+      <c r="DS34" s="5">
+        <v>0</v>
+      </c>
+      <c r="DT34" s="5">
+        <v>0</v>
+      </c>
+      <c r="DU34" s="5">
+        <v>0</v>
+      </c>
+      <c r="DV34" s="5">
+        <v>0</v>
+      </c>
+      <c r="DW34" s="5">
+        <v>0</v>
+      </c>
+      <c r="DX34" t="s">
+        <v>481</v>
+      </c>
+      <c r="DY34" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ34" s="5">
+        <v>0</v>
+      </c>
+      <c r="EA34" s="5">
+        <v>0</v>
+      </c>
+      <c r="EB34" s="5">
+        <v>20220401</v>
+      </c>
+      <c r="EC34" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="ED34" s="5">
+        <v>0</v>
+      </c>
+      <c r="EE34" s="5">
+        <v>0</v>
+      </c>
+      <c r="EF34" s="5">
+        <v>0</v>
+      </c>
+      <c r="EG34" s="5">
+        <v>0</v>
+      </c>
+      <c r="EH34" s="5">
+        <v>0</v>
+      </c>
+      <c r="EI34" s="5">
+        <v>0</v>
+      </c>
+      <c r="EJ34" s="5">
+        <v>0</v>
+      </c>
+      <c r="EK34" s="5">
+        <v>0</v>
+      </c>
+      <c r="EL34" s="5">
+        <v>0</v>
+      </c>
+      <c r="EM34" s="5">
+        <v>0</v>
+      </c>
+      <c r="EN34" s="5">
+        <v>0</v>
+      </c>
+      <c r="EO34" s="5">
+        <v>0</v>
+      </c>
+      <c r="EP34" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ34" s="5">
+        <v>0</v>
+      </c>
+      <c r="ER34" s="5">
+        <v>0</v>
+      </c>
+      <c r="ES34" s="5">
+        <v>0</v>
+      </c>
+      <c r="ET34" s="5">
+        <v>0</v>
+      </c>
+      <c r="EU34" s="5">
+        <v>0</v>
+      </c>
+      <c r="EV34" s="5">
+        <v>1</v>
+      </c>
+      <c r="EW34" s="5">
+        <v>0</v>
+      </c>
+      <c r="EX34" s="5">
+        <v>620001936</v>
+      </c>
+      <c r="EY34" s="5">
+        <v>0</v>
+      </c>
+      <c r="FA34" s="5">
+        <v>0</v>
+      </c>
+      <c r="FD34" s="5">
+        <v>0</v>
+      </c>
+      <c r="FE34" s="5">
+        <v>0</v>
+      </c>
+      <c r="FF34" s="5">
+        <v>0</v>
+      </c>
+      <c r="FG34" s="5">
+        <v>0</v>
+      </c>
+      <c r="FH34" s="5">
+        <v>0</v>
+      </c>
+      <c r="FI34" s="5">
+        <v>0</v>
+      </c>
+      <c r="FJ34" s="5">
+        <v>0</v>
+      </c>
+      <c r="FK34" s="5">
+        <v>0</v>
+      </c>
+      <c r="FL34" s="5">
+        <v>0</v>
+      </c>
+      <c r="FM34" s="5">
+        <v>0</v>
+      </c>
+      <c r="FN34" s="5">
+        <v>0</v>
+      </c>
+      <c r="FO34" s="6">
+        <v>44627</v>
+      </c>
+      <c r="FP34" s="5">
+        <v>0</v>
+      </c>
+      <c r="FR34" s="6">
+        <v>44627</v>
+      </c>
+      <c r="FS34" s="5">
+        <v>0</v>
+      </c>
+      <c r="FU34" s="5">
+        <v>0</v>
+      </c>
+      <c r="FV34" s="5">
+        <v>0</v>
+      </c>
+      <c r="FW34" s="5">
+        <v>0</v>
+      </c>
+      <c r="FX34" s="5">
+        <v>0</v>
+      </c>
+      <c r="FY34" s="5">
+        <v>0</v>
+      </c>
+      <c r="FZ34" s="5">
+        <v>0</v>
+      </c>
+      <c r="GA34" s="5">
+        <v>0</v>
+      </c>
+      <c r="GB34" s="5">
+        <v>0</v>
+      </c>
+      <c r="GC34" s="5">
+        <v>0</v>
+      </c>
+      <c r="GD34" s="5">
+        <v>0</v>
+      </c>
+      <c r="GE34" s="5">
+        <v>0</v>
+      </c>
+      <c r="GF34" s="5">
+        <v>0</v>
+      </c>
+      <c r="GG34" s="5">
         <v>0</v>
       </c>
     </row>
@@ -18607,10 +21566,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18840,6 +21799,126 @@
         <v>0</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>472</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>429</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>474</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>429</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>475</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>429</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>476</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>429</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>479</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>429</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>481</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C16" t="s">
+        <v>429</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
     </row>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20196" windowHeight="7548" tabRatio="882" firstSheet="13" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20196" windowHeight="7548" tabRatio="882" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -4460,7 +4460,7 @@
   <dimension ref="A1:GG34"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21059,7 +21059,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21568,7 +21568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -21931,8 +21931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="A15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22821,7 +22821,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\emr-cloud-be\CloudTest\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\emr-cloud-be\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20196" windowHeight="7548" tabRatio="882" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20196" windowHeight="7548" tabRatio="882" firstSheet="22" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="493">
   <si>
     <t>HP_ID</t>
   </si>
@@ -1500,6 +1500,33 @@
   </si>
   <si>
     <t>UT2714</t>
+  </si>
+  <si>
+    <t>UT2715</t>
+  </si>
+  <si>
+    <t>UT2716</t>
+  </si>
+  <si>
+    <t>UT271022</t>
+  </si>
+  <si>
+    <t>UT271023</t>
+  </si>
+  <si>
+    <t>UT2717</t>
+  </si>
+  <si>
+    <t>UT2718</t>
+  </si>
+  <si>
+    <t>UT271024</t>
+  </si>
+  <si>
+    <t>UT271025</t>
+  </si>
+  <si>
+    <t>UT27102</t>
   </si>
 </sst>
 </file>
@@ -4457,10 +4484,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GG34"/>
+  <dimension ref="A1:GG38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="DH1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="DV28" sqref="DV28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20876,6 +20903,1946 @@
         <v>0</v>
       </c>
       <c r="GG34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:189" s="5" customFormat="1">
+      <c r="A35" s="5">
+        <v>1</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C35" s="5">
+        <v>20220401</v>
+      </c>
+      <c r="D35" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F35" s="5">
+        <v>30</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>1</v>
+      </c>
+      <c r="R35" s="5">
+        <v>343</v>
+      </c>
+      <c r="S35" s="5">
+        <v>47</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="U35" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="W35" s="5">
+        <v>0</v>
+      </c>
+      <c r="X35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BH35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BO35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BS35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BV35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BY35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BZ35" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA35" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB35" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC35" s="5">
+        <v>0</v>
+      </c>
+      <c r="CD35" s="5">
+        <v>0</v>
+      </c>
+      <c r="CE35" s="5">
+        <v>0</v>
+      </c>
+      <c r="CF35" s="5">
+        <v>0</v>
+      </c>
+      <c r="CG35" s="5">
+        <v>0</v>
+      </c>
+      <c r="CT35" s="5">
+        <v>0</v>
+      </c>
+      <c r="CU35" s="5">
+        <v>0</v>
+      </c>
+      <c r="CV35" s="5">
+        <v>0</v>
+      </c>
+      <c r="CW35" s="5">
+        <v>0</v>
+      </c>
+      <c r="CX35" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY35" s="5">
+        <v>4</v>
+      </c>
+      <c r="CZ35" s="5">
+        <v>0</v>
+      </c>
+      <c r="DA35" s="5">
+        <v>0</v>
+      </c>
+      <c r="DB35" s="5">
+        <v>0</v>
+      </c>
+      <c r="DC35" s="5">
+        <v>0</v>
+      </c>
+      <c r="DD35" s="5">
+        <v>0</v>
+      </c>
+      <c r="DE35" s="5">
+        <v>0</v>
+      </c>
+      <c r="DF35" s="5">
+        <v>0</v>
+      </c>
+      <c r="DG35" s="5">
+        <v>0</v>
+      </c>
+      <c r="DH35" s="5">
+        <v>0</v>
+      </c>
+      <c r="DJ35" s="5">
+        <v>0</v>
+      </c>
+      <c r="DK35" s="5">
+        <v>0</v>
+      </c>
+      <c r="DL35" s="5">
+        <v>0</v>
+      </c>
+      <c r="DM35" s="5">
+        <v>0</v>
+      </c>
+      <c r="DN35" s="5">
+        <v>0</v>
+      </c>
+      <c r="DP35" s="5">
+        <v>0</v>
+      </c>
+      <c r="DQ35" s="5">
+        <v>0</v>
+      </c>
+      <c r="DR35" s="5">
+        <v>0</v>
+      </c>
+      <c r="DS35" s="5">
+        <v>0</v>
+      </c>
+      <c r="DT35" s="5">
+        <v>0</v>
+      </c>
+      <c r="DU35" s="5">
+        <v>0</v>
+      </c>
+      <c r="DV35" s="5">
+        <v>0</v>
+      </c>
+      <c r="DW35" s="5">
+        <v>0</v>
+      </c>
+      <c r="DX35" t="s">
+        <v>486</v>
+      </c>
+      <c r="DY35" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ35" s="5">
+        <v>0</v>
+      </c>
+      <c r="EA35" s="5">
+        <v>0</v>
+      </c>
+      <c r="EB35" s="5">
+        <v>20220401</v>
+      </c>
+      <c r="EC35" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="ED35" s="5">
+        <v>0</v>
+      </c>
+      <c r="EE35" s="5">
+        <v>0</v>
+      </c>
+      <c r="EF35" s="5">
+        <v>0</v>
+      </c>
+      <c r="EG35" s="5">
+        <v>0</v>
+      </c>
+      <c r="EH35" s="5">
+        <v>0</v>
+      </c>
+      <c r="EI35" s="5">
+        <v>0</v>
+      </c>
+      <c r="EJ35" s="5">
+        <v>0</v>
+      </c>
+      <c r="EK35" s="5">
+        <v>0</v>
+      </c>
+      <c r="EL35" s="5">
+        <v>0</v>
+      </c>
+      <c r="EM35" s="5">
+        <v>0</v>
+      </c>
+      <c r="EN35" s="5">
+        <v>0</v>
+      </c>
+      <c r="EO35" s="5">
+        <v>0</v>
+      </c>
+      <c r="EP35" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ35" s="5">
+        <v>0</v>
+      </c>
+      <c r="ER35" s="5">
+        <v>0</v>
+      </c>
+      <c r="ES35" s="5">
+        <v>0</v>
+      </c>
+      <c r="ET35" s="5">
+        <v>0</v>
+      </c>
+      <c r="EU35" s="5">
+        <v>0</v>
+      </c>
+      <c r="EV35" s="5">
+        <v>1</v>
+      </c>
+      <c r="EW35" s="5">
+        <v>0</v>
+      </c>
+      <c r="EX35" s="5">
+        <v>620001936</v>
+      </c>
+      <c r="EY35" s="5">
+        <v>0</v>
+      </c>
+      <c r="FA35" s="5">
+        <v>0</v>
+      </c>
+      <c r="FD35" s="5">
+        <v>0</v>
+      </c>
+      <c r="FE35" s="5">
+        <v>0</v>
+      </c>
+      <c r="FF35" s="5">
+        <v>0</v>
+      </c>
+      <c r="FG35" s="5">
+        <v>0</v>
+      </c>
+      <c r="FH35" s="5">
+        <v>0</v>
+      </c>
+      <c r="FI35" s="5">
+        <v>0</v>
+      </c>
+      <c r="FJ35" s="5">
+        <v>0</v>
+      </c>
+      <c r="FK35" s="5">
+        <v>0</v>
+      </c>
+      <c r="FL35" s="5">
+        <v>0</v>
+      </c>
+      <c r="FM35" s="5">
+        <v>0</v>
+      </c>
+      <c r="FN35" s="5">
+        <v>0</v>
+      </c>
+      <c r="FO35" s="6">
+        <v>44627</v>
+      </c>
+      <c r="FP35" s="5">
+        <v>0</v>
+      </c>
+      <c r="FR35" s="6">
+        <v>44627</v>
+      </c>
+      <c r="FS35" s="5">
+        <v>0</v>
+      </c>
+      <c r="FU35" s="5">
+        <v>0</v>
+      </c>
+      <c r="FV35" s="5">
+        <v>0</v>
+      </c>
+      <c r="FW35" s="5">
+        <v>0</v>
+      </c>
+      <c r="FX35" s="5">
+        <v>0</v>
+      </c>
+      <c r="FY35" s="5">
+        <v>0</v>
+      </c>
+      <c r="FZ35" s="5">
+        <v>0</v>
+      </c>
+      <c r="GA35" s="5">
+        <v>0</v>
+      </c>
+      <c r="GB35" s="5">
+        <v>0</v>
+      </c>
+      <c r="GC35" s="5">
+        <v>0</v>
+      </c>
+      <c r="GD35" s="5">
+        <v>0</v>
+      </c>
+      <c r="GE35" s="5">
+        <v>0</v>
+      </c>
+      <c r="GF35" s="5">
+        <v>0</v>
+      </c>
+      <c r="GG35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:189" s="5" customFormat="1">
+      <c r="A36" s="5">
+        <v>1</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C36" s="5">
+        <v>20220401</v>
+      </c>
+      <c r="D36" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F36" s="5">
+        <v>30</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>1</v>
+      </c>
+      <c r="R36" s="5">
+        <v>343</v>
+      </c>
+      <c r="S36" s="5">
+        <v>47</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="W36" s="5">
+        <v>0</v>
+      </c>
+      <c r="X36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BH36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BO36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BS36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BV36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BY36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BZ36" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA36" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB36" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC36" s="5">
+        <v>0</v>
+      </c>
+      <c r="CD36" s="5">
+        <v>0</v>
+      </c>
+      <c r="CE36" s="5">
+        <v>0</v>
+      </c>
+      <c r="CF36" s="5">
+        <v>0</v>
+      </c>
+      <c r="CG36" s="5">
+        <v>0</v>
+      </c>
+      <c r="CT36" s="5">
+        <v>0</v>
+      </c>
+      <c r="CU36" s="5">
+        <v>0</v>
+      </c>
+      <c r="CV36" s="5">
+        <v>0</v>
+      </c>
+      <c r="CW36" s="5">
+        <v>0</v>
+      </c>
+      <c r="CX36" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY36" s="5">
+        <v>4</v>
+      </c>
+      <c r="CZ36" s="5">
+        <v>0</v>
+      </c>
+      <c r="DA36" s="5">
+        <v>0</v>
+      </c>
+      <c r="DB36" s="5">
+        <v>0</v>
+      </c>
+      <c r="DC36" s="5">
+        <v>0</v>
+      </c>
+      <c r="DD36" s="5">
+        <v>0</v>
+      </c>
+      <c r="DE36" s="5">
+        <v>0</v>
+      </c>
+      <c r="DF36" s="5">
+        <v>0</v>
+      </c>
+      <c r="DG36" s="5">
+        <v>0</v>
+      </c>
+      <c r="DH36" s="5">
+        <v>0</v>
+      </c>
+      <c r="DJ36" s="5">
+        <v>0</v>
+      </c>
+      <c r="DK36" s="5">
+        <v>0</v>
+      </c>
+      <c r="DL36" s="5">
+        <v>0</v>
+      </c>
+      <c r="DM36" s="5">
+        <v>0</v>
+      </c>
+      <c r="DN36" s="5">
+        <v>0</v>
+      </c>
+      <c r="DP36" s="5">
+        <v>0</v>
+      </c>
+      <c r="DQ36" s="5">
+        <v>0</v>
+      </c>
+      <c r="DR36" s="5">
+        <v>0</v>
+      </c>
+      <c r="DS36" s="5">
+        <v>0</v>
+      </c>
+      <c r="DT36" s="5">
+        <v>0</v>
+      </c>
+      <c r="DU36" s="5">
+        <v>0</v>
+      </c>
+      <c r="DV36" s="5">
+        <v>0</v>
+      </c>
+      <c r="DW36" s="5">
+        <v>0</v>
+      </c>
+      <c r="DX36" t="s">
+        <v>487</v>
+      </c>
+      <c r="DY36" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ36" s="5">
+        <v>0</v>
+      </c>
+      <c r="EA36" s="5">
+        <v>0</v>
+      </c>
+      <c r="EB36" s="5">
+        <v>20220401</v>
+      </c>
+      <c r="EC36" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="ED36" s="5">
+        <v>0</v>
+      </c>
+      <c r="EE36" s="5">
+        <v>0</v>
+      </c>
+      <c r="EF36" s="5">
+        <v>0</v>
+      </c>
+      <c r="EG36" s="5">
+        <v>0</v>
+      </c>
+      <c r="EH36" s="5">
+        <v>0</v>
+      </c>
+      <c r="EI36" s="5">
+        <v>0</v>
+      </c>
+      <c r="EJ36" s="5">
+        <v>0</v>
+      </c>
+      <c r="EK36" s="5">
+        <v>0</v>
+      </c>
+      <c r="EL36" s="5">
+        <v>0</v>
+      </c>
+      <c r="EM36" s="5">
+        <v>0</v>
+      </c>
+      <c r="EN36" s="5">
+        <v>0</v>
+      </c>
+      <c r="EO36" s="5">
+        <v>0</v>
+      </c>
+      <c r="EP36" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ36" s="5">
+        <v>0</v>
+      </c>
+      <c r="ER36" s="5">
+        <v>0</v>
+      </c>
+      <c r="ES36" s="5">
+        <v>0</v>
+      </c>
+      <c r="ET36" s="5">
+        <v>0</v>
+      </c>
+      <c r="EU36" s="5">
+        <v>0</v>
+      </c>
+      <c r="EV36" s="5">
+        <v>1</v>
+      </c>
+      <c r="EW36" s="5">
+        <v>0</v>
+      </c>
+      <c r="EX36" s="5">
+        <v>620001936</v>
+      </c>
+      <c r="EY36" s="5">
+        <v>0</v>
+      </c>
+      <c r="FA36" s="5">
+        <v>0</v>
+      </c>
+      <c r="FD36" s="5">
+        <v>0</v>
+      </c>
+      <c r="FE36" s="5">
+        <v>0</v>
+      </c>
+      <c r="FF36" s="5">
+        <v>0</v>
+      </c>
+      <c r="FG36" s="5">
+        <v>0</v>
+      </c>
+      <c r="FH36" s="5">
+        <v>0</v>
+      </c>
+      <c r="FI36" s="5">
+        <v>0</v>
+      </c>
+      <c r="FJ36" s="5">
+        <v>0</v>
+      </c>
+      <c r="FK36" s="5">
+        <v>0</v>
+      </c>
+      <c r="FL36" s="5">
+        <v>0</v>
+      </c>
+      <c r="FM36" s="5">
+        <v>0</v>
+      </c>
+      <c r="FN36" s="5">
+        <v>0</v>
+      </c>
+      <c r="FO36" s="6">
+        <v>44627</v>
+      </c>
+      <c r="FP36" s="5">
+        <v>0</v>
+      </c>
+      <c r="FR36" s="6">
+        <v>44627</v>
+      </c>
+      <c r="FS36" s="5">
+        <v>0</v>
+      </c>
+      <c r="FU36" s="5">
+        <v>0</v>
+      </c>
+      <c r="FV36" s="5">
+        <v>0</v>
+      </c>
+      <c r="FW36" s="5">
+        <v>0</v>
+      </c>
+      <c r="FX36" s="5">
+        <v>0</v>
+      </c>
+      <c r="FY36" s="5">
+        <v>0</v>
+      </c>
+      <c r="FZ36" s="5">
+        <v>0</v>
+      </c>
+      <c r="GA36" s="5">
+        <v>0</v>
+      </c>
+      <c r="GB36" s="5">
+        <v>0</v>
+      </c>
+      <c r="GC36" s="5">
+        <v>0</v>
+      </c>
+      <c r="GD36" s="5">
+        <v>0</v>
+      </c>
+      <c r="GE36" s="5">
+        <v>0</v>
+      </c>
+      <c r="GF36" s="5">
+        <v>0</v>
+      </c>
+      <c r="GG36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:189" s="5" customFormat="1">
+      <c r="A37" s="5">
+        <v>1</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C37" s="5">
+        <v>20220401</v>
+      </c>
+      <c r="D37" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F37" s="5">
+        <v>30</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>1</v>
+      </c>
+      <c r="R37" s="5">
+        <v>343</v>
+      </c>
+      <c r="S37" s="5">
+        <v>47</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="W37" s="5">
+        <v>0</v>
+      </c>
+      <c r="X37" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BH37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BO37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BS37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BV37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BY37" s="5">
+        <v>0</v>
+      </c>
+      <c r="BZ37" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA37" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB37" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC37" s="5">
+        <v>0</v>
+      </c>
+      <c r="CD37" s="5">
+        <v>0</v>
+      </c>
+      <c r="CE37" s="5">
+        <v>0</v>
+      </c>
+      <c r="CF37" s="5">
+        <v>0</v>
+      </c>
+      <c r="CG37" s="5">
+        <v>0</v>
+      </c>
+      <c r="CT37" s="5">
+        <v>0</v>
+      </c>
+      <c r="CU37" s="5">
+        <v>0</v>
+      </c>
+      <c r="CV37" s="5">
+        <v>0</v>
+      </c>
+      <c r="CW37" s="5">
+        <v>0</v>
+      </c>
+      <c r="CX37" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY37" s="5">
+        <v>4</v>
+      </c>
+      <c r="CZ37" s="5">
+        <v>0</v>
+      </c>
+      <c r="DA37" s="5">
+        <v>0</v>
+      </c>
+      <c r="DB37" s="5">
+        <v>0</v>
+      </c>
+      <c r="DC37" s="5">
+        <v>0</v>
+      </c>
+      <c r="DD37" s="5">
+        <v>0</v>
+      </c>
+      <c r="DE37" s="5">
+        <v>0</v>
+      </c>
+      <c r="DF37" s="5">
+        <v>0</v>
+      </c>
+      <c r="DG37" s="5">
+        <v>0</v>
+      </c>
+      <c r="DH37" s="5">
+        <v>0</v>
+      </c>
+      <c r="DJ37" s="5">
+        <v>0</v>
+      </c>
+      <c r="DK37" s="5">
+        <v>0</v>
+      </c>
+      <c r="DL37" s="5">
+        <v>0</v>
+      </c>
+      <c r="DM37" s="5">
+        <v>0</v>
+      </c>
+      <c r="DN37" s="5">
+        <v>0</v>
+      </c>
+      <c r="DP37" s="5">
+        <v>0</v>
+      </c>
+      <c r="DQ37" s="5">
+        <v>0</v>
+      </c>
+      <c r="DR37" s="5">
+        <v>0</v>
+      </c>
+      <c r="DS37" s="5">
+        <v>0</v>
+      </c>
+      <c r="DT37" s="5">
+        <v>0</v>
+      </c>
+      <c r="DU37" s="5">
+        <v>0</v>
+      </c>
+      <c r="DV37" s="5">
+        <v>0</v>
+      </c>
+      <c r="DW37" s="5">
+        <v>0</v>
+      </c>
+      <c r="DX37" t="s">
+        <v>490</v>
+      </c>
+      <c r="DY37" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ37" s="5">
+        <v>0</v>
+      </c>
+      <c r="EA37" s="5">
+        <v>0</v>
+      </c>
+      <c r="EB37" s="5">
+        <v>20220401</v>
+      </c>
+      <c r="EC37" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="ED37" s="5">
+        <v>0</v>
+      </c>
+      <c r="EE37" s="5">
+        <v>0</v>
+      </c>
+      <c r="EF37" s="5">
+        <v>0</v>
+      </c>
+      <c r="EG37" s="5">
+        <v>0</v>
+      </c>
+      <c r="EH37" s="5">
+        <v>0</v>
+      </c>
+      <c r="EI37" s="5">
+        <v>0</v>
+      </c>
+      <c r="EJ37" s="5">
+        <v>0</v>
+      </c>
+      <c r="EK37" s="5">
+        <v>0</v>
+      </c>
+      <c r="EL37" s="5">
+        <v>0</v>
+      </c>
+      <c r="EM37" s="5">
+        <v>0</v>
+      </c>
+      <c r="EN37" s="5">
+        <v>0</v>
+      </c>
+      <c r="EO37" s="5">
+        <v>0</v>
+      </c>
+      <c r="EP37" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ37" s="5">
+        <v>0</v>
+      </c>
+      <c r="ER37" s="5">
+        <v>0</v>
+      </c>
+      <c r="ES37" s="5">
+        <v>0</v>
+      </c>
+      <c r="ET37" s="5">
+        <v>0</v>
+      </c>
+      <c r="EU37" s="5">
+        <v>0</v>
+      </c>
+      <c r="EV37" s="5">
+        <v>1</v>
+      </c>
+      <c r="EW37" s="5">
+        <v>0</v>
+      </c>
+      <c r="EX37" s="5">
+        <v>620001936</v>
+      </c>
+      <c r="EY37" s="5">
+        <v>0</v>
+      </c>
+      <c r="FA37" s="5">
+        <v>0</v>
+      </c>
+      <c r="FD37" s="5">
+        <v>0</v>
+      </c>
+      <c r="FE37" s="5">
+        <v>0</v>
+      </c>
+      <c r="FF37" s="5">
+        <v>0</v>
+      </c>
+      <c r="FG37" s="5">
+        <v>0</v>
+      </c>
+      <c r="FH37" s="5">
+        <v>0</v>
+      </c>
+      <c r="FI37" s="5">
+        <v>0</v>
+      </c>
+      <c r="FJ37" s="5">
+        <v>0</v>
+      </c>
+      <c r="FK37" s="5">
+        <v>0</v>
+      </c>
+      <c r="FL37" s="5">
+        <v>0</v>
+      </c>
+      <c r="FM37" s="5">
+        <v>0</v>
+      </c>
+      <c r="FN37" s="5">
+        <v>0</v>
+      </c>
+      <c r="FO37" s="6">
+        <v>44627</v>
+      </c>
+      <c r="FP37" s="5">
+        <v>0</v>
+      </c>
+      <c r="FR37" s="6">
+        <v>44627</v>
+      </c>
+      <c r="FS37" s="5">
+        <v>0</v>
+      </c>
+      <c r="FU37" s="5">
+        <v>0</v>
+      </c>
+      <c r="FV37" s="5">
+        <v>0</v>
+      </c>
+      <c r="FW37" s="5">
+        <v>0</v>
+      </c>
+      <c r="FX37" s="5">
+        <v>0</v>
+      </c>
+      <c r="FY37" s="5">
+        <v>0</v>
+      </c>
+      <c r="FZ37" s="5">
+        <v>0</v>
+      </c>
+      <c r="GA37" s="5">
+        <v>0</v>
+      </c>
+      <c r="GB37" s="5">
+        <v>0</v>
+      </c>
+      <c r="GC37" s="5">
+        <v>0</v>
+      </c>
+      <c r="GD37" s="5">
+        <v>0</v>
+      </c>
+      <c r="GE37" s="5">
+        <v>0</v>
+      </c>
+      <c r="GF37" s="5">
+        <v>0</v>
+      </c>
+      <c r="GG37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:189" s="5" customFormat="1">
+      <c r="A38" s="5">
+        <v>1</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C38" s="5">
+        <v>20220401</v>
+      </c>
+      <c r="D38" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F38" s="5">
+        <v>30</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>1</v>
+      </c>
+      <c r="R38" s="5">
+        <v>343</v>
+      </c>
+      <c r="S38" s="5">
+        <v>47</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="W38" s="5">
+        <v>0</v>
+      </c>
+      <c r="X38" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BH38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BO38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BS38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BV38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BY38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BZ38" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA38" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB38" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC38" s="5">
+        <v>0</v>
+      </c>
+      <c r="CD38" s="5">
+        <v>0</v>
+      </c>
+      <c r="CE38" s="5">
+        <v>0</v>
+      </c>
+      <c r="CF38" s="5">
+        <v>0</v>
+      </c>
+      <c r="CG38" s="5">
+        <v>0</v>
+      </c>
+      <c r="CT38" s="5">
+        <v>0</v>
+      </c>
+      <c r="CU38" s="5">
+        <v>0</v>
+      </c>
+      <c r="CV38" s="5">
+        <v>0</v>
+      </c>
+      <c r="CW38" s="5">
+        <v>0</v>
+      </c>
+      <c r="CX38" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY38" s="5">
+        <v>4</v>
+      </c>
+      <c r="CZ38" s="5">
+        <v>0</v>
+      </c>
+      <c r="DA38" s="5">
+        <v>0</v>
+      </c>
+      <c r="DB38" s="5">
+        <v>0</v>
+      </c>
+      <c r="DC38" s="5">
+        <v>0</v>
+      </c>
+      <c r="DD38" s="5">
+        <v>0</v>
+      </c>
+      <c r="DE38" s="5">
+        <v>0</v>
+      </c>
+      <c r="DF38" s="5">
+        <v>0</v>
+      </c>
+      <c r="DG38" s="5">
+        <v>0</v>
+      </c>
+      <c r="DH38" s="5">
+        <v>0</v>
+      </c>
+      <c r="DJ38" s="5">
+        <v>0</v>
+      </c>
+      <c r="DK38" s="5">
+        <v>0</v>
+      </c>
+      <c r="DL38" s="5">
+        <v>0</v>
+      </c>
+      <c r="DM38" s="5">
+        <v>0</v>
+      </c>
+      <c r="DN38" s="5">
+        <v>0</v>
+      </c>
+      <c r="DP38" s="5">
+        <v>0</v>
+      </c>
+      <c r="DQ38" s="5">
+        <v>0</v>
+      </c>
+      <c r="DR38" s="5">
+        <v>0</v>
+      </c>
+      <c r="DS38" s="5">
+        <v>0</v>
+      </c>
+      <c r="DT38" s="5">
+        <v>0</v>
+      </c>
+      <c r="DU38" s="5">
+        <v>0</v>
+      </c>
+      <c r="DV38" s="5">
+        <v>0</v>
+      </c>
+      <c r="DW38" s="5">
+        <v>0</v>
+      </c>
+      <c r="DX38" t="s">
+        <v>491</v>
+      </c>
+      <c r="DY38" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ38" s="5">
+        <v>0</v>
+      </c>
+      <c r="EA38" s="5">
+        <v>0</v>
+      </c>
+      <c r="EB38" s="5">
+        <v>20220401</v>
+      </c>
+      <c r="EC38" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="ED38" s="5">
+        <v>0</v>
+      </c>
+      <c r="EE38" s="5">
+        <v>0</v>
+      </c>
+      <c r="EF38" s="5">
+        <v>0</v>
+      </c>
+      <c r="EG38" s="5">
+        <v>0</v>
+      </c>
+      <c r="EH38" s="5">
+        <v>0</v>
+      </c>
+      <c r="EI38" s="5">
+        <v>0</v>
+      </c>
+      <c r="EJ38" s="5">
+        <v>0</v>
+      </c>
+      <c r="EK38" s="5">
+        <v>0</v>
+      </c>
+      <c r="EL38" s="5">
+        <v>0</v>
+      </c>
+      <c r="EM38" s="5">
+        <v>0</v>
+      </c>
+      <c r="EN38" s="5">
+        <v>0</v>
+      </c>
+      <c r="EO38" s="5">
+        <v>0</v>
+      </c>
+      <c r="EP38" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ38" s="5">
+        <v>0</v>
+      </c>
+      <c r="ER38" s="5">
+        <v>0</v>
+      </c>
+      <c r="ES38" s="5">
+        <v>0</v>
+      </c>
+      <c r="ET38" s="5">
+        <v>0</v>
+      </c>
+      <c r="EU38" s="5">
+        <v>0</v>
+      </c>
+      <c r="EV38" s="5">
+        <v>1</v>
+      </c>
+      <c r="EW38" s="5">
+        <v>0</v>
+      </c>
+      <c r="EX38" s="5">
+        <v>620001936</v>
+      </c>
+      <c r="EY38" s="5">
+        <v>0</v>
+      </c>
+      <c r="FA38" s="5">
+        <v>0</v>
+      </c>
+      <c r="FD38" s="5">
+        <v>0</v>
+      </c>
+      <c r="FE38" s="5">
+        <v>0</v>
+      </c>
+      <c r="FF38" s="5">
+        <v>0</v>
+      </c>
+      <c r="FG38" s="5">
+        <v>0</v>
+      </c>
+      <c r="FH38" s="5">
+        <v>0</v>
+      </c>
+      <c r="FI38" s="5">
+        <v>0</v>
+      </c>
+      <c r="FJ38" s="5">
+        <v>0</v>
+      </c>
+      <c r="FK38" s="5">
+        <v>0</v>
+      </c>
+      <c r="FL38" s="5">
+        <v>0</v>
+      </c>
+      <c r="FM38" s="5">
+        <v>0</v>
+      </c>
+      <c r="FN38" s="5">
+        <v>0</v>
+      </c>
+      <c r="FO38" s="6">
+        <v>44627</v>
+      </c>
+      <c r="FP38" s="5">
+        <v>0</v>
+      </c>
+      <c r="FR38" s="6">
+        <v>44627</v>
+      </c>
+      <c r="FS38" s="5">
+        <v>0</v>
+      </c>
+      <c r="FU38" s="5">
+        <v>0</v>
+      </c>
+      <c r="FV38" s="5">
+        <v>0</v>
+      </c>
+      <c r="FW38" s="5">
+        <v>0</v>
+      </c>
+      <c r="FX38" s="5">
+        <v>0</v>
+      </c>
+      <c r="FY38" s="5">
+        <v>0</v>
+      </c>
+      <c r="FZ38" s="5">
+        <v>0</v>
+      </c>
+      <c r="GA38" s="5">
+        <v>0</v>
+      </c>
+      <c r="GB38" s="5">
+        <v>0</v>
+      </c>
+      <c r="GC38" s="5">
+        <v>0</v>
+      </c>
+      <c r="GD38" s="5">
+        <v>0</v>
+      </c>
+      <c r="GE38" s="5">
+        <v>0</v>
+      </c>
+      <c r="GF38" s="5">
+        <v>0</v>
+      </c>
+      <c r="GG38" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21202,10 +23169,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21328,6 +23295,18 @@
       <c r="L3">
         <v>10</v>
       </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.2" customHeight="1">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.2" customHeight="1">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.2" customHeight="1">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.2" customHeight="1">
+      <c r="F7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21931,8 +23910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="A15:D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22508,10 +24487,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22624,6 +24603,46 @@
         <v>3</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
     </row>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20196" windowHeight="7548" tabRatio="882" firstSheet="22" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20196" windowHeight="7548" tabRatio="882" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="493">
   <si>
     <t>HP_ID</t>
   </si>
@@ -4486,8 +4486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GG38"/>
   <sheetViews>
-    <sheetView topLeftCell="DH1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="DV28" sqref="DV28"/>
+    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22857,7 +22857,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24489,8 +24489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25966,9 +25966,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -26123,6 +26123,50 @@
         <v>349</v>
       </c>
     </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>99999999</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>45104.430274398146</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>349</v>
+      </c>
+      <c r="N4" s="1">
+        <v>45104.430274398146</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>349</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\emr-cloud-be\CloudTest\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\emr-cloud-be\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20196" windowHeight="7548" tabRatio="882" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20196" windowHeight="7548" tabRatio="882" firstSheet="23" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="494">
   <si>
     <t>HP_ID</t>
   </si>
@@ -1527,6 +1527,9 @@
   </si>
   <si>
     <t>UT27102</t>
+  </si>
+  <si>
+    <t>UT2719</t>
   </si>
 </sst>
 </file>
@@ -4484,16 +4487,17 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GG38"/>
+  <dimension ref="A1:GG39"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="24.44140625" customWidth="1"/>
     <col min="128" max="128" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="10" bestFit="1" customWidth="1"/>
     <col min="154" max="154" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22843,6 +22847,491 @@
         <v>0</v>
       </c>
       <c r="GG38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:189" s="5" customFormat="1">
+      <c r="A39" s="5">
+        <v>1</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C39" s="5">
+        <v>20220401</v>
+      </c>
+      <c r="D39" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F39" s="5">
+        <v>30</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>1</v>
+      </c>
+      <c r="R39" s="5">
+        <v>343</v>
+      </c>
+      <c r="S39" s="5">
+        <v>47</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="W39" s="5">
+        <v>0</v>
+      </c>
+      <c r="X39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BH39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BO39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BS39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BV39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BY39" s="5">
+        <v>0</v>
+      </c>
+      <c r="BZ39" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA39" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB39" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC39" s="5">
+        <v>0</v>
+      </c>
+      <c r="CD39" s="5">
+        <v>0</v>
+      </c>
+      <c r="CE39" s="5">
+        <v>0</v>
+      </c>
+      <c r="CF39" s="5">
+        <v>0</v>
+      </c>
+      <c r="CG39" s="5">
+        <v>0</v>
+      </c>
+      <c r="CT39" s="5">
+        <v>0</v>
+      </c>
+      <c r="CU39" s="5">
+        <v>0</v>
+      </c>
+      <c r="CV39" s="5">
+        <v>0</v>
+      </c>
+      <c r="CW39" s="5">
+        <v>0</v>
+      </c>
+      <c r="CX39" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY39" s="5">
+        <v>4</v>
+      </c>
+      <c r="CZ39" s="5">
+        <v>0</v>
+      </c>
+      <c r="DA39" s="5">
+        <v>0</v>
+      </c>
+      <c r="DB39" s="5">
+        <v>0</v>
+      </c>
+      <c r="DC39" s="5">
+        <v>0</v>
+      </c>
+      <c r="DD39" s="5">
+        <v>0</v>
+      </c>
+      <c r="DE39" s="5">
+        <v>0</v>
+      </c>
+      <c r="DF39" s="5">
+        <v>0</v>
+      </c>
+      <c r="DG39" s="5">
+        <v>0</v>
+      </c>
+      <c r="DH39" s="5">
+        <v>0</v>
+      </c>
+      <c r="DJ39" s="5">
+        <v>0</v>
+      </c>
+      <c r="DK39" s="5">
+        <v>0</v>
+      </c>
+      <c r="DL39" s="5">
+        <v>0</v>
+      </c>
+      <c r="DM39" s="5">
+        <v>0</v>
+      </c>
+      <c r="DN39" s="5">
+        <v>0</v>
+      </c>
+      <c r="DP39" s="5">
+        <v>0</v>
+      </c>
+      <c r="DQ39" s="5">
+        <v>0</v>
+      </c>
+      <c r="DR39" s="5">
+        <v>0</v>
+      </c>
+      <c r="DS39" s="5">
+        <v>0</v>
+      </c>
+      <c r="DT39" s="5">
+        <v>0</v>
+      </c>
+      <c r="DU39" s="5">
+        <v>0</v>
+      </c>
+      <c r="DV39" s="5">
+        <v>0</v>
+      </c>
+      <c r="DW39" s="5">
+        <v>0</v>
+      </c>
+      <c r="DX39">
+        <v>9999999</v>
+      </c>
+      <c r="DY39" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ39" s="5">
+        <v>0</v>
+      </c>
+      <c r="EA39" s="5">
+        <v>0</v>
+      </c>
+      <c r="EB39" s="5">
+        <v>20220401</v>
+      </c>
+      <c r="EC39" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="ED39" s="5">
+        <v>0</v>
+      </c>
+      <c r="EE39" s="5">
+        <v>0</v>
+      </c>
+      <c r="EF39" s="5">
+        <v>0</v>
+      </c>
+      <c r="EG39" s="5">
+        <v>0</v>
+      </c>
+      <c r="EH39" s="5">
+        <v>0</v>
+      </c>
+      <c r="EI39" s="5">
+        <v>0</v>
+      </c>
+      <c r="EJ39" s="5">
+        <v>0</v>
+      </c>
+      <c r="EK39" s="5">
+        <v>0</v>
+      </c>
+      <c r="EL39" s="5">
+        <v>0</v>
+      </c>
+      <c r="EM39" s="5">
+        <v>0</v>
+      </c>
+      <c r="EN39" s="5">
+        <v>0</v>
+      </c>
+      <c r="EO39" s="5">
+        <v>0</v>
+      </c>
+      <c r="EP39" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ39" s="5">
+        <v>0</v>
+      </c>
+      <c r="ER39" s="5">
+        <v>0</v>
+      </c>
+      <c r="ES39" s="5">
+        <v>0</v>
+      </c>
+      <c r="ET39" s="5">
+        <v>0</v>
+      </c>
+      <c r="EU39" s="5">
+        <v>0</v>
+      </c>
+      <c r="EV39" s="5">
+        <v>1</v>
+      </c>
+      <c r="EW39" s="5">
+        <v>0</v>
+      </c>
+      <c r="EX39" s="5">
+        <v>620001936</v>
+      </c>
+      <c r="EY39" s="5">
+        <v>0</v>
+      </c>
+      <c r="FA39" s="5">
+        <v>0</v>
+      </c>
+      <c r="FD39" s="5">
+        <v>0</v>
+      </c>
+      <c r="FE39" s="5">
+        <v>0</v>
+      </c>
+      <c r="FF39" s="5">
+        <v>0</v>
+      </c>
+      <c r="FG39" s="5">
+        <v>0</v>
+      </c>
+      <c r="FH39" s="5">
+        <v>0</v>
+      </c>
+      <c r="FI39" s="5">
+        <v>0</v>
+      </c>
+      <c r="FJ39" s="5">
+        <v>0</v>
+      </c>
+      <c r="FK39" s="5">
+        <v>0</v>
+      </c>
+      <c r="FL39" s="5">
+        <v>0</v>
+      </c>
+      <c r="FM39" s="5">
+        <v>0</v>
+      </c>
+      <c r="FN39" s="5">
+        <v>0</v>
+      </c>
+      <c r="FO39" s="6">
+        <v>44627</v>
+      </c>
+      <c r="FP39" s="5">
+        <v>0</v>
+      </c>
+      <c r="FR39" s="6">
+        <v>44627</v>
+      </c>
+      <c r="FS39" s="5">
+        <v>0</v>
+      </c>
+      <c r="FU39" s="5">
+        <v>0</v>
+      </c>
+      <c r="FV39" s="5">
+        <v>0</v>
+      </c>
+      <c r="FW39" s="5">
+        <v>0</v>
+      </c>
+      <c r="FX39" s="5">
+        <v>0</v>
+      </c>
+      <c r="FY39" s="5">
+        <v>0</v>
+      </c>
+      <c r="FZ39" s="5">
+        <v>0</v>
+      </c>
+      <c r="GA39" s="5">
+        <v>0</v>
+      </c>
+      <c r="GB39" s="5">
+        <v>0</v>
+      </c>
+      <c r="GC39" s="5">
+        <v>0</v>
+      </c>
+      <c r="GD39" s="5">
+        <v>0</v>
+      </c>
+      <c r="GE39" s="5">
+        <v>0</v>
+      </c>
+      <c r="GF39" s="5">
+        <v>0</v>
+      </c>
+      <c r="GG39" s="5">
         <v>0</v>
       </c>
     </row>
@@ -24487,10 +24976,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24644,6 +25133,40 @@
       </c>
       <c r="G7">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>492</v>
+      </c>
+      <c r="B8">
+        <v>9999999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>9999999</v>
+      </c>
+      <c r="B9">
+        <v>9999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" t="s">
+        <v>387</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -25968,7 +26491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20196" windowHeight="7548" tabRatio="882" firstSheet="23" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20196" windowHeight="7548" tabRatio="882" firstSheet="22" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="494">
   <si>
     <t>HP_ID</t>
   </si>
@@ -24976,10 +24976,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C10" sqref="C10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25169,6 +25169,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B10">
+        <v>9999999</v>
+      </c>
+      <c r="C10" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10" t="s">
+        <v>387</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25179,7 +25196,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25280,6 +25297,44 @@
         <v>0</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>999</v>
+      </c>
+      <c r="B3">
+        <v>1231</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G3">
+        <v>20200101</v>
+      </c>
+      <c r="H3">
+        <v>20231212</v>
+      </c>
+      <c r="I3" t="s">
+        <v>390</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>0</v>
       </c>
     </row>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\emr-cloud-be\CloudTest\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\emr-cloud-be\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20196" windowHeight="7548" tabRatio="882" firstSheet="22" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20196" windowHeight="7548" tabRatio="882" firstSheet="25" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -39,16 +39,18 @@
     <sheet name="M56_DRUG_CLASS" sheetId="30" r:id="rId25"/>
     <sheet name="M56_EX_ANALOGUE" sheetId="31" r:id="rId26"/>
     <sheet name="M01_KINKI" sheetId="14" r:id="rId27"/>
-    <sheet name="PT_SUPPLE" sheetId="15" r:id="rId28"/>
-    <sheet name="M41_SUPPLE_INDEXDEF" sheetId="16" r:id="rId29"/>
-    <sheet name="M41_SUPPLE_INDEXCODE" sheetId="17" r:id="rId30"/>
+    <sheet name="DOSAGE_MST" sheetId="34" r:id="rId28"/>
+    <sheet name="M46_DOSAGE_DRUG" sheetId="35" r:id="rId29"/>
+    <sheet name="PT_SUPPLE" sheetId="15" r:id="rId30"/>
+    <sheet name="M41_SUPPLE_INDEXDEF" sheetId="16" r:id="rId31"/>
+    <sheet name="M41_SUPPLE_INDEXCODE" sheetId="17" r:id="rId32"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="513">
   <si>
     <t>HP_ID</t>
   </si>
@@ -1530,6 +1532,63 @@
   </si>
   <si>
     <t>UT2719</t>
+  </si>
+  <si>
+    <t>ONCE_MIN</t>
+  </si>
+  <si>
+    <t>ONCE_MAX</t>
+  </si>
+  <si>
+    <t>ONCE_LIMIT</t>
+  </si>
+  <si>
+    <t>ONCE_UNIT</t>
+  </si>
+  <si>
+    <t>DAY_MIN</t>
+  </si>
+  <si>
+    <t>DAY_MAX</t>
+  </si>
+  <si>
+    <t>DAY_LIMIT</t>
+  </si>
+  <si>
+    <t>DAY_UNIT</t>
+  </si>
+  <si>
+    <t>6163OONS12</t>
+  </si>
+  <si>
+    <t>UT2720</t>
+  </si>
+  <si>
+    <t>UT271026</t>
+  </si>
+  <si>
+    <t>DOEI_CD</t>
+  </si>
+  <si>
+    <t>KIKAKU_UNIT</t>
+  </si>
+  <si>
+    <t>YAKKA_UNIT</t>
+  </si>
+  <si>
+    <t>RIKIKA_RATE</t>
+  </si>
+  <si>
+    <t>RIKIKA_UNIT</t>
+  </si>
+  <si>
+    <t>YOUKAIEKI_CD</t>
+  </si>
+  <si>
+    <t>ï¼‘ï½ï¼¬</t>
+  </si>
+  <si>
+    <t>mL</t>
   </si>
 </sst>
 </file>
@@ -4487,10 +4546,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GG39"/>
+  <dimension ref="A1:GG40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23332,6 +23391,491 @@
         <v>0</v>
       </c>
       <c r="GG39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:189" s="5" customFormat="1">
+      <c r="A40" s="5">
+        <v>1</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C40" s="5">
+        <v>20220401</v>
+      </c>
+      <c r="D40" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F40" s="5">
+        <v>30</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>1</v>
+      </c>
+      <c r="R40" s="5">
+        <v>343</v>
+      </c>
+      <c r="S40" s="5">
+        <v>47</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="W40" s="5">
+        <v>0</v>
+      </c>
+      <c r="X40" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BH40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BO40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BS40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BV40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BY40" s="5">
+        <v>0</v>
+      </c>
+      <c r="BZ40" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA40" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB40" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC40" s="5">
+        <v>0</v>
+      </c>
+      <c r="CD40" s="5">
+        <v>0</v>
+      </c>
+      <c r="CE40" s="5">
+        <v>0</v>
+      </c>
+      <c r="CF40" s="5">
+        <v>0</v>
+      </c>
+      <c r="CG40" s="5">
+        <v>0</v>
+      </c>
+      <c r="CT40" s="5">
+        <v>0</v>
+      </c>
+      <c r="CU40" s="5">
+        <v>0</v>
+      </c>
+      <c r="CV40" s="5">
+        <v>0</v>
+      </c>
+      <c r="CW40" s="5">
+        <v>0</v>
+      </c>
+      <c r="CX40" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY40" s="5">
+        <v>4</v>
+      </c>
+      <c r="CZ40" s="5">
+        <v>0</v>
+      </c>
+      <c r="DA40" s="5">
+        <v>0</v>
+      </c>
+      <c r="DB40" s="5">
+        <v>0</v>
+      </c>
+      <c r="DC40" s="5">
+        <v>0</v>
+      </c>
+      <c r="DD40" s="5">
+        <v>0</v>
+      </c>
+      <c r="DE40" s="5">
+        <v>0</v>
+      </c>
+      <c r="DF40" s="5">
+        <v>0</v>
+      </c>
+      <c r="DG40" s="5">
+        <v>0</v>
+      </c>
+      <c r="DH40" s="5">
+        <v>0</v>
+      </c>
+      <c r="DJ40" s="5">
+        <v>0</v>
+      </c>
+      <c r="DK40" s="5">
+        <v>0</v>
+      </c>
+      <c r="DL40" s="5">
+        <v>0</v>
+      </c>
+      <c r="DM40" s="5">
+        <v>0</v>
+      </c>
+      <c r="DN40" s="5">
+        <v>0</v>
+      </c>
+      <c r="DP40" s="5">
+        <v>0</v>
+      </c>
+      <c r="DQ40" s="5">
+        <v>0</v>
+      </c>
+      <c r="DR40" s="5">
+        <v>0</v>
+      </c>
+      <c r="DS40" s="5">
+        <v>0</v>
+      </c>
+      <c r="DT40" s="5">
+        <v>0</v>
+      </c>
+      <c r="DU40" s="5">
+        <v>0</v>
+      </c>
+      <c r="DV40" s="5">
+        <v>0</v>
+      </c>
+      <c r="DW40" s="5">
+        <v>0</v>
+      </c>
+      <c r="DX40" t="s">
+        <v>504</v>
+      </c>
+      <c r="DY40" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="DZ40" s="5">
+        <v>0</v>
+      </c>
+      <c r="EA40" s="5">
+        <v>0</v>
+      </c>
+      <c r="EB40" s="5">
+        <v>20220401</v>
+      </c>
+      <c r="EC40" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="ED40" s="5">
+        <v>0</v>
+      </c>
+      <c r="EE40" s="5">
+        <v>0</v>
+      </c>
+      <c r="EF40" s="5">
+        <v>0</v>
+      </c>
+      <c r="EG40" s="5">
+        <v>0</v>
+      </c>
+      <c r="EH40" s="5">
+        <v>0</v>
+      </c>
+      <c r="EI40" s="5">
+        <v>0</v>
+      </c>
+      <c r="EJ40" s="5">
+        <v>0</v>
+      </c>
+      <c r="EK40" s="5">
+        <v>0</v>
+      </c>
+      <c r="EL40" s="5">
+        <v>0</v>
+      </c>
+      <c r="EM40" s="5">
+        <v>0</v>
+      </c>
+      <c r="EN40" s="5">
+        <v>0</v>
+      </c>
+      <c r="EO40" s="5">
+        <v>0</v>
+      </c>
+      <c r="EP40" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ40" s="5">
+        <v>0</v>
+      </c>
+      <c r="ER40" s="5">
+        <v>0</v>
+      </c>
+      <c r="ES40" s="5">
+        <v>0</v>
+      </c>
+      <c r="ET40" s="5">
+        <v>0</v>
+      </c>
+      <c r="EU40" s="5">
+        <v>0</v>
+      </c>
+      <c r="EV40" s="5">
+        <v>1</v>
+      </c>
+      <c r="EW40" s="5">
+        <v>0</v>
+      </c>
+      <c r="EX40" s="5">
+        <v>620001936</v>
+      </c>
+      <c r="EY40" s="5">
+        <v>0</v>
+      </c>
+      <c r="FA40" s="5">
+        <v>0</v>
+      </c>
+      <c r="FD40" s="5">
+        <v>0</v>
+      </c>
+      <c r="FE40" s="5">
+        <v>0</v>
+      </c>
+      <c r="FF40" s="5">
+        <v>0</v>
+      </c>
+      <c r="FG40" s="5">
+        <v>0</v>
+      </c>
+      <c r="FH40" s="5">
+        <v>0</v>
+      </c>
+      <c r="FI40" s="5">
+        <v>0</v>
+      </c>
+      <c r="FJ40" s="5">
+        <v>0</v>
+      </c>
+      <c r="FK40" s="5">
+        <v>0</v>
+      </c>
+      <c r="FL40" s="5">
+        <v>0</v>
+      </c>
+      <c r="FM40" s="5">
+        <v>0</v>
+      </c>
+      <c r="FN40" s="5">
+        <v>0</v>
+      </c>
+      <c r="FO40" s="6">
+        <v>44627</v>
+      </c>
+      <c r="FP40" s="5">
+        <v>0</v>
+      </c>
+      <c r="FR40" s="6">
+        <v>44627</v>
+      </c>
+      <c r="FS40" s="5">
+        <v>0</v>
+      </c>
+      <c r="FU40" s="5">
+        <v>0</v>
+      </c>
+      <c r="FV40" s="5">
+        <v>0</v>
+      </c>
+      <c r="FW40" s="5">
+        <v>0</v>
+      </c>
+      <c r="FX40" s="5">
+        <v>0</v>
+      </c>
+      <c r="FY40" s="5">
+        <v>0</v>
+      </c>
+      <c r="FZ40" s="5">
+        <v>0</v>
+      </c>
+      <c r="GA40" s="5">
+        <v>0</v>
+      </c>
+      <c r="GB40" s="5">
+        <v>0</v>
+      </c>
+      <c r="GC40" s="5">
+        <v>0</v>
+      </c>
+      <c r="GD40" s="5">
+        <v>0</v>
+      </c>
+      <c r="GE40" s="5">
+        <v>0</v>
+      </c>
+      <c r="GF40" s="5">
+        <v>0</v>
+      </c>
+      <c r="GG40" s="5">
         <v>0</v>
       </c>
     </row>
@@ -24978,8 +25522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25192,6 +25736,525 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J1" t="s">
+        <v>499</v>
+      </c>
+      <c r="K1" t="s">
+        <v>500</v>
+      </c>
+      <c r="L1" t="s">
+        <v>501</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2">
+        <v>9999999</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>999</v>
+      </c>
+      <c r="G2">
+        <v>999</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>41558.86886574074</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>41558.86886574074</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2">
+        <v>11127000</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>267</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>412</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
@@ -25375,7 +26438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -25413,314 +26476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>267</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>300</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>301</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>302</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>303</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>267</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>299</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>267</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>412</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>266</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\emr-cloud-be\CloudTest\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\emr-cloud-be\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20196" windowHeight="7548" tabRatio="882" firstSheet="25" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20196" windowHeight="7548" tabRatio="882" firstSheet="23" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -25522,8 +25522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25739,7 +25739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20196" windowHeight="7548" tabRatio="882" firstSheet="23" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20196" windowHeight="7548" tabRatio="882" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -4548,13 +4548,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GG40"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="7" max="7" width="62.44140625" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="133" max="133" width="10" bestFit="1" customWidth="1"/>
     <col min="154" max="154" width="24.33203125" customWidth="1"/>
@@ -23414,7 +23415,7 @@
         <v>30</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>371</v>
@@ -25522,7 +25523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\emr-cloud-be\CloudTest\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\emr-cloud-be\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20196" windowHeight="7548" tabRatio="882" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20196" windowHeight="7548" tabRatio="882" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="514">
   <si>
     <t>HP_ID</t>
   </si>
@@ -1589,6 +1589,9 @@
   </si>
   <si>
     <t>mL</t>
+  </si>
+  <si>
+    <t>ABC</t>
   </si>
 </sst>
 </file>
@@ -4548,7 +4551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GG40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -27025,10 +27028,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27145,6 +27148,53 @@
         <v>2</v>
       </c>
       <c r="P2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>999</v>
+      </c>
+      <c r="B3">
+        <v>1231</v>
+      </c>
+      <c r="C3">
+        <v>999</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F3" t="s">
+        <v>513</v>
+      </c>
+      <c r="G3">
+        <v>20200101</v>
+      </c>
+      <c r="H3">
+        <v>20250101</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>45099.442415532409</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>349</v>
+      </c>
+      <c r="N3" s="1">
+        <v>45099.442415532409</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
         <v>349</v>
       </c>
     </row>
@@ -27304,7 +27354,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BE_new\emr-cloud-be\CloudTest\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\emr-cloud-be\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301DECC1-106D-4B68-BAA6-F1888B75E6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="882" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="882" firstSheet="21" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -24,8 +23,8 @@
     <sheet name="PT_OTHER_DRUG" sheetId="11" r:id="rId9"/>
     <sheet name="PT_OTC_DRUG" sheetId="18" r:id="rId10"/>
     <sheet name="M38_INGREDIENTS" sheetId="19" r:id="rId11"/>
-    <sheet name="TEN_MST" sheetId="12" r:id="rId12"/>
-    <sheet name="M12_FOOD_ALRGY" sheetId="13" r:id="rId13"/>
+    <sheet name="M12_FOOD_ALRGY" sheetId="13" r:id="rId12"/>
+    <sheet name="TEN_MST" sheetId="12" r:id="rId13"/>
     <sheet name="M14_AGE_CHECK" sheetId="21" r:id="rId14"/>
     <sheet name="PT_KIO_REKI" sheetId="22" r:id="rId15"/>
     <sheet name="KINKI_MST" sheetId="10" r:id="rId16"/>
@@ -1601,7 +1600,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -2432,42 +2431,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" customWidth="1"/>
+    <col min="9" max="9" width="27.88671875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="26" max="26" width="8.85546875" customWidth="1"/>
-    <col min="27" max="27" width="46.5703125" customWidth="1"/>
-    <col min="28" max="28" width="28.140625" customWidth="1"/>
-    <col min="29" max="29" width="25.28515625" customWidth="1"/>
+    <col min="26" max="26" width="8.88671875" customWidth="1"/>
+    <col min="27" max="27" width="46.5546875" customWidth="1"/>
+    <col min="28" max="28" width="28.109375" customWidth="1"/>
+    <col min="29" max="29" width="25.33203125" customWidth="1"/>
     <col min="30" max="30" width="21" customWidth="1"/>
-    <col min="31" max="31" width="18.5703125" customWidth="1"/>
+    <col min="31" max="31" width="18.5546875" customWidth="1"/>
     <col min="32" max="32" width="28" customWidth="1"/>
-    <col min="33" max="33" width="17.5703125" customWidth="1"/>
-    <col min="34" max="34" width="19.7109375" customWidth="1"/>
-    <col min="35" max="35" width="19.140625" customWidth="1"/>
-    <col min="36" max="36" width="16.140625" customWidth="1"/>
-    <col min="37" max="37" width="16.42578125" customWidth="1"/>
+    <col min="33" max="33" width="17.5546875" customWidth="1"/>
+    <col min="34" max="34" width="19.6640625" customWidth="1"/>
+    <col min="35" max="35" width="19.109375" customWidth="1"/>
+    <col min="36" max="36" width="16.109375" customWidth="1"/>
+    <col min="37" max="37" width="16.44140625" customWidth="1"/>
     <col min="38" max="38" width="18" customWidth="1"/>
-    <col min="39" max="39" width="14.7109375" customWidth="1"/>
-    <col min="40" max="40" width="14.42578125" customWidth="1"/>
-    <col min="41" max="41" width="14.7109375" customWidth="1"/>
-    <col min="42" max="42" width="34.140625" customWidth="1"/>
-    <col min="44" max="44" width="13.7109375" customWidth="1"/>
-    <col min="45" max="45" width="16.42578125" customWidth="1"/>
-    <col min="47" max="47" width="13.7109375" customWidth="1"/>
+    <col min="39" max="39" width="14.6640625" customWidth="1"/>
+    <col min="40" max="40" width="14.44140625" customWidth="1"/>
+    <col min="41" max="41" width="14.6640625" customWidth="1"/>
+    <col min="42" max="42" width="34.109375" customWidth="1"/>
+    <col min="44" max="44" width="13.6640625" customWidth="1"/>
+    <col min="45" max="45" width="16.44140625" customWidth="1"/>
+    <col min="47" max="47" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -4357,19 +4356,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27.88671875" customWidth="1"/>
     <col min="11" max="11" width="30" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4508,17 +4507,17 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4550,20 +4549,101 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="46.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>610406404</v>
+      </c>
+      <c r="B2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>611170008</v>
+      </c>
+      <c r="B3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A41"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="7" max="7" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="7" max="7" width="62.44140625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="133" max="133" width="10" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="24.28515625" customWidth="1"/>
+    <col min="154" max="154" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:189">
@@ -24376,104 +24456,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:F3"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="46.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>610406404</v>
-      </c>
-      <c r="B2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>611170008</v>
-      </c>
-      <c r="B3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="107.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -24546,28 +24545,28 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5546875" customWidth="1"/>
+    <col min="15" max="15" width="19.44140625" customWidth="1"/>
+    <col min="16" max="16" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -24622,7 +24621,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B2">
         <v>1231</v>
@@ -24692,27 +24691,27 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="40.15" customHeight="1">
+    <row r="1" spans="1:12" ht="40.200000000000003" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24750,7 +24749,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="2" spans="1:12" ht="16.2" customHeight="1">
       <c r="A2">
         <v>999</v>
       </c>
@@ -24785,7 +24784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="3" spans="1:12" ht="16.2" customHeight="1">
       <c r="A3">
         <v>999</v>
       </c>
@@ -24820,16 +24819,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="4" spans="1:12" ht="16.2" customHeight="1">
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="5" spans="1:12" ht="16.2" customHeight="1">
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="6" spans="1:12" ht="16.2" customHeight="1">
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="16.149999999999999" customHeight="1">
+    <row r="7" spans="1:12" ht="16.2" customHeight="1">
       <c r="F7" s="2"/>
     </row>
   </sheetData>
@@ -24838,26 +24837,26 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1"/>
     <col min="7" max="7" width="46" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -24998,20 +24997,20 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -25068,23 +25067,23 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -25431,20 +25430,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -25573,21 +25572,21 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -25725,18 +25724,18 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -25778,18 +25777,18 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="A3:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -25826,17 +25825,17 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -25878,16 +25877,16 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -25921,18 +25920,18 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -25963,18 +25962,18 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -26010,21 +26009,21 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -26247,23 +26246,23 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -26327,7 +26326,7 @@
     </row>
     <row r="2" spans="1:19">
       <c r="B2">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>503</v>
@@ -26387,21 +26386,21 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -26459,23 +26458,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -26766,24 +26765,24 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="39" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="33.140625" customWidth="1"/>
-    <col min="9" max="9" width="37.28515625" customWidth="1"/>
-    <col min="10" max="10" width="37.5703125" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="33.109375" customWidth="1"/>
+    <col min="9" max="9" width="37.33203125" customWidth="1"/>
+    <col min="10" max="10" width="37.5546875" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+    <col min="15" max="15" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -26838,7 +26837,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="B2">
         <v>13934</v>
@@ -26950,17 +26949,17 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -26988,17 +26987,17 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -27023,19 +27022,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -27138,26 +27137,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -27290,37 +27289,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView topLeftCell="AQ1" workbookViewId="0">
       <selection activeCell="BB18" sqref="BB18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="31.88671875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1"/>
+    <col min="8" max="8" width="26.88671875" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" customWidth="1"/>
-    <col min="32" max="32" width="28.5703125" customWidth="1"/>
-    <col min="33" max="33" width="19.85546875" customWidth="1"/>
-    <col min="35" max="35" width="25.28515625" customWidth="1"/>
-    <col min="36" max="36" width="17.85546875" customWidth="1"/>
-    <col min="40" max="40" width="14.5703125" customWidth="1"/>
-    <col min="42" max="42" width="25.28515625" customWidth="1"/>
-    <col min="43" max="43" width="18.28515625" customWidth="1"/>
-    <col min="44" max="44" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.5546875" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" customWidth="1"/>
+    <col min="16" max="16" width="22.33203125" customWidth="1"/>
+    <col min="32" max="32" width="28.5546875" customWidth="1"/>
+    <col min="33" max="33" width="19.88671875" customWidth="1"/>
+    <col min="35" max="35" width="25.33203125" customWidth="1"/>
+    <col min="36" max="36" width="17.88671875" customWidth="1"/>
+    <col min="40" max="40" width="14.5546875" customWidth="1"/>
+    <col min="42" max="42" width="25.33203125" customWidth="1"/>
+    <col min="43" max="43" width="18.33203125" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
@@ -27534,31 +27533,31 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="74.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="74.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" customWidth="1"/>
-    <col min="16" max="16" width="34.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.5546875" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" customWidth="1"/>
+    <col min="16" max="16" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -27664,21 +27663,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="15" max="15" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="15" max="15" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -27810,24 +27809,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="41.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -27970,7 +27969,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="C4">
         <v>8</v>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="882" firstSheet="21" activeTab="26"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="882" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -26012,7 +26012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -27666,8 +27666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/CloudTest/SampleData/CommonCheckerTest.xlsx
+++ b/CloudTest/SampleData/CommonCheckerTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\emr-cloud-be\CloudTest\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Emr-cloud-api\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="882" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="882" firstSheet="22" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="PT_BYOMEI" sheetId="1" r:id="rId1"/>
@@ -2438,35 +2438,35 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" customWidth="1"/>
-    <col min="9" max="9" width="27.88671875" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="26" max="26" width="8.88671875" customWidth="1"/>
-    <col min="27" max="27" width="46.5546875" customWidth="1"/>
-    <col min="28" max="28" width="28.109375" customWidth="1"/>
-    <col min="29" max="29" width="25.33203125" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" customWidth="1"/>
+    <col min="27" max="27" width="46.5703125" customWidth="1"/>
+    <col min="28" max="28" width="28.140625" customWidth="1"/>
+    <col min="29" max="29" width="25.28515625" customWidth="1"/>
     <col min="30" max="30" width="21" customWidth="1"/>
-    <col min="31" max="31" width="18.5546875" customWidth="1"/>
+    <col min="31" max="31" width="18.5703125" customWidth="1"/>
     <col min="32" max="32" width="28" customWidth="1"/>
-    <col min="33" max="33" width="17.5546875" customWidth="1"/>
-    <col min="34" max="34" width="19.6640625" customWidth="1"/>
-    <col min="35" max="35" width="19.109375" customWidth="1"/>
-    <col min="36" max="36" width="16.109375" customWidth="1"/>
-    <col min="37" max="37" width="16.44140625" customWidth="1"/>
+    <col min="33" max="33" width="17.5703125" customWidth="1"/>
+    <col min="34" max="34" width="19.7109375" customWidth="1"/>
+    <col min="35" max="35" width="19.140625" customWidth="1"/>
+    <col min="36" max="36" width="16.140625" customWidth="1"/>
+    <col min="37" max="37" width="16.42578125" customWidth="1"/>
     <col min="38" max="38" width="18" customWidth="1"/>
-    <col min="39" max="39" width="14.6640625" customWidth="1"/>
-    <col min="40" max="40" width="14.44140625" customWidth="1"/>
-    <col min="41" max="41" width="14.6640625" customWidth="1"/>
-    <col min="42" max="42" width="34.109375" customWidth="1"/>
-    <col min="44" max="44" width="13.6640625" customWidth="1"/>
-    <col min="45" max="45" width="16.44140625" customWidth="1"/>
-    <col min="47" max="47" width="13.6640625" customWidth="1"/>
+    <col min="39" max="39" width="14.7109375" customWidth="1"/>
+    <col min="40" max="40" width="14.42578125" customWidth="1"/>
+    <col min="41" max="41" width="14.7109375" customWidth="1"/>
+    <col min="42" max="42" width="34.140625" customWidth="1"/>
+    <col min="44" max="44" width="13.7109375" customWidth="1"/>
+    <col min="45" max="45" width="16.42578125" customWidth="1"/>
+    <col min="47" max="47" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -4363,12 +4363,12 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="27.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1"/>
     <col min="11" max="11" width="30" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4514,10 +4514,10 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4553,15 +4553,15 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.88671875" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="46.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4633,17 +4633,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GG41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
+    <sheetView topLeftCell="G27" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="7" max="7" width="62.44140625" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="133" max="133" width="10" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="24.33203125" customWidth="1"/>
+    <col min="154" max="154" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:189">
@@ -24464,15 +24464,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="107.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -24552,21 +24552,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5546875" customWidth="1"/>
-    <col min="15" max="15" width="19.44140625" customWidth="1"/>
-    <col min="16" max="16" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -24698,20 +24698,20 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="40.200000000000003" customHeight="1">
+    <row r="1" spans="1:12" ht="40.15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24749,7 +24749,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.2" customHeight="1">
+    <row r="2" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A2">
         <v>999</v>
       </c>
@@ -24784,7 +24784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.2" customHeight="1">
+    <row r="3" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A3">
         <v>999</v>
       </c>
@@ -24819,16 +24819,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.2" customHeight="1">
+    <row r="4" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="16.2" customHeight="1">
+    <row r="5" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="16.2" customHeight="1">
+    <row r="6" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="16.2" customHeight="1">
+    <row r="7" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="F7" s="2"/>
     </row>
   </sheetData>
@@ -24844,19 +24844,19 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
     <col min="7" max="7" width="46" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -25004,13 +25004,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -25074,16 +25074,16 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -25437,13 +25437,13 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -25579,14 +25579,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -25731,11 +25731,11 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -25784,11 +25784,11 @@
       <selection activeCell="D3" sqref="A3:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -25832,10 +25832,10 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -25884,9 +25884,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -25927,11 +25927,11 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -25969,11 +25969,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -26012,18 +26012,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -26253,16 +26253,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -26393,14 +26393,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -26465,16 +26465,16 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -26772,17 +26772,17 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="39" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="8" max="8" width="33.109375" customWidth="1"/>
-    <col min="9" max="9" width="37.33203125" customWidth="1"/>
-    <col min="10" max="10" width="37.5546875" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" customWidth="1"/>
-    <col min="15" max="15" width="25.5546875" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" customWidth="1"/>
+    <col min="9" max="9" width="37.28515625" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" customWidth="1"/>
+    <col min="15" max="15" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -26956,10 +26956,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" customWidth="1"/>
-    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -26994,10 +26994,10 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -27029,12 +27029,12 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -27144,19 +27144,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -27296,30 +27296,30 @@
       <selection activeCell="BB18" sqref="BB18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="39.44140625" customWidth="1"/>
-    <col min="6" max="6" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
-    <col min="12" max="12" width="23.5546875" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" customWidth="1"/>
-    <col min="16" max="16" width="22.33203125" customWidth="1"/>
-    <col min="32" max="32" width="28.5546875" customWidth="1"/>
-    <col min="33" max="33" width="19.88671875" customWidth="1"/>
-    <col min="35" max="35" width="25.33203125" customWidth="1"/>
-    <col min="36" max="36" width="17.88671875" customWidth="1"/>
-    <col min="40" max="40" width="14.5546875" customWidth="1"/>
-    <col min="42" max="42" width="25.33203125" customWidth="1"/>
-    <col min="43" max="43" width="18.33203125" customWidth="1"/>
-    <col min="44" max="44" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" customWidth="1"/>
+    <col min="32" max="32" width="28.5703125" customWidth="1"/>
+    <col min="33" max="33" width="19.85546875" customWidth="1"/>
+    <col min="35" max="35" width="25.28515625" customWidth="1"/>
+    <col min="36" max="36" width="17.85546875" customWidth="1"/>
+    <col min="40" max="40" width="14.5703125" customWidth="1"/>
+    <col min="42" max="42" width="25.28515625" customWidth="1"/>
+    <col min="43" max="43" width="18.28515625" customWidth="1"/>
+    <col min="44" max="44" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
@@ -27540,24 +27540,24 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="74.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="74.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="19.5546875" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" customWidth="1"/>
-    <col min="16" max="16" width="34.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="16" max="16" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -27666,18 +27666,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -27816,17 +27816,17 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.5546875" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="13" max="13" width="22.33203125" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
